--- a/CVPeople.xlsx
+++ b/CVPeople.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E569C1-49BA-4710-8328-C2D8E7B36EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3549928-B144-4795-85B5-AF12FD1EA4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="1335" windowWidth="22530" windowHeight="14865" xr2:uid="{51A6B197-C127-4301-9E29-8709F9E73BF5}"/>
+    <workbookView xWindow="345" yWindow="630" windowWidth="26850" windowHeight="14865" xr2:uid="{51A6B197-C127-4301-9E29-8709F9E73BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="687">
   <si>
     <t>PEOPLE</t>
   </si>
   <si>
-    <t>NICKNAMES</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>General Rules: Follow authorized format (Last name, First name, Middle initial) in To/From Field; use authorized format when available in Other People Mentioned Field; if full name is not listed in OPM but is known, list name as it appears in letter followed by authorized name, eg.: Tile [ Amador de Terrazas, Clotilde Isabel (1880-1960)]</t>
-  </si>
-  <si>
     <t>Acebo, María</t>
   </si>
   <si>
@@ -72,24 +63,15 @@
     <t>Bill</t>
   </si>
   <si>
-    <t xml:space="preserve">Son of Maria Paulina García de Adair and William Adair </t>
-  </si>
-  <si>
     <t>Adair, William J. T. (1891-1940)</t>
   </si>
   <si>
     <t>Willie</t>
   </si>
   <si>
-    <t>Married to Maria Paulina García de Adair</t>
-  </si>
-  <si>
     <t>Aguirre, Raul Falomir</t>
   </si>
   <si>
-    <t>Governor of Jalico 1903-1911</t>
-  </si>
-  <si>
     <t>Ahumada, Miguel (1844-1917)</t>
   </si>
   <si>
@@ -102,9 +84,6 @@
     <t>Josefa Alba Garcia</t>
   </si>
   <si>
-    <t>Mother of Refugio Ruiz</t>
-  </si>
-  <si>
     <t>Allard, Juan J.</t>
   </si>
   <si>
@@ -129,75 +108,36 @@
     <t>Amador, Celso C.</t>
   </si>
   <si>
-    <t>Nephew of Martin Amador; Cousin to Amador siblings</t>
-  </si>
-  <si>
     <t>Amador, Charles John (1911-1993)</t>
   </si>
   <si>
-    <t>Son of Juan Amador and Mary Woodworth</t>
-  </si>
-  <si>
     <t>Amador Urzua, Christine</t>
   </si>
   <si>
-    <t>Amador, Maria Christine; aka Christina Amador Tucker</t>
-  </si>
-  <si>
-    <t>Daughter of Frank Amador and Maria Terrazas; born 1910?, unable to confirm birth/death dates; unable to confirm use of names</t>
-  </si>
-  <si>
     <t>Amador de Campbell, Corina (1886-1932)</t>
   </si>
   <si>
     <t>Amador de Daguerre, María Refugio (1874-1936)</t>
   </si>
   <si>
-    <t>Marillita; Miriam</t>
-  </si>
-  <si>
-    <t>Godmother of Clotilde Amador de Terrazas</t>
-  </si>
-  <si>
     <t>Amador de García, Emilia (1863-1942)</t>
   </si>
   <si>
-    <t>Emilita</t>
-  </si>
-  <si>
     <t>Amador de García, Julieta Juana (1882-1920)</t>
   </si>
   <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Child who lived the longest was named Clotilde Victorina</t>
-  </si>
-  <si>
     <t>Amador de Terrazas, Clotilde Isabel (1880-1960)</t>
   </si>
   <si>
-    <t>Tile; Tillie; Tilli; Tilly; Clot.</t>
-  </si>
-  <si>
     <t>Amador, Francisco Aurelio de Jesus (1867-1959)</t>
   </si>
   <si>
-    <t>Pancho; Poncho; Panchito; Frank</t>
-  </si>
-  <si>
     <t>Amador, Frank J., Jr. (1912-2004)</t>
   </si>
   <si>
-    <t>Son of Frank Amador and Maria Terrazas</t>
-  </si>
-  <si>
     <t>Amador, Juan Estanislado (1866-1938)</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>Amador, Joseph Edward (1906-1958)</t>
   </si>
   <si>
@@ -219,9 +159,6 @@
     <t>Hna. Clotilde</t>
   </si>
   <si>
-    <t>Spanish translation: Amador, Mary Clotilda, Hermana</t>
-  </si>
-  <si>
     <t>Amador, Oscar Woodworth (1899-1983)</t>
   </si>
   <si>
@@ -255,9 +192,6 @@
     <t>Apodaca de Bombach, AltaGracia (1868-1918)</t>
   </si>
   <si>
-    <t>Married to Charles Bombach in Las Cruces in 1892; Cousin to Amador siblings</t>
-  </si>
-  <si>
     <t>Apodaca, AltaGracia J.</t>
   </si>
   <si>
@@ -273,9 +207,6 @@
     <t>Aponte, D., Father</t>
   </si>
   <si>
-    <t>Spanish translation: Aponte, D., Padre</t>
-  </si>
-  <si>
     <t>Aragon, J. J.</t>
   </si>
   <si>
@@ -285,9 +216,6 @@
     <t>Arce, Francisco O.</t>
   </si>
   <si>
-    <t>Married to Luz Noriega de Arce</t>
-  </si>
-  <si>
     <t>Archibald Wheaton, Anna</t>
   </si>
   <si>
@@ -327,9 +255,6 @@
     <t>Armijo, Federico A.</t>
   </si>
   <si>
-    <t>Son of Nestor Armijo and Josefa Armijo</t>
-  </si>
-  <si>
     <t>Armijo, Gertrudez</t>
   </si>
   <si>
@@ -348,18 +273,12 @@
     <t>Armijo, Juanita</t>
   </si>
   <si>
-    <t>Daughter of Nestor Armijo and Josefa Armijo</t>
-  </si>
-  <si>
     <t>Armijo, Lola</t>
   </si>
   <si>
     <t>Armijo, Nestor</t>
   </si>
   <si>
-    <t>Successful Las Cruces businessman in late 1800's</t>
-  </si>
-  <si>
     <t>Armijo, Perfecto</t>
   </si>
   <si>
@@ -414,21 +333,12 @@
     <t>Beatriz de Borbón y Battenberg, Infanta of Spain (1909-2002)</t>
   </si>
   <si>
-    <t>Princess Beatriz</t>
-  </si>
-  <si>
-    <t>Part of the Spanish and Italian Aristocracy</t>
-  </si>
-  <si>
     <t>Benansia, Juanita</t>
   </si>
   <si>
     <t>Benedet, Romualdo, Father</t>
   </si>
   <si>
-    <t>Spanish translation: Benedet, Romualdo, Padre</t>
-  </si>
-  <si>
     <t>Benites, G. M.</t>
   </si>
   <si>
@@ -453,9 +363,6 @@
     <t>Bernard, May, Sister</t>
   </si>
   <si>
-    <t>Spanish translation: Bernard, May, Hermana</t>
-  </si>
-  <si>
     <t>Billings, Frank, Dr.</t>
   </si>
   <si>
@@ -468,9 +375,6 @@
     <t>Bombach, Charles</t>
   </si>
   <si>
-    <t>Married to AltaGracia Apodaca de Bombach</t>
-  </si>
-  <si>
     <t>Bombach, Otto</t>
   </si>
   <si>
@@ -516,9 +420,6 @@
     <t>Cabral, Juan</t>
   </si>
   <si>
-    <t>Married to Paz Terrazas de Cabral</t>
-  </si>
-  <si>
     <t>Calderon, Delfina</t>
   </si>
   <si>
@@ -543,30 +444,18 @@
     <t>Campbell, Annie Laurie</t>
   </si>
   <si>
-    <t>Married to Martin Campbell</t>
-  </si>
-  <si>
     <t>Campbell, Frank Winslow (1871-1964)</t>
   </si>
   <si>
-    <t>Married to Corina Amador</t>
-  </si>
-  <si>
     <t>Campbell, Martin A. (1914-1980)</t>
   </si>
   <si>
-    <t>Son of Frank Campbell and Corina Amador; proprietor of the Amador Hotel for many years</t>
-  </si>
-  <si>
     <t>Campbell, Natalia Julieta (1913-1953)</t>
   </si>
   <si>
     <t>Natalie</t>
   </si>
   <si>
-    <t>Daughter of Frank Campbell and Corina Amador</t>
-  </si>
-  <si>
     <t>Candelario, Jesus S.</t>
   </si>
   <si>
@@ -576,18 +465,9 @@
     <t>Carniglia, May A. (1918-2007)</t>
   </si>
   <si>
-    <t>May; Maria Emilia Adair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daughter of Maria Paulina García de Adair and William Adair </t>
-  </si>
-  <si>
     <t>Carranza, Venustiano (1859-1920)</t>
   </si>
   <si>
-    <t>Mexican Revolutionary; 1st president of the Mexican Republic</t>
-  </si>
-  <si>
     <t>Carrasco, Julian</t>
   </si>
   <si>
@@ -603,9 +483,6 @@
     <t>Louisa; Luisa</t>
   </si>
   <si>
-    <t>Daughter of Juan Amador and Mary Woodworth</t>
-  </si>
-  <si>
     <t>Castañeda, A. B.</t>
   </si>
   <si>
@@ -648,18 +525,12 @@
     <t>Clendening, Logan (1884-1945)</t>
   </si>
   <si>
-    <t>Well known physician and popular medical writer</t>
-  </si>
-  <si>
     <t>Coblentz, Gaston</t>
   </si>
   <si>
     <t>Columbus, Christopher</t>
   </si>
   <si>
-    <t>Famous Italian "explorer"</t>
-  </si>
-  <si>
     <t>Contreras de Jaurigui, Felipa</t>
   </si>
   <si>
@@ -675,9 +546,6 @@
     <t>Coronado, Francisco Vásquez de (1510-1554)</t>
   </si>
   <si>
-    <t>Spanish conquistador</t>
-  </si>
-  <si>
     <t>Corral, Constancia</t>
   </si>
   <si>
@@ -687,9 +555,6 @@
     <t>Corral, Ramón (1854-1912)</t>
   </si>
   <si>
-    <t>Vice-president of Mexico under Porfirio Diaz</t>
-  </si>
-  <si>
     <t>Cortazar, Elena</t>
   </si>
   <si>
@@ -699,18 +564,12 @@
     <t>Coulombe, Joseph, Father</t>
   </si>
   <si>
-    <t>Spanish translation: Coulombe, Joseph, Padre</t>
-  </si>
-  <si>
     <t>Creel, Adela</t>
   </si>
   <si>
     <t>Creel, Enrique C. (1854-1931)</t>
   </si>
   <si>
-    <t>"...member of the powerful Creel-Terrazas family of Chihuahua." Former governor of Chihuahua</t>
-  </si>
-  <si>
     <t>Creel, Juan</t>
   </si>
   <si>
@@ -726,12 +585,6 @@
     <t>Daguerre, Alejandro N. (1855-1929)</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Married to Maria Amador</t>
-  </si>
-  <si>
     <t>Daguerre, Delfina</t>
   </si>
   <si>
@@ -789,9 +642,6 @@
     <t>Dennemeyer Adair, Margaret</t>
   </si>
   <si>
-    <t>Margarita; Margaret Julieta Adair</t>
-  </si>
-  <si>
     <t>Deyrieux, Mathieu</t>
   </si>
   <si>
@@ -813,9 +663,6 @@
     <t>Díaz, Porfirio (1830-1915)</t>
   </si>
   <si>
-    <t>Former president of Mexico</t>
-  </si>
-  <si>
     <t>Diehl, Consuelo</t>
   </si>
   <si>
@@ -840,9 +687,6 @@
     <t>Pedro; Peter</t>
   </si>
   <si>
-    <t>Merchant in Mesilla; murdered in Mesilla in 1894</t>
-  </si>
-  <si>
     <t>Duler, K.</t>
   </si>
   <si>
@@ -864,27 +708,15 @@
     <t>Enriquez de Perches, A.</t>
   </si>
   <si>
-    <t xml:space="preserve">Could be Ana/Anita, Angela (daughters), Antonia (mother), Antonio (Father) </t>
-  </si>
-  <si>
     <t>Enriquez, Eduardo W.</t>
   </si>
   <si>
     <t>Enriquez, Ignacio Perches</t>
   </si>
   <si>
-    <t>Cousin of Antonio Terrazas; frequent business partner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enríquez, Ignacio  </t>
   </si>
   <si>
-    <t>Ygnacio</t>
-  </si>
-  <si>
-    <t>Uncle of Antonio Terrazas; Married to Josefa S. de Enriquez</t>
-  </si>
-  <si>
     <t>Enriquez, Teresa</t>
   </si>
   <si>
@@ -900,9 +732,6 @@
     <t>Escobar, Carmala</t>
   </si>
   <si>
-    <t>Possibly the Daughter of Belen Ruiz (records indicate her daughter is Carmel Escobar Ruiz)</t>
-  </si>
-  <si>
     <t>Escobar, Carmelita</t>
   </si>
   <si>
@@ -912,15 +741,9 @@
     <t>Escobar, Jesus María</t>
   </si>
   <si>
-    <t>Married to Belen Ruiz (Refugio Amador's sister)</t>
-  </si>
-  <si>
     <t>Escobar, León</t>
   </si>
   <si>
-    <t>Son of Belen Ruiz; Cousin to Amador siblings</t>
-  </si>
-  <si>
     <t>Escobar De Madrigal, María</t>
   </si>
   <si>
@@ -936,12 +759,6 @@
     <t>Faker, Sister</t>
   </si>
   <si>
-    <t>Hna. Faker</t>
-  </si>
-  <si>
-    <t>Spanish translation: Faker, Hermana</t>
-  </si>
-  <si>
     <t>Falomir, Carlos</t>
   </si>
   <si>
@@ -999,9 +816,6 @@
     <t>Fountain, Albert, J., Sr.</t>
   </si>
   <si>
-    <t>Important politician and businessman who famously disappeared, along with his son Henry, in 1896</t>
-  </si>
-  <si>
     <t>Fountain, Eduardo</t>
   </si>
   <si>
@@ -1044,9 +858,6 @@
     <t>García, Berta E.</t>
   </si>
   <si>
-    <t>Niece/ God daughter of Jesus Garcia and Emilia Amador</t>
-  </si>
-  <si>
     <t>Garcia, Carlota</t>
   </si>
   <si>
@@ -1056,48 +867,27 @@
     <t>García de Adair, Maria Paulina (1895-1977)</t>
   </si>
   <si>
-    <t>Polin/ Pabina/ Paulina/ M.P.</t>
-  </si>
-  <si>
-    <t>Daughter of Emilia Amador and Jesus Garcia; married to William Adair</t>
-  </si>
-  <si>
     <t>García, Edumundo A.</t>
   </si>
   <si>
-    <t>Son of Emilia Amador and Jesus Garcia; died as a child in 1904</t>
-  </si>
-  <si>
     <t>García, Fabián (1871-1948)</t>
   </si>
   <si>
-    <t>Married to Julieta Amador; well-regarded horticulturist and important to the history of NMSU</t>
-  </si>
-  <si>
     <t>García, Felipe</t>
   </si>
   <si>
     <t>García, Gabriel G.</t>
   </si>
   <si>
-    <t>Nephew of Jesus S. García (and Emilia Amador)</t>
-  </si>
-  <si>
     <t>García, Jesus S. (1850-1929)</t>
   </si>
   <si>
-    <t>Married to Emilia Amador; Father of Maria Paulina Adair; Godfather to Clotilde Amador</t>
-  </si>
-  <si>
     <t>Garcia, Maria</t>
   </si>
   <si>
     <t>García, Pedro</t>
   </si>
   <si>
-    <t>Brother of Jesus Garcia, Father of Berta E. Garcia</t>
-  </si>
-  <si>
     <t>Garcia, Quica</t>
   </si>
   <si>
@@ -1113,15 +903,9 @@
     <t>Garrett, Ida</t>
   </si>
   <si>
-    <t>Daugher of Pat Garrett</t>
-  </si>
-  <si>
     <t>Garrett, Pat F. (Pat Floyd) (1850-1908)</t>
   </si>
   <si>
-    <t>Well-known local lawman famous for killing Billy the Kid</t>
-  </si>
-  <si>
     <t>Garrett, Poe</t>
   </si>
   <si>
@@ -1137,21 +921,12 @@
     <t>Gish, Lillian (1893-1993)</t>
   </si>
   <si>
-    <t>Early film star and actress</t>
-  </si>
-  <si>
     <t>Gomez, Luz</t>
   </si>
   <si>
     <t>Gonzaga, M. L., Sister</t>
   </si>
   <si>
-    <t>HML Gonzaga</t>
-  </si>
-  <si>
-    <t>Cousin of Amador siblings; Spanish translation: Gonzaga, M.L., Hermana</t>
-  </si>
-  <si>
     <t>Gonzales, Blaza</t>
   </si>
   <si>
@@ -1188,9 +963,6 @@
     <t>Guillen, M. L., Father</t>
   </si>
   <si>
-    <t>Guillen, M. L., Padre</t>
-  </si>
-  <si>
     <t>Gutierrez, Beatriz</t>
   </si>
   <si>
@@ -1227,9 +999,6 @@
     <t>Hartenbower, Mr.</t>
   </si>
   <si>
-    <t>Spanish translation: Hartenbower, Sr.</t>
-  </si>
-  <si>
     <t>Hayen, Eduardo W.</t>
   </si>
   <si>
@@ -1269,27 +1038,18 @@
     <t>Hugo, Victor (1802-1885)</t>
   </si>
   <si>
-    <t>Famous French Author</t>
-  </si>
-  <si>
     <t>Hulstine, J. S.</t>
   </si>
   <si>
     <t>Hutchinson, George Edgar, Mrs.</t>
   </si>
   <si>
-    <t>Spanish translation: Hutchinson, George Edgar, Sra.</t>
-  </si>
-  <si>
     <t>Iñigo, Nicholás G.</t>
   </si>
   <si>
     <t>Islas, Josefa M.</t>
   </si>
   <si>
-    <t>Cousin of Clotilde Amador</t>
-  </si>
-  <si>
     <t>Jackson, Willie</t>
   </si>
   <si>
@@ -1305,21 +1065,12 @@
     <t>Jordan Adair, Virginia (1924-2010)</t>
   </si>
   <si>
-    <t>Genia; Virginia Josefina Adair</t>
-  </si>
-  <si>
     <t>Joseph, Thomas, Father</t>
   </si>
   <si>
-    <t>Spanish translation: Joseph, Thomas, Padre</t>
-  </si>
-  <si>
     <t>Juárez, Benito (1806-1872)</t>
   </si>
   <si>
-    <t>Former Mexican President (1st and only indigenous Mexican president)</t>
-  </si>
-  <si>
     <t>Kennedy, Allan A.</t>
   </si>
   <si>
@@ -1362,9 +1113,6 @@
     <t>Leo XIII, Pope (1810-1903)</t>
   </si>
   <si>
-    <t>Catholic Pope</t>
-  </si>
-  <si>
     <t>Leon, Marcelo</t>
   </si>
   <si>
@@ -1386,36 +1134,21 @@
     <t>Lohman, Fred, Mrs.</t>
   </si>
   <si>
-    <t>Spanish translation: Lohman, Fred, Sra.</t>
-  </si>
-  <si>
     <t>Lohman, Martin</t>
   </si>
   <si>
-    <t>Married to Aminda Schaublin</t>
-  </si>
-  <si>
     <t>Lohman, Oscar</t>
   </si>
   <si>
     <t>Lohman, Oscar, Mrs.</t>
   </si>
   <si>
-    <t>Alice Cuniffe; Lohman Cuniffe, Alice</t>
-  </si>
-  <si>
-    <t>Spanish translation, Lohman, Oscar, Sra.</t>
-  </si>
-  <si>
     <t>Lopez, Manuel T.</t>
   </si>
   <si>
     <t>Loretto, Marie, Sister</t>
   </si>
   <si>
-    <t>Spanish Translation: Loretto, Marie, Hermana</t>
-  </si>
-  <si>
     <t>Lowe, Lawson</t>
   </si>
   <si>
@@ -1449,9 +1182,6 @@
     <t>Macarius, M., Sister</t>
   </si>
   <si>
-    <t>Spanish Translation: Macarius, M., Hermana</t>
-  </si>
-  <si>
     <t>Madero, Carlos</t>
   </si>
   <si>
@@ -1503,9 +1233,6 @@
     <t>Mascareñas, Alberto</t>
   </si>
   <si>
-    <t>Friend of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Maurice, Charles</t>
   </si>
   <si>
@@ -1521,18 +1248,12 @@
     <t>McDowell, C. L., Mrs.</t>
   </si>
   <si>
-    <t>Spanish Translation: McDowell, C. L., Sra.</t>
-  </si>
-  <si>
     <t>McFie Bloom, Maude (1880-1973)</t>
   </si>
   <si>
     <t>McKinley, William (1843-1901)</t>
   </si>
   <si>
-    <t>25th President of the United States</t>
-  </si>
-  <si>
     <t>M. de Adalid, Manuela</t>
   </si>
   <si>
@@ -1566,15 +1287,9 @@
     <t>Mellish, Ernest J., Dr.</t>
   </si>
   <si>
-    <t>1st husband to Maud Mellish</t>
-  </si>
-  <si>
     <t>Mellish-Wilson, Maud H. (Maud Headline) (1862-1933)</t>
   </si>
   <si>
-    <t>Mayo Clinic's 1st librarian</t>
-  </si>
-  <si>
     <t>Melville Kellogg, Clarence</t>
   </si>
   <si>
@@ -1593,9 +1308,6 @@
     <t>Miranda, Carmen (1909-1955)</t>
   </si>
   <si>
-    <t>Maria do Carmo Miranda da Cunha GCIH, OMC, known professionally as Carmen Miranda, was a Portuguese-born Brazilian singer, dancer and actress.</t>
-  </si>
-  <si>
     <t>Miranda, Fausto E.</t>
   </si>
   <si>
@@ -1623,9 +1335,6 @@
     <t>Monge de Monge, Inés</t>
   </si>
   <si>
-    <t>Name confirmed 14_11_25</t>
-  </si>
-  <si>
     <t>Montemayor, Andrés</t>
   </si>
   <si>
@@ -1698,15 +1407,9 @@
     <t>Nicolini, Giuseppe (1762-1842)</t>
   </si>
   <si>
-    <t>Italian composer</t>
-  </si>
-  <si>
     <t>Noriega de Arce, Luz</t>
   </si>
   <si>
-    <t>Married to Francisco O. Arce</t>
-  </si>
-  <si>
     <t>Noriega, Francisco</t>
   </si>
   <si>
@@ -1725,9 +1428,6 @@
     <t>Ochoa, Josefa</t>
   </si>
   <si>
-    <t xml:space="preserve">Cousin of Clotilde Amador </t>
-  </si>
-  <si>
     <t>Ochoa, Marianita</t>
   </si>
   <si>
@@ -1764,9 +1464,6 @@
     <t>Pearson Amador, Juliette Margaret (1914-2006)</t>
   </si>
   <si>
-    <t>Julia; Juliette Margaret Amador Pearson</t>
-  </si>
-  <si>
     <t>Pedregon, Pedro</t>
   </si>
   <si>
@@ -1788,27 +1485,15 @@
     <t>Petra, Mary, Sister</t>
   </si>
   <si>
-    <t>Spanish translation: Petra, Mary, Hermana</t>
-  </si>
-  <si>
     <t>Pia, M., Sister</t>
   </si>
   <si>
-    <t>Spanish translation: Pia, M., Hermana; Cousin of Amador Siblings</t>
-  </si>
-  <si>
     <t>Pickford, Mary (1892-1979)</t>
   </si>
   <si>
-    <t>Early American Motion Picture Actress</t>
-  </si>
-  <si>
     <t>Pierce, R. V. (Ray Vaughn) (1840-1914)</t>
   </si>
   <si>
-    <t>U.S. Representative, doctor, and purveyor of patent medicines, most notably: "Doctor Pierce's Favorite Prescription"</t>
-  </si>
-  <si>
     <t>Pius XI, Pope (1857-1939)</t>
   </si>
   <si>
@@ -1842,27 +1527,15 @@
     <t>Pratt, Tomás Eduardo</t>
   </si>
   <si>
-    <t>Godson of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Praxedes, Mother</t>
   </si>
   <si>
-    <t>Hna Praxedes, Sister Mary Praxedes, Sister M. Praxedes</t>
-  </si>
-  <si>
-    <t>Spanish translation: Praxedes, Madre</t>
-  </si>
-  <si>
     <t>Prieto, Gregorio M.</t>
   </si>
   <si>
     <t>Prieto, Guillermo (1818-1897)</t>
   </si>
   <si>
-    <t>Mexican author</t>
-  </si>
-  <si>
     <t>Prieto, Margarita</t>
   </si>
   <si>
@@ -1872,12 +1545,6 @@
     <t>Provencio, Espiridion (1841-1914)</t>
   </si>
   <si>
-    <t>Espirdio; Don E.</t>
-  </si>
-  <si>
-    <t>Family friend and former mayor of Juarez and judge</t>
-  </si>
-  <si>
     <t>Provencio, Josefina</t>
   </si>
   <si>
@@ -1908,9 +1575,6 @@
     <t>Raphael (1483-1520)</t>
   </si>
   <si>
-    <t>Italian painter</t>
-  </si>
-  <si>
     <t>Raphael, J. J.</t>
   </si>
   <si>
@@ -1980,15 +1644,9 @@
     <t>Roosevelt, Quentin (1897-1918)</t>
   </si>
   <si>
-    <t>Son of US President Theodore Roosevelt; pilot who died in WWI</t>
-  </si>
-  <si>
     <t>Roosevelt, Theodore (1858-1919)</t>
   </si>
   <si>
-    <t>26th President of the United States</t>
-  </si>
-  <si>
     <t>Rosas, Esteban G.</t>
   </si>
   <si>
@@ -2004,12 +1662,6 @@
     <t>Rosine, Mary, Sister</t>
   </si>
   <si>
-    <t>Mother/Madre Rosine</t>
-  </si>
-  <si>
-    <t>Spanish translation: Rosine, Mary, Hermana</t>
-  </si>
-  <si>
     <t>Ross, J. C.</t>
   </si>
   <si>
@@ -2025,42 +1677,21 @@
     <t>Ruiz de Amador, Refugio (1848-1907)</t>
   </si>
   <si>
-    <t>Maria Conception del Refugio Ruiz Alba</t>
-  </si>
-  <si>
     <t>Ruiz de Escobar, Belen (1852-)</t>
   </si>
   <si>
-    <t>Irenea Belen Ruiz Alba</t>
-  </si>
-  <si>
-    <t>Refugio Amador's sister; married to Jesus Maria Escobar</t>
-  </si>
-  <si>
     <t>Ruiz, Concepcion (1848-)</t>
   </si>
   <si>
-    <t>Concepcion Leocadia Ruiz; Conception</t>
-  </si>
-  <si>
-    <t>Refugio Amador's sister; twins?!?--baptized on the same day as Refugio</t>
-  </si>
-  <si>
     <t>Ruiz, Jose</t>
   </si>
   <si>
     <t>Ruiz, Juan Neponuceno (1817-)</t>
   </si>
   <si>
-    <t>Refugio Amador's Father</t>
-  </si>
-  <si>
     <t>Ruppe, Bernard, Mrs.</t>
   </si>
   <si>
-    <t>Spanish translation: Ruppe, Bernard, Sra.</t>
-  </si>
-  <si>
     <t>Russek, M.</t>
   </si>
   <si>
@@ -2085,9 +1716,6 @@
     <t>Sánchez Azcona, Juan (1876-1938)</t>
   </si>
   <si>
-    <t>Prominent Journalist and politician in Mexico</t>
-  </si>
-  <si>
     <t>Sánchez, Lupe</t>
   </si>
   <si>
@@ -2097,9 +1725,6 @@
     <t>Schaublin, Aminda</t>
   </si>
   <si>
-    <t>Married to Martin Lohman</t>
-  </si>
-  <si>
     <t>Schaublin, Emilia</t>
   </si>
   <si>
@@ -2121,39 +1746,21 @@
     <t>S. de Enriques, Josefa</t>
   </si>
   <si>
-    <t>Married to Ignacio Enriquez</t>
-  </si>
-  <si>
     <t>Seggerman, Henry</t>
   </si>
   <si>
     <t>Seggerman, Henry, Mrs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spanish translation: Seggerman, Henry, Sra. </t>
-  </si>
-  <si>
     <t>Seligman, Arthur</t>
   </si>
   <si>
-    <t>Governor of New Mexico from 1931 to 1933</t>
-  </si>
-  <si>
     <t>Sena, Eufrocina C.</t>
   </si>
   <si>
-    <t>Eufie Sena</t>
-  </si>
-  <si>
-    <t>Aunt of William J. T. Adair; married to Jose Sena</t>
-  </si>
-  <si>
     <t>Sena, Jose D.</t>
   </si>
   <si>
-    <t>Uncle of William J. T. Adair; married to Eufrocina Sena</t>
-  </si>
-  <si>
     <t>Sena, Luz</t>
   </si>
   <si>
@@ -2175,27 +1782,15 @@
     <t>Shinick, L. J., Mrs.</t>
   </si>
   <si>
-    <t>Spanish Translation: Shinick, L. J., Sra.</t>
-  </si>
-  <si>
     <t>Sipe, Rosine Amador (1908-1986)</t>
   </si>
   <si>
     <t>Smith, George N.</t>
   </si>
   <si>
-    <t>Frequent business partner of Frank Amador</t>
-  </si>
-  <si>
     <t>Soulé, Enrique</t>
   </si>
   <si>
-    <t>Soulé</t>
-  </si>
-  <si>
-    <t>Business partners and friend of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Springer, Manuel</t>
   </si>
   <si>
@@ -2208,30 +1803,18 @@
     <t>Stephenson, Adela</t>
   </si>
   <si>
-    <t>Friend of Juan Amador; Daughter of Horace and Simona Stephenson</t>
-  </si>
-  <si>
     <t>Stephenson, Annie</t>
   </si>
   <si>
-    <t>Daughter of Horace and Simona Stephenson</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stephenson, Juanita E. </t>
   </si>
   <si>
-    <t>Jennie</t>
-  </si>
-  <si>
     <t>Stephenson, Mary</t>
   </si>
   <si>
     <t>Stephenson, Simona Dutton (1843-1921)</t>
   </si>
   <si>
-    <t>Married to Horace F. Stephenson and mother of Adela and Juanita Stephenson</t>
-  </si>
-  <si>
     <t>Sullivan, Jerry</t>
   </si>
   <si>
@@ -2247,75 +1830,42 @@
     <t>Terrazas, Agustin (1879-1915)</t>
   </si>
   <si>
-    <t>Brother of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Alfonso</t>
   </si>
   <si>
     <t>Terrazas, Angela</t>
   </si>
   <si>
-    <t>Niece of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Antonio (1875-1919)</t>
   </si>
   <si>
-    <t xml:space="preserve">Married to Clotlide Amador de Terrazas; Godfather of Julieta Amador de García; Brother of Maria Terrazas, </t>
-  </si>
-  <si>
     <t>Terrazas, Antonio, Sr. (1848-1913)</t>
   </si>
   <si>
-    <t>Father of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Carlota</t>
   </si>
   <si>
     <t>Terrazas, Concepcion Ferminina (1842-1919)</t>
   </si>
   <si>
-    <t>Aunt of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Concepcion M.</t>
   </si>
   <si>
-    <t>Daughter of Faustino Terrazas (unsure of how he is related to Antonio Terrazas)</t>
-  </si>
-  <si>
     <t>Terrazas de Amador, Maria J.</t>
   </si>
   <si>
-    <t>Married to Francisco Amador; Sister of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas de Cabral, Paz</t>
   </si>
   <si>
-    <t>Married to Juan Cabral</t>
-  </si>
-  <si>
     <t>Terrazas de Uranga, Dolores</t>
   </si>
   <si>
     <t>Terrazas, Domitila</t>
   </si>
   <si>
-    <t>Domitita, Domi</t>
-  </si>
-  <si>
-    <t>Married to Luis Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Emilia</t>
   </si>
   <si>
-    <t>Married to Joaquin Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Faustino</t>
   </si>
   <si>
@@ -2325,9 +1875,6 @@
     <t>Quica</t>
   </si>
   <si>
-    <t>Sister of Antonio Terrazas; married to W.W. Westrup</t>
-  </si>
-  <si>
     <t>Terrazas, Ignacio</t>
   </si>
   <si>
@@ -2337,21 +1884,12 @@
     <t>Terrazas, Joaquin</t>
   </si>
   <si>
-    <t>Nephew of Antonio Terrazas; married to Emilia Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Luis G.</t>
   </si>
   <si>
-    <t>Brother and Godfather of Antonio Terrazas; married to Domitila Terrazas</t>
-  </si>
-  <si>
     <t>Terrazas, Maria Bárbara (1852-1918)</t>
   </si>
   <si>
-    <t>Ma Barbara</t>
-  </si>
-  <si>
     <t>Terrazas, Mariano</t>
   </si>
   <si>
@@ -2361,18 +1899,12 @@
     <t>Terrazas, Silvestre</t>
   </si>
   <si>
-    <t>Cousin of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Tillinghast, F. N.</t>
   </si>
   <si>
     <t>Tooker, Rose Adair (1931-2006)</t>
   </si>
   <si>
-    <t>Rose Marie Adair; Rosa</t>
-  </si>
-  <si>
     <t>Tracisius, V. R., Rev.</t>
   </si>
   <si>
@@ -2403,18 +1935,12 @@
     <t>Uranga, Salvador B.</t>
   </si>
   <si>
-    <t>Nephew of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Ursua, Juanita</t>
   </si>
   <si>
     <t>Urueta, Jesús (1868-1920)</t>
   </si>
   <si>
-    <t>Prominent Mexican politician and journalist</t>
-  </si>
-  <si>
     <t>Valdez, Luis</t>
   </si>
   <si>
@@ -2463,18 +1989,12 @@
     <t>Victoria, Queen of Great Britain (1819-1901)</t>
   </si>
   <si>
-    <t>British Monarch</t>
-  </si>
-  <si>
     <t>Villa, Bernardo</t>
   </si>
   <si>
     <t>Villa, Pancho (1878-1923)</t>
   </si>
   <si>
-    <t>Mexican General and Revolutionary</t>
-  </si>
-  <si>
     <t>Villalba, Amada</t>
   </si>
   <si>
@@ -2484,12 +2004,6 @@
     <t>Villanueva de Terrazas, Francisca</t>
   </si>
   <si>
-    <t>Cuca; Quica; V. vda. de Terrazas, Francisca</t>
-  </si>
-  <si>
-    <t>Mother of Antonio Terrazas</t>
-  </si>
-  <si>
     <t>Vinda de Robles, Emilia M.</t>
   </si>
   <si>
@@ -2499,9 +2013,6 @@
     <t>Washington, George (1732-1799)</t>
   </si>
   <si>
-    <t>United States President</t>
-  </si>
-  <si>
     <t>W. de Salas, Sofia</t>
   </si>
   <si>
@@ -2514,9 +2025,6 @@
     <t>Westrup, Wilmer W.</t>
   </si>
   <si>
-    <t>Married to Francisca Terrazas</t>
-  </si>
-  <si>
     <t>Williams, Annie B.</t>
   </si>
   <si>
@@ -2541,12 +2049,6 @@
     <t>Woodworth de Amador, María Luisa ''Mary'' (1871-1927)</t>
   </si>
   <si>
-    <t>Mary Woodworth</t>
-  </si>
-  <si>
-    <t>Married to Juan Amador</t>
-  </si>
-  <si>
     <t>Woodworth, John M. (1878-1957)</t>
   </si>
   <si>
@@ -2556,15 +2058,9 @@
     <t>Woodworth, Oscar Hamilton</t>
   </si>
   <si>
-    <t>Father of May Woodworth</t>
-  </si>
-  <si>
     <t>Wooton, E. O. (Elmer Ottis) (1865-1945)</t>
   </si>
   <si>
-    <t>Well-known botanist and professor at NMSU</t>
-  </si>
-  <si>
     <t>Yrigollen, Boche</t>
   </si>
   <si>
@@ -2587,6 +2083,18 @@
   </si>
   <si>
     <t>Zubirán, José M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown sender </t>
+  </si>
+  <si>
+    <t>Remitente desconocido</t>
+  </si>
+  <si>
+    <t>Destinitario desconocido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown recipient </t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2719,6 +2227,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3037,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C36D07-8F0C-45B7-8A9B-9AA46E3E154A}">
-  <dimension ref="A1:D676"/>
+  <dimension ref="A1:D680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection sqref="A1:D676"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3050,5800 +2559,5442 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.5">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="3"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="5"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" ht="15.75">
       <c r="A58" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" ht="15.75">
       <c r="A59" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" ht="15.75">
       <c r="A61" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.75">
       <c r="A62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.75">
       <c r="A65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75">
       <c r="A72" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" ht="15.75">
       <c r="A78" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
+        <v>88</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="5" t="s">
-        <v>130</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" ht="15.75">
       <c r="A111" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" ht="15.75">
       <c r="A113" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
+        <v>117</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" ht="15.75">
       <c r="A117" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
+        <v>118</v>
+      </c>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" ht="15.75">
       <c r="A119" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
+        <v>120</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
+        <v>121</v>
+      </c>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" ht="15.75">
       <c r="A122" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" ht="15.75">
       <c r="A123" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
+        <v>124</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" ht="15.75">
       <c r="A124" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4" ht="15.75">
       <c r="A125" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
+        <v>126</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" ht="15.75">
       <c r="A126" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" ht="15.75">
       <c r="A127" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
+        <v>128</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" ht="15.75">
       <c r="A129" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
+        <v>130</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" ht="15.75">
       <c r="A132" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" ht="15.75">
       <c r="A133" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" ht="15.75">
       <c r="A134" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="5" t="s">
-        <v>169</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" ht="15.75">
       <c r="A135" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" ht="15.75">
       <c r="A136" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="5" t="s">
-        <v>173</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" ht="15.75">
       <c r="A137" s="5" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>176</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" ht="15.75">
       <c r="A138" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" ht="15.75">
       <c r="A139" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" ht="15.75">
       <c r="A140" s="5" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B140" s="5"/>
-      <c r="C140" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" ht="15.75">
       <c r="A141" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" ht="15.75">
       <c r="A142" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
+        <v>144</v>
+      </c>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" ht="15.75">
       <c r="A143" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
+        <v>146</v>
+      </c>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" ht="15.75">
       <c r="A145" s="3" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>189</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" ht="15.75">
       <c r="A146" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" ht="15.75">
       <c r="A147" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
+        <v>150</v>
+      </c>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" ht="15.75">
       <c r="A148" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
+        <v>151</v>
+      </c>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" ht="15.75">
       <c r="A149" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
+        <v>152</v>
+      </c>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" ht="15.75">
       <c r="A150" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" ht="15.75">
       <c r="A151" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" ht="15.75">
       <c r="A152" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
+        <v>155</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" ht="15.75">
       <c r="A153" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" ht="15.75">
       <c r="A154" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
+        <v>157</v>
+      </c>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" ht="15.75">
       <c r="A155" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
+        <v>158</v>
+      </c>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" ht="15.75">
       <c r="A156" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" ht="15.75">
       <c r="A157" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
+        <v>160</v>
+      </c>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" ht="15.75">
       <c r="A158" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
+        <v>161</v>
+      </c>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
       <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" ht="15.75">
       <c r="A159" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="5" t="s">
-        <v>204</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" ht="15.75">
       <c r="A160" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
+        <v>163</v>
+      </c>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" ht="15.75">
       <c r="A161" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="5" t="s">
-        <v>207</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" ht="15.75">
       <c r="A162" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
+        <v>165</v>
+      </c>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" ht="15.75">
       <c r="A163" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" ht="15.75">
       <c r="A164" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
+        <v>167</v>
+      </c>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" ht="15.75">
       <c r="A165" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
+        <v>168</v>
+      </c>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" ht="15.75">
       <c r="A166" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" ht="15.75">
       <c r="A167" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
+        <v>170</v>
+      </c>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" ht="15.75">
       <c r="A168" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" ht="15.75">
       <c r="A169" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="5" t="s">
-        <v>217</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="5" t="s">
-        <v>221</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
+        <v>176</v>
+      </c>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="5" t="s">
-        <v>224</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
+        <v>178</v>
+      </c>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" ht="15.75">
       <c r="A176" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
+        <v>179</v>
+      </c>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" ht="15.75">
       <c r="A177" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" ht="15.75">
       <c r="A178" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" ht="15.75">
       <c r="A179" s="5" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B179" s="5"/>
-      <c r="C179" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>231</v>
-      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" ht="15.75">
       <c r="A180" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" ht="15.75">
       <c r="A181" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" ht="15.75">
       <c r="A182" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" ht="15.75">
       <c r="A183" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" ht="15.75">
       <c r="A184" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" ht="15.75">
       <c r="A185" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B185" s="18"/>
-      <c r="C185" s="18"/>
+        <v>188</v>
+      </c>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" ht="15.75">
       <c r="A186" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
+        <v>189</v>
+      </c>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" ht="15.75">
       <c r="A187" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
+        <v>191</v>
+      </c>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" ht="15.75">
       <c r="A189" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" ht="15.75">
       <c r="A190" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
+        <v>193</v>
+      </c>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" ht="15.75">
       <c r="A191" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
+        <v>194</v>
+      </c>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" ht="15.75">
       <c r="A192" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" ht="15.75">
       <c r="A194" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" ht="15.75">
       <c r="A195" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
+        <v>198</v>
+      </c>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" ht="15.75">
       <c r="A196" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" ht="15.75">
       <c r="A197" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
+        <v>200</v>
+      </c>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
       <c r="D197" s="10"/>
     </row>
     <row r="198" spans="1:4" ht="15.75">
       <c r="A198" s="5" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B198" s="10"/>
-      <c r="C198" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" ht="15.75">
       <c r="A199" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
       <c r="D199" s="10"/>
     </row>
     <row r="200" spans="1:4" ht="15.75">
       <c r="A200" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
       <c r="D200" s="10"/>
     </row>
     <row r="201" spans="1:4" ht="15.75">
       <c r="A201" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
+        <v>204</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
       <c r="D201" s="10"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
+        <v>205</v>
+      </c>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
       <c r="D202" s="10"/>
     </row>
     <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
+        <v>206</v>
+      </c>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
       <c r="D203" s="10"/>
     </row>
     <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
+        <v>207</v>
+      </c>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
       <c r="D204" s="10"/>
     </row>
     <row r="205" spans="1:4" ht="15.75">
       <c r="A205" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="5" t="s">
-        <v>259</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" ht="15.75">
       <c r="A206" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
+        <v>209</v>
+      </c>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
       <c r="D206" s="10"/>
     </row>
     <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
+        <v>210</v>
+      </c>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
       <c r="D207" s="10"/>
     </row>
     <row r="208" spans="1:4" ht="15.75">
       <c r="A208" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
+        <v>211</v>
+      </c>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
       <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:4" ht="15.75">
       <c r="A209" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
+        <v>212</v>
+      </c>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
       <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:4" ht="15.75">
       <c r="A210" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
+        <v>213</v>
+      </c>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
       <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4" ht="15.75">
       <c r="A211" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
+        <v>214</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
       <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:4" ht="15.75">
       <c r="A212" s="5" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>268</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" ht="15.75">
       <c r="A213" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
+        <v>217</v>
+      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
       <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:4" ht="15.75">
       <c r="A214" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
       <c r="D214" s="10"/>
     </row>
     <row r="215" spans="1:4" ht="15.75">
       <c r="A215" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
+        <v>219</v>
+      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
       <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:4" ht="15.75">
       <c r="A216" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
+        <v>220</v>
+      </c>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
       <c r="D216" s="10"/>
     </row>
     <row r="217" spans="1:4" ht="15.75">
       <c r="A217" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
+        <v>221</v>
+      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
       <c r="D217" s="10"/>
     </row>
     <row r="218" spans="1:4" ht="15.75">
       <c r="A218" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
+        <v>222</v>
+      </c>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
       <c r="D218" s="10"/>
     </row>
     <row r="219" spans="1:4" ht="15.75">
       <c r="A219" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="5" t="s">
-        <v>276</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" ht="15.75">
       <c r="A220" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
+        <v>224</v>
+      </c>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
       <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" ht="15.75">
       <c r="A221" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="5" t="s">
-        <v>279</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" ht="15.75">
       <c r="A222" s="5" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B222" s="10"/>
-      <c r="C222" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>282</v>
-      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" ht="15.75">
       <c r="A223" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
+        <v>227</v>
+      </c>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" ht="15.75">
       <c r="A224" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
+        <v>228</v>
+      </c>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" ht="15.75">
       <c r="A225" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
+        <v>229</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
       <c r="D225" s="10"/>
     </row>
     <row r="226" spans="1:4" ht="15.75">
       <c r="A226" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
+        <v>230</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
       <c r="D226" s="10"/>
     </row>
     <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="5" t="s">
-        <v>288</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" ht="15.75">
       <c r="A228" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" ht="15.75">
       <c r="A229" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
+        <v>233</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" ht="15.75">
       <c r="A231" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="5" t="s">
-        <v>294</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
+        <v>236</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" ht="15.75">
       <c r="A233" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
+        <v>237</v>
+      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" ht="15.75">
       <c r="A234" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
+        <v>238</v>
+      </c>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
+        <v>239</v>
+      </c>
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" ht="15.75">
       <c r="A236" s="13" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="B236" s="10"/>
-      <c r="C236" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>301</v>
-      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4" ht="15.75">
       <c r="A237" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
+        <v>241</v>
+      </c>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" ht="15.75">
       <c r="A238" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+        <v>242</v>
+      </c>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
+        <v>243</v>
+      </c>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" ht="15.75">
       <c r="A240" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" ht="15.75">
       <c r="A241" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
+        <v>245</v>
+      </c>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" ht="15.75">
       <c r="A242" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
+        <v>246</v>
+      </c>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" ht="15.75">
       <c r="A243" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
+        <v>247</v>
+      </c>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" ht="15.75">
       <c r="A244" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
+        <v>248</v>
+      </c>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" ht="15.75">
       <c r="A245" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
+        <v>249</v>
+      </c>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
+        <v>250</v>
+      </c>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" ht="15.75">
       <c r="A247" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
+        <v>251</v>
+      </c>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" ht="15.75">
       <c r="A248" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
+        <v>252</v>
+      </c>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" ht="15.75">
       <c r="A249" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
+        <v>253</v>
+      </c>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" ht="15.75">
       <c r="A250" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
+        <v>254</v>
+      </c>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" ht="15.75">
       <c r="A251" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
+        <v>255</v>
+      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" ht="15.75">
       <c r="A252" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
+        <v>256</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" ht="15.75">
       <c r="A253" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
+        <v>257</v>
+      </c>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" ht="15.75">
       <c r="A254" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
+        <v>258</v>
+      </c>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" ht="15.75">
       <c r="A255" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B255" s="19"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="5" t="s">
-        <v>321</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" ht="15.75">
       <c r="A256" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B256" s="19"/>
-      <c r="C256" s="19"/>
+        <v>260</v>
+      </c>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" ht="15.75">
       <c r="A257" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
+        <v>261</v>
+      </c>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
       <c r="D257" s="10"/>
     </row>
     <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
+        <v>262</v>
+      </c>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
       <c r="D258" s="10"/>
     </row>
     <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
+        <v>263</v>
+      </c>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
       <c r="D259" s="10"/>
     </row>
     <row r="260" spans="1:4" ht="15.75">
       <c r="A260" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
+        <v>264</v>
+      </c>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
       <c r="D260" s="10"/>
     </row>
     <row r="261" spans="1:4" ht="15.75">
       <c r="A261" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
+        <v>265</v>
+      </c>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
       <c r="D261" s="10"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
+        <v>266</v>
+      </c>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
       <c r="D262" s="10"/>
     </row>
     <row r="263" spans="1:4" ht="15.75">
       <c r="A263" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
+        <v>267</v>
+      </c>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
       <c r="D263" s="10"/>
     </row>
     <row r="264" spans="1:4" ht="15.75">
       <c r="A264" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
+        <v>268</v>
+      </c>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
       <c r="D264" s="10"/>
     </row>
     <row r="265" spans="1:4" ht="15.75">
       <c r="A265" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
+        <v>269</v>
+      </c>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
       <c r="D265" s="10"/>
     </row>
     <row r="266" spans="1:4" ht="15.75">
       <c r="A266" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
+        <v>270</v>
+      </c>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
       <c r="D266" s="10"/>
     </row>
     <row r="267" spans="1:4" ht="15.75">
       <c r="A267" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
+        <v>271</v>
+      </c>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
       <c r="D267" s="10"/>
     </row>
     <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
+        <v>272</v>
+      </c>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
       <c r="D268" s="10"/>
     </row>
     <row r="269" spans="1:4" ht="15.75">
       <c r="A269" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" ht="15.75">
       <c r="A270" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
+        <v>274</v>
+      </c>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
       <c r="D270" s="10"/>
     </row>
     <row r="271" spans="1:4" ht="15.75">
       <c r="A271" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
+        <v>275</v>
+      </c>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
       <c r="D271" s="10"/>
     </row>
     <row r="272" spans="1:4" ht="15.75">
       <c r="A272" s="5" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="B272" s="10"/>
-      <c r="C272" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>341</v>
-      </c>
+      <c r="C272" s="10"/>
+      <c r="D272" s="5"/>
     </row>
     <row r="273" spans="1:4" ht="15.75">
       <c r="A273" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="5" t="s">
-        <v>343</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="5"/>
     </row>
     <row r="274" spans="1:4" ht="15.75">
       <c r="A274" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="5" t="s">
-        <v>345</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="5"/>
     </row>
     <row r="275" spans="1:4" ht="15.75">
       <c r="A275" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
+        <v>279</v>
+      </c>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
       <c r="D275" s="5"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="5" t="s">
-        <v>348</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="5"/>
     </row>
     <row r="277" spans="1:4" ht="15.75">
       <c r="A277" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="5" t="s">
-        <v>350</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="5"/>
     </row>
     <row r="278" spans="1:4" ht="15.75">
       <c r="A278" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B278" s="19"/>
-      <c r="C278" s="19"/>
+        <v>282</v>
+      </c>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
       <c r="D278" s="5"/>
     </row>
     <row r="279" spans="1:4" ht="15.75">
       <c r="A279" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B279" s="19"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="5" t="s">
-        <v>353</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="5"/>
     </row>
     <row r="280" spans="1:4" ht="15.75">
       <c r="A280" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B280" s="19"/>
-      <c r="C280" s="19"/>
+        <v>284</v>
+      </c>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
       <c r="D280" s="5"/>
     </row>
     <row r="281" spans="1:4" ht="15.75">
       <c r="A281" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B281" s="19"/>
-      <c r="C281" s="19"/>
+        <v>285</v>
+      </c>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" ht="15.75">
       <c r="A282" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="5" t="s">
-        <v>348</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" ht="15.75">
       <c r="A283" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
+        <v>287</v>
+      </c>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" ht="15.75">
       <c r="A284" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
-      <c r="D284" s="5" t="s">
-        <v>359</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" ht="15.75">
       <c r="A285" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="5" t="s">
-        <v>361</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" ht="15.75">
       <c r="A286" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B286" s="19"/>
-      <c r="C286" s="19"/>
+        <v>290</v>
+      </c>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
       <c r="D286" s="10"/>
     </row>
     <row r="287" spans="1:4" ht="15.75">
       <c r="A287" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
+        <v>291</v>
+      </c>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
       <c r="D287" s="10"/>
     </row>
     <row r="288" spans="1:4" ht="15.75">
       <c r="A288" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
+        <v>292</v>
+      </c>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
       <c r="D288" s="10"/>
     </row>
     <row r="289" spans="1:4" ht="15.75">
       <c r="A289" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
+        <v>293</v>
+      </c>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
       <c r="D289" s="10"/>
     </row>
     <row r="290" spans="1:4" ht="15.75">
       <c r="A290" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
-      <c r="D290" s="5" t="s">
-        <v>367</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
+        <v>295</v>
+      </c>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
       <c r="D291" s="10"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="5" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="B292" s="10"/>
-      <c r="C292" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>371</v>
-      </c>
+      <c r="C292" s="10"/>
+      <c r="D292" s="5"/>
     </row>
     <row r="293" spans="1:4" ht="15.75">
       <c r="A293" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B293" s="19"/>
-      <c r="C293" s="19"/>
+        <v>297</v>
+      </c>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
       <c r="D293" s="10"/>
     </row>
     <row r="294" spans="1:4" ht="15.75">
       <c r="A294" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B294" s="19"/>
-      <c r="C294" s="19"/>
+        <v>298</v>
+      </c>
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
       <c r="D294" s="10"/>
     </row>
     <row r="295" spans="1:4" ht="15.75">
       <c r="A295" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B295" s="19"/>
-      <c r="C295" s="19"/>
+        <v>299</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
       <c r="D295" s="10"/>
     </row>
     <row r="296" spans="1:4" ht="15.75">
       <c r="A296" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+        <v>300</v>
+      </c>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
       <c r="D296" s="10"/>
     </row>
     <row r="297" spans="1:4" ht="15.75">
       <c r="A297" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B297" s="19"/>
-      <c r="C297" s="19"/>
+        <v>301</v>
+      </c>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
       <c r="D297" s="10"/>
     </row>
     <row r="298" spans="1:4" ht="15.75">
       <c r="A298" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B298" s="19"/>
-      <c r="C298" s="19"/>
+        <v>302</v>
+      </c>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
       <c r="D298" s="10"/>
     </row>
     <row r="299" spans="1:4" ht="15.75">
       <c r="A299" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
+        <v>303</v>
+      </c>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
       <c r="D299" s="10"/>
     </row>
     <row r="300" spans="1:4" ht="15.75">
       <c r="A300" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B300" s="19"/>
-      <c r="C300" s="19"/>
+        <v>304</v>
+      </c>
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
       <c r="D300" s="10"/>
     </row>
     <row r="301" spans="1:4" ht="15.75">
       <c r="A301" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B301" s="19"/>
-      <c r="C301" s="19"/>
+        <v>305</v>
+      </c>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
       <c r="D301" s="10"/>
     </row>
     <row r="302" spans="1:4" ht="15.75">
       <c r="A302" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B302" s="19"/>
-      <c r="C302" s="19"/>
+        <v>306</v>
+      </c>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
       <c r="D302" s="10"/>
     </row>
     <row r="303" spans="1:4" ht="15.75">
       <c r="A303" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B303" s="19"/>
-      <c r="C303" s="19"/>
+        <v>307</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
       <c r="D303" s="10"/>
     </row>
     <row r="304" spans="1:4" ht="15.75">
       <c r="A304" s="5" t="s">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="B304" s="10"/>
-      <c r="C304" s="14" t="s">
-        <v>384</v>
-      </c>
+      <c r="C304" s="14"/>
       <c r="D304" s="10"/>
     </row>
     <row r="305" spans="1:4" ht="15.75">
       <c r="A305" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
+        <v>309</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
       <c r="D305" s="10"/>
     </row>
     <row r="306" spans="1:4" ht="15.75">
       <c r="A306" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
+        <v>310</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
       <c r="D306" s="10"/>
     </row>
     <row r="307" spans="1:4" ht="15.75">
       <c r="A307" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
+        <v>311</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
       <c r="D307" s="10"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B308" s="19"/>
-      <c r="C308" s="19"/>
+        <v>312</v>
+      </c>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
       <c r="D308" s="10"/>
     </row>
     <row r="309" spans="1:4" ht="15.75">
       <c r="A309" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B309" s="19"/>
-      <c r="C309" s="19"/>
+        <v>313</v>
+      </c>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
       <c r="D309" s="10"/>
     </row>
     <row r="310" spans="1:4" ht="15.75">
       <c r="A310" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B310" s="19"/>
-      <c r="C310" s="19"/>
+        <v>314</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
       <c r="D310" s="10"/>
     </row>
     <row r="311" spans="1:4" ht="15.75">
       <c r="A311" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B311" s="19"/>
-      <c r="C311" s="19"/>
+        <v>315</v>
+      </c>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
       <c r="D311" s="10"/>
     </row>
     <row r="312" spans="1:4" ht="15.75">
       <c r="A312" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
+        <v>316</v>
+      </c>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
       <c r="D312" s="10"/>
     </row>
     <row r="313" spans="1:4" ht="15.75">
       <c r="A313" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B313" s="19"/>
-      <c r="C313" s="19"/>
+        <v>317</v>
+      </c>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
       <c r="D313" s="10"/>
     </row>
     <row r="314" spans="1:4" ht="15.75">
       <c r="A314" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B314" s="19"/>
-      <c r="C314" s="19"/>
+        <v>318</v>
+      </c>
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
       <c r="D314" s="10"/>
     </row>
     <row r="315" spans="1:4" ht="15.75">
       <c r="A315" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B315" s="19"/>
-      <c r="C315" s="19"/>
+        <v>319</v>
+      </c>
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
       <c r="D315" s="10"/>
     </row>
     <row r="316" spans="1:4" ht="15.75">
       <c r="A316" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B316" s="19"/>
-      <c r="C316" s="19"/>
-      <c r="D316" s="5" t="s">
-        <v>397</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
+      <c r="D316" s="5"/>
     </row>
     <row r="317" spans="1:4" ht="15.75">
       <c r="A317" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B317" s="19"/>
-      <c r="C317" s="19"/>
+        <v>321</v>
+      </c>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
       <c r="D317" s="10"/>
     </row>
     <row r="318" spans="1:4" ht="15.75">
       <c r="A318" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B318" s="19"/>
-      <c r="C318" s="19"/>
+        <v>322</v>
+      </c>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
       <c r="D318" s="10"/>
     </row>
     <row r="319" spans="1:4" ht="15.75">
       <c r="A319" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B319" s="19"/>
-      <c r="C319" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
       <c r="D319" s="10"/>
     </row>
     <row r="320" spans="1:4" ht="15.75">
       <c r="A320" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B320" s="19"/>
-      <c r="C320" s="19"/>
+        <v>324</v>
+      </c>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
       <c r="D320" s="10"/>
     </row>
     <row r="321" spans="1:4" ht="15.75">
       <c r="A321" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
+        <v>325</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
       <c r="D321" s="10"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B322" s="19"/>
-      <c r="C322" s="19"/>
+        <v>326</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="20"/>
       <c r="D322" s="10"/>
     </row>
     <row r="323" spans="1:4" ht="15.75">
       <c r="A323" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B323" s="19"/>
-      <c r="C323" s="19"/>
+        <v>327</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="20"/>
       <c r="D323" s="10"/>
     </row>
     <row r="324" spans="1:4" ht="15.75">
       <c r="A324" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B324" s="19"/>
-      <c r="C324" s="19"/>
+        <v>328</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="20"/>
       <c r="D324" s="10"/>
     </row>
     <row r="325" spans="1:4" ht="15.75">
       <c r="A325" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B325" s="19"/>
-      <c r="C325" s="19"/>
+        <v>329</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
       <c r="D325" s="10"/>
     </row>
     <row r="326" spans="1:4" ht="15.75">
       <c r="A326" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B326" s="19"/>
-      <c r="C326" s="19"/>
+        <v>330</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="20"/>
       <c r="D326" s="10"/>
     </row>
     <row r="327" spans="1:4" ht="15.75">
       <c r="A327" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
+        <v>331</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
       <c r="D327" s="10"/>
     </row>
     <row r="328" spans="1:4" ht="15.75">
       <c r="A328" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
+        <v>332</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
       <c r="D328" s="10"/>
     </row>
     <row r="329" spans="1:4" ht="15.75">
       <c r="A329" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B329" s="19"/>
-      <c r="C329" s="19"/>
-      <c r="D329" s="10" t="s">
-        <v>411</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="10"/>
     </row>
     <row r="330" spans="1:4" ht="15.75">
       <c r="A330" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B330" s="19"/>
-      <c r="C330" s="19"/>
+        <v>334</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
       <c r="D330" s="10"/>
     </row>
     <row r="331" spans="1:4" ht="15.75">
       <c r="A331" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="B331" s="19"/>
-      <c r="C331" s="19"/>
-      <c r="D331" s="5" t="s">
-        <v>414</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="5"/>
     </row>
     <row r="332" spans="1:4" ht="15.75">
       <c r="A332" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B332" s="19"/>
-      <c r="C332" s="19"/>
+        <v>336</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
       <c r="D332" s="10"/>
     </row>
     <row r="333" spans="1:4" ht="15.75">
       <c r="A333" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B333" s="19"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="10" t="s">
-        <v>417</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="10"/>
     </row>
     <row r="334" spans="1:4" ht="15.75">
       <c r="A334" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B334" s="19"/>
-      <c r="C334" s="19"/>
+        <v>338</v>
+      </c>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
       <c r="D334" s="10"/>
     </row>
     <row r="335" spans="1:4" ht="15.75">
       <c r="A335" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B335" s="19"/>
-      <c r="C335" s="19"/>
+        <v>339</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
       <c r="D335" s="10"/>
     </row>
     <row r="336" spans="1:4" ht="15.75">
       <c r="A336" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B336" s="19"/>
-      <c r="C336" s="19"/>
+        <v>340</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
       <c r="D336" s="10"/>
     </row>
     <row r="337" spans="1:4" ht="15.75">
       <c r="A337" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B337" s="19"/>
-      <c r="C337" s="19"/>
+        <v>341</v>
+      </c>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
       <c r="D337" s="10"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="5" t="s">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="B338" s="10"/>
-      <c r="C338" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
     </row>
     <row r="339" spans="1:4" ht="15.75">
       <c r="A339" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B339" s="19"/>
-      <c r="C339" s="19"/>
-      <c r="D339" s="5" t="s">
-        <v>425</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
+      <c r="D339" s="5"/>
     </row>
     <row r="340" spans="1:4" ht="15.75">
       <c r="A340" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B340" s="19"/>
-      <c r="C340" s="19"/>
-      <c r="D340" s="5" t="s">
-        <v>427</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="20"/>
+      <c r="D340" s="5"/>
     </row>
     <row r="341" spans="1:4" ht="15.75">
       <c r="A341" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B341" s="19"/>
-      <c r="C341" s="19"/>
+        <v>345</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
       <c r="D341" s="10"/>
     </row>
     <row r="342" spans="1:4" ht="15.75">
       <c r="A342" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B342" s="19"/>
-      <c r="C342" s="19"/>
+        <v>346</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
       <c r="D342" s="10"/>
     </row>
     <row r="343" spans="1:4" ht="15.75">
       <c r="A343" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B343" s="19"/>
-      <c r="C343" s="19"/>
+        <v>347</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
       <c r="D343" s="10"/>
     </row>
     <row r="344" spans="1:4" ht="15.75">
       <c r="A344" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B344" s="19"/>
-      <c r="C344" s="19"/>
+        <v>348</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
       <c r="D344" s="10"/>
     </row>
     <row r="345" spans="1:4" ht="15.75">
       <c r="A345" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="B345" s="19"/>
-      <c r="C345" s="19"/>
+        <v>349</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="20"/>
       <c r="D345" s="10"/>
     </row>
     <row r="346" spans="1:4" ht="15.75">
       <c r="A346" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B346" s="19"/>
-      <c r="C346" s="19"/>
+        <v>350</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="20"/>
       <c r="D346" s="10"/>
     </row>
     <row r="347" spans="1:4" ht="15.75">
       <c r="A347" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B347" s="19"/>
-      <c r="C347" s="19"/>
+        <v>351</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
       <c r="D347" s="10"/>
     </row>
     <row r="348" spans="1:4" ht="15.75">
       <c r="A348" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B348" s="19"/>
-      <c r="C348" s="19"/>
+        <v>352</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
       <c r="D348" s="10"/>
     </row>
     <row r="349" spans="1:4" ht="15.75">
       <c r="A349" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B349" s="19"/>
-      <c r="C349" s="19"/>
+        <v>353</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
       <c r="D349" s="10"/>
     </row>
     <row r="350" spans="1:4" ht="15.75">
       <c r="A350" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B350" s="19"/>
-      <c r="C350" s="19"/>
+        <v>354</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
       <c r="D350" s="10"/>
     </row>
     <row r="351" spans="1:4" ht="15.75">
       <c r="A351" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B351" s="19"/>
-      <c r="C351" s="19"/>
+        <v>355</v>
+      </c>
+      <c r="B351" s="20"/>
+      <c r="C351" s="20"/>
       <c r="D351" s="10"/>
     </row>
     <row r="352" spans="1:4" ht="15.75">
       <c r="A352" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B352" s="19"/>
-      <c r="C352" s="19"/>
+        <v>356</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
       <c r="D352" s="10"/>
     </row>
     <row r="353" spans="1:4" ht="15.75">
       <c r="A353" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B353" s="19"/>
-      <c r="C353" s="19"/>
+        <v>357</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
       <c r="D353" s="10"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B354" s="19"/>
-      <c r="C354" s="19"/>
-      <c r="D354" s="5" t="s">
-        <v>442</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
+      <c r="D354" s="5"/>
     </row>
     <row r="355" spans="1:4" ht="15.75">
       <c r="A355" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B355" s="19"/>
-      <c r="C355" s="19"/>
+        <v>359</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="20"/>
       <c r="D355" s="10"/>
     </row>
     <row r="356" spans="1:4" ht="15.75">
       <c r="A356" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+        <v>360</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
       <c r="D356" s="10"/>
     </row>
     <row r="357" spans="1:4" ht="15.75">
       <c r="A357" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B357" s="19"/>
-      <c r="C357" s="19"/>
+        <v>361</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="20"/>
       <c r="D357" s="10"/>
     </row>
     <row r="358" spans="1:4" ht="15.75">
       <c r="A358" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B358" s="19"/>
-      <c r="C358" s="19"/>
+        <v>362</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
       <c r="D358" s="10"/>
     </row>
     <row r="359" spans="1:4" ht="15.75">
       <c r="A359" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B359" s="19"/>
-      <c r="C359" s="19"/>
+        <v>363</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="20"/>
       <c r="D359" s="10"/>
     </row>
     <row r="360" spans="1:4" ht="15.75">
       <c r="A360" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="B360" s="19"/>
-      <c r="C360" s="19"/>
+        <v>364</v>
+      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="20"/>
       <c r="D360" s="10"/>
     </row>
     <row r="361" spans="1:4" ht="15.75">
       <c r="A361" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B361" s="19"/>
-      <c r="C361" s="19"/>
-      <c r="D361" s="5" t="s">
-        <v>450</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B361" s="20"/>
+      <c r="C361" s="20"/>
+      <c r="D361" s="5"/>
     </row>
     <row r="362" spans="1:4" ht="15.75">
       <c r="A362" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B362" s="19"/>
-      <c r="C362" s="19"/>
-      <c r="D362" s="5" t="s">
-        <v>452</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B362" s="20"/>
+      <c r="C362" s="20"/>
+      <c r="D362" s="5"/>
     </row>
     <row r="363" spans="1:4" ht="15.75">
       <c r="A363" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B363" s="19"/>
-      <c r="C363" s="19"/>
+        <v>367</v>
+      </c>
+      <c r="B363" s="20"/>
+      <c r="C363" s="20"/>
       <c r="D363" s="5"/>
     </row>
     <row r="364" spans="1:4" ht="15.75">
       <c r="A364" s="8" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="B364" s="10"/>
-      <c r="C364" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="D364" s="5" t="s">
-        <v>456</v>
-      </c>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
     </row>
     <row r="365" spans="1:4" ht="15.75">
       <c r="A365" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B365" s="19"/>
-      <c r="C365" s="19"/>
+        <v>369</v>
+      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="20"/>
       <c r="D365" s="10"/>
     </row>
     <row r="366" spans="1:4" ht="15.75">
       <c r="A366" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B366" s="19"/>
-      <c r="C366" s="19"/>
-      <c r="D366" s="5" t="s">
-        <v>459</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B366" s="20"/>
+      <c r="C366" s="20"/>
+      <c r="D366" s="5"/>
     </row>
     <row r="367" spans="1:4" ht="15.75">
       <c r="A367" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B367" s="19"/>
-      <c r="C367" s="19"/>
+        <v>371</v>
+      </c>
+      <c r="B367" s="20"/>
+      <c r="C367" s="20"/>
       <c r="D367" s="10"/>
     </row>
     <row r="368" spans="1:4" ht="15.75">
       <c r="A368" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B368" s="19"/>
-      <c r="C368" s="19"/>
+        <v>372</v>
+      </c>
+      <c r="B368" s="20"/>
+      <c r="C368" s="20"/>
       <c r="D368" s="10"/>
     </row>
     <row r="369" spans="1:4" ht="15.75">
       <c r="A369" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B369" s="19"/>
-      <c r="C369" s="19"/>
+        <v>373</v>
+      </c>
+      <c r="B369" s="20"/>
+      <c r="C369" s="20"/>
       <c r="D369" s="10"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B370" s="19"/>
-      <c r="C370" s="19"/>
+        <v>374</v>
+      </c>
+      <c r="B370" s="20"/>
+      <c r="C370" s="20"/>
       <c r="D370" s="10"/>
     </row>
     <row r="371" spans="1:4" ht="15.75">
       <c r="A371" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B371" s="19"/>
-      <c r="C371" s="19"/>
+        <v>375</v>
+      </c>
+      <c r="B371" s="20"/>
+      <c r="C371" s="20"/>
       <c r="D371" s="10"/>
     </row>
     <row r="372" spans="1:4" ht="15.75">
       <c r="A372" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B372" s="19"/>
-      <c r="C372" s="19"/>
+        <v>376</v>
+      </c>
+      <c r="B372" s="20"/>
+      <c r="C372" s="20"/>
       <c r="D372" s="10"/>
     </row>
     <row r="373" spans="1:4" ht="15.75">
       <c r="A373" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B373" s="19"/>
-      <c r="C373" s="19"/>
+        <v>377</v>
+      </c>
+      <c r="B373" s="20"/>
+      <c r="C373" s="20"/>
       <c r="D373" s="10"/>
     </row>
     <row r="374" spans="1:4" ht="15.75">
       <c r="A374" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B374" s="19"/>
-      <c r="C374" s="19"/>
+        <v>378</v>
+      </c>
+      <c r="B374" s="20"/>
+      <c r="C374" s="20"/>
       <c r="D374" s="10"/>
     </row>
     <row r="375" spans="1:4" ht="15.75">
       <c r="A375" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B375" s="19"/>
-      <c r="C375" s="19"/>
+        <v>379</v>
+      </c>
+      <c r="B375" s="20"/>
+      <c r="C375" s="20"/>
       <c r="D375" s="10"/>
     </row>
     <row r="376" spans="1:4" ht="15.75">
       <c r="A376" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="B376" s="19"/>
-      <c r="C376" s="19"/>
+        <v>380</v>
+      </c>
+      <c r="B376" s="20"/>
+      <c r="C376" s="20"/>
       <c r="D376" s="5"/>
     </row>
     <row r="377" spans="1:4" ht="15.75">
       <c r="A377" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B377" s="19"/>
-      <c r="C377" s="19"/>
-      <c r="D377" s="5" t="s">
-        <v>471</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B377" s="20"/>
+      <c r="C377" s="20"/>
+      <c r="D377" s="5"/>
     </row>
     <row r="378" spans="1:4" ht="15.75">
       <c r="A378" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B378" s="19"/>
-      <c r="C378" s="19"/>
+        <v>382</v>
+      </c>
+      <c r="B378" s="20"/>
+      <c r="C378" s="20"/>
       <c r="D378" s="10"/>
     </row>
     <row r="379" spans="1:4" ht="15.75">
       <c r="A379" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B379" s="19"/>
-      <c r="C379" s="19"/>
+        <v>383</v>
+      </c>
+      <c r="B379" s="20"/>
+      <c r="C379" s="20"/>
       <c r="D379" s="10"/>
     </row>
     <row r="380" spans="1:4" ht="15.75">
       <c r="A380" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B380" s="19"/>
-      <c r="C380" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="B380" s="20"/>
+      <c r="C380" s="20"/>
       <c r="D380" s="10"/>
     </row>
     <row r="381" spans="1:4" ht="15.75">
       <c r="A381" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B381" s="19"/>
-      <c r="C381" s="19"/>
+        <v>385</v>
+      </c>
+      <c r="B381" s="20"/>
+      <c r="C381" s="20"/>
       <c r="D381" s="10"/>
     </row>
     <row r="382" spans="1:4" ht="15.75">
       <c r="A382" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B382" s="19"/>
-      <c r="C382" s="19"/>
+        <v>386</v>
+      </c>
+      <c r="B382" s="20"/>
+      <c r="C382" s="20"/>
       <c r="D382" s="10"/>
     </row>
     <row r="383" spans="1:4" ht="15.75">
       <c r="A383" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B383" s="19"/>
-      <c r="C383" s="19"/>
+        <v>387</v>
+      </c>
+      <c r="B383" s="20"/>
+      <c r="C383" s="20"/>
       <c r="D383" s="10"/>
     </row>
     <row r="384" spans="1:4" ht="15.75">
       <c r="A384" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B384" s="19"/>
-      <c r="C384" s="19"/>
+        <v>388</v>
+      </c>
+      <c r="B384" s="20"/>
+      <c r="C384" s="20"/>
       <c r="D384" s="10"/>
     </row>
     <row r="385" spans="1:4" ht="15.75">
       <c r="A385" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B385" s="19"/>
-      <c r="C385" s="19"/>
+        <v>389</v>
+      </c>
+      <c r="B385" s="20"/>
+      <c r="C385" s="20"/>
       <c r="D385" s="10"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B386" s="19"/>
-      <c r="C386" s="19"/>
+        <v>390</v>
+      </c>
+      <c r="B386" s="20"/>
+      <c r="C386" s="20"/>
       <c r="D386" s="10"/>
     </row>
     <row r="387" spans="1:4" ht="15.75">
       <c r="A387" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B387" s="19"/>
-      <c r="C387" s="19"/>
+        <v>391</v>
+      </c>
+      <c r="B387" s="20"/>
+      <c r="C387" s="20"/>
       <c r="D387" s="10"/>
     </row>
     <row r="388" spans="1:4" ht="15.75">
       <c r="A388" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B388" s="19"/>
-      <c r="C388" s="19"/>
+        <v>392</v>
+      </c>
+      <c r="B388" s="20"/>
+      <c r="C388" s="20"/>
       <c r="D388" s="10"/>
     </row>
     <row r="389" spans="1:4" ht="15.75">
       <c r="A389" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B389" s="19"/>
-      <c r="C389" s="19"/>
+        <v>393</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="20"/>
       <c r="D389" s="10"/>
     </row>
     <row r="390" spans="1:4" ht="15.75">
       <c r="A390" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B390" s="19"/>
-      <c r="C390" s="19"/>
+        <v>394</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
       <c r="D390" s="10"/>
     </row>
     <row r="391" spans="1:4" ht="15.75">
       <c r="A391" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B391" s="19"/>
-      <c r="C391" s="19"/>
+        <v>395</v>
+      </c>
+      <c r="B391" s="20"/>
+      <c r="C391" s="20"/>
       <c r="D391" s="10"/>
     </row>
     <row r="392" spans="1:4" ht="15.75">
       <c r="A392" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B392" s="19"/>
-      <c r="C392" s="19"/>
+        <v>396</v>
+      </c>
+      <c r="B392" s="20"/>
+      <c r="C392" s="20"/>
       <c r="D392" s="10"/>
     </row>
     <row r="393" spans="1:4" ht="15.75">
       <c r="A393" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B393" s="19"/>
-      <c r="C393" s="19"/>
+        <v>397</v>
+      </c>
+      <c r="B393" s="20"/>
+      <c r="C393" s="20"/>
       <c r="D393" s="10"/>
     </row>
     <row r="394" spans="1:4" ht="15.75">
       <c r="A394" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B394" s="19"/>
-      <c r="C394" s="19"/>
-      <c r="D394" s="5" t="s">
-        <v>489</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B394" s="20"/>
+      <c r="C394" s="20"/>
+      <c r="D394" s="5"/>
     </row>
     <row r="395" spans="1:4" ht="15.75">
       <c r="A395" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B395" s="19"/>
-      <c r="C395" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="B395" s="20"/>
+      <c r="C395" s="20"/>
       <c r="D395" s="10"/>
     </row>
     <row r="396" spans="1:4" ht="15.75">
       <c r="A396" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B396" s="19"/>
-      <c r="C396" s="19"/>
+        <v>400</v>
+      </c>
+      <c r="B396" s="20"/>
+      <c r="C396" s="20"/>
       <c r="D396" s="10"/>
     </row>
     <row r="397" spans="1:4" ht="15.75">
       <c r="A397" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B397" s="19"/>
-      <c r="C397" s="19"/>
+        <v>401</v>
+      </c>
+      <c r="B397" s="20"/>
+      <c r="C397" s="20"/>
       <c r="D397" s="10"/>
     </row>
     <row r="398" spans="1:4" ht="15.75">
       <c r="A398" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B398" s="19"/>
-      <c r="C398" s="19"/>
+        <v>402</v>
+      </c>
+      <c r="B398" s="20"/>
+      <c r="C398" s="20"/>
       <c r="D398" s="10"/>
     </row>
     <row r="399" spans="1:4" ht="15.75">
       <c r="A399" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B399" s="19"/>
-      <c r="C399" s="19"/>
-      <c r="D399" s="5" t="s">
-        <v>495</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B399" s="20"/>
+      <c r="C399" s="20"/>
+      <c r="D399" s="5"/>
     </row>
     <row r="400" spans="1:4" ht="15.75">
       <c r="A400" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B400" s="19"/>
-      <c r="C400" s="19"/>
+        <v>404</v>
+      </c>
+      <c r="B400" s="20"/>
+      <c r="C400" s="20"/>
       <c r="D400" s="5"/>
     </row>
     <row r="401" spans="1:4" ht="15.75">
       <c r="A401" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
-      <c r="D401" s="5" t="s">
-        <v>498</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
+      <c r="D401" s="5"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B402" s="19"/>
-      <c r="C402" s="19"/>
+        <v>406</v>
+      </c>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
       <c r="D402" s="10"/>
     </row>
     <row r="403" spans="1:4" ht="15.75">
       <c r="A403" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B403" s="19"/>
-      <c r="C403" s="19"/>
+        <v>407</v>
+      </c>
+      <c r="B403" s="20"/>
+      <c r="C403" s="20"/>
       <c r="D403" s="10"/>
     </row>
     <row r="404" spans="1:4" ht="15.75">
       <c r="A404" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B404" s="19"/>
-      <c r="C404" s="19"/>
+        <v>408</v>
+      </c>
+      <c r="B404" s="20"/>
+      <c r="C404" s="20"/>
       <c r="D404" s="10"/>
     </row>
     <row r="405" spans="1:4" ht="15.75">
       <c r="A405" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B405" s="19"/>
-      <c r="C405" s="19"/>
+        <v>409</v>
+      </c>
+      <c r="B405" s="20"/>
+      <c r="C405" s="20"/>
       <c r="D405" s="10"/>
     </row>
     <row r="406" spans="1:4" ht="15.75">
       <c r="A406" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B406" s="19"/>
-      <c r="C406" s="19"/>
+        <v>410</v>
+      </c>
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
       <c r="D406" s="10"/>
     </row>
     <row r="407" spans="1:4" ht="15.75">
       <c r="A407" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B407" s="19"/>
-      <c r="C407" s="19"/>
+        <v>411</v>
+      </c>
+      <c r="B407" s="20"/>
+      <c r="C407" s="20"/>
       <c r="D407" s="10"/>
     </row>
     <row r="408" spans="1:4" ht="15.75">
       <c r="A408" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B408" s="19"/>
-      <c r="C408" s="19"/>
+        <v>412</v>
+      </c>
+      <c r="B408" s="20"/>
+      <c r="C408" s="20"/>
       <c r="D408" s="10"/>
     </row>
     <row r="409" spans="1:4" ht="15.75">
       <c r="A409" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B409" s="19"/>
-      <c r="C409" s="19"/>
+        <v>413</v>
+      </c>
+      <c r="B409" s="20"/>
+      <c r="C409" s="20"/>
       <c r="D409" s="10"/>
     </row>
     <row r="410" spans="1:4" ht="15.75">
       <c r="A410" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B410" s="19"/>
-      <c r="C410" s="19"/>
+        <v>414</v>
+      </c>
+      <c r="B410" s="20"/>
+      <c r="C410" s="20"/>
       <c r="D410" s="10"/>
     </row>
     <row r="411" spans="1:4" ht="15.75">
       <c r="A411" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B411" s="19"/>
-      <c r="C411" s="19"/>
+        <v>415</v>
+      </c>
+      <c r="B411" s="20"/>
+      <c r="C411" s="20"/>
       <c r="D411" s="10"/>
     </row>
     <row r="412" spans="1:4" ht="15.75">
       <c r="A412" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B412" s="19"/>
-      <c r="C412" s="19"/>
-      <c r="D412" s="5" t="s">
-        <v>510</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B412" s="20"/>
+      <c r="C412" s="20"/>
+      <c r="D412" s="5"/>
     </row>
     <row r="413" spans="1:4" ht="15.75">
       <c r="A413" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B413" s="19"/>
-      <c r="C413" s="19"/>
-      <c r="D413" s="5" t="s">
-        <v>512</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B413" s="20"/>
+      <c r="C413" s="20"/>
+      <c r="D413" s="5"/>
     </row>
     <row r="414" spans="1:4" ht="15.75">
       <c r="A414" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B414" s="20"/>
-      <c r="C414" s="20"/>
+        <v>418</v>
+      </c>
+      <c r="B414" s="21"/>
+      <c r="C414" s="21"/>
       <c r="D414" s="10"/>
     </row>
     <row r="415" spans="1:4" ht="15.75">
       <c r="A415" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B415" s="19"/>
-      <c r="C415" s="19"/>
+        <v>419</v>
+      </c>
+      <c r="B415" s="20"/>
+      <c r="C415" s="20"/>
       <c r="D415" s="10"/>
     </row>
     <row r="416" spans="1:4" ht="15.75">
       <c r="A416" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B416" s="19"/>
-      <c r="C416" s="19"/>
+        <v>420</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="20"/>
       <c r="D416" s="10"/>
     </row>
     <row r="417" spans="1:4" ht="15.75">
       <c r="A417" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B417" s="19"/>
-      <c r="C417" s="19"/>
+        <v>421</v>
+      </c>
+      <c r="B417" s="20"/>
+      <c r="C417" s="20"/>
       <c r="D417" s="10"/>
     </row>
     <row r="418" spans="1:4" ht="15.75">
       <c r="A418" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B418" s="19"/>
-      <c r="C418" s="19"/>
+        <v>422</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="20"/>
       <c r="D418" s="10"/>
     </row>
     <row r="419" spans="1:4" ht="15.75">
       <c r="A419" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B419" s="19"/>
-      <c r="C419" s="19"/>
-      <c r="D419" s="7" t="s">
-        <v>519</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B419" s="20"/>
+      <c r="C419" s="20"/>
+      <c r="D419" s="7"/>
     </row>
     <row r="420" spans="1:4" ht="15.75">
       <c r="A420" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B420" s="19"/>
-      <c r="C420" s="19"/>
+        <v>424</v>
+      </c>
+      <c r="B420" s="20"/>
+      <c r="C420" s="20"/>
       <c r="D420" s="7"/>
     </row>
     <row r="421" spans="1:4" ht="15.75">
       <c r="A421" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B421" s="19"/>
-      <c r="C421" s="19"/>
+        <v>425</v>
+      </c>
+      <c r="B421" s="20"/>
+      <c r="C421" s="20"/>
       <c r="D421" s="10"/>
     </row>
     <row r="422" spans="1:4" ht="15.75">
       <c r="A422" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B422" s="19"/>
-      <c r="C422" s="19"/>
+        <v>426</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="20"/>
       <c r="D422" s="10"/>
     </row>
     <row r="423" spans="1:4" ht="15.75">
       <c r="A423" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B423" s="19"/>
-      <c r="C423" s="19"/>
+        <v>427</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="20"/>
       <c r="D423" s="10"/>
     </row>
     <row r="424" spans="1:4" ht="15.75">
       <c r="A424" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B424" s="19"/>
-      <c r="C424" s="19"/>
+        <v>428</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="20"/>
       <c r="D424" s="10"/>
     </row>
     <row r="425" spans="1:4" ht="15.75">
       <c r="A425" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B425" s="19"/>
-      <c r="C425" s="19"/>
+        <v>429</v>
+      </c>
+      <c r="B425" s="20"/>
+      <c r="C425" s="20"/>
       <c r="D425" s="10"/>
     </row>
     <row r="426" spans="1:4" ht="15.75">
       <c r="A426" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B426" s="19"/>
-      <c r="C426" s="19"/>
+        <v>430</v>
+      </c>
+      <c r="B426" s="20"/>
+      <c r="C426" s="20"/>
       <c r="D426" s="10"/>
     </row>
     <row r="427" spans="1:4" ht="15.75">
       <c r="A427" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B427" s="19"/>
-      <c r="C427" s="19"/>
+        <v>431</v>
+      </c>
+      <c r="B427" s="20"/>
+      <c r="C427" s="20"/>
       <c r="D427" s="10"/>
     </row>
     <row r="428" spans="1:4" ht="15.75">
       <c r="A428" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B428" s="19"/>
-      <c r="C428" s="19"/>
-      <c r="D428" s="10" t="s">
-        <v>529</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B428" s="20"/>
+      <c r="C428" s="20"/>
+      <c r="D428" s="10"/>
     </row>
     <row r="429" spans="1:4" ht="15.75">
       <c r="A429" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B429" s="19"/>
-      <c r="C429" s="19"/>
+        <v>433</v>
+      </c>
+      <c r="B429" s="20"/>
+      <c r="C429" s="20"/>
       <c r="D429" s="10"/>
     </row>
     <row r="430" spans="1:4" ht="15.75">
       <c r="A430" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B430" s="19"/>
-      <c r="C430" s="19"/>
+        <v>434</v>
+      </c>
+      <c r="B430" s="20"/>
+      <c r="C430" s="20"/>
       <c r="D430" s="10"/>
     </row>
     <row r="431" spans="1:4" ht="15.75">
       <c r="A431" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="B431" s="19"/>
-      <c r="C431" s="19"/>
+        <v>435</v>
+      </c>
+      <c r="B431" s="20"/>
+      <c r="C431" s="20"/>
       <c r="D431" s="10"/>
     </row>
     <row r="432" spans="1:4" ht="15.75">
       <c r="A432" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B432" s="19"/>
-      <c r="C432" s="19"/>
+        <v>436</v>
+      </c>
+      <c r="B432" s="20"/>
+      <c r="C432" s="20"/>
       <c r="D432" s="10"/>
     </row>
     <row r="433" spans="1:4" ht="15.75">
       <c r="A433" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B433" s="19"/>
-      <c r="C433" s="19"/>
+        <v>437</v>
+      </c>
+      <c r="B433" s="20"/>
+      <c r="C433" s="20"/>
       <c r="D433" s="10"/>
     </row>
     <row r="434" spans="1:4" ht="15.75">
       <c r="A434" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B434" s="19"/>
-      <c r="C434" s="19"/>
+        <v>438</v>
+      </c>
+      <c r="B434" s="20"/>
+      <c r="C434" s="20"/>
       <c r="D434" s="10"/>
     </row>
     <row r="435" spans="1:4" ht="15.75">
       <c r="A435" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B435" s="19"/>
-      <c r="C435" s="19"/>
+        <v>439</v>
+      </c>
+      <c r="B435" s="20"/>
+      <c r="C435" s="20"/>
       <c r="D435" s="10"/>
     </row>
     <row r="436" spans="1:4" ht="15.75">
       <c r="A436" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="B436" s="19"/>
-      <c r="C436" s="19"/>
+        <v>440</v>
+      </c>
+      <c r="B436" s="20"/>
+      <c r="C436" s="20"/>
       <c r="D436" s="10"/>
     </row>
     <row r="437" spans="1:4" ht="15.75">
       <c r="A437" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="B437" s="19"/>
-      <c r="C437" s="19"/>
+        <v>441</v>
+      </c>
+      <c r="B437" s="20"/>
+      <c r="C437" s="20"/>
       <c r="D437" s="10"/>
     </row>
     <row r="438" spans="1:4" ht="15.75">
       <c r="A438" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B438" s="19"/>
-      <c r="C438" s="19"/>
+        <v>442</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="20"/>
       <c r="D438" s="10"/>
     </row>
     <row r="439" spans="1:4" ht="15.75">
       <c r="A439" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="B439" s="19"/>
-      <c r="C439" s="19"/>
+        <v>443</v>
+      </c>
+      <c r="B439" s="20"/>
+      <c r="C439" s="20"/>
       <c r="D439" s="10"/>
     </row>
     <row r="440" spans="1:4" ht="15.75">
       <c r="A440" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B440" s="19"/>
-      <c r="C440" s="19"/>
+        <v>444</v>
+      </c>
+      <c r="B440" s="20"/>
+      <c r="C440" s="20"/>
       <c r="D440" s="10"/>
     </row>
     <row r="441" spans="1:4" ht="15.75">
       <c r="A441" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B441" s="19"/>
-      <c r="C441" s="19"/>
+        <v>445</v>
+      </c>
+      <c r="B441" s="20"/>
+      <c r="C441" s="20"/>
       <c r="D441" s="10"/>
     </row>
     <row r="442" spans="1:4" ht="15.75">
       <c r="A442" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B442" s="19"/>
-      <c r="C442" s="19"/>
+        <v>446</v>
+      </c>
+      <c r="B442" s="20"/>
+      <c r="C442" s="20"/>
       <c r="D442" s="10"/>
     </row>
     <row r="443" spans="1:4" ht="15.75">
       <c r="A443" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B443" s="19"/>
-      <c r="C443" s="19"/>
+        <v>447</v>
+      </c>
+      <c r="B443" s="20"/>
+      <c r="C443" s="20"/>
       <c r="D443" s="10"/>
     </row>
     <row r="444" spans="1:4" ht="15.75">
       <c r="A444" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B444" s="19"/>
-      <c r="C444" s="19"/>
+        <v>448</v>
+      </c>
+      <c r="B444" s="20"/>
+      <c r="C444" s="20"/>
       <c r="D444" s="10"/>
     </row>
     <row r="445" spans="1:4" ht="15.75">
       <c r="A445" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B445" s="19"/>
-      <c r="C445" s="19"/>
+        <v>449</v>
+      </c>
+      <c r="B445" s="20"/>
+      <c r="C445" s="20"/>
       <c r="D445" s="10"/>
     </row>
     <row r="446" spans="1:4" ht="15.75">
       <c r="A446" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B446" s="19"/>
-      <c r="C446" s="19"/>
+        <v>450</v>
+      </c>
+      <c r="B446" s="20"/>
+      <c r="C446" s="20"/>
       <c r="D446" s="10"/>
     </row>
     <row r="447" spans="1:4" ht="15.75">
       <c r="A447" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B447" s="19"/>
-      <c r="C447" s="19"/>
+        <v>451</v>
+      </c>
+      <c r="B447" s="20"/>
+      <c r="C447" s="20"/>
       <c r="D447" s="10"/>
     </row>
     <row r="448" spans="1:4" ht="15.75">
       <c r="A448" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B448" s="19"/>
-      <c r="C448" s="19"/>
+        <v>452</v>
+      </c>
+      <c r="B448" s="20"/>
+      <c r="C448" s="20"/>
       <c r="D448" s="10"/>
     </row>
     <row r="449" spans="1:4" ht="15.75">
       <c r="A449" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B449" s="19"/>
-      <c r="C449" s="19"/>
+        <v>453</v>
+      </c>
+      <c r="B449" s="20"/>
+      <c r="C449" s="20"/>
       <c r="D449" s="10"/>
     </row>
     <row r="450" spans="1:4" ht="15.75">
       <c r="A450" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B450" s="19"/>
-      <c r="C450" s="19"/>
+        <v>454</v>
+      </c>
+      <c r="B450" s="20"/>
+      <c r="C450" s="20"/>
       <c r="D450" s="10"/>
     </row>
     <row r="451" spans="1:4" ht="15.75">
       <c r="A451" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B451" s="19"/>
-      <c r="C451" s="19"/>
+        <v>455</v>
+      </c>
+      <c r="B451" s="20"/>
+      <c r="C451" s="20"/>
       <c r="D451" s="10"/>
     </row>
     <row r="452" spans="1:4" ht="15.75">
       <c r="A452" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B452" s="19"/>
-      <c r="C452" s="19"/>
-      <c r="D452" s="5" t="s">
-        <v>554</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B452" s="20"/>
+      <c r="C452" s="20"/>
+      <c r="D452" s="5"/>
     </row>
     <row r="453" spans="1:4" ht="15.75">
       <c r="A453" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="B453" s="19"/>
-      <c r="C453" s="19"/>
-      <c r="D453" s="5" t="s">
-        <v>556</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B453" s="20"/>
+      <c r="C453" s="20"/>
+      <c r="D453" s="5"/>
     </row>
     <row r="454" spans="1:4" ht="15.75">
       <c r="A454" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B454" s="19"/>
-      <c r="C454" s="19"/>
+        <v>458</v>
+      </c>
+      <c r="B454" s="20"/>
+      <c r="C454" s="20"/>
       <c r="D454" s="10"/>
     </row>
     <row r="455" spans="1:4" ht="15.75">
       <c r="A455" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B455" s="19"/>
-      <c r="C455" s="19"/>
+        <v>459</v>
+      </c>
+      <c r="B455" s="20"/>
+      <c r="C455" s="20"/>
       <c r="D455" s="10"/>
     </row>
     <row r="456" spans="1:4" ht="15.75">
       <c r="A456" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B456" s="19"/>
-      <c r="C456" s="19"/>
+        <v>460</v>
+      </c>
+      <c r="B456" s="20"/>
+      <c r="C456" s="20"/>
       <c r="D456" s="10"/>
     </row>
     <row r="457" spans="1:4" ht="15.75">
       <c r="A457" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B457" s="19"/>
-      <c r="C457" s="19"/>
+        <v>461</v>
+      </c>
+      <c r="B457" s="20"/>
+      <c r="C457" s="20"/>
       <c r="D457" s="10"/>
     </row>
     <row r="458" spans="1:4" ht="15.75">
       <c r="A458" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B458" s="19"/>
-      <c r="C458" s="19"/>
+        <v>462</v>
+      </c>
+      <c r="B458" s="20"/>
+      <c r="C458" s="20"/>
       <c r="D458" s="10"/>
     </row>
     <row r="459" spans="1:4" ht="15.75">
       <c r="A459" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="B459" s="19"/>
-      <c r="C459" s="19"/>
-      <c r="D459" s="5" t="s">
-        <v>563</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="20"/>
+      <c r="D459" s="5"/>
     </row>
     <row r="460" spans="1:4" ht="15.75">
       <c r="A460" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B460" s="19"/>
-      <c r="C460" s="19"/>
+        <v>464</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="20"/>
       <c r="D460" s="10"/>
     </row>
     <row r="461" spans="1:4" ht="15.75">
       <c r="A461" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B461" s="19"/>
-      <c r="C461" s="19"/>
+        <v>465</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="20"/>
       <c r="D461" s="10"/>
     </row>
     <row r="462" spans="1:4" ht="15.75">
       <c r="A462" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B462" s="19"/>
-      <c r="C462" s="19"/>
+        <v>466</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="20"/>
       <c r="D462" s="10"/>
     </row>
     <row r="463" spans="1:4" ht="15.75">
       <c r="A463" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="B463" s="19"/>
-      <c r="C463" s="19"/>
+        <v>467</v>
+      </c>
+      <c r="B463" s="20"/>
+      <c r="C463" s="20"/>
       <c r="D463" s="10"/>
     </row>
     <row r="464" spans="1:4" ht="15.75">
       <c r="A464" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="B464" s="19"/>
-      <c r="C464" s="19"/>
+        <v>468</v>
+      </c>
+      <c r="B464" s="20"/>
+      <c r="C464" s="20"/>
       <c r="D464" s="10"/>
     </row>
     <row r="465" spans="1:4" ht="15.75">
       <c r="A465" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="B465" s="19"/>
-      <c r="C465" s="19"/>
+        <v>469</v>
+      </c>
+      <c r="B465" s="20"/>
+      <c r="C465" s="20"/>
       <c r="D465" s="10"/>
     </row>
     <row r="466" spans="1:4" ht="15.75">
       <c r="A466" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B466" s="19"/>
-      <c r="C466" s="19"/>
+        <v>470</v>
+      </c>
+      <c r="B466" s="20"/>
+      <c r="C466" s="20"/>
       <c r="D466" s="10"/>
     </row>
     <row r="467" spans="1:4" ht="15.75">
       <c r="A467" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B467" s="19"/>
-      <c r="C467" s="19"/>
+        <v>471</v>
+      </c>
+      <c r="B467" s="20"/>
+      <c r="C467" s="20"/>
       <c r="D467" s="10"/>
     </row>
     <row r="468" spans="1:4" ht="15.75">
       <c r="A468" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B468" s="19"/>
-      <c r="C468" s="19"/>
+        <v>472</v>
+      </c>
+      <c r="B468" s="20"/>
+      <c r="C468" s="20"/>
       <c r="D468" s="10"/>
     </row>
     <row r="469" spans="1:4" ht="15.75">
       <c r="A469" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B469" s="19"/>
-      <c r="C469" s="19"/>
+        <v>473</v>
+      </c>
+      <c r="B469" s="20"/>
+      <c r="C469" s="20"/>
       <c r="D469" s="10"/>
     </row>
     <row r="470" spans="1:4" ht="15.75">
       <c r="A470" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B470" s="19"/>
-      <c r="C470" s="19"/>
+        <v>474</v>
+      </c>
+      <c r="B470" s="20"/>
+      <c r="C470" s="20"/>
       <c r="D470" s="10"/>
     </row>
     <row r="471" spans="1:4" ht="15.75">
       <c r="A471" s="5" t="s">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="B471" s="10"/>
-      <c r="C471" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D471" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="C471" s="5"/>
+      <c r="D471" s="5"/>
     </row>
     <row r="472" spans="1:4" ht="15.75">
       <c r="A472" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+        <v>476</v>
+      </c>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
       <c r="D472" s="10"/>
     </row>
     <row r="473" spans="1:4" ht="15.75">
       <c r="A473" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="B473" s="19"/>
-      <c r="C473" s="19"/>
+        <v>477</v>
+      </c>
+      <c r="B473" s="20"/>
+      <c r="C473" s="20"/>
       <c r="D473" s="10"/>
     </row>
     <row r="474" spans="1:4" ht="15.75">
       <c r="A474" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B474" s="19"/>
-      <c r="C474" s="19"/>
+        <v>478</v>
+      </c>
+      <c r="B474" s="20"/>
+      <c r="C474" s="20"/>
       <c r="D474" s="10"/>
     </row>
     <row r="475" spans="1:4" ht="15.75">
       <c r="A475" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="B475" s="19"/>
-      <c r="C475" s="19"/>
+        <v>479</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="20"/>
       <c r="D475" s="10"/>
     </row>
     <row r="476" spans="1:4" ht="15.75">
       <c r="A476" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="B476" s="19"/>
-      <c r="C476" s="19"/>
+        <v>480</v>
+      </c>
+      <c r="B476" s="20"/>
+      <c r="C476" s="20"/>
       <c r="D476" s="5"/>
     </row>
     <row r="477" spans="1:4" ht="15.75">
       <c r="A477" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B477" s="19"/>
-      <c r="C477" s="19"/>
+        <v>481</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="20"/>
       <c r="D477" s="5"/>
     </row>
     <row r="478" spans="1:4" ht="15.75">
       <c r="A478" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B478" s="19"/>
-      <c r="C478" s="19"/>
-      <c r="D478" s="5" t="s">
-        <v>584</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="20"/>
+      <c r="D478" s="5"/>
     </row>
     <row r="479" spans="1:4" ht="15.75">
       <c r="A479" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B479" s="19"/>
-      <c r="C479" s="19"/>
-      <c r="D479" s="5" t="s">
-        <v>586</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B479" s="20"/>
+      <c r="C479" s="20"/>
+      <c r="D479" s="5"/>
     </row>
     <row r="480" spans="1:4" ht="15.75">
       <c r="A480" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="B480" s="19"/>
-      <c r="C480" s="19"/>
-      <c r="D480" s="5" t="s">
-        <v>588</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="20"/>
+      <c r="D480" s="5"/>
     </row>
     <row r="481" spans="1:4" ht="15.75">
       <c r="A481" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B481" s="19"/>
-      <c r="C481" s="19"/>
-      <c r="D481" s="5" t="s">
-        <v>590</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="20"/>
+      <c r="D481" s="5"/>
     </row>
     <row r="482" spans="1:4" ht="15.75">
       <c r="A482" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="B482" s="19"/>
-      <c r="C482" s="19"/>
-      <c r="D482" s="5" t="s">
-        <v>442</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="20"/>
+      <c r="D482" s="5"/>
     </row>
     <row r="483" spans="1:4" ht="15.75">
       <c r="A483" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="B483" s="19"/>
-      <c r="C483" s="19"/>
+        <v>487</v>
+      </c>
+      <c r="B483" s="20"/>
+      <c r="C483" s="20"/>
       <c r="D483" s="10"/>
     </row>
     <row r="484" spans="1:4" ht="15.75">
       <c r="A484" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B484" s="19"/>
-      <c r="C484" s="19"/>
-      <c r="D484" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B484" s="20"/>
+      <c r="C484" s="20"/>
+      <c r="D484" s="5"/>
     </row>
     <row r="485" spans="1:4" ht="15.75">
       <c r="A485" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B485" s="19"/>
-      <c r="C485" s="19"/>
+        <v>489</v>
+      </c>
+      <c r="B485" s="20"/>
+      <c r="C485" s="20"/>
       <c r="D485" s="10"/>
     </row>
     <row r="486" spans="1:4" ht="15.75">
       <c r="A486" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B486" s="19"/>
-      <c r="C486" s="19"/>
+        <v>490</v>
+      </c>
+      <c r="B486" s="20"/>
+      <c r="C486" s="20"/>
       <c r="D486" s="10"/>
     </row>
     <row r="487" spans="1:4" ht="15.75">
       <c r="A487" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B487" s="19"/>
-      <c r="C487" s="19"/>
+        <v>491</v>
+      </c>
+      <c r="B487" s="20"/>
+      <c r="C487" s="20"/>
       <c r="D487" s="10"/>
     </row>
     <row r="488" spans="1:4" ht="15.75">
       <c r="A488" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B488" s="19"/>
-      <c r="C488" s="19"/>
+        <v>492</v>
+      </c>
+      <c r="B488" s="20"/>
+      <c r="C488" s="20"/>
       <c r="D488" s="10"/>
     </row>
     <row r="489" spans="1:4" ht="15.75">
       <c r="A489" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B489" s="19"/>
-      <c r="C489" s="19"/>
+        <v>493</v>
+      </c>
+      <c r="B489" s="20"/>
+      <c r="C489" s="20"/>
       <c r="D489" s="10"/>
     </row>
     <row r="490" spans="1:4" ht="15.75">
       <c r="A490" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="B490" s="19"/>
-      <c r="C490" s="19"/>
+        <v>494</v>
+      </c>
+      <c r="B490" s="20"/>
+      <c r="C490" s="20"/>
       <c r="D490" s="10"/>
     </row>
     <row r="491" spans="1:4" ht="15.75">
       <c r="A491" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="B491" s="19"/>
-      <c r="C491" s="19"/>
+        <v>495</v>
+      </c>
+      <c r="B491" s="20"/>
+      <c r="C491" s="20"/>
       <c r="D491" s="10"/>
     </row>
     <row r="492" spans="1:4" ht="15.75">
       <c r="A492" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B492" s="19"/>
-      <c r="C492" s="19"/>
-      <c r="D492" s="5" t="s">
-        <v>602</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="B492" s="20"/>
+      <c r="C492" s="20"/>
+      <c r="D492" s="5"/>
     </row>
     <row r="493" spans="1:4" ht="15.75">
       <c r="A493" s="5" t="s">
-        <v>603</v>
+        <v>497</v>
       </c>
       <c r="B493" s="10"/>
-      <c r="C493" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="D493" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="C493" s="5"/>
+      <c r="D493" s="5"/>
     </row>
     <row r="494" spans="1:4" ht="15.75">
       <c r="A494" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="B494" s="19"/>
-      <c r="C494" s="19"/>
+        <v>498</v>
+      </c>
+      <c r="B494" s="20"/>
+      <c r="C494" s="20"/>
       <c r="D494" s="10"/>
     </row>
     <row r="495" spans="1:4" ht="15.75">
       <c r="A495" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B495" s="19"/>
-      <c r="C495" s="19"/>
-      <c r="D495" s="5" t="s">
-        <v>608</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="B495" s="20"/>
+      <c r="C495" s="20"/>
+      <c r="D495" s="5"/>
     </row>
     <row r="496" spans="1:4" ht="15.75">
       <c r="A496" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="B496" s="19"/>
-      <c r="C496" s="19"/>
+        <v>500</v>
+      </c>
+      <c r="B496" s="20"/>
+      <c r="C496" s="20"/>
       <c r="D496" s="10"/>
     </row>
     <row r="497" spans="1:4" ht="15.75">
       <c r="A497" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="B497" s="19"/>
-      <c r="C497" s="19"/>
+        <v>501</v>
+      </c>
+      <c r="B497" s="20"/>
+      <c r="C497" s="20"/>
       <c r="D497" s="10"/>
     </row>
     <row r="498" spans="1:4" ht="15.75">
       <c r="A498" s="5" t="s">
-        <v>611</v>
+        <v>502</v>
       </c>
       <c r="B498" s="10"/>
-      <c r="C498" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D498" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="C498" s="5"/>
+      <c r="D498" s="5"/>
     </row>
     <row r="499" spans="1:4" ht="15.75">
       <c r="A499" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B499" s="19"/>
-      <c r="C499" s="19"/>
+        <v>503</v>
+      </c>
+      <c r="B499" s="20"/>
+      <c r="C499" s="20"/>
       <c r="D499" s="6"/>
     </row>
     <row r="500" spans="1:4" ht="15.75">
       <c r="A500" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B500" s="19"/>
-      <c r="C500" s="19"/>
+        <v>504</v>
+      </c>
+      <c r="B500" s="20"/>
+      <c r="C500" s="20"/>
       <c r="D500" s="10"/>
     </row>
     <row r="501" spans="1:4" ht="15.75">
       <c r="A501" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B501" s="19"/>
-      <c r="C501" s="19"/>
+        <v>505</v>
+      </c>
+      <c r="B501" s="20"/>
+      <c r="C501" s="20"/>
       <c r="D501" s="10"/>
     </row>
     <row r="502" spans="1:4" ht="15.75">
       <c r="A502" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B502" s="19"/>
-      <c r="C502" s="19"/>
+        <v>506</v>
+      </c>
+      <c r="B502" s="20"/>
+      <c r="C502" s="20"/>
       <c r="D502" s="10"/>
     </row>
     <row r="503" spans="1:4" ht="15.75">
       <c r="A503" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B503" s="19"/>
-      <c r="C503" s="19"/>
+        <v>507</v>
+      </c>
+      <c r="B503" s="20"/>
+      <c r="C503" s="20"/>
       <c r="D503" s="10"/>
     </row>
     <row r="504" spans="1:4" ht="15.75">
       <c r="A504" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="B504" s="19"/>
-      <c r="C504" s="19"/>
+        <v>508</v>
+      </c>
+      <c r="B504" s="20"/>
+      <c r="C504" s="20"/>
       <c r="D504" s="10"/>
     </row>
     <row r="505" spans="1:4" ht="15.75">
       <c r="A505" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B505" s="19"/>
-      <c r="C505" s="19"/>
+        <v>509</v>
+      </c>
+      <c r="B505" s="20"/>
+      <c r="C505" s="20"/>
       <c r="D505" s="10"/>
     </row>
     <row r="506" spans="1:4" ht="15.75">
       <c r="A506" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="B506" s="19"/>
-      <c r="C506" s="19"/>
+        <v>510</v>
+      </c>
+      <c r="B506" s="20"/>
+      <c r="C506" s="20"/>
       <c r="D506" s="10"/>
     </row>
     <row r="507" spans="1:4" ht="15.75">
       <c r="A507" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B507" s="19"/>
-      <c r="C507" s="19"/>
+        <v>511</v>
+      </c>
+      <c r="B507" s="20"/>
+      <c r="C507" s="20"/>
       <c r="D507" s="10"/>
     </row>
     <row r="508" spans="1:4" ht="15.75">
       <c r="A508" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="B508" s="19"/>
-      <c r="C508" s="19"/>
-      <c r="D508" s="5" t="s">
-        <v>624</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="B508" s="20"/>
+      <c r="C508" s="20"/>
+      <c r="D508" s="5"/>
     </row>
     <row r="509" spans="1:4" ht="15.75">
       <c r="A509" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="B509" s="19"/>
-      <c r="C509" s="19"/>
+        <v>513</v>
+      </c>
+      <c r="B509" s="20"/>
+      <c r="C509" s="20"/>
       <c r="D509" s="10"/>
     </row>
     <row r="510" spans="1:4" ht="15.75">
       <c r="A510" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B510" s="19"/>
-      <c r="C510" s="19"/>
+        <v>514</v>
+      </c>
+      <c r="B510" s="20"/>
+      <c r="C510" s="20"/>
       <c r="D510" s="10"/>
     </row>
     <row r="511" spans="1:4" ht="15.75">
       <c r="A511" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="B511" s="19"/>
-      <c r="C511" s="19"/>
+        <v>515</v>
+      </c>
+      <c r="B511" s="20"/>
+      <c r="C511" s="20"/>
       <c r="D511" s="10"/>
     </row>
     <row r="512" spans="1:4" ht="15.75">
       <c r="A512" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="B512" s="19"/>
-      <c r="C512" s="19"/>
+        <v>516</v>
+      </c>
+      <c r="B512" s="20"/>
+      <c r="C512" s="20"/>
       <c r="D512" s="10"/>
     </row>
     <row r="513" spans="1:4" ht="15.75">
       <c r="A513" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="B513" s="19"/>
-      <c r="C513" s="19"/>
+        <v>517</v>
+      </c>
+      <c r="B513" s="20"/>
+      <c r="C513" s="20"/>
       <c r="D513" s="10"/>
     </row>
     <row r="514" spans="1:4" ht="15.75">
       <c r="A514" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="B514" s="19"/>
-      <c r="C514" s="19"/>
+        <v>518</v>
+      </c>
+      <c r="B514" s="20"/>
+      <c r="C514" s="20"/>
       <c r="D514" s="10"/>
     </row>
     <row r="515" spans="1:4" ht="15.75">
       <c r="A515" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="B515" s="19"/>
-      <c r="C515" s="19"/>
+        <v>519</v>
+      </c>
+      <c r="B515" s="20"/>
+      <c r="C515" s="20"/>
       <c r="D515" s="10"/>
     </row>
     <row r="516" spans="1:4" ht="15.75">
       <c r="A516" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B516" s="19"/>
-      <c r="C516" s="19"/>
+        <v>520</v>
+      </c>
+      <c r="B516" s="20"/>
+      <c r="C516" s="20"/>
       <c r="D516" s="10"/>
     </row>
     <row r="517" spans="1:4" ht="15.75">
       <c r="A517" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B517" s="19"/>
-      <c r="C517" s="19"/>
+        <v>521</v>
+      </c>
+      <c r="B517" s="20"/>
+      <c r="C517" s="20"/>
       <c r="D517" s="10"/>
     </row>
     <row r="518" spans="1:4" ht="15.75">
       <c r="A518" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="B518" s="19"/>
-      <c r="C518" s="19"/>
+        <v>522</v>
+      </c>
+      <c r="B518" s="20"/>
+      <c r="C518" s="20"/>
       <c r="D518" s="10"/>
     </row>
     <row r="519" spans="1:4" ht="15.75">
       <c r="A519" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B519" s="19"/>
-      <c r="C519" s="19"/>
+        <v>523</v>
+      </c>
+      <c r="B519" s="20"/>
+      <c r="C519" s="20"/>
       <c r="D519" s="10"/>
     </row>
     <row r="520" spans="1:4" ht="15.75">
       <c r="A520" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B520" s="19"/>
-      <c r="C520" s="19"/>
+        <v>524</v>
+      </c>
+      <c r="B520" s="20"/>
+      <c r="C520" s="20"/>
       <c r="D520" s="10"/>
     </row>
     <row r="521" spans="1:4" ht="15.75">
       <c r="A521" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B521" s="19"/>
-      <c r="C521" s="19"/>
+        <v>525</v>
+      </c>
+      <c r="B521" s="20"/>
+      <c r="C521" s="20"/>
       <c r="D521" s="10"/>
     </row>
     <row r="522" spans="1:4" ht="15.75">
       <c r="A522" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="B522" s="19"/>
-      <c r="C522" s="19"/>
+        <v>526</v>
+      </c>
+      <c r="B522" s="20"/>
+      <c r="C522" s="20"/>
       <c r="D522" s="10"/>
     </row>
     <row r="523" spans="1:4" ht="15.75">
       <c r="A523" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B523" s="19"/>
-      <c r="C523" s="19"/>
+        <v>527</v>
+      </c>
+      <c r="B523" s="20"/>
+      <c r="C523" s="20"/>
       <c r="D523" s="10"/>
     </row>
     <row r="524" spans="1:4" ht="15.75">
       <c r="A524" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="B524" s="19"/>
-      <c r="C524" s="19"/>
+        <v>528</v>
+      </c>
+      <c r="B524" s="20"/>
+      <c r="C524" s="20"/>
       <c r="D524" s="10"/>
     </row>
     <row r="525" spans="1:4" ht="15.75">
       <c r="A525" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="B525" s="19"/>
-      <c r="C525" s="19"/>
+        <v>529</v>
+      </c>
+      <c r="B525" s="20"/>
+      <c r="C525" s="20"/>
       <c r="D525" s="10"/>
     </row>
     <row r="526" spans="1:4" ht="15.75">
       <c r="A526" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="B526" s="19"/>
-      <c r="C526" s="19"/>
+        <v>530</v>
+      </c>
+      <c r="B526" s="20"/>
+      <c r="C526" s="20"/>
       <c r="D526" s="10"/>
     </row>
     <row r="527" spans="1:4" ht="15.75">
       <c r="A527" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B527" s="19"/>
-      <c r="C527" s="19"/>
+        <v>531</v>
+      </c>
+      <c r="B527" s="20"/>
+      <c r="C527" s="20"/>
       <c r="D527" s="10"/>
     </row>
     <row r="528" spans="1:4" ht="15.75">
       <c r="A528" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="B528" s="19"/>
-      <c r="C528" s="19"/>
+        <v>532</v>
+      </c>
+      <c r="B528" s="20"/>
+      <c r="C528" s="20"/>
       <c r="D528" s="10"/>
     </row>
     <row r="529" spans="1:4" ht="15.75">
       <c r="A529" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="B529" s="19"/>
-      <c r="C529" s="19"/>
+        <v>533</v>
+      </c>
+      <c r="B529" s="20"/>
+      <c r="C529" s="20"/>
       <c r="D529" s="10"/>
     </row>
     <row r="530" spans="1:4" ht="15.75">
       <c r="A530" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="B530" s="19"/>
-      <c r="C530" s="19"/>
+        <v>534</v>
+      </c>
+      <c r="B530" s="20"/>
+      <c r="C530" s="20"/>
       <c r="D530" s="10"/>
     </row>
     <row r="531" spans="1:4" ht="15.75">
       <c r="A531" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B531" s="19"/>
-      <c r="C531" s="19"/>
-      <c r="D531" s="5" t="s">
-        <v>648</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="B531" s="20"/>
+      <c r="C531" s="20"/>
+      <c r="D531" s="5"/>
     </row>
     <row r="532" spans="1:4" ht="15.75">
       <c r="A532" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="B532" s="19"/>
-      <c r="C532" s="19"/>
-      <c r="D532" s="5" t="s">
-        <v>650</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="B532" s="20"/>
+      <c r="C532" s="20"/>
+      <c r="D532" s="5"/>
     </row>
     <row r="533" spans="1:4" ht="15.75">
       <c r="A533" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="B533" s="19"/>
-      <c r="C533" s="19"/>
+        <v>537</v>
+      </c>
+      <c r="B533" s="20"/>
+      <c r="C533" s="20"/>
       <c r="D533" s="10"/>
     </row>
     <row r="534" spans="1:4" ht="15.75">
       <c r="A534" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B534" s="19"/>
-      <c r="C534" s="19"/>
+        <v>538</v>
+      </c>
+      <c r="B534" s="20"/>
+      <c r="C534" s="20"/>
       <c r="D534" s="10"/>
     </row>
     <row r="535" spans="1:4" ht="15.75">
       <c r="A535" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="B535" s="19"/>
-      <c r="C535" s="19"/>
+        <v>539</v>
+      </c>
+      <c r="B535" s="20"/>
+      <c r="C535" s="20"/>
       <c r="D535" s="10"/>
     </row>
     <row r="536" spans="1:4" ht="15.75">
       <c r="A536" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B536" s="19"/>
-      <c r="C536" s="19"/>
+        <v>540</v>
+      </c>
+      <c r="B536" s="20"/>
+      <c r="C536" s="20"/>
       <c r="D536" s="10"/>
     </row>
     <row r="537" spans="1:4" ht="15.75">
       <c r="A537" s="5" t="s">
-        <v>655</v>
+        <v>541</v>
       </c>
       <c r="B537" s="10"/>
-      <c r="C537" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="D537" s="5" t="s">
-        <v>657</v>
-      </c>
+      <c r="C537" s="5"/>
+      <c r="D537" s="5"/>
     </row>
     <row r="538" spans="1:4" ht="15.75">
       <c r="A538" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="B538" s="19"/>
-      <c r="C538" s="19"/>
+        <v>542</v>
+      </c>
+      <c r="B538" s="20"/>
+      <c r="C538" s="20"/>
       <c r="D538" s="5"/>
     </row>
     <row r="539" spans="1:4" ht="15.75">
       <c r="A539" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="B539" s="19"/>
-      <c r="C539" s="19"/>
+        <v>543</v>
+      </c>
+      <c r="B539" s="20"/>
+      <c r="C539" s="20"/>
       <c r="D539" s="10"/>
     </row>
     <row r="540" spans="1:4" ht="15.75">
       <c r="A540" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B540" s="19"/>
-      <c r="C540" s="19"/>
+        <v>544</v>
+      </c>
+      <c r="B540" s="20"/>
+      <c r="C540" s="20"/>
       <c r="D540" s="10"/>
     </row>
     <row r="541" spans="1:4" ht="15.75">
       <c r="A541" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="B541" s="19"/>
-      <c r="C541" s="19"/>
+        <v>545</v>
+      </c>
+      <c r="B541" s="20"/>
+      <c r="C541" s="20"/>
       <c r="D541" s="10"/>
     </row>
     <row r="542" spans="1:4" ht="15.75">
       <c r="A542" s="5" t="s">
-        <v>662</v>
+        <v>546</v>
       </c>
       <c r="B542" s="10"/>
-      <c r="C542" s="5" t="s">
-        <v>663</v>
-      </c>
+      <c r="C542" s="5"/>
       <c r="D542" s="10"/>
     </row>
     <row r="543" spans="1:4" ht="15.75">
       <c r="A543" s="5" t="s">
-        <v>664</v>
+        <v>547</v>
       </c>
       <c r="B543" s="10"/>
-      <c r="C543" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="D543" s="5" t="s">
-        <v>666</v>
-      </c>
+      <c r="C543" s="5"/>
+      <c r="D543" s="5"/>
     </row>
     <row r="544" spans="1:4" ht="15.75">
       <c r="A544" s="5" t="s">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="B544" s="10"/>
-      <c r="C544" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="D544" s="5" t="s">
-        <v>669</v>
-      </c>
+      <c r="C544" s="5"/>
+      <c r="D544" s="5"/>
     </row>
     <row r="545" spans="1:4" ht="15.75">
       <c r="A545" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B545" s="19"/>
-      <c r="C545" s="19"/>
+        <v>549</v>
+      </c>
+      <c r="B545" s="20"/>
+      <c r="C545" s="20"/>
       <c r="D545" s="10"/>
     </row>
     <row r="546" spans="1:4" ht="15.75">
       <c r="A546" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="B546" s="19"/>
-      <c r="C546" s="19"/>
-      <c r="D546" s="5" t="s">
-        <v>672</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="B546" s="20"/>
+      <c r="C546" s="20"/>
+      <c r="D546" s="5"/>
     </row>
     <row r="547" spans="1:4" ht="15.75">
       <c r="A547" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B547" s="19"/>
-      <c r="C547" s="19"/>
-      <c r="D547" s="5" t="s">
-        <v>674</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="B547" s="20"/>
+      <c r="C547" s="20"/>
+      <c r="D547" s="5"/>
     </row>
     <row r="548" spans="1:4" ht="15.75">
       <c r="A548" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B548" s="19"/>
-      <c r="C548" s="19"/>
+        <v>552</v>
+      </c>
+      <c r="B548" s="20"/>
+      <c r="C548" s="20"/>
       <c r="D548" s="10"/>
     </row>
     <row r="549" spans="1:4" ht="15.75">
       <c r="A549" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B549" s="19"/>
-      <c r="C549" s="19"/>
+        <v>553</v>
+      </c>
+      <c r="B549" s="20"/>
+      <c r="C549" s="20"/>
       <c r="D549" s="10"/>
     </row>
     <row r="550" spans="1:4" ht="15.75">
       <c r="A550" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="B550" s="19"/>
-      <c r="C550" s="19"/>
+        <v>554</v>
+      </c>
+      <c r="B550" s="20"/>
+      <c r="C550" s="20"/>
       <c r="D550" s="10"/>
     </row>
     <row r="551" spans="1:4" ht="15.75">
       <c r="A551" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="B551" s="19"/>
-      <c r="C551" s="19"/>
+        <v>555</v>
+      </c>
+      <c r="B551" s="20"/>
+      <c r="C551" s="20"/>
       <c r="D551" s="10"/>
     </row>
     <row r="552" spans="1:4" ht="15.75">
       <c r="A552" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="B552" s="19"/>
-      <c r="C552" s="19"/>
+        <v>556</v>
+      </c>
+      <c r="B552" s="20"/>
+      <c r="C552" s="20"/>
       <c r="D552" s="10"/>
     </row>
     <row r="553" spans="1:4" ht="15.75">
       <c r="A553" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="B553" s="19"/>
-      <c r="C553" s="19"/>
+        <v>557</v>
+      </c>
+      <c r="B553" s="20"/>
+      <c r="C553" s="20"/>
       <c r="D553" s="10"/>
     </row>
     <row r="554" spans="1:4" ht="15.75">
       <c r="A554" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B554" s="19"/>
-      <c r="C554" s="19"/>
+        <v>558</v>
+      </c>
+      <c r="B554" s="20"/>
+      <c r="C554" s="20"/>
       <c r="D554" s="10"/>
     </row>
     <row r="555" spans="1:4" ht="15.75">
       <c r="A555" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="B555" s="19"/>
-      <c r="C555" s="19"/>
-      <c r="D555" s="5" t="s">
-        <v>683</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="B555" s="20"/>
+      <c r="C555" s="20"/>
+      <c r="D555" s="5"/>
     </row>
     <row r="556" spans="1:4" ht="15.75">
       <c r="A556" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="B556" s="19"/>
-      <c r="C556" s="19"/>
+        <v>560</v>
+      </c>
+      <c r="B556" s="20"/>
+      <c r="C556" s="20"/>
       <c r="D556" s="10"/>
     </row>
     <row r="557" spans="1:4" ht="15.75">
       <c r="A557" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="B557" s="19"/>
-      <c r="C557" s="19"/>
+        <v>561</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="20"/>
       <c r="D557" s="10"/>
     </row>
     <row r="558" spans="1:4" ht="15.75">
       <c r="A558" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="B558" s="19"/>
-      <c r="C558" s="19"/>
-      <c r="D558" s="5" t="s">
-        <v>687</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="B558" s="20"/>
+      <c r="C558" s="20"/>
+      <c r="D558" s="5"/>
     </row>
     <row r="559" spans="1:4" ht="15.75">
       <c r="A559" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="B559" s="19"/>
-      <c r="C559" s="19"/>
+        <v>563</v>
+      </c>
+      <c r="B559" s="20"/>
+      <c r="C559" s="20"/>
       <c r="D559" s="10"/>
     </row>
     <row r="560" spans="1:4" ht="15.75">
       <c r="A560" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="B560" s="19"/>
-      <c r="C560" s="19"/>
+        <v>564</v>
+      </c>
+      <c r="B560" s="20"/>
+      <c r="C560" s="20"/>
       <c r="D560" s="10"/>
     </row>
     <row r="561" spans="1:4" ht="15.75">
       <c r="A561" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="B561" s="19"/>
-      <c r="C561" s="19"/>
+        <v>565</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="20"/>
       <c r="D561" s="10"/>
     </row>
     <row r="562" spans="1:4" ht="15.75">
       <c r="A562" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="B562" s="19"/>
-      <c r="C562" s="19"/>
+        <v>566</v>
+      </c>
+      <c r="B562" s="20"/>
+      <c r="C562" s="20"/>
       <c r="D562" s="10"/>
     </row>
     <row r="563" spans="1:4" ht="15.75">
       <c r="A563" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="B563" s="19"/>
-      <c r="C563" s="19"/>
+        <v>567</v>
+      </c>
+      <c r="B563" s="20"/>
+      <c r="C563" s="20"/>
       <c r="D563" s="10"/>
     </row>
     <row r="564" spans="1:4" ht="15.75">
       <c r="A564" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="B564" s="19"/>
-      <c r="C564" s="19"/>
+        <v>568</v>
+      </c>
+      <c r="B564" s="20"/>
+      <c r="C564" s="20"/>
       <c r="D564" s="10"/>
     </row>
     <row r="565" spans="1:4" ht="15.75">
       <c r="A565" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="B565" s="19"/>
-      <c r="C565" s="19"/>
-      <c r="D565" s="5" t="s">
-        <v>695</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="B565" s="20"/>
+      <c r="C565" s="20"/>
+      <c r="D565" s="5"/>
     </row>
     <row r="566" spans="1:4" ht="15.75">
       <c r="A566" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B566" s="19"/>
-      <c r="C566" s="19"/>
+        <v>570</v>
+      </c>
+      <c r="B566" s="20"/>
+      <c r="C566" s="20"/>
       <c r="D566" s="10"/>
     </row>
     <row r="567" spans="1:4" ht="15.75">
       <c r="A567" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="B567" s="19"/>
-      <c r="C567" s="19"/>
-      <c r="D567" s="5" t="s">
-        <v>698</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="B567" s="20"/>
+      <c r="C567" s="20"/>
+      <c r="D567" s="5"/>
     </row>
     <row r="568" spans="1:4" ht="15.75">
       <c r="A568" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="B568" s="19"/>
-      <c r="C568" s="19"/>
-      <c r="D568" s="5" t="s">
-        <v>700</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="B568" s="20"/>
+      <c r="C568" s="20"/>
+      <c r="D568" s="5"/>
     </row>
     <row r="569" spans="1:4" ht="15.75">
       <c r="A569" s="5" t="s">
-        <v>701</v>
+        <v>573</v>
       </c>
       <c r="B569" s="10"/>
-      <c r="C569" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="D569" s="5" t="s">
-        <v>703</v>
-      </c>
+      <c r="C569" s="5"/>
+      <c r="D569" s="5"/>
     </row>
     <row r="570" spans="1:4" ht="15.75">
       <c r="A570" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="B570" s="19"/>
-      <c r="C570" s="19"/>
-      <c r="D570" s="5" t="s">
-        <v>705</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="B570" s="20"/>
+      <c r="C570" s="20"/>
+      <c r="D570" s="5"/>
     </row>
     <row r="571" spans="1:4" ht="15.75">
       <c r="A571" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="B571" s="19"/>
-      <c r="C571" s="19"/>
+        <v>575</v>
+      </c>
+      <c r="B571" s="20"/>
+      <c r="C571" s="20"/>
       <c r="D571" s="5"/>
     </row>
     <row r="572" spans="1:4" ht="15.75">
       <c r="A572" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="B572" s="19"/>
-      <c r="C572" s="19"/>
+        <v>576</v>
+      </c>
+      <c r="B572" s="20"/>
+      <c r="C572" s="20"/>
       <c r="D572" s="10"/>
     </row>
     <row r="573" spans="1:4" ht="15.75">
       <c r="A573" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="B573" s="19"/>
-      <c r="C573" s="19"/>
+        <v>577</v>
+      </c>
+      <c r="B573" s="20"/>
+      <c r="C573" s="20"/>
       <c r="D573" s="10"/>
     </row>
     <row r="574" spans="1:4" ht="15.75">
       <c r="A574" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B574" s="19"/>
-      <c r="C574" s="19"/>
+        <v>578</v>
+      </c>
+      <c r="B574" s="20"/>
+      <c r="C574" s="20"/>
       <c r="D574" s="10"/>
     </row>
     <row r="575" spans="1:4" ht="15.75">
       <c r="A575" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="B575" s="19"/>
-      <c r="C575" s="19"/>
+        <v>579</v>
+      </c>
+      <c r="B575" s="20"/>
+      <c r="C575" s="20"/>
       <c r="D575" s="10"/>
     </row>
     <row r="576" spans="1:4" ht="15.75">
       <c r="A576" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B576" s="19"/>
-      <c r="C576" s="19"/>
+        <v>580</v>
+      </c>
+      <c r="B576" s="20"/>
+      <c r="C576" s="20"/>
       <c r="D576" s="10"/>
     </row>
     <row r="577" spans="1:4" ht="15.75">
       <c r="A577" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="B577" s="19"/>
-      <c r="C577" s="19"/>
-      <c r="D577" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="B577" s="20"/>
+      <c r="C577" s="20"/>
+      <c r="D577" s="5"/>
     </row>
     <row r="578" spans="1:4" ht="15.75">
       <c r="A578" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B578" s="19"/>
-      <c r="C578" s="19"/>
-      <c r="D578" s="5" t="s">
-        <v>189</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B578" s="20"/>
+      <c r="C578" s="20"/>
+      <c r="D578" s="5"/>
     </row>
     <row r="579" spans="1:4" ht="15.75">
       <c r="A579" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="B579" s="19"/>
-      <c r="C579" s="19"/>
-      <c r="D579" s="7" t="s">
-        <v>716</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="B579" s="20"/>
+      <c r="C579" s="20"/>
+      <c r="D579" s="7"/>
     </row>
     <row r="580" spans="1:4" ht="15.75">
       <c r="A580" s="5" t="s">
-        <v>717</v>
+        <v>584</v>
       </c>
       <c r="B580" s="10"/>
-      <c r="C580" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="D580" s="5" t="s">
-        <v>719</v>
-      </c>
+      <c r="C580" s="15"/>
+      <c r="D580" s="5"/>
     </row>
     <row r="581" spans="1:4" ht="15.75">
       <c r="A581" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B581" s="19"/>
-      <c r="C581" s="19"/>
+        <v>585</v>
+      </c>
+      <c r="B581" s="20"/>
+      <c r="C581" s="20"/>
       <c r="D581" s="10"/>
     </row>
     <row r="582" spans="1:4" ht="15.75">
       <c r="A582" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B582" s="19"/>
-      <c r="C582" s="19"/>
+        <v>586</v>
+      </c>
+      <c r="B582" s="20"/>
+      <c r="C582" s="20"/>
       <c r="D582" s="10"/>
     </row>
     <row r="583" spans="1:4" ht="15.75">
       <c r="A583" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="B583" s="19"/>
-      <c r="C583" s="19"/>
+        <v>587</v>
+      </c>
+      <c r="B583" s="20"/>
+      <c r="C583" s="20"/>
       <c r="D583" s="10"/>
     </row>
     <row r="584" spans="1:4" ht="15.75">
       <c r="A584" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="B584" s="19"/>
-      <c r="C584" s="19"/>
-      <c r="D584" s="5" t="s">
-        <v>724</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="B584" s="20"/>
+      <c r="C584" s="20"/>
+      <c r="D584" s="5"/>
     </row>
     <row r="585" spans="1:4" ht="15.75">
       <c r="A585" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="B585" s="19"/>
-      <c r="C585" s="19"/>
-      <c r="D585" s="5" t="s">
-        <v>726</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="B585" s="20"/>
+      <c r="C585" s="20"/>
+      <c r="D585" s="5"/>
     </row>
     <row r="586" spans="1:4" ht="15.75">
       <c r="A586" s="5" t="s">
-        <v>727</v>
+        <v>590</v>
       </c>
       <c r="B586" s="10"/>
-      <c r="C586" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D586" s="5" t="s">
-        <v>724</v>
-      </c>
+      <c r="C586" s="5"/>
+      <c r="D586" s="5"/>
     </row>
     <row r="587" spans="1:4" ht="15.75">
       <c r="A587" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="B587" s="19"/>
-      <c r="C587" s="19"/>
-      <c r="D587" s="5" t="s">
-        <v>726</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="B587" s="20"/>
+      <c r="C587" s="20"/>
+      <c r="D587" s="5"/>
     </row>
     <row r="588" spans="1:4" ht="15.75">
       <c r="A588" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B588" s="19"/>
-      <c r="C588" s="19"/>
-      <c r="D588" s="5" t="s">
-        <v>731</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="B588" s="20"/>
+      <c r="C588" s="20"/>
+      <c r="D588" s="5"/>
     </row>
     <row r="589" spans="1:4" ht="15.75">
       <c r="A589" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B589" s="19"/>
-      <c r="C589" s="19"/>
+        <v>593</v>
+      </c>
+      <c r="B589" s="20"/>
+      <c r="C589" s="20"/>
       <c r="D589" s="10"/>
     </row>
     <row r="590" spans="1:4" ht="15.75">
       <c r="A590" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="B590" s="19"/>
-      <c r="C590" s="19"/>
+        <v>594</v>
+      </c>
+      <c r="B590" s="20"/>
+      <c r="C590" s="20"/>
       <c r="D590" s="10"/>
     </row>
     <row r="591" spans="1:4" ht="15.75">
       <c r="A591" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="B591" s="19"/>
-      <c r="C591" s="19"/>
+        <v>595</v>
+      </c>
+      <c r="B591" s="20"/>
+      <c r="C591" s="20"/>
       <c r="D591" s="10"/>
     </row>
     <row r="592" spans="1:4" ht="15.75">
       <c r="A592" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="B592" s="19"/>
-      <c r="C592" s="19"/>
+        <v>596</v>
+      </c>
+      <c r="B592" s="20"/>
+      <c r="C592" s="20"/>
       <c r="D592" s="10"/>
     </row>
     <row r="593" spans="1:4" ht="15.75">
       <c r="A593" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="B593" s="19"/>
-      <c r="C593" s="19"/>
-      <c r="D593" s="5" t="s">
-        <v>737</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="B593" s="20"/>
+      <c r="C593" s="20"/>
+      <c r="D593" s="5"/>
     </row>
     <row r="594" spans="1:4" ht="15.75">
       <c r="A594" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="B594" s="19"/>
-      <c r="C594" s="19"/>
+        <v>598</v>
+      </c>
+      <c r="B594" s="20"/>
+      <c r="C594" s="20"/>
       <c r="D594" s="5"/>
     </row>
     <row r="595" spans="1:4" ht="15.75">
       <c r="A595" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B595" s="19"/>
-      <c r="C595" s="19"/>
-      <c r="D595" s="5" t="s">
-        <v>740</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="B595" s="20"/>
+      <c r="C595" s="20"/>
+      <c r="D595" s="5"/>
     </row>
     <row r="596" spans="1:4" ht="15.75">
       <c r="A596" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="B596" s="19"/>
-      <c r="C596" s="19"/>
-      <c r="D596" s="5" t="s">
-        <v>742</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="B596" s="20"/>
+      <c r="C596" s="20"/>
+      <c r="D596" s="5"/>
     </row>
     <row r="597" spans="1:4" ht="15.75">
       <c r="A597" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="B597" s="19"/>
-      <c r="C597" s="19"/>
-      <c r="D597" s="5" t="s">
-        <v>744</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="B597" s="20"/>
+      <c r="C597" s="20"/>
+      <c r="D597" s="5"/>
     </row>
     <row r="598" spans="1:4" ht="15.75">
       <c r="A598" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="B598" s="19"/>
-      <c r="C598" s="19"/>
+        <v>602</v>
+      </c>
+      <c r="B598" s="20"/>
+      <c r="C598" s="20"/>
       <c r="D598" s="10"/>
     </row>
     <row r="599" spans="1:4" ht="15.75">
       <c r="A599" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="B599" s="19"/>
-      <c r="C599" s="19"/>
-      <c r="D599" s="5" t="s">
-        <v>747</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="B599" s="20"/>
+      <c r="C599" s="20"/>
+      <c r="D599" s="5"/>
     </row>
     <row r="600" spans="1:4" ht="15.75">
       <c r="A600" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="B600" s="19"/>
-      <c r="C600" s="19"/>
-      <c r="D600" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="B600" s="20"/>
+      <c r="C600" s="20"/>
+      <c r="D600" s="5"/>
     </row>
     <row r="601" spans="1:4" ht="15.75">
       <c r="A601" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="B601" s="19"/>
-      <c r="C601" s="19"/>
-      <c r="D601" s="5" t="s">
-        <v>751</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="B601" s="20"/>
+      <c r="C601" s="20"/>
+      <c r="D601" s="5"/>
     </row>
     <row r="602" spans="1:4" ht="15.75">
       <c r="A602" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="B602" s="19"/>
-      <c r="C602" s="19"/>
-      <c r="D602" s="5" t="s">
-        <v>753</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="B602" s="20"/>
+      <c r="C602" s="20"/>
+      <c r="D602" s="5"/>
     </row>
     <row r="603" spans="1:4" ht="15.75">
       <c r="A603" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B603" s="19"/>
-      <c r="C603" s="19"/>
-      <c r="D603" s="5" t="s">
-        <v>737</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="B603" s="20"/>
+      <c r="C603" s="20"/>
+      <c r="D603" s="5"/>
     </row>
     <row r="604" spans="1:4" ht="15.75">
       <c r="A604" s="5" t="s">
-        <v>755</v>
+        <v>608</v>
       </c>
       <c r="B604" s="10"/>
-      <c r="C604" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D604" s="7" t="s">
-        <v>757</v>
-      </c>
+      <c r="C604" s="5"/>
+      <c r="D604" s="7"/>
     </row>
     <row r="605" spans="1:4" ht="15.75">
       <c r="A605" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B605" s="19"/>
-      <c r="C605" s="19"/>
-      <c r="D605" s="5" t="s">
-        <v>759</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="B605" s="20"/>
+      <c r="C605" s="20"/>
+      <c r="D605" s="5"/>
     </row>
     <row r="606" spans="1:4" ht="15.75">
       <c r="A606" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="B606" s="19"/>
-      <c r="C606" s="19"/>
+        <v>610</v>
+      </c>
+      <c r="B606" s="20"/>
+      <c r="C606" s="20"/>
       <c r="D606" s="5"/>
     </row>
     <row r="607" spans="1:4" ht="15.75">
       <c r="A607" s="5" t="s">
-        <v>761</v>
+        <v>611</v>
       </c>
       <c r="B607" s="10"/>
       <c r="C607" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="D607" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="D607" s="5"/>
     </row>
     <row r="608" spans="1:4" ht="15.75">
       <c r="A608" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="B608" s="19"/>
-      <c r="C608" s="19"/>
-      <c r="D608" s="5" t="s">
-        <v>737</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="B608" s="20"/>
+      <c r="C608" s="20"/>
+      <c r="D608" s="5"/>
     </row>
     <row r="609" spans="1:4" ht="15.75">
       <c r="A609" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="B609" s="19"/>
-      <c r="C609" s="19"/>
+        <v>614</v>
+      </c>
+      <c r="B609" s="20"/>
+      <c r="C609" s="20"/>
       <c r="D609" s="5"/>
     </row>
     <row r="610" spans="1:4" ht="15.75">
       <c r="A610" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="B610" s="19"/>
-      <c r="C610" s="19"/>
-      <c r="D610" s="5" t="s">
-        <v>767</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="B610" s="20"/>
+      <c r="C610" s="20"/>
+      <c r="D610" s="5"/>
     </row>
     <row r="611" spans="1:4" ht="15.75">
       <c r="A611" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="B611" s="19"/>
-      <c r="C611" s="19"/>
-      <c r="D611" s="5" t="s">
-        <v>769</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="B611" s="20"/>
+      <c r="C611" s="20"/>
+      <c r="D611" s="5"/>
     </row>
     <row r="612" spans="1:4" ht="15.75">
       <c r="A612" s="13" t="s">
-        <v>770</v>
+        <v>617</v>
       </c>
       <c r="B612" s="10"/>
-      <c r="C612" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D612" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="C612" s="10"/>
+      <c r="D612" s="5"/>
     </row>
     <row r="613" spans="1:4" ht="15.75">
       <c r="A613" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="B613" s="19"/>
-      <c r="C613" s="19"/>
+        <v>618</v>
+      </c>
+      <c r="B613" s="20"/>
+      <c r="C613" s="20"/>
       <c r="D613" s="10"/>
     </row>
     <row r="614" spans="1:4" ht="15.75">
       <c r="A614" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="B614" s="19"/>
-      <c r="C614" s="19"/>
-      <c r="D614" s="5" t="s">
-        <v>740</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="B614" s="20"/>
+      <c r="C614" s="20"/>
+      <c r="D614" s="5"/>
     </row>
     <row r="615" spans="1:4" ht="15.75">
       <c r="A615" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="B615" s="19"/>
-      <c r="C615" s="19"/>
-      <c r="D615" s="5" t="s">
-        <v>775</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="B615" s="20"/>
+      <c r="C615" s="20"/>
+      <c r="D615" s="5"/>
     </row>
     <row r="616" spans="1:4" ht="15.75">
       <c r="A616" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="B616" s="19"/>
-      <c r="C616" s="19"/>
+        <v>621</v>
+      </c>
+      <c r="B616" s="20"/>
+      <c r="C616" s="20"/>
       <c r="D616" s="5"/>
     </row>
     <row r="617" spans="1:4" ht="15.75">
       <c r="A617" s="5" t="s">
-        <v>777</v>
+        <v>622</v>
       </c>
       <c r="B617" s="10"/>
-      <c r="C617" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="D617" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="C617" s="5"/>
+      <c r="D617" s="5"/>
     </row>
     <row r="618" spans="1:4" ht="15.75">
       <c r="A618" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="B618" s="19"/>
-      <c r="C618" s="19"/>
+        <v>623</v>
+      </c>
+      <c r="B618" s="20"/>
+      <c r="C618" s="20"/>
       <c r="D618" s="5"/>
     </row>
     <row r="619" spans="1:4" ht="15.75">
       <c r="A619" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="B619" s="19"/>
-      <c r="C619" s="19"/>
+        <v>624</v>
+      </c>
+      <c r="B619" s="20"/>
+      <c r="C619" s="20"/>
       <c r="D619" s="10"/>
     </row>
     <row r="620" spans="1:4" ht="15.75">
       <c r="A620" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="B620" s="19"/>
-      <c r="C620" s="19"/>
+        <v>625</v>
+      </c>
+      <c r="B620" s="20"/>
+      <c r="C620" s="20"/>
       <c r="D620" s="10"/>
     </row>
     <row r="621" spans="1:4" ht="15.75">
       <c r="A621" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="B621" s="19"/>
-      <c r="C621" s="19"/>
+        <v>626</v>
+      </c>
+      <c r="B621" s="20"/>
+      <c r="C621" s="20"/>
       <c r="D621" s="10"/>
     </row>
     <row r="622" spans="1:4" ht="15.75">
       <c r="A622" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="B622" s="19"/>
-      <c r="C622" s="19"/>
+        <v>627</v>
+      </c>
+      <c r="B622" s="20"/>
+      <c r="C622" s="20"/>
       <c r="D622" s="6"/>
     </row>
     <row r="623" spans="1:4" ht="15.75">
       <c r="A623" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="B623" s="19"/>
-      <c r="C623" s="19"/>
+        <v>628</v>
+      </c>
+      <c r="B623" s="20"/>
+      <c r="C623" s="20"/>
       <c r="D623" s="6"/>
     </row>
     <row r="624" spans="1:4" ht="15.75">
       <c r="A624" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="B624" s="19"/>
-      <c r="C624" s="19"/>
+        <v>629</v>
+      </c>
+      <c r="B624" s="20"/>
+      <c r="C624" s="20"/>
       <c r="D624" s="10"/>
     </row>
     <row r="625" spans="1:4" ht="15.75">
       <c r="A625" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="B625" s="19"/>
-      <c r="C625" s="19"/>
+        <v>630</v>
+      </c>
+      <c r="B625" s="20"/>
+      <c r="C625" s="20"/>
       <c r="D625" s="10"/>
     </row>
     <row r="626" spans="1:4" ht="15.75">
       <c r="A626" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="B626" s="19"/>
-      <c r="C626" s="19"/>
+        <v>631</v>
+      </c>
+      <c r="B626" s="20"/>
+      <c r="C626" s="20"/>
       <c r="D626" s="10"/>
     </row>
     <row r="627" spans="1:4" ht="15.75">
       <c r="A627" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="B627" s="19"/>
-      <c r="C627" s="19"/>
-      <c r="D627" s="5" t="s">
-        <v>789</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="B627" s="20"/>
+      <c r="C627" s="20"/>
+      <c r="D627" s="5"/>
     </row>
     <row r="628" spans="1:4" ht="15.75">
       <c r="A628" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="B628" s="19"/>
-      <c r="C628" s="19"/>
+        <v>633</v>
+      </c>
+      <c r="B628" s="20"/>
+      <c r="C628" s="20"/>
       <c r="D628" s="10"/>
     </row>
     <row r="629" spans="1:4" ht="15.75">
       <c r="A629" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="B629" s="19"/>
-      <c r="C629" s="19"/>
-      <c r="D629" s="5" t="s">
-        <v>792</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="B629" s="20"/>
+      <c r="C629" s="20"/>
+      <c r="D629" s="5"/>
     </row>
     <row r="630" spans="1:4" ht="15.75">
       <c r="A630" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="B630" s="19"/>
-      <c r="C630" s="19"/>
+        <v>635</v>
+      </c>
+      <c r="B630" s="20"/>
+      <c r="C630" s="20"/>
       <c r="D630" s="5"/>
     </row>
     <row r="631" spans="1:4" ht="15.75">
       <c r="A631" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="B631" s="19"/>
-      <c r="C631" s="19"/>
+        <v>636</v>
+      </c>
+      <c r="B631" s="20"/>
+      <c r="C631" s="20"/>
       <c r="D631" s="10"/>
     </row>
     <row r="632" spans="1:4" ht="15.75">
       <c r="A632" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="B632" s="19"/>
-      <c r="C632" s="19"/>
+        <v>637</v>
+      </c>
+      <c r="B632" s="20"/>
+      <c r="C632" s="20"/>
       <c r="D632" s="10"/>
     </row>
     <row r="633" spans="1:4" ht="15.75">
       <c r="A633" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="B633" s="19"/>
-      <c r="C633" s="19"/>
+        <v>638</v>
+      </c>
+      <c r="B633" s="20"/>
+      <c r="C633" s="20"/>
       <c r="D633" s="10"/>
     </row>
     <row r="634" spans="1:4" ht="15.75">
       <c r="A634" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="B634" s="19"/>
-      <c r="C634" s="19"/>
+        <v>639</v>
+      </c>
+      <c r="B634" s="20"/>
+      <c r="C634" s="20"/>
       <c r="D634" s="10"/>
     </row>
     <row r="635" spans="1:4" ht="15.75">
       <c r="A635" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="B635" s="19"/>
-      <c r="C635" s="19"/>
+        <v>640</v>
+      </c>
+      <c r="B635" s="20"/>
+      <c r="C635" s="20"/>
       <c r="D635" s="10"/>
     </row>
     <row r="636" spans="1:4" ht="15.75">
       <c r="A636" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="B636" s="19"/>
-      <c r="C636" s="19"/>
+        <v>641</v>
+      </c>
+      <c r="B636" s="20"/>
+      <c r="C636" s="20"/>
       <c r="D636" s="10"/>
     </row>
     <row r="637" spans="1:4" ht="15.75">
       <c r="A637" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="B637" s="19"/>
-      <c r="C637" s="19"/>
+        <v>642</v>
+      </c>
+      <c r="B637" s="20"/>
+      <c r="C637" s="20"/>
       <c r="D637" s="10"/>
     </row>
     <row r="638" spans="1:4" ht="15.75">
       <c r="A638" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="B638" s="19"/>
-      <c r="C638" s="19"/>
+        <v>643</v>
+      </c>
+      <c r="B638" s="20"/>
+      <c r="C638" s="20"/>
       <c r="D638" s="10"/>
     </row>
     <row r="639" spans="1:4" ht="15.75">
       <c r="A639" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="B639" s="19"/>
-      <c r="C639" s="19"/>
+        <v>644</v>
+      </c>
+      <c r="B639" s="20"/>
+      <c r="C639" s="20"/>
       <c r="D639" s="10"/>
     </row>
     <row r="640" spans="1:4" ht="15.75">
       <c r="A640" s="13" t="s">
-        <v>803</v>
+        <v>645</v>
       </c>
       <c r="B640" s="10"/>
       <c r="C640" s="16" t="s">
-        <v>804</v>
+        <v>646</v>
       </c>
       <c r="D640" s="10"/>
     </row>
     <row r="641" spans="1:4" ht="15.75">
       <c r="A641" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="B641" s="19"/>
-      <c r="C641" s="19"/>
+        <v>647</v>
+      </c>
+      <c r="B641" s="20"/>
+      <c r="C641" s="20"/>
       <c r="D641" s="10"/>
     </row>
     <row r="642" spans="1:4" ht="15.75">
       <c r="A642" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B642" s="19"/>
-      <c r="C642" s="19"/>
+        <v>648</v>
+      </c>
+      <c r="B642" s="20"/>
+      <c r="C642" s="20"/>
       <c r="D642" s="10"/>
     </row>
     <row r="643" spans="1:4" ht="15.75">
       <c r="A643" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="B643" s="19"/>
-      <c r="C643" s="19"/>
+        <v>649</v>
+      </c>
+      <c r="B643" s="20"/>
+      <c r="C643" s="20"/>
       <c r="D643" s="10"/>
     </row>
     <row r="644" spans="1:4" ht="15.75">
       <c r="A644" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="B644" s="19"/>
-      <c r="C644" s="19"/>
-      <c r="D644" s="5" t="s">
-        <v>809</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="B644" s="20"/>
+      <c r="C644" s="20"/>
+      <c r="D644" s="5"/>
     </row>
     <row r="645" spans="1:4" ht="15.75">
       <c r="A645" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="B645" s="19"/>
-      <c r="C645" s="19"/>
+        <v>651</v>
+      </c>
+      <c r="B645" s="20"/>
+      <c r="C645" s="20"/>
       <c r="D645" s="10"/>
     </row>
     <row r="646" spans="1:4" ht="15.75">
       <c r="A646" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="B646" s="19"/>
-      <c r="C646" s="19"/>
-      <c r="D646" s="5" t="s">
-        <v>812</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="B646" s="20"/>
+      <c r="C646" s="20"/>
+      <c r="D646" s="5"/>
     </row>
     <row r="647" spans="1:4" ht="15.75">
       <c r="A647" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="B647" s="19"/>
-      <c r="C647" s="19"/>
+        <v>653</v>
+      </c>
+      <c r="B647" s="20"/>
+      <c r="C647" s="20"/>
       <c r="D647" s="10"/>
     </row>
     <row r="648" spans="1:4" ht="15.75">
       <c r="A648" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="B648" s="19"/>
-      <c r="C648" s="19"/>
+        <v>654</v>
+      </c>
+      <c r="B648" s="20"/>
+      <c r="C648" s="20"/>
       <c r="D648" s="10"/>
     </row>
     <row r="649" spans="1:4" ht="15.75">
       <c r="A649" s="5" t="s">
-        <v>815</v>
+        <v>655</v>
       </c>
       <c r="B649" s="10"/>
-      <c r="C649" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="D649" s="5" t="s">
-        <v>817</v>
-      </c>
+      <c r="C649" s="5"/>
+      <c r="D649" s="5"/>
     </row>
     <row r="650" spans="1:4" ht="15.75">
       <c r="A650" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="B650" s="19"/>
-      <c r="C650" s="19"/>
+        <v>656</v>
+      </c>
+      <c r="B650" s="20"/>
+      <c r="C650" s="20"/>
       <c r="D650" s="10"/>
     </row>
     <row r="651" spans="1:4" ht="15.75">
       <c r="A651" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="B651" s="19"/>
-      <c r="C651" s="19"/>
+        <v>657</v>
+      </c>
+      <c r="B651" s="20"/>
+      <c r="C651" s="20"/>
       <c r="D651" s="10"/>
     </row>
     <row r="652" spans="1:4" ht="15.75">
       <c r="A652" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="B652" s="19"/>
-      <c r="C652" s="19"/>
-      <c r="D652" s="5" t="s">
-        <v>821</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="B652" s="20"/>
+      <c r="C652" s="20"/>
+      <c r="D652" s="5"/>
     </row>
     <row r="653" spans="1:4" ht="15.75">
       <c r="A653" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="B653" s="19"/>
-      <c r="C653" s="19"/>
+        <v>659</v>
+      </c>
+      <c r="B653" s="20"/>
+      <c r="C653" s="20"/>
       <c r="D653" s="10"/>
     </row>
     <row r="654" spans="1:4" ht="15.75">
       <c r="A654" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="B654" s="19"/>
-      <c r="C654" s="19"/>
+        <v>660</v>
+      </c>
+      <c r="B654" s="20"/>
+      <c r="C654" s="20"/>
       <c r="D654" s="10"/>
     </row>
     <row r="655" spans="1:4" ht="15.75">
       <c r="A655" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="B655" s="19"/>
-      <c r="C655" s="19"/>
+        <v>661</v>
+      </c>
+      <c r="B655" s="20"/>
+      <c r="C655" s="20"/>
       <c r="D655" s="10"/>
     </row>
     <row r="656" spans="1:4" ht="15.75">
       <c r="A656" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="B656" s="19"/>
-      <c r="C656" s="19"/>
-      <c r="D656" s="5" t="s">
-        <v>826</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="B656" s="20"/>
+      <c r="C656" s="20"/>
+      <c r="D656" s="5"/>
     </row>
     <row r="657" spans="1:4" ht="15.75">
       <c r="A657" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="B657" s="19"/>
-      <c r="C657" s="19"/>
+        <v>663</v>
+      </c>
+      <c r="B657" s="20"/>
+      <c r="C657" s="20"/>
       <c r="D657" s="10"/>
     </row>
     <row r="658" spans="1:4" ht="15.75">
       <c r="A658" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="B658" s="19"/>
-      <c r="C658" s="19"/>
-      <c r="D658" s="5" t="s">
-        <v>821</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="B658" s="20"/>
+      <c r="C658" s="20"/>
+      <c r="D658" s="5"/>
     </row>
     <row r="659" spans="1:4" ht="15.75">
       <c r="A659" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="B659" s="19"/>
-      <c r="C659" s="19"/>
+        <v>665</v>
+      </c>
+      <c r="B659" s="20"/>
+      <c r="C659" s="20"/>
       <c r="D659" s="10"/>
     </row>
     <row r="660" spans="1:4" ht="15.75">
       <c r="A660" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="B660" s="19"/>
-      <c r="C660" s="19"/>
+        <v>666</v>
+      </c>
+      <c r="B660" s="20"/>
+      <c r="C660" s="20"/>
       <c r="D660" s="10"/>
     </row>
     <row r="661" spans="1:4" ht="15.75">
       <c r="A661" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="B661" s="19"/>
-      <c r="C661" s="19"/>
+        <v>667</v>
+      </c>
+      <c r="B661" s="20"/>
+      <c r="C661" s="20"/>
       <c r="D661" s="10"/>
     </row>
     <row r="662" spans="1:4" ht="15.75">
       <c r="A662" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="B662" s="19"/>
-      <c r="C662" s="19"/>
+        <v>668</v>
+      </c>
+      <c r="B662" s="20"/>
+      <c r="C662" s="20"/>
       <c r="D662" s="10"/>
     </row>
     <row r="663" spans="1:4" ht="15.75">
       <c r="A663" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="B663" s="19"/>
-      <c r="C663" s="19"/>
+        <v>669</v>
+      </c>
+      <c r="B663" s="20"/>
+      <c r="C663" s="20"/>
       <c r="D663" s="10"/>
     </row>
     <row r="664" spans="1:4" ht="15.75">
       <c r="A664" s="8" t="s">
-        <v>834</v>
+        <v>670</v>
       </c>
       <c r="B664" s="10"/>
-      <c r="C664" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="D664" s="5" t="s">
-        <v>836</v>
-      </c>
+      <c r="C664" s="5"/>
+      <c r="D664" s="5"/>
     </row>
     <row r="665" spans="1:4" ht="15.75">
       <c r="A665" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="B665" s="19"/>
-      <c r="C665" s="19"/>
+        <v>671</v>
+      </c>
+      <c r="B665" s="20"/>
+      <c r="C665" s="20"/>
       <c r="D665" s="5"/>
     </row>
     <row r="666" spans="1:4" ht="15.75">
       <c r="A666" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="B666" s="19"/>
-      <c r="C666" s="19"/>
+        <v>672</v>
+      </c>
+      <c r="B666" s="20"/>
+      <c r="C666" s="20"/>
       <c r="D666" s="10"/>
     </row>
     <row r="667" spans="1:4" ht="15.75">
       <c r="A667" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="B667" s="19"/>
-      <c r="C667" s="19"/>
-      <c r="D667" s="10" t="s">
-        <v>840</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="B667" s="20"/>
+      <c r="C667" s="20"/>
+      <c r="D667" s="10"/>
     </row>
     <row r="668" spans="1:4" ht="15.75">
       <c r="A668" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B668" s="19"/>
-      <c r="C668" s="19"/>
-      <c r="D668" s="5" t="s">
-        <v>842</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="B668" s="20"/>
+      <c r="C668" s="20"/>
+      <c r="D668" s="5"/>
     </row>
     <row r="669" spans="1:4" ht="15.75">
       <c r="A669" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="B669" s="19"/>
-      <c r="C669" s="19"/>
+        <v>675</v>
+      </c>
+      <c r="B669" s="20"/>
+      <c r="C669" s="20"/>
       <c r="D669" s="10"/>
     </row>
     <row r="670" spans="1:4" ht="15.75">
       <c r="A670" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="B670" s="19"/>
-      <c r="C670" s="19"/>
+        <v>676</v>
+      </c>
+      <c r="B670" s="20"/>
+      <c r="C670" s="20"/>
       <c r="D670" s="10"/>
     </row>
     <row r="671" spans="1:4" ht="15.75">
       <c r="A671" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="B671" s="19"/>
-      <c r="C671" s="19"/>
+        <v>677</v>
+      </c>
+      <c r="B671" s="20"/>
+      <c r="C671" s="20"/>
       <c r="D671" s="10"/>
     </row>
     <row r="672" spans="1:4" ht="15.75">
       <c r="A672" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="B672" s="19"/>
-      <c r="C672" s="19"/>
+        <v>678</v>
+      </c>
+      <c r="B672" s="20"/>
+      <c r="C672" s="20"/>
       <c r="D672" s="10"/>
     </row>
     <row r="673" spans="1:4" ht="15.75">
       <c r="A673" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="B673" s="19"/>
-      <c r="C673" s="19"/>
+        <v>679</v>
+      </c>
+      <c r="B673" s="20"/>
+      <c r="C673" s="20"/>
       <c r="D673" s="10"/>
     </row>
     <row r="674" spans="1:4" ht="15.75">
       <c r="A674" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="B674" s="19"/>
-      <c r="C674" s="19"/>
+        <v>680</v>
+      </c>
+      <c r="B674" s="20"/>
+      <c r="C674" s="20"/>
       <c r="D674" s="10"/>
     </row>
     <row r="675" spans="1:4" ht="15.75">
       <c r="A675" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="B675" s="19"/>
-      <c r="C675" s="19"/>
+        <v>681</v>
+      </c>
+      <c r="B675" s="20"/>
+      <c r="C675" s="20"/>
       <c r="D675" s="10"/>
     </row>
     <row r="676" spans="1:4" ht="15.75">
       <c r="A676" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="B676" s="19"/>
-      <c r="C676" s="19"/>
+        <v>682</v>
+      </c>
+      <c r="B676" s="20"/>
+      <c r="C676" s="20"/>
       <c r="D676" s="10"/>
+    </row>
+    <row r="677" spans="1:4" ht="15.75">
+      <c r="A677" s="17" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="15.75">
+      <c r="A678" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="15.75">
+      <c r="A679" s="17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="15.75">
+      <c r="A680" s="17" t="s">
+        <v>686</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="632">
@@ -9461,9 +8612,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -9479,6 +8627,9 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CVPeople.xlsx
+++ b/CVPeople.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3549928-B144-4795-85B5-AF12FD1EA4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE22BE9-C594-4DC9-8C49-F89A9103BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="630" windowWidth="26850" windowHeight="14865" xr2:uid="{51A6B197-C127-4301-9E29-8709F9E73BF5}"/>
+    <workbookView xWindow="2190" yWindow="45" windowWidth="26850" windowHeight="14865" xr2:uid="{51A6B197-C127-4301-9E29-8709F9E73BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
   <si>
     <t>PEOPLE</t>
   </si>
@@ -60,15 +60,9 @@
     <t>Adair, William J., Jr. (1930- )</t>
   </si>
   <si>
-    <t>Bill</t>
-  </si>
-  <si>
     <t>Adair, William J. T. (1891-1940)</t>
   </si>
   <si>
-    <t>Willie</t>
-  </si>
-  <si>
     <t>Aguirre, Raul Falomir</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Albo de Ruiz, Josefa (1821-1892)</t>
   </si>
   <si>
-    <t>Josefa Alba Garcia</t>
-  </si>
-  <si>
     <t>Allard, Juan J.</t>
   </si>
   <si>
@@ -156,18 +147,12 @@
     <t>Amador, Mary Clotilde, Sister</t>
   </si>
   <si>
-    <t>Hna. Clotilde</t>
-  </si>
-  <si>
     <t>Amador, Oscar Woodworth (1899-1983)</t>
   </si>
   <si>
     <t>Amador, Richard Joseph (1903-1983)</t>
   </si>
   <si>
-    <t>José Ricardo</t>
-  </si>
-  <si>
     <t>Amador, Ruben James (1901-1965)</t>
   </si>
   <si>
@@ -453,9 +438,6 @@
     <t>Campbell, Natalia Julieta (1913-1953)</t>
   </si>
   <si>
-    <t>Natalie</t>
-  </si>
-  <si>
     <t>Candelario, Jesus S.</t>
   </si>
   <si>
@@ -480,9 +462,6 @@
     <t>Carson Amador, Mary Louise (1898-1974)</t>
   </si>
   <si>
-    <t>Louisa; Luisa</t>
-  </si>
-  <si>
     <t>Castañeda, A. B.</t>
   </si>
   <si>
@@ -684,9 +663,6 @@
     <t>Duhalde, Jean Pierre (-1894)</t>
   </si>
   <si>
-    <t>Pedro; Peter</t>
-  </si>
-  <si>
     <t>Duler, K.</t>
   </si>
   <si>
@@ -1872,9 +1848,6 @@
     <t>Terrazas, Francisca (1882 -1912)</t>
   </si>
   <si>
-    <t>Quica</t>
-  </si>
-  <si>
     <t>Terrazas, Ignacio</t>
   </si>
   <si>
@@ -1972,9 +1945,6 @@
   </si>
   <si>
     <t>Velarde, Manuel</t>
-  </si>
-  <si>
-    <t>Mnuel</t>
   </si>
   <si>
     <t>Velaso, Carlos Y.</t>
@@ -2228,10 +2198,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2548,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C36D07-8F0C-45B7-8A9B-9AA46E3E154A}">
   <dimension ref="A1:D680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="C640" sqref="C640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2564,68 +2534,68 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="3"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="5"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
@@ -2633,130 +2603,124 @@
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2764,15 +2728,15 @@
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2780,7 +2744,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2788,7 +2752,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2796,7 +2760,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2804,7 +2768,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2812,15 +2776,15 @@
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2828,507 +2792,503 @@
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" ht="15.75">
       <c r="A58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" ht="15.75">
       <c r="A59" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" ht="15.75">
       <c r="A61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.75">
       <c r="A62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.75">
       <c r="A65" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75">
       <c r="A72" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" ht="15.75">
       <c r="A78" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
+        <v>89</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3336,345 +3296,343 @@
     </row>
     <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
       <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" ht="15.75">
       <c r="A111" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
       <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" ht="15.75">
       <c r="A113" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
       <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" ht="15.75">
       <c r="A117" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" ht="15.75">
       <c r="A119" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
+        <v>117</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" ht="15.75">
       <c r="A122" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" ht="15.75">
       <c r="A123" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" ht="15.75">
       <c r="A124" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4" ht="15.75">
       <c r="A125" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" ht="15.75">
       <c r="A126" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" ht="15.75">
       <c r="A127" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
+        <v>123</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
+        <v>124</v>
+      </c>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" ht="15.75">
       <c r="A129" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" ht="15.75">
       <c r="A132" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" ht="15.75">
       <c r="A133" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
+        <v>129</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" ht="15.75">
       <c r="A134" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" ht="15.75">
       <c r="A135" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" ht="15.75">
       <c r="A136" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" ht="15.75">
       <c r="A137" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B137" s="5"/>
-      <c r="C137" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" ht="15.75">
       <c r="A138" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" ht="15.75">
       <c r="A139" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" ht="15.75">
       <c r="A140" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="10"/>
@@ -3682,313 +3640,311 @@
     </row>
     <row r="141" spans="1:4" ht="15.75">
       <c r="A141" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
       <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" ht="15.75">
       <c r="A142" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" ht="15.75">
       <c r="A143" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
+        <v>140</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" ht="15.75">
       <c r="A145" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B145" s="5"/>
-      <c r="C145" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="C145" s="3"/>
       <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" ht="15.75">
       <c r="A146" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" ht="15.75">
       <c r="A147" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" ht="15.75">
       <c r="A148" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
+        <v>144</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
       <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" ht="15.75">
       <c r="A149" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
+        <v>145</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
       <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" ht="15.75">
       <c r="A150" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
+        <v>146</v>
+      </c>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" ht="15.75">
       <c r="A151" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
+        <v>147</v>
+      </c>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" ht="15.75">
       <c r="A152" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
+        <v>148</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" ht="15.75">
       <c r="A153" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" ht="15.75">
       <c r="A154" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
+        <v>150</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" ht="15.75">
       <c r="A155" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" ht="15.75">
       <c r="A156" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" ht="15.75">
       <c r="A157" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
+        <v>153</v>
+      </c>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
       <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" ht="15.75">
       <c r="A158" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
       <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" ht="15.75">
       <c r="A159" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" ht="15.75">
       <c r="A160" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" ht="15.75">
       <c r="A161" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
       <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" ht="15.75">
       <c r="A162" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
+        <v>158</v>
+      </c>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" ht="15.75">
       <c r="A163" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
+        <v>159</v>
+      </c>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" ht="15.75">
       <c r="A164" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
+        <v>160</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" ht="15.75">
       <c r="A165" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" ht="15.75">
       <c r="A166" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
+        <v>162</v>
+      </c>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" ht="15.75">
       <c r="A167" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
+        <v>163</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" ht="15.75">
       <c r="A168" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
+        <v>164</v>
+      </c>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" ht="15.75">
       <c r="A169" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
+        <v>165</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
       <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
+        <v>166</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
+        <v>168</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
       <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
+        <v>169</v>
+      </c>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
+        <v>170</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" ht="15.75">
       <c r="A176" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
+        <v>172</v>
+      </c>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" ht="15.75">
       <c r="A177" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+        <v>173</v>
+      </c>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" ht="15.75">
       <c r="A178" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
+        <v>174</v>
+      </c>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" ht="15.75">
       <c r="A179" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3996,151 +3952,151 @@
     </row>
     <row r="180" spans="1:4" ht="15.75">
       <c r="A180" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
+        <v>176</v>
+      </c>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" ht="15.75">
       <c r="A181" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
+        <v>177</v>
+      </c>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" ht="15.75">
       <c r="A182" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
+        <v>178</v>
+      </c>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" ht="15.75">
       <c r="A183" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" ht="15.75">
       <c r="A184" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
+        <v>180</v>
+      </c>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" ht="15.75">
       <c r="A185" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
+        <v>181</v>
+      </c>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" ht="15.75">
       <c r="A186" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
+        <v>182</v>
+      </c>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" ht="15.75">
       <c r="A187" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" ht="15.75">
       <c r="A189" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
+        <v>185</v>
+      </c>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" ht="15.75">
       <c r="A190" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
+        <v>186</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" ht="15.75">
       <c r="A191" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
+        <v>187</v>
+      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" ht="15.75">
       <c r="A192" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
+        <v>188</v>
+      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
+        <v>189</v>
+      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" ht="15.75">
       <c r="A194" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" ht="15.75">
       <c r="A195" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
+        <v>191</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" ht="15.75">
       <c r="A196" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
+        <v>192</v>
+      </c>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" ht="15.75">
       <c r="A197" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" s="20"/>
-      <c r="C197" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
       <c r="D197" s="10"/>
     </row>
     <row r="198" spans="1:4" ht="15.75">
       <c r="A198" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -4148,193 +4104,191 @@
     </row>
     <row r="199" spans="1:4" ht="15.75">
       <c r="A199" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
+        <v>195</v>
+      </c>
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
       <c r="D199" s="10"/>
     </row>
     <row r="200" spans="1:4" ht="15.75">
       <c r="A200" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" s="20"/>
-      <c r="C200" s="20"/>
+        <v>196</v>
+      </c>
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
       <c r="D200" s="10"/>
     </row>
     <row r="201" spans="1:4" ht="15.75">
       <c r="A201" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
+        <v>197</v>
+      </c>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
       <c r="D201" s="10"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
+        <v>198</v>
+      </c>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
       <c r="D202" s="10"/>
     </row>
     <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B203" s="20"/>
-      <c r="C203" s="20"/>
+        <v>199</v>
+      </c>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
       <c r="D203" s="10"/>
     </row>
     <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
+        <v>200</v>
+      </c>
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
       <c r="D204" s="10"/>
     </row>
     <row r="205" spans="1:4" ht="15.75">
       <c r="A205" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
+        <v>201</v>
+      </c>
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" ht="15.75">
       <c r="A206" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
+        <v>202</v>
+      </c>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
       <c r="D206" s="10"/>
     </row>
     <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B207" s="20"/>
-      <c r="C207" s="20"/>
+        <v>203</v>
+      </c>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
       <c r="D207" s="10"/>
     </row>
     <row r="208" spans="1:4" ht="15.75">
       <c r="A208" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
+        <v>204</v>
+      </c>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
       <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:4" ht="15.75">
       <c r="A209" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
+        <v>205</v>
+      </c>
+      <c r="B209" s="18"/>
+      <c r="C209" s="18"/>
       <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:4" ht="15.75">
       <c r="A210" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
+        <v>206</v>
+      </c>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
       <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4" ht="15.75">
       <c r="A211" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
+        <v>207</v>
+      </c>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
       <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:4" ht="15.75">
       <c r="A212" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B212" s="10"/>
-      <c r="C212" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" ht="15.75">
       <c r="A213" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
+        <v>209</v>
+      </c>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
       <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:4" ht="15.75">
       <c r="A214" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+        <v>210</v>
+      </c>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
       <c r="D214" s="10"/>
     </row>
     <row r="215" spans="1:4" ht="15.75">
       <c r="A215" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B215" s="20"/>
-      <c r="C215" s="20"/>
+        <v>211</v>
+      </c>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
       <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:4" ht="15.75">
       <c r="A216" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
+        <v>212</v>
+      </c>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
       <c r="D216" s="10"/>
     </row>
     <row r="217" spans="1:4" ht="15.75">
       <c r="A217" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
+        <v>213</v>
+      </c>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
       <c r="D217" s="10"/>
     </row>
     <row r="218" spans="1:4" ht="15.75">
       <c r="A218" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
+        <v>214</v>
+      </c>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
       <c r="D218" s="10"/>
     </row>
     <row r="219" spans="1:4" ht="15.75">
       <c r="A219" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
+        <v>215</v>
+      </c>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
       <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" ht="15.75">
       <c r="A220" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B220" s="20"/>
-      <c r="C220" s="20"/>
+        <v>216</v>
+      </c>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
       <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" ht="15.75">
       <c r="A221" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
+        <v>217</v>
+      </c>
+      <c r="B221" s="18"/>
+      <c r="C221" s="18"/>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" ht="15.75">
       <c r="A222" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="5"/>
@@ -4342,111 +4296,111 @@
     </row>
     <row r="223" spans="1:4" ht="15.75">
       <c r="A223" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
+        <v>219</v>
+      </c>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" ht="15.75">
       <c r="A224" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B224" s="20"/>
-      <c r="C224" s="20"/>
+        <v>220</v>
+      </c>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" ht="15.75">
       <c r="A225" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
+        <v>221</v>
+      </c>
+      <c r="B225" s="18"/>
+      <c r="C225" s="18"/>
       <c r="D225" s="10"/>
     </row>
     <row r="226" spans="1:4" ht="15.75">
       <c r="A226" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="B226" s="18"/>
+      <c r="C226" s="18"/>
       <c r="D226" s="10"/>
     </row>
     <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B227" s="20"/>
-      <c r="C227" s="20"/>
+        <v>223</v>
+      </c>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
       <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" ht="15.75">
       <c r="A228" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B228" s="20"/>
-      <c r="C228" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" ht="15.75">
       <c r="A229" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B230" s="20"/>
-      <c r="C230" s="20"/>
+        <v>226</v>
+      </c>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
       <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" ht="15.75">
       <c r="A231" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
+        <v>227</v>
+      </c>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
+        <v>228</v>
+      </c>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" ht="15.75">
       <c r="A233" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B233" s="20"/>
-      <c r="C233" s="20"/>
+        <v>229</v>
+      </c>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" ht="15.75">
       <c r="A234" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
+        <v>230</v>
+      </c>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B235" s="20"/>
-      <c r="C235" s="20"/>
+        <v>231</v>
+      </c>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" ht="15.75">
       <c r="A236" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="5"/>
@@ -4454,287 +4408,287 @@
     </row>
     <row r="237" spans="1:4" ht="15.75">
       <c r="A237" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
+        <v>233</v>
+      </c>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" ht="15.75">
       <c r="A238" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+        <v>234</v>
+      </c>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B239" s="20"/>
-      <c r="C239" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" ht="15.75">
       <c r="A240" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
+        <v>236</v>
+      </c>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" ht="15.75">
       <c r="A241" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B241" s="20"/>
-      <c r="C241" s="20"/>
+        <v>237</v>
+      </c>
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" ht="15.75">
       <c r="A242" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B242" s="20"/>
-      <c r="C242" s="20"/>
+        <v>238</v>
+      </c>
+      <c r="B242" s="18"/>
+      <c r="C242" s="18"/>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" ht="15.75">
       <c r="A243" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B243" s="20"/>
-      <c r="C243" s="20"/>
+        <v>239</v>
+      </c>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" ht="15.75">
       <c r="A244" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
+        <v>240</v>
+      </c>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" ht="15.75">
       <c r="A245" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B245" s="20"/>
-      <c r="C245" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B246" s="20"/>
-      <c r="C246" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="B246" s="18"/>
+      <c r="C246" s="18"/>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" ht="15.75">
       <c r="A247" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B247" s="20"/>
-      <c r="C247" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" ht="15.75">
       <c r="A248" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" ht="15.75">
       <c r="A249" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
+        <v>245</v>
+      </c>
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" ht="15.75">
       <c r="A250" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B250" s="20"/>
-      <c r="C250" s="20"/>
+        <v>246</v>
+      </c>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" ht="15.75">
       <c r="A251" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B251" s="20"/>
-      <c r="C251" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="B251" s="18"/>
+      <c r="C251" s="18"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" ht="15.75">
       <c r="A252" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B252" s="20"/>
-      <c r="C252" s="20"/>
+        <v>248</v>
+      </c>
+      <c r="B252" s="18"/>
+      <c r="C252" s="18"/>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" ht="15.75">
       <c r="A253" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" ht="15.75">
       <c r="A254" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B254" s="20"/>
-      <c r="C254" s="20"/>
+        <v>250</v>
+      </c>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" ht="15.75">
       <c r="A255" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B255" s="20"/>
-      <c r="C255" s="20"/>
+        <v>251</v>
+      </c>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" ht="15.75">
       <c r="A256" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B256" s="20"/>
-      <c r="C256" s="20"/>
+        <v>252</v>
+      </c>
+      <c r="B256" s="18"/>
+      <c r="C256" s="18"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" ht="15.75">
       <c r="A257" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B257" s="20"/>
-      <c r="C257" s="20"/>
+        <v>253</v>
+      </c>
+      <c r="B257" s="18"/>
+      <c r="C257" s="18"/>
       <c r="D257" s="10"/>
     </row>
     <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B258" s="20"/>
-      <c r="C258" s="20"/>
+        <v>254</v>
+      </c>
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
       <c r="D258" s="10"/>
     </row>
     <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B259" s="20"/>
-      <c r="C259" s="20"/>
+        <v>255</v>
+      </c>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
       <c r="D259" s="10"/>
     </row>
     <row r="260" spans="1:4" ht="15.75">
       <c r="A260" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B260" s="20"/>
-      <c r="C260" s="20"/>
+        <v>256</v>
+      </c>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
       <c r="D260" s="10"/>
     </row>
     <row r="261" spans="1:4" ht="15.75">
       <c r="A261" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B261" s="20"/>
-      <c r="C261" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
       <c r="D261" s="10"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
+        <v>258</v>
+      </c>
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
       <c r="D262" s="10"/>
     </row>
     <row r="263" spans="1:4" ht="15.75">
       <c r="A263" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B263" s="20"/>
-      <c r="C263" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="B263" s="18"/>
+      <c r="C263" s="18"/>
       <c r="D263" s="10"/>
     </row>
     <row r="264" spans="1:4" ht="15.75">
       <c r="A264" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B264" s="20"/>
-      <c r="C264" s="20"/>
+        <v>260</v>
+      </c>
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
       <c r="D264" s="10"/>
     </row>
     <row r="265" spans="1:4" ht="15.75">
       <c r="A265" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B265" s="20"/>
-      <c r="C265" s="20"/>
+        <v>261</v>
+      </c>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
       <c r="D265" s="10"/>
     </row>
     <row r="266" spans="1:4" ht="15.75">
       <c r="A266" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B266" s="20"/>
-      <c r="C266" s="20"/>
+        <v>262</v>
+      </c>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
       <c r="D266" s="10"/>
     </row>
     <row r="267" spans="1:4" ht="15.75">
       <c r="A267" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B267" s="20"/>
-      <c r="C267" s="20"/>
+        <v>263</v>
+      </c>
+      <c r="B267" s="18"/>
+      <c r="C267" s="18"/>
       <c r="D267" s="10"/>
     </row>
     <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B268" s="20"/>
-      <c r="C268" s="20"/>
+        <v>264</v>
+      </c>
+      <c r="B268" s="18"/>
+      <c r="C268" s="18"/>
       <c r="D268" s="10"/>
     </row>
     <row r="269" spans="1:4" ht="15.75">
       <c r="A269" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B269" s="20"/>
-      <c r="C269" s="20"/>
+        <v>265</v>
+      </c>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
       <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" ht="15.75">
       <c r="A270" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B270" s="20"/>
-      <c r="C270" s="20"/>
+        <v>266</v>
+      </c>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
       <c r="D270" s="10"/>
     </row>
     <row r="271" spans="1:4" ht="15.75">
       <c r="A271" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B271" s="20"/>
-      <c r="C271" s="20"/>
+        <v>267</v>
+      </c>
+      <c r="B271" s="18"/>
+      <c r="C271" s="18"/>
       <c r="D271" s="10"/>
     </row>
     <row r="272" spans="1:4" ht="15.75">
       <c r="A272" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -4742,159 +4696,159 @@
     </row>
     <row r="273" spans="1:4" ht="15.75">
       <c r="A273" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B273" s="20"/>
-      <c r="C273" s="20"/>
+        <v>269</v>
+      </c>
+      <c r="B273" s="18"/>
+      <c r="C273" s="18"/>
       <c r="D273" s="5"/>
     </row>
     <row r="274" spans="1:4" ht="15.75">
       <c r="A274" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B274" s="20"/>
-      <c r="C274" s="20"/>
+        <v>270</v>
+      </c>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
       <c r="D274" s="5"/>
     </row>
     <row r="275" spans="1:4" ht="15.75">
       <c r="A275" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="B275" s="18"/>
+      <c r="C275" s="18"/>
       <c r="D275" s="5"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B276" s="20"/>
-      <c r="C276" s="20"/>
+        <v>272</v>
+      </c>
+      <c r="B276" s="18"/>
+      <c r="C276" s="18"/>
       <c r="D276" s="5"/>
     </row>
     <row r="277" spans="1:4" ht="15.75">
       <c r="A277" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B277" s="20"/>
-      <c r="C277" s="20"/>
+        <v>273</v>
+      </c>
+      <c r="B277" s="18"/>
+      <c r="C277" s="18"/>
       <c r="D277" s="5"/>
     </row>
     <row r="278" spans="1:4" ht="15.75">
       <c r="A278" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B278" s="20"/>
-      <c r="C278" s="20"/>
+        <v>274</v>
+      </c>
+      <c r="B278" s="18"/>
+      <c r="C278" s="18"/>
       <c r="D278" s="5"/>
     </row>
     <row r="279" spans="1:4" ht="15.75">
       <c r="A279" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B279" s="20"/>
-      <c r="C279" s="20"/>
+        <v>275</v>
+      </c>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
       <c r="D279" s="5"/>
     </row>
     <row r="280" spans="1:4" ht="15.75">
       <c r="A280" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B280" s="20"/>
-      <c r="C280" s="20"/>
+        <v>276</v>
+      </c>
+      <c r="B280" s="18"/>
+      <c r="C280" s="18"/>
       <c r="D280" s="5"/>
     </row>
     <row r="281" spans="1:4" ht="15.75">
       <c r="A281" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B281" s="20"/>
-      <c r="C281" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="B281" s="18"/>
+      <c r="C281" s="18"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" ht="15.75">
       <c r="A282" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B282" s="20"/>
-      <c r="C282" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="B282" s="18"/>
+      <c r="C282" s="18"/>
       <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" ht="15.75">
       <c r="A283" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B283" s="20"/>
-      <c r="C283" s="20"/>
+        <v>279</v>
+      </c>
+      <c r="B283" s="18"/>
+      <c r="C283" s="18"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" ht="15.75">
       <c r="A284" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B284" s="20"/>
-      <c r="C284" s="20"/>
+        <v>280</v>
+      </c>
+      <c r="B284" s="18"/>
+      <c r="C284" s="18"/>
       <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" ht="15.75">
       <c r="A285" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B285" s="20"/>
-      <c r="C285" s="20"/>
+        <v>281</v>
+      </c>
+      <c r="B285" s="18"/>
+      <c r="C285" s="18"/>
       <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" ht="15.75">
       <c r="A286" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B286" s="20"/>
-      <c r="C286" s="20"/>
+        <v>282</v>
+      </c>
+      <c r="B286" s="18"/>
+      <c r="C286" s="18"/>
       <c r="D286" s="10"/>
     </row>
     <row r="287" spans="1:4" ht="15.75">
       <c r="A287" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B287" s="20"/>
-      <c r="C287" s="20"/>
+        <v>283</v>
+      </c>
+      <c r="B287" s="18"/>
+      <c r="C287" s="18"/>
       <c r="D287" s="10"/>
     </row>
     <row r="288" spans="1:4" ht="15.75">
       <c r="A288" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B288" s="20"/>
-      <c r="C288" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="B288" s="18"/>
+      <c r="C288" s="18"/>
       <c r="D288" s="10"/>
     </row>
     <row r="289" spans="1:4" ht="15.75">
       <c r="A289" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B289" s="20"/>
-      <c r="C289" s="20"/>
+        <v>285</v>
+      </c>
+      <c r="B289" s="18"/>
+      <c r="C289" s="18"/>
       <c r="D289" s="10"/>
     </row>
     <row r="290" spans="1:4" ht="15.75">
       <c r="A290" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B290" s="20"/>
-      <c r="C290" s="20"/>
+        <v>286</v>
+      </c>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
       <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B291" s="20"/>
-      <c r="C291" s="20"/>
+        <v>287</v>
+      </c>
+      <c r="B291" s="18"/>
+      <c r="C291" s="18"/>
       <c r="D291" s="10"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
@@ -4902,95 +4856,95 @@
     </row>
     <row r="293" spans="1:4" ht="15.75">
       <c r="A293" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B293" s="20"/>
-      <c r="C293" s="20"/>
+        <v>289</v>
+      </c>
+      <c r="B293" s="18"/>
+      <c r="C293" s="18"/>
       <c r="D293" s="10"/>
     </row>
     <row r="294" spans="1:4" ht="15.75">
       <c r="A294" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B294" s="20"/>
-      <c r="C294" s="20"/>
+        <v>290</v>
+      </c>
+      <c r="B294" s="18"/>
+      <c r="C294" s="18"/>
       <c r="D294" s="10"/>
     </row>
     <row r="295" spans="1:4" ht="15.75">
       <c r="A295" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B295" s="20"/>
-      <c r="C295" s="20"/>
+        <v>291</v>
+      </c>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
       <c r="D295" s="10"/>
     </row>
     <row r="296" spans="1:4" ht="15.75">
       <c r="A296" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+        <v>292</v>
+      </c>
+      <c r="B296" s="18"/>
+      <c r="C296" s="18"/>
       <c r="D296" s="10"/>
     </row>
     <row r="297" spans="1:4" ht="15.75">
       <c r="A297" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B297" s="20"/>
-      <c r="C297" s="20"/>
+        <v>293</v>
+      </c>
+      <c r="B297" s="18"/>
+      <c r="C297" s="18"/>
       <c r="D297" s="10"/>
     </row>
     <row r="298" spans="1:4" ht="15.75">
       <c r="A298" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B298" s="20"/>
-      <c r="C298" s="20"/>
+        <v>294</v>
+      </c>
+      <c r="B298" s="18"/>
+      <c r="C298" s="18"/>
       <c r="D298" s="10"/>
     </row>
     <row r="299" spans="1:4" ht="15.75">
       <c r="A299" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B299" s="20"/>
-      <c r="C299" s="20"/>
+        <v>295</v>
+      </c>
+      <c r="B299" s="18"/>
+      <c r="C299" s="18"/>
       <c r="D299" s="10"/>
     </row>
     <row r="300" spans="1:4" ht="15.75">
       <c r="A300" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B300" s="20"/>
-      <c r="C300" s="20"/>
+        <v>296</v>
+      </c>
+      <c r="B300" s="18"/>
+      <c r="C300" s="18"/>
       <c r="D300" s="10"/>
     </row>
     <row r="301" spans="1:4" ht="15.75">
       <c r="A301" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B301" s="20"/>
-      <c r="C301" s="20"/>
+        <v>297</v>
+      </c>
+      <c r="B301" s="18"/>
+      <c r="C301" s="18"/>
       <c r="D301" s="10"/>
     </row>
     <row r="302" spans="1:4" ht="15.75">
       <c r="A302" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B302" s="20"/>
-      <c r="C302" s="20"/>
+        <v>298</v>
+      </c>
+      <c r="B302" s="18"/>
+      <c r="C302" s="18"/>
       <c r="D302" s="10"/>
     </row>
     <row r="303" spans="1:4" ht="15.75">
       <c r="A303" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B303" s="20"/>
-      <c r="C303" s="20"/>
+        <v>299</v>
+      </c>
+      <c r="B303" s="18"/>
+      <c r="C303" s="18"/>
       <c r="D303" s="10"/>
     </row>
     <row r="304" spans="1:4" ht="15.75">
       <c r="A304" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B304" s="10"/>
       <c r="C304" s="14"/>
@@ -4998,271 +4952,271 @@
     </row>
     <row r="305" spans="1:4" ht="15.75">
       <c r="A305" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B305" s="20"/>
-      <c r="C305" s="20"/>
+        <v>301</v>
+      </c>
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
       <c r="D305" s="10"/>
     </row>
     <row r="306" spans="1:4" ht="15.75">
       <c r="A306" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B306" s="20"/>
-      <c r="C306" s="20"/>
+        <v>302</v>
+      </c>
+      <c r="B306" s="18"/>
+      <c r="C306" s="18"/>
       <c r="D306" s="10"/>
     </row>
     <row r="307" spans="1:4" ht="15.75">
       <c r="A307" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B307" s="20"/>
-      <c r="C307" s="20"/>
+        <v>303</v>
+      </c>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
       <c r="D307" s="10"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B308" s="20"/>
-      <c r="C308" s="20"/>
+        <v>304</v>
+      </c>
+      <c r="B308" s="18"/>
+      <c r="C308" s="18"/>
       <c r="D308" s="10"/>
     </row>
     <row r="309" spans="1:4" ht="15.75">
       <c r="A309" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B309" s="20"/>
-      <c r="C309" s="20"/>
+        <v>305</v>
+      </c>
+      <c r="B309" s="18"/>
+      <c r="C309" s="18"/>
       <c r="D309" s="10"/>
     </row>
     <row r="310" spans="1:4" ht="15.75">
       <c r="A310" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B310" s="20"/>
-      <c r="C310" s="20"/>
+        <v>306</v>
+      </c>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
       <c r="D310" s="10"/>
     </row>
     <row r="311" spans="1:4" ht="15.75">
       <c r="A311" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B311" s="20"/>
-      <c r="C311" s="20"/>
+        <v>307</v>
+      </c>
+      <c r="B311" s="18"/>
+      <c r="C311" s="18"/>
       <c r="D311" s="10"/>
     </row>
     <row r="312" spans="1:4" ht="15.75">
       <c r="A312" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B312" s="20"/>
-      <c r="C312" s="20"/>
+        <v>308</v>
+      </c>
+      <c r="B312" s="18"/>
+      <c r="C312" s="18"/>
       <c r="D312" s="10"/>
     </row>
     <row r="313" spans="1:4" ht="15.75">
       <c r="A313" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B313" s="20"/>
-      <c r="C313" s="20"/>
+        <v>309</v>
+      </c>
+      <c r="B313" s="18"/>
+      <c r="C313" s="18"/>
       <c r="D313" s="10"/>
     </row>
     <row r="314" spans="1:4" ht="15.75">
       <c r="A314" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B314" s="20"/>
-      <c r="C314" s="20"/>
+        <v>310</v>
+      </c>
+      <c r="B314" s="18"/>
+      <c r="C314" s="18"/>
       <c r="D314" s="10"/>
     </row>
     <row r="315" spans="1:4" ht="15.75">
       <c r="A315" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B315" s="20"/>
-      <c r="C315" s="20"/>
+        <v>311</v>
+      </c>
+      <c r="B315" s="18"/>
+      <c r="C315" s="18"/>
       <c r="D315" s="10"/>
     </row>
     <row r="316" spans="1:4" ht="15.75">
       <c r="A316" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B316" s="20"/>
-      <c r="C316" s="20"/>
+        <v>312</v>
+      </c>
+      <c r="B316" s="18"/>
+      <c r="C316" s="18"/>
       <c r="D316" s="5"/>
     </row>
     <row r="317" spans="1:4" ht="15.75">
       <c r="A317" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B317" s="20"/>
-      <c r="C317" s="20"/>
+        <v>313</v>
+      </c>
+      <c r="B317" s="18"/>
+      <c r="C317" s="18"/>
       <c r="D317" s="10"/>
     </row>
     <row r="318" spans="1:4" ht="15.75">
       <c r="A318" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B318" s="20"/>
-      <c r="C318" s="20"/>
+        <v>314</v>
+      </c>
+      <c r="B318" s="18"/>
+      <c r="C318" s="18"/>
       <c r="D318" s="10"/>
     </row>
     <row r="319" spans="1:4" ht="15.75">
       <c r="A319" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B319" s="20"/>
-      <c r="C319" s="20"/>
+        <v>315</v>
+      </c>
+      <c r="B319" s="18"/>
+      <c r="C319" s="18"/>
       <c r="D319" s="10"/>
     </row>
     <row r="320" spans="1:4" ht="15.75">
       <c r="A320" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B320" s="20"/>
-      <c r="C320" s="20"/>
+        <v>316</v>
+      </c>
+      <c r="B320" s="18"/>
+      <c r="C320" s="18"/>
       <c r="D320" s="10"/>
     </row>
     <row r="321" spans="1:4" ht="15.75">
       <c r="A321" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B321" s="20"/>
-      <c r="C321" s="20"/>
+        <v>317</v>
+      </c>
+      <c r="B321" s="18"/>
+      <c r="C321" s="18"/>
       <c r="D321" s="10"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B322" s="20"/>
-      <c r="C322" s="20"/>
+        <v>318</v>
+      </c>
+      <c r="B322" s="18"/>
+      <c r="C322" s="18"/>
       <c r="D322" s="10"/>
     </row>
     <row r="323" spans="1:4" ht="15.75">
       <c r="A323" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B323" s="20"/>
-      <c r="C323" s="20"/>
+        <v>319</v>
+      </c>
+      <c r="B323" s="18"/>
+      <c r="C323" s="18"/>
       <c r="D323" s="10"/>
     </row>
     <row r="324" spans="1:4" ht="15.75">
       <c r="A324" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B324" s="20"/>
-      <c r="C324" s="20"/>
+        <v>320</v>
+      </c>
+      <c r="B324" s="18"/>
+      <c r="C324" s="18"/>
       <c r="D324" s="10"/>
     </row>
     <row r="325" spans="1:4" ht="15.75">
       <c r="A325" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B325" s="20"/>
-      <c r="C325" s="20"/>
+        <v>321</v>
+      </c>
+      <c r="B325" s="18"/>
+      <c r="C325" s="18"/>
       <c r="D325" s="10"/>
     </row>
     <row r="326" spans="1:4" ht="15.75">
       <c r="A326" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B326" s="20"/>
-      <c r="C326" s="20"/>
+        <v>322</v>
+      </c>
+      <c r="B326" s="18"/>
+      <c r="C326" s="18"/>
       <c r="D326" s="10"/>
     </row>
     <row r="327" spans="1:4" ht="15.75">
       <c r="A327" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B327" s="20"/>
-      <c r="C327" s="20"/>
+        <v>323</v>
+      </c>
+      <c r="B327" s="18"/>
+      <c r="C327" s="18"/>
       <c r="D327" s="10"/>
     </row>
     <row r="328" spans="1:4" ht="15.75">
       <c r="A328" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
+        <v>324</v>
+      </c>
+      <c r="B328" s="18"/>
+      <c r="C328" s="18"/>
       <c r="D328" s="10"/>
     </row>
     <row r="329" spans="1:4" ht="15.75">
       <c r="A329" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B329" s="20"/>
-      <c r="C329" s="20"/>
+        <v>325</v>
+      </c>
+      <c r="B329" s="18"/>
+      <c r="C329" s="18"/>
       <c r="D329" s="10"/>
     </row>
     <row r="330" spans="1:4" ht="15.75">
       <c r="A330" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B330" s="20"/>
-      <c r="C330" s="20"/>
+        <v>326</v>
+      </c>
+      <c r="B330" s="18"/>
+      <c r="C330" s="18"/>
       <c r="D330" s="10"/>
     </row>
     <row r="331" spans="1:4" ht="15.75">
       <c r="A331" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B331" s="20"/>
-      <c r="C331" s="20"/>
+        <v>327</v>
+      </c>
+      <c r="B331" s="18"/>
+      <c r="C331" s="18"/>
       <c r="D331" s="5"/>
     </row>
     <row r="332" spans="1:4" ht="15.75">
       <c r="A332" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B332" s="20"/>
-      <c r="C332" s="20"/>
+        <v>328</v>
+      </c>
+      <c r="B332" s="18"/>
+      <c r="C332" s="18"/>
       <c r="D332" s="10"/>
     </row>
     <row r="333" spans="1:4" ht="15.75">
       <c r="A333" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B333" s="20"/>
-      <c r="C333" s="20"/>
+        <v>329</v>
+      </c>
+      <c r="B333" s="18"/>
+      <c r="C333" s="18"/>
       <c r="D333" s="10"/>
     </row>
     <row r="334" spans="1:4" ht="15.75">
       <c r="A334" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334" s="20"/>
-      <c r="C334" s="20"/>
+        <v>330</v>
+      </c>
+      <c r="B334" s="18"/>
+      <c r="C334" s="18"/>
       <c r="D334" s="10"/>
     </row>
     <row r="335" spans="1:4" ht="15.75">
       <c r="A335" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335" s="20"/>
-      <c r="C335" s="20"/>
+        <v>331</v>
+      </c>
+      <c r="B335" s="18"/>
+      <c r="C335" s="18"/>
       <c r="D335" s="10"/>
     </row>
     <row r="336" spans="1:4" ht="15.75">
       <c r="A336" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+        <v>332</v>
+      </c>
+      <c r="B336" s="18"/>
+      <c r="C336" s="18"/>
       <c r="D336" s="10"/>
     </row>
     <row r="337" spans="1:4" ht="15.75">
       <c r="A337" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B337" s="20"/>
-      <c r="C337" s="20"/>
+        <v>333</v>
+      </c>
+      <c r="B337" s="18"/>
+      <c r="C337" s="18"/>
       <c r="D337" s="10"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B338" s="10"/>
       <c r="C338" s="5"/>
@@ -5270,207 +5224,207 @@
     </row>
     <row r="339" spans="1:4" ht="15.75">
       <c r="A339" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B339" s="20"/>
-      <c r="C339" s="20"/>
+        <v>335</v>
+      </c>
+      <c r="B339" s="18"/>
+      <c r="C339" s="18"/>
       <c r="D339" s="5"/>
     </row>
     <row r="340" spans="1:4" ht="15.75">
       <c r="A340" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B340" s="20"/>
-      <c r="C340" s="20"/>
+        <v>336</v>
+      </c>
+      <c r="B340" s="18"/>
+      <c r="C340" s="18"/>
       <c r="D340" s="5"/>
     </row>
     <row r="341" spans="1:4" ht="15.75">
       <c r="A341" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B341" s="20"/>
-      <c r="C341" s="20"/>
+        <v>337</v>
+      </c>
+      <c r="B341" s="18"/>
+      <c r="C341" s="18"/>
       <c r="D341" s="10"/>
     </row>
     <row r="342" spans="1:4" ht="15.75">
       <c r="A342" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B342" s="20"/>
-      <c r="C342" s="20"/>
+        <v>338</v>
+      </c>
+      <c r="B342" s="18"/>
+      <c r="C342" s="18"/>
       <c r="D342" s="10"/>
     </row>
     <row r="343" spans="1:4" ht="15.75">
       <c r="A343" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B343" s="20"/>
-      <c r="C343" s="20"/>
+        <v>339</v>
+      </c>
+      <c r="B343" s="18"/>
+      <c r="C343" s="18"/>
       <c r="D343" s="10"/>
     </row>
     <row r="344" spans="1:4" ht="15.75">
       <c r="A344" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B344" s="20"/>
-      <c r="C344" s="20"/>
+        <v>340</v>
+      </c>
+      <c r="B344" s="18"/>
+      <c r="C344" s="18"/>
       <c r="D344" s="10"/>
     </row>
     <row r="345" spans="1:4" ht="15.75">
       <c r="A345" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B345" s="20"/>
-      <c r="C345" s="20"/>
+        <v>341</v>
+      </c>
+      <c r="B345" s="18"/>
+      <c r="C345" s="18"/>
       <c r="D345" s="10"/>
     </row>
     <row r="346" spans="1:4" ht="15.75">
       <c r="A346" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B346" s="20"/>
-      <c r="C346" s="20"/>
+        <v>342</v>
+      </c>
+      <c r="B346" s="18"/>
+      <c r="C346" s="18"/>
       <c r="D346" s="10"/>
     </row>
     <row r="347" spans="1:4" ht="15.75">
       <c r="A347" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B347" s="20"/>
-      <c r="C347" s="20"/>
+        <v>343</v>
+      </c>
+      <c r="B347" s="18"/>
+      <c r="C347" s="18"/>
       <c r="D347" s="10"/>
     </row>
     <row r="348" spans="1:4" ht="15.75">
       <c r="A348" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B348" s="20"/>
-      <c r="C348" s="20"/>
+        <v>344</v>
+      </c>
+      <c r="B348" s="18"/>
+      <c r="C348" s="18"/>
       <c r="D348" s="10"/>
     </row>
     <row r="349" spans="1:4" ht="15.75">
       <c r="A349" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B349" s="20"/>
-      <c r="C349" s="20"/>
+        <v>345</v>
+      </c>
+      <c r="B349" s="18"/>
+      <c r="C349" s="18"/>
       <c r="D349" s="10"/>
     </row>
     <row r="350" spans="1:4" ht="15.75">
       <c r="A350" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B350" s="20"/>
-      <c r="C350" s="20"/>
+        <v>346</v>
+      </c>
+      <c r="B350" s="18"/>
+      <c r="C350" s="18"/>
       <c r="D350" s="10"/>
     </row>
     <row r="351" spans="1:4" ht="15.75">
       <c r="A351" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B351" s="20"/>
-      <c r="C351" s="20"/>
+        <v>347</v>
+      </c>
+      <c r="B351" s="18"/>
+      <c r="C351" s="18"/>
       <c r="D351" s="10"/>
     </row>
     <row r="352" spans="1:4" ht="15.75">
       <c r="A352" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B352" s="20"/>
-      <c r="C352" s="20"/>
+        <v>348</v>
+      </c>
+      <c r="B352" s="18"/>
+      <c r="C352" s="18"/>
       <c r="D352" s="10"/>
     </row>
     <row r="353" spans="1:4" ht="15.75">
       <c r="A353" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B353" s="20"/>
-      <c r="C353" s="20"/>
+        <v>349</v>
+      </c>
+      <c r="B353" s="18"/>
+      <c r="C353" s="18"/>
       <c r="D353" s="10"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B354" s="20"/>
-      <c r="C354" s="20"/>
+        <v>350</v>
+      </c>
+      <c r="B354" s="18"/>
+      <c r="C354" s="18"/>
       <c r="D354" s="5"/>
     </row>
     <row r="355" spans="1:4" ht="15.75">
       <c r="A355" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B355" s="20"/>
-      <c r="C355" s="20"/>
+        <v>351</v>
+      </c>
+      <c r="B355" s="18"/>
+      <c r="C355" s="18"/>
       <c r="D355" s="10"/>
     </row>
     <row r="356" spans="1:4" ht="15.75">
       <c r="A356" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+        <v>352</v>
+      </c>
+      <c r="B356" s="18"/>
+      <c r="C356" s="18"/>
       <c r="D356" s="10"/>
     </row>
     <row r="357" spans="1:4" ht="15.75">
       <c r="A357" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B357" s="20"/>
-      <c r="C357" s="20"/>
+        <v>353</v>
+      </c>
+      <c r="B357" s="18"/>
+      <c r="C357" s="18"/>
       <c r="D357" s="10"/>
     </row>
     <row r="358" spans="1:4" ht="15.75">
       <c r="A358" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B358" s="20"/>
-      <c r="C358" s="20"/>
+        <v>354</v>
+      </c>
+      <c r="B358" s="18"/>
+      <c r="C358" s="18"/>
       <c r="D358" s="10"/>
     </row>
     <row r="359" spans="1:4" ht="15.75">
       <c r="A359" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B359" s="20"/>
-      <c r="C359" s="20"/>
+        <v>355</v>
+      </c>
+      <c r="B359" s="18"/>
+      <c r="C359" s="18"/>
       <c r="D359" s="10"/>
     </row>
     <row r="360" spans="1:4" ht="15.75">
       <c r="A360" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="20"/>
+        <v>356</v>
+      </c>
+      <c r="B360" s="18"/>
+      <c r="C360" s="18"/>
       <c r="D360" s="10"/>
     </row>
     <row r="361" spans="1:4" ht="15.75">
       <c r="A361" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B361" s="20"/>
-      <c r="C361" s="20"/>
+        <v>357</v>
+      </c>
+      <c r="B361" s="18"/>
+      <c r="C361" s="18"/>
       <c r="D361" s="5"/>
     </row>
     <row r="362" spans="1:4" ht="15.75">
       <c r="A362" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B362" s="20"/>
-      <c r="C362" s="20"/>
+        <v>358</v>
+      </c>
+      <c r="B362" s="18"/>
+      <c r="C362" s="18"/>
       <c r="D362" s="5"/>
     </row>
     <row r="363" spans="1:4" ht="15.75">
       <c r="A363" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B363" s="20"/>
-      <c r="C363" s="20"/>
+        <v>359</v>
+      </c>
+      <c r="B363" s="18"/>
+      <c r="C363" s="18"/>
       <c r="D363" s="5"/>
     </row>
     <row r="364" spans="1:4" ht="15.75">
       <c r="A364" s="8" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="5"/>
@@ -5478,855 +5432,855 @@
     </row>
     <row r="365" spans="1:4" ht="15.75">
       <c r="A365" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B365" s="20"/>
-      <c r="C365" s="20"/>
+        <v>361</v>
+      </c>
+      <c r="B365" s="18"/>
+      <c r="C365" s="18"/>
       <c r="D365" s="10"/>
     </row>
     <row r="366" spans="1:4" ht="15.75">
       <c r="A366" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B366" s="20"/>
-      <c r="C366" s="20"/>
+        <v>362</v>
+      </c>
+      <c r="B366" s="18"/>
+      <c r="C366" s="18"/>
       <c r="D366" s="5"/>
     </row>
     <row r="367" spans="1:4" ht="15.75">
       <c r="A367" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B367" s="20"/>
-      <c r="C367" s="20"/>
+        <v>363</v>
+      </c>
+      <c r="B367" s="18"/>
+      <c r="C367" s="18"/>
       <c r="D367" s="10"/>
     </row>
     <row r="368" spans="1:4" ht="15.75">
       <c r="A368" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B368" s="20"/>
-      <c r="C368" s="20"/>
+        <v>364</v>
+      </c>
+      <c r="B368" s="18"/>
+      <c r="C368" s="18"/>
       <c r="D368" s="10"/>
     </row>
     <row r="369" spans="1:4" ht="15.75">
       <c r="A369" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B369" s="20"/>
-      <c r="C369" s="20"/>
+        <v>365</v>
+      </c>
+      <c r="B369" s="18"/>
+      <c r="C369" s="18"/>
       <c r="D369" s="10"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B370" s="20"/>
-      <c r="C370" s="20"/>
+        <v>366</v>
+      </c>
+      <c r="B370" s="18"/>
+      <c r="C370" s="18"/>
       <c r="D370" s="10"/>
     </row>
     <row r="371" spans="1:4" ht="15.75">
       <c r="A371" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B371" s="20"/>
-      <c r="C371" s="20"/>
+        <v>367</v>
+      </c>
+      <c r="B371" s="18"/>
+      <c r="C371" s="18"/>
       <c r="D371" s="10"/>
     </row>
     <row r="372" spans="1:4" ht="15.75">
       <c r="A372" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B372" s="20"/>
-      <c r="C372" s="20"/>
+        <v>368</v>
+      </c>
+      <c r="B372" s="18"/>
+      <c r="C372" s="18"/>
       <c r="D372" s="10"/>
     </row>
     <row r="373" spans="1:4" ht="15.75">
       <c r="A373" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B373" s="20"/>
-      <c r="C373" s="20"/>
+        <v>369</v>
+      </c>
+      <c r="B373" s="18"/>
+      <c r="C373" s="18"/>
       <c r="D373" s="10"/>
     </row>
     <row r="374" spans="1:4" ht="15.75">
       <c r="A374" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B374" s="20"/>
-      <c r="C374" s="20"/>
+        <v>370</v>
+      </c>
+      <c r="B374" s="18"/>
+      <c r="C374" s="18"/>
       <c r="D374" s="10"/>
     </row>
     <row r="375" spans="1:4" ht="15.75">
       <c r="A375" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B375" s="20"/>
-      <c r="C375" s="20"/>
+        <v>371</v>
+      </c>
+      <c r="B375" s="18"/>
+      <c r="C375" s="18"/>
       <c r="D375" s="10"/>
     </row>
     <row r="376" spans="1:4" ht="15.75">
       <c r="A376" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B376" s="20"/>
-      <c r="C376" s="20"/>
+        <v>372</v>
+      </c>
+      <c r="B376" s="18"/>
+      <c r="C376" s="18"/>
       <c r="D376" s="5"/>
     </row>
     <row r="377" spans="1:4" ht="15.75">
       <c r="A377" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B377" s="20"/>
-      <c r="C377" s="20"/>
+        <v>373</v>
+      </c>
+      <c r="B377" s="18"/>
+      <c r="C377" s="18"/>
       <c r="D377" s="5"/>
     </row>
     <row r="378" spans="1:4" ht="15.75">
       <c r="A378" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B378" s="20"/>
-      <c r="C378" s="20"/>
+        <v>374</v>
+      </c>
+      <c r="B378" s="18"/>
+      <c r="C378" s="18"/>
       <c r="D378" s="10"/>
     </row>
     <row r="379" spans="1:4" ht="15.75">
       <c r="A379" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B379" s="20"/>
-      <c r="C379" s="20"/>
+        <v>375</v>
+      </c>
+      <c r="B379" s="18"/>
+      <c r="C379" s="18"/>
       <c r="D379" s="10"/>
     </row>
     <row r="380" spans="1:4" ht="15.75">
       <c r="A380" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B380" s="20"/>
-      <c r="C380" s="20"/>
+        <v>376</v>
+      </c>
+      <c r="B380" s="18"/>
+      <c r="C380" s="18"/>
       <c r="D380" s="10"/>
     </row>
     <row r="381" spans="1:4" ht="15.75">
       <c r="A381" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B381" s="20"/>
-      <c r="C381" s="20"/>
+        <v>377</v>
+      </c>
+      <c r="B381" s="18"/>
+      <c r="C381" s="18"/>
       <c r="D381" s="10"/>
     </row>
     <row r="382" spans="1:4" ht="15.75">
       <c r="A382" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B382" s="20"/>
-      <c r="C382" s="20"/>
+        <v>378</v>
+      </c>
+      <c r="B382" s="18"/>
+      <c r="C382" s="18"/>
       <c r="D382" s="10"/>
     </row>
     <row r="383" spans="1:4" ht="15.75">
       <c r="A383" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B383" s="20"/>
-      <c r="C383" s="20"/>
+        <v>379</v>
+      </c>
+      <c r="B383" s="18"/>
+      <c r="C383" s="18"/>
       <c r="D383" s="10"/>
     </row>
     <row r="384" spans="1:4" ht="15.75">
       <c r="A384" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B384" s="20"/>
-      <c r="C384" s="20"/>
+        <v>380</v>
+      </c>
+      <c r="B384" s="18"/>
+      <c r="C384" s="18"/>
       <c r="D384" s="10"/>
     </row>
     <row r="385" spans="1:4" ht="15.75">
       <c r="A385" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B385" s="20"/>
-      <c r="C385" s="20"/>
+        <v>381</v>
+      </c>
+      <c r="B385" s="18"/>
+      <c r="C385" s="18"/>
       <c r="D385" s="10"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B386" s="20"/>
-      <c r="C386" s="20"/>
+        <v>382</v>
+      </c>
+      <c r="B386" s="18"/>
+      <c r="C386" s="18"/>
       <c r="D386" s="10"/>
     </row>
     <row r="387" spans="1:4" ht="15.75">
       <c r="A387" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B387" s="20"/>
-      <c r="C387" s="20"/>
+        <v>383</v>
+      </c>
+      <c r="B387" s="18"/>
+      <c r="C387" s="18"/>
       <c r="D387" s="10"/>
     </row>
     <row r="388" spans="1:4" ht="15.75">
       <c r="A388" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B388" s="20"/>
-      <c r="C388" s="20"/>
+        <v>384</v>
+      </c>
+      <c r="B388" s="18"/>
+      <c r="C388" s="18"/>
       <c r="D388" s="10"/>
     </row>
     <row r="389" spans="1:4" ht="15.75">
       <c r="A389" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B389" s="20"/>
-      <c r="C389" s="20"/>
+        <v>385</v>
+      </c>
+      <c r="B389" s="18"/>
+      <c r="C389" s="18"/>
       <c r="D389" s="10"/>
     </row>
     <row r="390" spans="1:4" ht="15.75">
       <c r="A390" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B390" s="20"/>
-      <c r="C390" s="20"/>
+        <v>386</v>
+      </c>
+      <c r="B390" s="18"/>
+      <c r="C390" s="18"/>
       <c r="D390" s="10"/>
     </row>
     <row r="391" spans="1:4" ht="15.75">
       <c r="A391" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B391" s="20"/>
-      <c r="C391" s="20"/>
+        <v>387</v>
+      </c>
+      <c r="B391" s="18"/>
+      <c r="C391" s="18"/>
       <c r="D391" s="10"/>
     </row>
     <row r="392" spans="1:4" ht="15.75">
       <c r="A392" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B392" s="20"/>
-      <c r="C392" s="20"/>
+        <v>388</v>
+      </c>
+      <c r="B392" s="18"/>
+      <c r="C392" s="18"/>
       <c r="D392" s="10"/>
     </row>
     <row r="393" spans="1:4" ht="15.75">
       <c r="A393" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B393" s="20"/>
-      <c r="C393" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="B393" s="18"/>
+      <c r="C393" s="18"/>
       <c r="D393" s="10"/>
     </row>
     <row r="394" spans="1:4" ht="15.75">
       <c r="A394" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B394" s="20"/>
-      <c r="C394" s="20"/>
+        <v>390</v>
+      </c>
+      <c r="B394" s="18"/>
+      <c r="C394" s="18"/>
       <c r="D394" s="5"/>
     </row>
     <row r="395" spans="1:4" ht="15.75">
       <c r="A395" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B395" s="20"/>
-      <c r="C395" s="20"/>
+        <v>391</v>
+      </c>
+      <c r="B395" s="18"/>
+      <c r="C395" s="18"/>
       <c r="D395" s="10"/>
     </row>
     <row r="396" spans="1:4" ht="15.75">
       <c r="A396" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B396" s="20"/>
-      <c r="C396" s="20"/>
+        <v>392</v>
+      </c>
+      <c r="B396" s="18"/>
+      <c r="C396" s="18"/>
       <c r="D396" s="10"/>
     </row>
     <row r="397" spans="1:4" ht="15.75">
       <c r="A397" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B397" s="20"/>
-      <c r="C397" s="20"/>
+        <v>393</v>
+      </c>
+      <c r="B397" s="18"/>
+      <c r="C397" s="18"/>
       <c r="D397" s="10"/>
     </row>
     <row r="398" spans="1:4" ht="15.75">
       <c r="A398" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B398" s="20"/>
-      <c r="C398" s="20"/>
+        <v>394</v>
+      </c>
+      <c r="B398" s="18"/>
+      <c r="C398" s="18"/>
       <c r="D398" s="10"/>
     </row>
     <row r="399" spans="1:4" ht="15.75">
       <c r="A399" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B399" s="20"/>
-      <c r="C399" s="20"/>
+        <v>395</v>
+      </c>
+      <c r="B399" s="18"/>
+      <c r="C399" s="18"/>
       <c r="D399" s="5"/>
     </row>
     <row r="400" spans="1:4" ht="15.75">
       <c r="A400" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B400" s="20"/>
-      <c r="C400" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="B400" s="18"/>
+      <c r="C400" s="18"/>
       <c r="D400" s="5"/>
     </row>
     <row r="401" spans="1:4" ht="15.75">
       <c r="A401" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B401" s="20"/>
-      <c r="C401" s="20"/>
+        <v>397</v>
+      </c>
+      <c r="B401" s="18"/>
+      <c r="C401" s="18"/>
       <c r="D401" s="5"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+        <v>398</v>
+      </c>
+      <c r="B402" s="18"/>
+      <c r="C402" s="18"/>
       <c r="D402" s="10"/>
     </row>
     <row r="403" spans="1:4" ht="15.75">
       <c r="A403" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B403" s="20"/>
-      <c r="C403" s="20"/>
+        <v>399</v>
+      </c>
+      <c r="B403" s="18"/>
+      <c r="C403" s="18"/>
       <c r="D403" s="10"/>
     </row>
     <row r="404" spans="1:4" ht="15.75">
       <c r="A404" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B404" s="20"/>
-      <c r="C404" s="20"/>
+        <v>400</v>
+      </c>
+      <c r="B404" s="18"/>
+      <c r="C404" s="18"/>
       <c r="D404" s="10"/>
     </row>
     <row r="405" spans="1:4" ht="15.75">
       <c r="A405" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B405" s="20"/>
-      <c r="C405" s="20"/>
+        <v>401</v>
+      </c>
+      <c r="B405" s="18"/>
+      <c r="C405" s="18"/>
       <c r="D405" s="10"/>
     </row>
     <row r="406" spans="1:4" ht="15.75">
       <c r="A406" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B406" s="20"/>
-      <c r="C406" s="20"/>
+        <v>402</v>
+      </c>
+      <c r="B406" s="18"/>
+      <c r="C406" s="18"/>
       <c r="D406" s="10"/>
     </row>
     <row r="407" spans="1:4" ht="15.75">
       <c r="A407" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B407" s="20"/>
-      <c r="C407" s="20"/>
+        <v>403</v>
+      </c>
+      <c r="B407" s="18"/>
+      <c r="C407" s="18"/>
       <c r="D407" s="10"/>
     </row>
     <row r="408" spans="1:4" ht="15.75">
       <c r="A408" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B408" s="20"/>
-      <c r="C408" s="20"/>
+        <v>404</v>
+      </c>
+      <c r="B408" s="18"/>
+      <c r="C408" s="18"/>
       <c r="D408" s="10"/>
     </row>
     <row r="409" spans="1:4" ht="15.75">
       <c r="A409" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B409" s="20"/>
-      <c r="C409" s="20"/>
+        <v>405</v>
+      </c>
+      <c r="B409" s="18"/>
+      <c r="C409" s="18"/>
       <c r="D409" s="10"/>
     </row>
     <row r="410" spans="1:4" ht="15.75">
       <c r="A410" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B410" s="20"/>
-      <c r="C410" s="20"/>
+        <v>406</v>
+      </c>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
       <c r="D410" s="10"/>
     </row>
     <row r="411" spans="1:4" ht="15.75">
       <c r="A411" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B411" s="20"/>
-      <c r="C411" s="20"/>
+        <v>407</v>
+      </c>
+      <c r="B411" s="18"/>
+      <c r="C411" s="18"/>
       <c r="D411" s="10"/>
     </row>
     <row r="412" spans="1:4" ht="15.75">
       <c r="A412" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B412" s="20"/>
-      <c r="C412" s="20"/>
+        <v>408</v>
+      </c>
+      <c r="B412" s="18"/>
+      <c r="C412" s="18"/>
       <c r="D412" s="5"/>
     </row>
     <row r="413" spans="1:4" ht="15.75">
       <c r="A413" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B413" s="20"/>
-      <c r="C413" s="20"/>
+        <v>409</v>
+      </c>
+      <c r="B413" s="18"/>
+      <c r="C413" s="18"/>
       <c r="D413" s="5"/>
     </row>
     <row r="414" spans="1:4" ht="15.75">
       <c r="A414" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B414" s="21"/>
-      <c r="C414" s="21"/>
+        <v>410</v>
+      </c>
+      <c r="B414" s="19"/>
+      <c r="C414" s="19"/>
       <c r="D414" s="10"/>
     </row>
     <row r="415" spans="1:4" ht="15.75">
       <c r="A415" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B415" s="20"/>
-      <c r="C415" s="20"/>
+        <v>411</v>
+      </c>
+      <c r="B415" s="18"/>
+      <c r="C415" s="18"/>
       <c r="D415" s="10"/>
     </row>
     <row r="416" spans="1:4" ht="15.75">
       <c r="A416" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B416" s="20"/>
-      <c r="C416" s="20"/>
+        <v>412</v>
+      </c>
+      <c r="B416" s="18"/>
+      <c r="C416" s="18"/>
       <c r="D416" s="10"/>
     </row>
     <row r="417" spans="1:4" ht="15.75">
       <c r="A417" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B417" s="20"/>
-      <c r="C417" s="20"/>
+        <v>413</v>
+      </c>
+      <c r="B417" s="18"/>
+      <c r="C417" s="18"/>
       <c r="D417" s="10"/>
     </row>
     <row r="418" spans="1:4" ht="15.75">
       <c r="A418" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B418" s="20"/>
-      <c r="C418" s="20"/>
+        <v>414</v>
+      </c>
+      <c r="B418" s="18"/>
+      <c r="C418" s="18"/>
       <c r="D418" s="10"/>
     </row>
     <row r="419" spans="1:4" ht="15.75">
       <c r="A419" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B419" s="20"/>
-      <c r="C419" s="20"/>
+        <v>415</v>
+      </c>
+      <c r="B419" s="18"/>
+      <c r="C419" s="18"/>
       <c r="D419" s="7"/>
     </row>
     <row r="420" spans="1:4" ht="15.75">
       <c r="A420" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B420" s="20"/>
-      <c r="C420" s="20"/>
+        <v>416</v>
+      </c>
+      <c r="B420" s="18"/>
+      <c r="C420" s="18"/>
       <c r="D420" s="7"/>
     </row>
     <row r="421" spans="1:4" ht="15.75">
       <c r="A421" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B421" s="20"/>
-      <c r="C421" s="20"/>
+        <v>417</v>
+      </c>
+      <c r="B421" s="18"/>
+      <c r="C421" s="18"/>
       <c r="D421" s="10"/>
     </row>
     <row r="422" spans="1:4" ht="15.75">
       <c r="A422" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B422" s="20"/>
-      <c r="C422" s="20"/>
+        <v>418</v>
+      </c>
+      <c r="B422" s="18"/>
+      <c r="C422" s="18"/>
       <c r="D422" s="10"/>
     </row>
     <row r="423" spans="1:4" ht="15.75">
       <c r="A423" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B423" s="20"/>
-      <c r="C423" s="20"/>
+        <v>419</v>
+      </c>
+      <c r="B423" s="18"/>
+      <c r="C423" s="18"/>
       <c r="D423" s="10"/>
     </row>
     <row r="424" spans="1:4" ht="15.75">
       <c r="A424" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B424" s="20"/>
-      <c r="C424" s="20"/>
+        <v>420</v>
+      </c>
+      <c r="B424" s="18"/>
+      <c r="C424" s="18"/>
       <c r="D424" s="10"/>
     </row>
     <row r="425" spans="1:4" ht="15.75">
       <c r="A425" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B425" s="20"/>
-      <c r="C425" s="20"/>
+        <v>421</v>
+      </c>
+      <c r="B425" s="18"/>
+      <c r="C425" s="18"/>
       <c r="D425" s="10"/>
     </row>
     <row r="426" spans="1:4" ht="15.75">
       <c r="A426" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B426" s="20"/>
-      <c r="C426" s="20"/>
+        <v>422</v>
+      </c>
+      <c r="B426" s="18"/>
+      <c r="C426" s="18"/>
       <c r="D426" s="10"/>
     </row>
     <row r="427" spans="1:4" ht="15.75">
       <c r="A427" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B427" s="20"/>
-      <c r="C427" s="20"/>
+        <v>423</v>
+      </c>
+      <c r="B427" s="18"/>
+      <c r="C427" s="18"/>
       <c r="D427" s="10"/>
     </row>
     <row r="428" spans="1:4" ht="15.75">
       <c r="A428" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="B428" s="20"/>
-      <c r="C428" s="20"/>
+        <v>424</v>
+      </c>
+      <c r="B428" s="18"/>
+      <c r="C428" s="18"/>
       <c r="D428" s="10"/>
     </row>
     <row r="429" spans="1:4" ht="15.75">
       <c r="A429" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B429" s="20"/>
-      <c r="C429" s="20"/>
+        <v>425</v>
+      </c>
+      <c r="B429" s="18"/>
+      <c r="C429" s="18"/>
       <c r="D429" s="10"/>
     </row>
     <row r="430" spans="1:4" ht="15.75">
       <c r="A430" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B430" s="20"/>
-      <c r="C430" s="20"/>
+        <v>426</v>
+      </c>
+      <c r="B430" s="18"/>
+      <c r="C430" s="18"/>
       <c r="D430" s="10"/>
     </row>
     <row r="431" spans="1:4" ht="15.75">
       <c r="A431" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B431" s="20"/>
-      <c r="C431" s="20"/>
+        <v>427</v>
+      </c>
+      <c r="B431" s="18"/>
+      <c r="C431" s="18"/>
       <c r="D431" s="10"/>
     </row>
     <row r="432" spans="1:4" ht="15.75">
       <c r="A432" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B432" s="20"/>
-      <c r="C432" s="20"/>
+        <v>428</v>
+      </c>
+      <c r="B432" s="18"/>
+      <c r="C432" s="18"/>
       <c r="D432" s="10"/>
     </row>
     <row r="433" spans="1:4" ht="15.75">
       <c r="A433" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B433" s="20"/>
-      <c r="C433" s="20"/>
+        <v>429</v>
+      </c>
+      <c r="B433" s="18"/>
+      <c r="C433" s="18"/>
       <c r="D433" s="10"/>
     </row>
     <row r="434" spans="1:4" ht="15.75">
       <c r="A434" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B434" s="20"/>
-      <c r="C434" s="20"/>
+        <v>430</v>
+      </c>
+      <c r="B434" s="18"/>
+      <c r="C434" s="18"/>
       <c r="D434" s="10"/>
     </row>
     <row r="435" spans="1:4" ht="15.75">
       <c r="A435" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B435" s="20"/>
-      <c r="C435" s="20"/>
+        <v>431</v>
+      </c>
+      <c r="B435" s="18"/>
+      <c r="C435" s="18"/>
       <c r="D435" s="10"/>
     </row>
     <row r="436" spans="1:4" ht="15.75">
       <c r="A436" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B436" s="20"/>
-      <c r="C436" s="20"/>
+        <v>432</v>
+      </c>
+      <c r="B436" s="18"/>
+      <c r="C436" s="18"/>
       <c r="D436" s="10"/>
     </row>
     <row r="437" spans="1:4" ht="15.75">
       <c r="A437" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B437" s="20"/>
-      <c r="C437" s="20"/>
+        <v>433</v>
+      </c>
+      <c r="B437" s="18"/>
+      <c r="C437" s="18"/>
       <c r="D437" s="10"/>
     </row>
     <row r="438" spans="1:4" ht="15.75">
       <c r="A438" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B438" s="20"/>
-      <c r="C438" s="20"/>
+        <v>434</v>
+      </c>
+      <c r="B438" s="18"/>
+      <c r="C438" s="18"/>
       <c r="D438" s="10"/>
     </row>
     <row r="439" spans="1:4" ht="15.75">
       <c r="A439" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B439" s="20"/>
-      <c r="C439" s="20"/>
+        <v>435</v>
+      </c>
+      <c r="B439" s="18"/>
+      <c r="C439" s="18"/>
       <c r="D439" s="10"/>
     </row>
     <row r="440" spans="1:4" ht="15.75">
       <c r="A440" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B440" s="20"/>
-      <c r="C440" s="20"/>
+        <v>436</v>
+      </c>
+      <c r="B440" s="18"/>
+      <c r="C440" s="18"/>
       <c r="D440" s="10"/>
     </row>
     <row r="441" spans="1:4" ht="15.75">
       <c r="A441" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B441" s="20"/>
-      <c r="C441" s="20"/>
+        <v>437</v>
+      </c>
+      <c r="B441" s="18"/>
+      <c r="C441" s="18"/>
       <c r="D441" s="10"/>
     </row>
     <row r="442" spans="1:4" ht="15.75">
       <c r="A442" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B442" s="20"/>
-      <c r="C442" s="20"/>
+        <v>438</v>
+      </c>
+      <c r="B442" s="18"/>
+      <c r="C442" s="18"/>
       <c r="D442" s="10"/>
     </row>
     <row r="443" spans="1:4" ht="15.75">
       <c r="A443" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B443" s="20"/>
-      <c r="C443" s="20"/>
+        <v>439</v>
+      </c>
+      <c r="B443" s="18"/>
+      <c r="C443" s="18"/>
       <c r="D443" s="10"/>
     </row>
     <row r="444" spans="1:4" ht="15.75">
       <c r="A444" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B444" s="20"/>
-      <c r="C444" s="20"/>
+        <v>440</v>
+      </c>
+      <c r="B444" s="18"/>
+      <c r="C444" s="18"/>
       <c r="D444" s="10"/>
     </row>
     <row r="445" spans="1:4" ht="15.75">
       <c r="A445" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B445" s="20"/>
-      <c r="C445" s="20"/>
+        <v>441</v>
+      </c>
+      <c r="B445" s="18"/>
+      <c r="C445" s="18"/>
       <c r="D445" s="10"/>
     </row>
     <row r="446" spans="1:4" ht="15.75">
       <c r="A446" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B446" s="20"/>
-      <c r="C446" s="20"/>
+        <v>442</v>
+      </c>
+      <c r="B446" s="18"/>
+      <c r="C446" s="18"/>
       <c r="D446" s="10"/>
     </row>
     <row r="447" spans="1:4" ht="15.75">
       <c r="A447" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B447" s="20"/>
-      <c r="C447" s="20"/>
+        <v>443</v>
+      </c>
+      <c r="B447" s="18"/>
+      <c r="C447" s="18"/>
       <c r="D447" s="10"/>
     </row>
     <row r="448" spans="1:4" ht="15.75">
       <c r="A448" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B448" s="20"/>
-      <c r="C448" s="20"/>
+        <v>444</v>
+      </c>
+      <c r="B448" s="18"/>
+      <c r="C448" s="18"/>
       <c r="D448" s="10"/>
     </row>
     <row r="449" spans="1:4" ht="15.75">
       <c r="A449" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B449" s="20"/>
-      <c r="C449" s="20"/>
+        <v>445</v>
+      </c>
+      <c r="B449" s="18"/>
+      <c r="C449" s="18"/>
       <c r="D449" s="10"/>
     </row>
     <row r="450" spans="1:4" ht="15.75">
       <c r="A450" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B450" s="20"/>
-      <c r="C450" s="20"/>
+        <v>446</v>
+      </c>
+      <c r="B450" s="18"/>
+      <c r="C450" s="18"/>
       <c r="D450" s="10"/>
     </row>
     <row r="451" spans="1:4" ht="15.75">
       <c r="A451" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B451" s="20"/>
-      <c r="C451" s="20"/>
+        <v>447</v>
+      </c>
+      <c r="B451" s="18"/>
+      <c r="C451" s="18"/>
       <c r="D451" s="10"/>
     </row>
     <row r="452" spans="1:4" ht="15.75">
       <c r="A452" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B452" s="20"/>
-      <c r="C452" s="20"/>
+        <v>448</v>
+      </c>
+      <c r="B452" s="18"/>
+      <c r="C452" s="18"/>
       <c r="D452" s="5"/>
     </row>
     <row r="453" spans="1:4" ht="15.75">
       <c r="A453" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="B453" s="20"/>
-      <c r="C453" s="20"/>
+        <v>449</v>
+      </c>
+      <c r="B453" s="18"/>
+      <c r="C453" s="18"/>
       <c r="D453" s="5"/>
     </row>
     <row r="454" spans="1:4" ht="15.75">
       <c r="A454" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B454" s="20"/>
-      <c r="C454" s="20"/>
+        <v>450</v>
+      </c>
+      <c r="B454" s="18"/>
+      <c r="C454" s="18"/>
       <c r="D454" s="10"/>
     </row>
     <row r="455" spans="1:4" ht="15.75">
       <c r="A455" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B455" s="20"/>
-      <c r="C455" s="20"/>
+        <v>451</v>
+      </c>
+      <c r="B455" s="18"/>
+      <c r="C455" s="18"/>
       <c r="D455" s="10"/>
     </row>
     <row r="456" spans="1:4" ht="15.75">
       <c r="A456" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B456" s="20"/>
-      <c r="C456" s="20"/>
+        <v>452</v>
+      </c>
+      <c r="B456" s="18"/>
+      <c r="C456" s="18"/>
       <c r="D456" s="10"/>
     </row>
     <row r="457" spans="1:4" ht="15.75">
       <c r="A457" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B457" s="20"/>
-      <c r="C457" s="20"/>
+        <v>453</v>
+      </c>
+      <c r="B457" s="18"/>
+      <c r="C457" s="18"/>
       <c r="D457" s="10"/>
     </row>
     <row r="458" spans="1:4" ht="15.75">
       <c r="A458" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B458" s="20"/>
-      <c r="C458" s="20"/>
+        <v>454</v>
+      </c>
+      <c r="B458" s="18"/>
+      <c r="C458" s="18"/>
       <c r="D458" s="10"/>
     </row>
     <row r="459" spans="1:4" ht="15.75">
       <c r="A459" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B459" s="20"/>
-      <c r="C459" s="20"/>
+        <v>455</v>
+      </c>
+      <c r="B459" s="18"/>
+      <c r="C459" s="18"/>
       <c r="D459" s="5"/>
     </row>
     <row r="460" spans="1:4" ht="15.75">
       <c r="A460" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B460" s="20"/>
-      <c r="C460" s="20"/>
+        <v>456</v>
+      </c>
+      <c r="B460" s="18"/>
+      <c r="C460" s="18"/>
       <c r="D460" s="10"/>
     </row>
     <row r="461" spans="1:4" ht="15.75">
       <c r="A461" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B461" s="20"/>
-      <c r="C461" s="20"/>
+        <v>457</v>
+      </c>
+      <c r="B461" s="18"/>
+      <c r="C461" s="18"/>
       <c r="D461" s="10"/>
     </row>
     <row r="462" spans="1:4" ht="15.75">
       <c r="A462" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B462" s="20"/>
-      <c r="C462" s="20"/>
+        <v>458</v>
+      </c>
+      <c r="B462" s="18"/>
+      <c r="C462" s="18"/>
       <c r="D462" s="10"/>
     </row>
     <row r="463" spans="1:4" ht="15.75">
       <c r="A463" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B463" s="20"/>
-      <c r="C463" s="20"/>
+        <v>459</v>
+      </c>
+      <c r="B463" s="18"/>
+      <c r="C463" s="18"/>
       <c r="D463" s="10"/>
     </row>
     <row r="464" spans="1:4" ht="15.75">
       <c r="A464" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="B464" s="20"/>
-      <c r="C464" s="20"/>
+        <v>460</v>
+      </c>
+      <c r="B464" s="18"/>
+      <c r="C464" s="18"/>
       <c r="D464" s="10"/>
     </row>
     <row r="465" spans="1:4" ht="15.75">
       <c r="A465" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B465" s="20"/>
-      <c r="C465" s="20"/>
+        <v>461</v>
+      </c>
+      <c r="B465" s="18"/>
+      <c r="C465" s="18"/>
       <c r="D465" s="10"/>
     </row>
     <row r="466" spans="1:4" ht="15.75">
       <c r="A466" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B466" s="20"/>
-      <c r="C466" s="20"/>
+        <v>462</v>
+      </c>
+      <c r="B466" s="18"/>
+      <c r="C466" s="18"/>
       <c r="D466" s="10"/>
     </row>
     <row r="467" spans="1:4" ht="15.75">
       <c r="A467" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B467" s="20"/>
-      <c r="C467" s="20"/>
+        <v>463</v>
+      </c>
+      <c r="B467" s="18"/>
+      <c r="C467" s="18"/>
       <c r="D467" s="10"/>
     </row>
     <row r="468" spans="1:4" ht="15.75">
       <c r="A468" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B468" s="20"/>
-      <c r="C468" s="20"/>
+        <v>464</v>
+      </c>
+      <c r="B468" s="18"/>
+      <c r="C468" s="18"/>
       <c r="D468" s="10"/>
     </row>
     <row r="469" spans="1:4" ht="15.75">
       <c r="A469" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B469" s="20"/>
-      <c r="C469" s="20"/>
+        <v>465</v>
+      </c>
+      <c r="B469" s="18"/>
+      <c r="C469" s="18"/>
       <c r="D469" s="10"/>
     </row>
     <row r="470" spans="1:4" ht="15.75">
       <c r="A470" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B470" s="20"/>
-      <c r="C470" s="20"/>
+        <v>466</v>
+      </c>
+      <c r="B470" s="18"/>
+      <c r="C470" s="18"/>
       <c r="D470" s="10"/>
     </row>
     <row r="471" spans="1:4" ht="15.75">
       <c r="A471" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B471" s="10"/>
       <c r="C471" s="5"/>
@@ -6334,175 +6288,175 @@
     </row>
     <row r="472" spans="1:4" ht="15.75">
       <c r="A472" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+        <v>468</v>
+      </c>
+      <c r="B472" s="18"/>
+      <c r="C472" s="18"/>
       <c r="D472" s="10"/>
     </row>
     <row r="473" spans="1:4" ht="15.75">
       <c r="A473" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B473" s="20"/>
-      <c r="C473" s="20"/>
+        <v>469</v>
+      </c>
+      <c r="B473" s="18"/>
+      <c r="C473" s="18"/>
       <c r="D473" s="10"/>
     </row>
     <row r="474" spans="1:4" ht="15.75">
       <c r="A474" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B474" s="20"/>
-      <c r="C474" s="20"/>
+        <v>470</v>
+      </c>
+      <c r="B474" s="18"/>
+      <c r="C474" s="18"/>
       <c r="D474" s="10"/>
     </row>
     <row r="475" spans="1:4" ht="15.75">
       <c r="A475" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B475" s="20"/>
-      <c r="C475" s="20"/>
+        <v>471</v>
+      </c>
+      <c r="B475" s="18"/>
+      <c r="C475" s="18"/>
       <c r="D475" s="10"/>
     </row>
     <row r="476" spans="1:4" ht="15.75">
       <c r="A476" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="B476" s="20"/>
-      <c r="C476" s="20"/>
+        <v>472</v>
+      </c>
+      <c r="B476" s="18"/>
+      <c r="C476" s="18"/>
       <c r="D476" s="5"/>
     </row>
     <row r="477" spans="1:4" ht="15.75">
       <c r="A477" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B477" s="20"/>
-      <c r="C477" s="20"/>
+        <v>473</v>
+      </c>
+      <c r="B477" s="18"/>
+      <c r="C477" s="18"/>
       <c r="D477" s="5"/>
     </row>
     <row r="478" spans="1:4" ht="15.75">
       <c r="A478" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B478" s="20"/>
-      <c r="C478" s="20"/>
+        <v>474</v>
+      </c>
+      <c r="B478" s="18"/>
+      <c r="C478" s="18"/>
       <c r="D478" s="5"/>
     </row>
     <row r="479" spans="1:4" ht="15.75">
       <c r="A479" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B479" s="20"/>
-      <c r="C479" s="20"/>
+        <v>475</v>
+      </c>
+      <c r="B479" s="18"/>
+      <c r="C479" s="18"/>
       <c r="D479" s="5"/>
     </row>
     <row r="480" spans="1:4" ht="15.75">
       <c r="A480" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B480" s="20"/>
-      <c r="C480" s="20"/>
+        <v>476</v>
+      </c>
+      <c r="B480" s="18"/>
+      <c r="C480" s="18"/>
       <c r="D480" s="5"/>
     </row>
     <row r="481" spans="1:4" ht="15.75">
       <c r="A481" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B481" s="20"/>
-      <c r="C481" s="20"/>
+        <v>477</v>
+      </c>
+      <c r="B481" s="18"/>
+      <c r="C481" s="18"/>
       <c r="D481" s="5"/>
     </row>
     <row r="482" spans="1:4" ht="15.75">
       <c r="A482" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B482" s="20"/>
-      <c r="C482" s="20"/>
+        <v>478</v>
+      </c>
+      <c r="B482" s="18"/>
+      <c r="C482" s="18"/>
       <c r="D482" s="5"/>
     </row>
     <row r="483" spans="1:4" ht="15.75">
       <c r="A483" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B483" s="20"/>
-      <c r="C483" s="20"/>
+        <v>479</v>
+      </c>
+      <c r="B483" s="18"/>
+      <c r="C483" s="18"/>
       <c r="D483" s="10"/>
     </row>
     <row r="484" spans="1:4" ht="15.75">
       <c r="A484" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B484" s="20"/>
-      <c r="C484" s="20"/>
+        <v>480</v>
+      </c>
+      <c r="B484" s="18"/>
+      <c r="C484" s="18"/>
       <c r="D484" s="5"/>
     </row>
     <row r="485" spans="1:4" ht="15.75">
       <c r="A485" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B485" s="20"/>
-      <c r="C485" s="20"/>
+        <v>481</v>
+      </c>
+      <c r="B485" s="18"/>
+      <c r="C485" s="18"/>
       <c r="D485" s="10"/>
     </row>
     <row r="486" spans="1:4" ht="15.75">
       <c r="A486" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B486" s="20"/>
-      <c r="C486" s="20"/>
+        <v>482</v>
+      </c>
+      <c r="B486" s="18"/>
+      <c r="C486" s="18"/>
       <c r="D486" s="10"/>
     </row>
     <row r="487" spans="1:4" ht="15.75">
       <c r="A487" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B487" s="20"/>
-      <c r="C487" s="20"/>
+        <v>483</v>
+      </c>
+      <c r="B487" s="18"/>
+      <c r="C487" s="18"/>
       <c r="D487" s="10"/>
     </row>
     <row r="488" spans="1:4" ht="15.75">
       <c r="A488" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B488" s="20"/>
-      <c r="C488" s="20"/>
+        <v>484</v>
+      </c>
+      <c r="B488" s="18"/>
+      <c r="C488" s="18"/>
       <c r="D488" s="10"/>
     </row>
     <row r="489" spans="1:4" ht="15.75">
       <c r="A489" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B489" s="20"/>
-      <c r="C489" s="20"/>
+        <v>485</v>
+      </c>
+      <c r="B489" s="18"/>
+      <c r="C489" s="18"/>
       <c r="D489" s="10"/>
     </row>
     <row r="490" spans="1:4" ht="15.75">
       <c r="A490" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B490" s="20"/>
-      <c r="C490" s="20"/>
+        <v>486</v>
+      </c>
+      <c r="B490" s="18"/>
+      <c r="C490" s="18"/>
       <c r="D490" s="10"/>
     </row>
     <row r="491" spans="1:4" ht="15.75">
       <c r="A491" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B491" s="20"/>
-      <c r="C491" s="20"/>
+        <v>487</v>
+      </c>
+      <c r="B491" s="18"/>
+      <c r="C491" s="18"/>
       <c r="D491" s="10"/>
     </row>
     <row r="492" spans="1:4" ht="15.75">
       <c r="A492" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B492" s="20"/>
-      <c r="C492" s="20"/>
+        <v>488</v>
+      </c>
+      <c r="B492" s="18"/>
+      <c r="C492" s="18"/>
       <c r="D492" s="5"/>
     </row>
     <row r="493" spans="1:4" ht="15.75">
       <c r="A493" s="5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B493" s="10"/>
       <c r="C493" s="5"/>
@@ -6510,39 +6464,39 @@
     </row>
     <row r="494" spans="1:4" ht="15.75">
       <c r="A494" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B494" s="20"/>
-      <c r="C494" s="20"/>
+        <v>490</v>
+      </c>
+      <c r="B494" s="18"/>
+      <c r="C494" s="18"/>
       <c r="D494" s="10"/>
     </row>
     <row r="495" spans="1:4" ht="15.75">
       <c r="A495" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B495" s="20"/>
-      <c r="C495" s="20"/>
+        <v>491</v>
+      </c>
+      <c r="B495" s="18"/>
+      <c r="C495" s="18"/>
       <c r="D495" s="5"/>
     </row>
     <row r="496" spans="1:4" ht="15.75">
       <c r="A496" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B496" s="20"/>
-      <c r="C496" s="20"/>
+        <v>492</v>
+      </c>
+      <c r="B496" s="18"/>
+      <c r="C496" s="18"/>
       <c r="D496" s="10"/>
     </row>
     <row r="497" spans="1:4" ht="15.75">
       <c r="A497" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B497" s="20"/>
-      <c r="C497" s="20"/>
+        <v>493</v>
+      </c>
+      <c r="B497" s="18"/>
+      <c r="C497" s="18"/>
       <c r="D497" s="10"/>
     </row>
     <row r="498" spans="1:4" ht="15.75">
       <c r="A498" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B498" s="10"/>
       <c r="C498" s="5"/>
@@ -6550,311 +6504,311 @@
     </row>
     <row r="499" spans="1:4" ht="15.75">
       <c r="A499" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B499" s="20"/>
-      <c r="C499" s="20"/>
+        <v>495</v>
+      </c>
+      <c r="B499" s="18"/>
+      <c r="C499" s="18"/>
       <c r="D499" s="6"/>
     </row>
     <row r="500" spans="1:4" ht="15.75">
       <c r="A500" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B500" s="20"/>
-      <c r="C500" s="20"/>
+        <v>496</v>
+      </c>
+      <c r="B500" s="18"/>
+      <c r="C500" s="18"/>
       <c r="D500" s="10"/>
     </row>
     <row r="501" spans="1:4" ht="15.75">
       <c r="A501" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B501" s="20"/>
-      <c r="C501" s="20"/>
+        <v>497</v>
+      </c>
+      <c r="B501" s="18"/>
+      <c r="C501" s="18"/>
       <c r="D501" s="10"/>
     </row>
     <row r="502" spans="1:4" ht="15.75">
       <c r="A502" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B502" s="20"/>
-      <c r="C502" s="20"/>
+        <v>498</v>
+      </c>
+      <c r="B502" s="18"/>
+      <c r="C502" s="18"/>
       <c r="D502" s="10"/>
     </row>
     <row r="503" spans="1:4" ht="15.75">
       <c r="A503" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B503" s="20"/>
-      <c r="C503" s="20"/>
+        <v>499</v>
+      </c>
+      <c r="B503" s="18"/>
+      <c r="C503" s="18"/>
       <c r="D503" s="10"/>
     </row>
     <row r="504" spans="1:4" ht="15.75">
       <c r="A504" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B504" s="20"/>
-      <c r="C504" s="20"/>
+        <v>500</v>
+      </c>
+      <c r="B504" s="18"/>
+      <c r="C504" s="18"/>
       <c r="D504" s="10"/>
     </row>
     <row r="505" spans="1:4" ht="15.75">
       <c r="A505" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B505" s="20"/>
-      <c r="C505" s="20"/>
+        <v>501</v>
+      </c>
+      <c r="B505" s="18"/>
+      <c r="C505" s="18"/>
       <c r="D505" s="10"/>
     </row>
     <row r="506" spans="1:4" ht="15.75">
       <c r="A506" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B506" s="20"/>
-      <c r="C506" s="20"/>
+        <v>502</v>
+      </c>
+      <c r="B506" s="18"/>
+      <c r="C506" s="18"/>
       <c r="D506" s="10"/>
     </row>
     <row r="507" spans="1:4" ht="15.75">
       <c r="A507" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B507" s="20"/>
-      <c r="C507" s="20"/>
+        <v>503</v>
+      </c>
+      <c r="B507" s="18"/>
+      <c r="C507" s="18"/>
       <c r="D507" s="10"/>
     </row>
     <row r="508" spans="1:4" ht="15.75">
       <c r="A508" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B508" s="20"/>
-      <c r="C508" s="20"/>
+        <v>504</v>
+      </c>
+      <c r="B508" s="18"/>
+      <c r="C508" s="18"/>
       <c r="D508" s="5"/>
     </row>
     <row r="509" spans="1:4" ht="15.75">
       <c r="A509" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B509" s="20"/>
-      <c r="C509" s="20"/>
+        <v>505</v>
+      </c>
+      <c r="B509" s="18"/>
+      <c r="C509" s="18"/>
       <c r="D509" s="10"/>
     </row>
     <row r="510" spans="1:4" ht="15.75">
       <c r="A510" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B510" s="20"/>
-      <c r="C510" s="20"/>
+        <v>506</v>
+      </c>
+      <c r="B510" s="18"/>
+      <c r="C510" s="18"/>
       <c r="D510" s="10"/>
     </row>
     <row r="511" spans="1:4" ht="15.75">
       <c r="A511" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B511" s="20"/>
-      <c r="C511" s="20"/>
+        <v>507</v>
+      </c>
+      <c r="B511" s="18"/>
+      <c r="C511" s="18"/>
       <c r="D511" s="10"/>
     </row>
     <row r="512" spans="1:4" ht="15.75">
       <c r="A512" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B512" s="20"/>
-      <c r="C512" s="20"/>
+        <v>508</v>
+      </c>
+      <c r="B512" s="18"/>
+      <c r="C512" s="18"/>
       <c r="D512" s="10"/>
     </row>
     <row r="513" spans="1:4" ht="15.75">
       <c r="A513" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B513" s="20"/>
-      <c r="C513" s="20"/>
+        <v>509</v>
+      </c>
+      <c r="B513" s="18"/>
+      <c r="C513" s="18"/>
       <c r="D513" s="10"/>
     </row>
     <row r="514" spans="1:4" ht="15.75">
       <c r="A514" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B514" s="20"/>
-      <c r="C514" s="20"/>
+        <v>510</v>
+      </c>
+      <c r="B514" s="18"/>
+      <c r="C514" s="18"/>
       <c r="D514" s="10"/>
     </row>
     <row r="515" spans="1:4" ht="15.75">
       <c r="A515" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B515" s="20"/>
-      <c r="C515" s="20"/>
+        <v>511</v>
+      </c>
+      <c r="B515" s="18"/>
+      <c r="C515" s="18"/>
       <c r="D515" s="10"/>
     </row>
     <row r="516" spans="1:4" ht="15.75">
       <c r="A516" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B516" s="20"/>
-      <c r="C516" s="20"/>
+        <v>512</v>
+      </c>
+      <c r="B516" s="18"/>
+      <c r="C516" s="18"/>
       <c r="D516" s="10"/>
     </row>
     <row r="517" spans="1:4" ht="15.75">
       <c r="A517" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B517" s="20"/>
-      <c r="C517" s="20"/>
+        <v>513</v>
+      </c>
+      <c r="B517" s="18"/>
+      <c r="C517" s="18"/>
       <c r="D517" s="10"/>
     </row>
     <row r="518" spans="1:4" ht="15.75">
       <c r="A518" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B518" s="20"/>
-      <c r="C518" s="20"/>
+        <v>514</v>
+      </c>
+      <c r="B518" s="18"/>
+      <c r="C518" s="18"/>
       <c r="D518" s="10"/>
     </row>
     <row r="519" spans="1:4" ht="15.75">
       <c r="A519" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B519" s="20"/>
-      <c r="C519" s="20"/>
+        <v>515</v>
+      </c>
+      <c r="B519" s="18"/>
+      <c r="C519" s="18"/>
       <c r="D519" s="10"/>
     </row>
     <row r="520" spans="1:4" ht="15.75">
       <c r="A520" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B520" s="20"/>
-      <c r="C520" s="20"/>
+        <v>516</v>
+      </c>
+      <c r="B520" s="18"/>
+      <c r="C520" s="18"/>
       <c r="D520" s="10"/>
     </row>
     <row r="521" spans="1:4" ht="15.75">
       <c r="A521" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B521" s="20"/>
-      <c r="C521" s="20"/>
+        <v>517</v>
+      </c>
+      <c r="B521" s="18"/>
+      <c r="C521" s="18"/>
       <c r="D521" s="10"/>
     </row>
     <row r="522" spans="1:4" ht="15.75">
       <c r="A522" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="B522" s="20"/>
-      <c r="C522" s="20"/>
+        <v>518</v>
+      </c>
+      <c r="B522" s="18"/>
+      <c r="C522" s="18"/>
       <c r="D522" s="10"/>
     </row>
     <row r="523" spans="1:4" ht="15.75">
       <c r="A523" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B523" s="20"/>
-      <c r="C523" s="20"/>
+        <v>519</v>
+      </c>
+      <c r="B523" s="18"/>
+      <c r="C523" s="18"/>
       <c r="D523" s="10"/>
     </row>
     <row r="524" spans="1:4" ht="15.75">
       <c r="A524" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B524" s="20"/>
-      <c r="C524" s="20"/>
+        <v>520</v>
+      </c>
+      <c r="B524" s="18"/>
+      <c r="C524" s="18"/>
       <c r="D524" s="10"/>
     </row>
     <row r="525" spans="1:4" ht="15.75">
       <c r="A525" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="B525" s="20"/>
-      <c r="C525" s="20"/>
+        <v>521</v>
+      </c>
+      <c r="B525" s="18"/>
+      <c r="C525" s="18"/>
       <c r="D525" s="10"/>
     </row>
     <row r="526" spans="1:4" ht="15.75">
       <c r="A526" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B526" s="20"/>
-      <c r="C526" s="20"/>
+        <v>522</v>
+      </c>
+      <c r="B526" s="18"/>
+      <c r="C526" s="18"/>
       <c r="D526" s="10"/>
     </row>
     <row r="527" spans="1:4" ht="15.75">
       <c r="A527" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B527" s="20"/>
-      <c r="C527" s="20"/>
+        <v>523</v>
+      </c>
+      <c r="B527" s="18"/>
+      <c r="C527" s="18"/>
       <c r="D527" s="10"/>
     </row>
     <row r="528" spans="1:4" ht="15.75">
       <c r="A528" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B528" s="20"/>
-      <c r="C528" s="20"/>
+        <v>524</v>
+      </c>
+      <c r="B528" s="18"/>
+      <c r="C528" s="18"/>
       <c r="D528" s="10"/>
     </row>
     <row r="529" spans="1:4" ht="15.75">
       <c r="A529" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B529" s="20"/>
-      <c r="C529" s="20"/>
+        <v>525</v>
+      </c>
+      <c r="B529" s="18"/>
+      <c r="C529" s="18"/>
       <c r="D529" s="10"/>
     </row>
     <row r="530" spans="1:4" ht="15.75">
       <c r="A530" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B530" s="20"/>
-      <c r="C530" s="20"/>
+        <v>526</v>
+      </c>
+      <c r="B530" s="18"/>
+      <c r="C530" s="18"/>
       <c r="D530" s="10"/>
     </row>
     <row r="531" spans="1:4" ht="15.75">
       <c r="A531" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B531" s="20"/>
-      <c r="C531" s="20"/>
+        <v>527</v>
+      </c>
+      <c r="B531" s="18"/>
+      <c r="C531" s="18"/>
       <c r="D531" s="5"/>
     </row>
     <row r="532" spans="1:4" ht="15.75">
       <c r="A532" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B532" s="20"/>
-      <c r="C532" s="20"/>
+        <v>528</v>
+      </c>
+      <c r="B532" s="18"/>
+      <c r="C532" s="18"/>
       <c r="D532" s="5"/>
     </row>
     <row r="533" spans="1:4" ht="15.75">
       <c r="A533" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="B533" s="20"/>
-      <c r="C533" s="20"/>
+        <v>529</v>
+      </c>
+      <c r="B533" s="18"/>
+      <c r="C533" s="18"/>
       <c r="D533" s="10"/>
     </row>
     <row r="534" spans="1:4" ht="15.75">
       <c r="A534" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="B534" s="20"/>
-      <c r="C534" s="20"/>
+        <v>530</v>
+      </c>
+      <c r="B534" s="18"/>
+      <c r="C534" s="18"/>
       <c r="D534" s="10"/>
     </row>
     <row r="535" spans="1:4" ht="15.75">
       <c r="A535" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B535" s="20"/>
-      <c r="C535" s="20"/>
+        <v>531</v>
+      </c>
+      <c r="B535" s="18"/>
+      <c r="C535" s="18"/>
       <c r="D535" s="10"/>
     </row>
     <row r="536" spans="1:4" ht="15.75">
       <c r="A536" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="20"/>
+        <v>532</v>
+      </c>
+      <c r="B536" s="18"/>
+      <c r="C536" s="18"/>
       <c r="D536" s="10"/>
     </row>
     <row r="537" spans="1:4" ht="15.75">
       <c r="A537" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B537" s="10"/>
       <c r="C537" s="5"/>
@@ -6862,39 +6816,39 @@
     </row>
     <row r="538" spans="1:4" ht="15.75">
       <c r="A538" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B538" s="20"/>
-      <c r="C538" s="20"/>
+        <v>534</v>
+      </c>
+      <c r="B538" s="18"/>
+      <c r="C538" s="18"/>
       <c r="D538" s="5"/>
     </row>
     <row r="539" spans="1:4" ht="15.75">
       <c r="A539" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B539" s="20"/>
-      <c r="C539" s="20"/>
+        <v>535</v>
+      </c>
+      <c r="B539" s="18"/>
+      <c r="C539" s="18"/>
       <c r="D539" s="10"/>
     </row>
     <row r="540" spans="1:4" ht="15.75">
       <c r="A540" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B540" s="20"/>
-      <c r="C540" s="20"/>
+        <v>536</v>
+      </c>
+      <c r="B540" s="18"/>
+      <c r="C540" s="18"/>
       <c r="D540" s="10"/>
     </row>
     <row r="541" spans="1:4" ht="15.75">
       <c r="A541" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B541" s="20"/>
-      <c r="C541" s="20"/>
+        <v>537</v>
+      </c>
+      <c r="B541" s="18"/>
+      <c r="C541" s="18"/>
       <c r="D541" s="10"/>
     </row>
     <row r="542" spans="1:4" ht="15.75">
       <c r="A542" s="5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B542" s="10"/>
       <c r="C542" s="5"/>
@@ -6902,7 +6856,7 @@
     </row>
     <row r="543" spans="1:4" ht="15.75">
       <c r="A543" s="5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B543" s="10"/>
       <c r="C543" s="5"/>
@@ -6910,7 +6864,7 @@
     </row>
     <row r="544" spans="1:4" ht="15.75">
       <c r="A544" s="5" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B544" s="10"/>
       <c r="C544" s="5"/>
@@ -6918,199 +6872,199 @@
     </row>
     <row r="545" spans="1:4" ht="15.75">
       <c r="A545" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B545" s="20"/>
-      <c r="C545" s="20"/>
+        <v>541</v>
+      </c>
+      <c r="B545" s="18"/>
+      <c r="C545" s="18"/>
       <c r="D545" s="10"/>
     </row>
     <row r="546" spans="1:4" ht="15.75">
       <c r="A546" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B546" s="20"/>
-      <c r="C546" s="20"/>
+        <v>542</v>
+      </c>
+      <c r="B546" s="18"/>
+      <c r="C546" s="18"/>
       <c r="D546" s="5"/>
     </row>
     <row r="547" spans="1:4" ht="15.75">
       <c r="A547" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B547" s="20"/>
-      <c r="C547" s="20"/>
+        <v>543</v>
+      </c>
+      <c r="B547" s="18"/>
+      <c r="C547" s="18"/>
       <c r="D547" s="5"/>
     </row>
     <row r="548" spans="1:4" ht="15.75">
       <c r="A548" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B548" s="20"/>
-      <c r="C548" s="20"/>
+        <v>544</v>
+      </c>
+      <c r="B548" s="18"/>
+      <c r="C548" s="18"/>
       <c r="D548" s="10"/>
     </row>
     <row r="549" spans="1:4" ht="15.75">
       <c r="A549" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B549" s="20"/>
-      <c r="C549" s="20"/>
+        <v>545</v>
+      </c>
+      <c r="B549" s="18"/>
+      <c r="C549" s="18"/>
       <c r="D549" s="10"/>
     </row>
     <row r="550" spans="1:4" ht="15.75">
       <c r="A550" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B550" s="20"/>
-      <c r="C550" s="20"/>
+        <v>546</v>
+      </c>
+      <c r="B550" s="18"/>
+      <c r="C550" s="18"/>
       <c r="D550" s="10"/>
     </row>
     <row r="551" spans="1:4" ht="15.75">
       <c r="A551" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B551" s="20"/>
-      <c r="C551" s="20"/>
+        <v>547</v>
+      </c>
+      <c r="B551" s="18"/>
+      <c r="C551" s="18"/>
       <c r="D551" s="10"/>
     </row>
     <row r="552" spans="1:4" ht="15.75">
       <c r="A552" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="B552" s="20"/>
-      <c r="C552" s="20"/>
+        <v>548</v>
+      </c>
+      <c r="B552" s="18"/>
+      <c r="C552" s="18"/>
       <c r="D552" s="10"/>
     </row>
     <row r="553" spans="1:4" ht="15.75">
       <c r="A553" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B553" s="20"/>
-      <c r="C553" s="20"/>
+        <v>549</v>
+      </c>
+      <c r="B553" s="18"/>
+      <c r="C553" s="18"/>
       <c r="D553" s="10"/>
     </row>
     <row r="554" spans="1:4" ht="15.75">
       <c r="A554" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B554" s="20"/>
-      <c r="C554" s="20"/>
+        <v>550</v>
+      </c>
+      <c r="B554" s="18"/>
+      <c r="C554" s="18"/>
       <c r="D554" s="10"/>
     </row>
     <row r="555" spans="1:4" ht="15.75">
       <c r="A555" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B555" s="20"/>
-      <c r="C555" s="20"/>
+        <v>551</v>
+      </c>
+      <c r="B555" s="18"/>
+      <c r="C555" s="18"/>
       <c r="D555" s="5"/>
     </row>
     <row r="556" spans="1:4" ht="15.75">
       <c r="A556" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B556" s="20"/>
-      <c r="C556" s="20"/>
+        <v>552</v>
+      </c>
+      <c r="B556" s="18"/>
+      <c r="C556" s="18"/>
       <c r="D556" s="10"/>
     </row>
     <row r="557" spans="1:4" ht="15.75">
       <c r="A557" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B557" s="20"/>
-      <c r="C557" s="20"/>
+        <v>553</v>
+      </c>
+      <c r="B557" s="18"/>
+      <c r="C557" s="18"/>
       <c r="D557" s="10"/>
     </row>
     <row r="558" spans="1:4" ht="15.75">
       <c r="A558" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="B558" s="20"/>
-      <c r="C558" s="20"/>
+        <v>554</v>
+      </c>
+      <c r="B558" s="18"/>
+      <c r="C558" s="18"/>
       <c r="D558" s="5"/>
     </row>
     <row r="559" spans="1:4" ht="15.75">
       <c r="A559" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B559" s="20"/>
-      <c r="C559" s="20"/>
+        <v>555</v>
+      </c>
+      <c r="B559" s="18"/>
+      <c r="C559" s="18"/>
       <c r="D559" s="10"/>
     </row>
     <row r="560" spans="1:4" ht="15.75">
       <c r="A560" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B560" s="20"/>
-      <c r="C560" s="20"/>
+        <v>556</v>
+      </c>
+      <c r="B560" s="18"/>
+      <c r="C560" s="18"/>
       <c r="D560" s="10"/>
     </row>
     <row r="561" spans="1:4" ht="15.75">
       <c r="A561" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B561" s="20"/>
-      <c r="C561" s="20"/>
+        <v>557</v>
+      </c>
+      <c r="B561" s="18"/>
+      <c r="C561" s="18"/>
       <c r="D561" s="10"/>
     </row>
     <row r="562" spans="1:4" ht="15.75">
       <c r="A562" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B562" s="20"/>
-      <c r="C562" s="20"/>
+        <v>558</v>
+      </c>
+      <c r="B562" s="18"/>
+      <c r="C562" s="18"/>
       <c r="D562" s="10"/>
     </row>
     <row r="563" spans="1:4" ht="15.75">
       <c r="A563" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="B563" s="20"/>
-      <c r="C563" s="20"/>
+        <v>559</v>
+      </c>
+      <c r="B563" s="18"/>
+      <c r="C563" s="18"/>
       <c r="D563" s="10"/>
     </row>
     <row r="564" spans="1:4" ht="15.75">
       <c r="A564" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="B564" s="20"/>
-      <c r="C564" s="20"/>
+        <v>560</v>
+      </c>
+      <c r="B564" s="18"/>
+      <c r="C564" s="18"/>
       <c r="D564" s="10"/>
     </row>
     <row r="565" spans="1:4" ht="15.75">
       <c r="A565" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="B565" s="20"/>
-      <c r="C565" s="20"/>
+        <v>561</v>
+      </c>
+      <c r="B565" s="18"/>
+      <c r="C565" s="18"/>
       <c r="D565" s="5"/>
     </row>
     <row r="566" spans="1:4" ht="15.75">
       <c r="A566" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B566" s="20"/>
-      <c r="C566" s="20"/>
+        <v>562</v>
+      </c>
+      <c r="B566" s="18"/>
+      <c r="C566" s="18"/>
       <c r="D566" s="10"/>
     </row>
     <row r="567" spans="1:4" ht="15.75">
       <c r="A567" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="B567" s="20"/>
-      <c r="C567" s="20"/>
+        <v>563</v>
+      </c>
+      <c r="B567" s="18"/>
+      <c r="C567" s="18"/>
       <c r="D567" s="5"/>
     </row>
     <row r="568" spans="1:4" ht="15.75">
       <c r="A568" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B568" s="20"/>
-      <c r="C568" s="20"/>
+        <v>564</v>
+      </c>
+      <c r="B568" s="18"/>
+      <c r="C568" s="18"/>
       <c r="D568" s="5"/>
     </row>
     <row r="569" spans="1:4" ht="15.75">
       <c r="A569" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B569" s="10"/>
       <c r="C569" s="5"/>
@@ -7118,87 +7072,87 @@
     </row>
     <row r="570" spans="1:4" ht="15.75">
       <c r="A570" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B570" s="20"/>
-      <c r="C570" s="20"/>
+        <v>566</v>
+      </c>
+      <c r="B570" s="18"/>
+      <c r="C570" s="18"/>
       <c r="D570" s="5"/>
     </row>
     <row r="571" spans="1:4" ht="15.75">
       <c r="A571" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B571" s="20"/>
-      <c r="C571" s="20"/>
+        <v>567</v>
+      </c>
+      <c r="B571" s="18"/>
+      <c r="C571" s="18"/>
       <c r="D571" s="5"/>
     </row>
     <row r="572" spans="1:4" ht="15.75">
       <c r="A572" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B572" s="20"/>
-      <c r="C572" s="20"/>
+        <v>568</v>
+      </c>
+      <c r="B572" s="18"/>
+      <c r="C572" s="18"/>
       <c r="D572" s="10"/>
     </row>
     <row r="573" spans="1:4" ht="15.75">
       <c r="A573" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B573" s="20"/>
-      <c r="C573" s="20"/>
+        <v>569</v>
+      </c>
+      <c r="B573" s="18"/>
+      <c r="C573" s="18"/>
       <c r="D573" s="10"/>
     </row>
     <row r="574" spans="1:4" ht="15.75">
       <c r="A574" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="B574" s="20"/>
-      <c r="C574" s="20"/>
+        <v>570</v>
+      </c>
+      <c r="B574" s="18"/>
+      <c r="C574" s="18"/>
       <c r="D574" s="10"/>
     </row>
     <row r="575" spans="1:4" ht="15.75">
       <c r="A575" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B575" s="20"/>
-      <c r="C575" s="20"/>
+        <v>571</v>
+      </c>
+      <c r="B575" s="18"/>
+      <c r="C575" s="18"/>
       <c r="D575" s="10"/>
     </row>
     <row r="576" spans="1:4" ht="15.75">
       <c r="A576" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="B576" s="20"/>
-      <c r="C576" s="20"/>
+        <v>572</v>
+      </c>
+      <c r="B576" s="18"/>
+      <c r="C576" s="18"/>
       <c r="D576" s="10"/>
     </row>
     <row r="577" spans="1:4" ht="15.75">
       <c r="A577" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B577" s="20"/>
-      <c r="C577" s="20"/>
+        <v>573</v>
+      </c>
+      <c r="B577" s="18"/>
+      <c r="C577" s="18"/>
       <c r="D577" s="5"/>
     </row>
     <row r="578" spans="1:4" ht="15.75">
       <c r="A578" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B578" s="20"/>
-      <c r="C578" s="20"/>
+        <v>574</v>
+      </c>
+      <c r="B578" s="18"/>
+      <c r="C578" s="18"/>
       <c r="D578" s="5"/>
     </row>
     <row r="579" spans="1:4" ht="15.75">
       <c r="A579" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B579" s="20"/>
-      <c r="C579" s="20"/>
+        <v>575</v>
+      </c>
+      <c r="B579" s="18"/>
+      <c r="C579" s="18"/>
       <c r="D579" s="7"/>
     </row>
     <row r="580" spans="1:4" ht="15.75">
       <c r="A580" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B580" s="10"/>
       <c r="C580" s="15"/>
@@ -7206,47 +7160,47 @@
     </row>
     <row r="581" spans="1:4" ht="15.75">
       <c r="A581" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B581" s="20"/>
-      <c r="C581" s="20"/>
+        <v>577</v>
+      </c>
+      <c r="B581" s="18"/>
+      <c r="C581" s="18"/>
       <c r="D581" s="10"/>
     </row>
     <row r="582" spans="1:4" ht="15.75">
       <c r="A582" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B582" s="20"/>
-      <c r="C582" s="20"/>
+        <v>578</v>
+      </c>
+      <c r="B582" s="18"/>
+      <c r="C582" s="18"/>
       <c r="D582" s="10"/>
     </row>
     <row r="583" spans="1:4" ht="15.75">
       <c r="A583" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="B583" s="20"/>
-      <c r="C583" s="20"/>
+        <v>579</v>
+      </c>
+      <c r="B583" s="18"/>
+      <c r="C583" s="18"/>
       <c r="D583" s="10"/>
     </row>
     <row r="584" spans="1:4" ht="15.75">
       <c r="A584" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B584" s="20"/>
-      <c r="C584" s="20"/>
+        <v>580</v>
+      </c>
+      <c r="B584" s="18"/>
+      <c r="C584" s="18"/>
       <c r="D584" s="5"/>
     </row>
     <row r="585" spans="1:4" ht="15.75">
       <c r="A585" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B585" s="20"/>
-      <c r="C585" s="20"/>
+        <v>581</v>
+      </c>
+      <c r="B585" s="18"/>
+      <c r="C585" s="18"/>
       <c r="D585" s="5"/>
     </row>
     <row r="586" spans="1:4" ht="15.75">
       <c r="A586" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B586" s="10"/>
       <c r="C586" s="5"/>
@@ -7254,143 +7208,143 @@
     </row>
     <row r="587" spans="1:4" ht="15.75">
       <c r="A587" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="B587" s="20"/>
-      <c r="C587" s="20"/>
+        <v>583</v>
+      </c>
+      <c r="B587" s="18"/>
+      <c r="C587" s="18"/>
       <c r="D587" s="5"/>
     </row>
     <row r="588" spans="1:4" ht="15.75">
       <c r="A588" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="B588" s="20"/>
-      <c r="C588" s="20"/>
+        <v>584</v>
+      </c>
+      <c r="B588" s="18"/>
+      <c r="C588" s="18"/>
       <c r="D588" s="5"/>
     </row>
     <row r="589" spans="1:4" ht="15.75">
       <c r="A589" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B589" s="20"/>
-      <c r="C589" s="20"/>
+        <v>585</v>
+      </c>
+      <c r="B589" s="18"/>
+      <c r="C589" s="18"/>
       <c r="D589" s="10"/>
     </row>
     <row r="590" spans="1:4" ht="15.75">
       <c r="A590" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B590" s="20"/>
-      <c r="C590" s="20"/>
+        <v>586</v>
+      </c>
+      <c r="B590" s="18"/>
+      <c r="C590" s="18"/>
       <c r="D590" s="10"/>
     </row>
     <row r="591" spans="1:4" ht="15.75">
       <c r="A591" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B591" s="20"/>
-      <c r="C591" s="20"/>
+        <v>587</v>
+      </c>
+      <c r="B591" s="18"/>
+      <c r="C591" s="18"/>
       <c r="D591" s="10"/>
     </row>
     <row r="592" spans="1:4" ht="15.75">
       <c r="A592" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B592" s="20"/>
-      <c r="C592" s="20"/>
+        <v>588</v>
+      </c>
+      <c r="B592" s="18"/>
+      <c r="C592" s="18"/>
       <c r="D592" s="10"/>
     </row>
     <row r="593" spans="1:4" ht="15.75">
       <c r="A593" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B593" s="20"/>
-      <c r="C593" s="20"/>
+        <v>589</v>
+      </c>
+      <c r="B593" s="18"/>
+      <c r="C593" s="18"/>
       <c r="D593" s="5"/>
     </row>
     <row r="594" spans="1:4" ht="15.75">
       <c r="A594" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B594" s="20"/>
-      <c r="C594" s="20"/>
+        <v>590</v>
+      </c>
+      <c r="B594" s="18"/>
+      <c r="C594" s="18"/>
       <c r="D594" s="5"/>
     </row>
     <row r="595" spans="1:4" ht="15.75">
       <c r="A595" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="B595" s="20"/>
-      <c r="C595" s="20"/>
+        <v>591</v>
+      </c>
+      <c r="B595" s="18"/>
+      <c r="C595" s="18"/>
       <c r="D595" s="5"/>
     </row>
     <row r="596" spans="1:4" ht="15.75">
       <c r="A596" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="B596" s="20"/>
-      <c r="C596" s="20"/>
+        <v>592</v>
+      </c>
+      <c r="B596" s="18"/>
+      <c r="C596" s="18"/>
       <c r="D596" s="5"/>
     </row>
     <row r="597" spans="1:4" ht="15.75">
       <c r="A597" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B597" s="20"/>
-      <c r="C597" s="20"/>
+        <v>593</v>
+      </c>
+      <c r="B597" s="18"/>
+      <c r="C597" s="18"/>
       <c r="D597" s="5"/>
     </row>
     <row r="598" spans="1:4" ht="15.75">
       <c r="A598" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="B598" s="20"/>
-      <c r="C598" s="20"/>
+        <v>594</v>
+      </c>
+      <c r="B598" s="18"/>
+      <c r="C598" s="18"/>
       <c r="D598" s="10"/>
     </row>
     <row r="599" spans="1:4" ht="15.75">
       <c r="A599" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="B599" s="20"/>
-      <c r="C599" s="20"/>
+        <v>595</v>
+      </c>
+      <c r="B599" s="18"/>
+      <c r="C599" s="18"/>
       <c r="D599" s="5"/>
     </row>
     <row r="600" spans="1:4" ht="15.75">
       <c r="A600" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="B600" s="20"/>
-      <c r="C600" s="20"/>
+        <v>596</v>
+      </c>
+      <c r="B600" s="18"/>
+      <c r="C600" s="18"/>
       <c r="D600" s="5"/>
     </row>
     <row r="601" spans="1:4" ht="15.75">
       <c r="A601" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="B601" s="20"/>
-      <c r="C601" s="20"/>
+        <v>597</v>
+      </c>
+      <c r="B601" s="18"/>
+      <c r="C601" s="18"/>
       <c r="D601" s="5"/>
     </row>
     <row r="602" spans="1:4" ht="15.75">
       <c r="A602" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="B602" s="20"/>
-      <c r="C602" s="20"/>
+        <v>598</v>
+      </c>
+      <c r="B602" s="18"/>
+      <c r="C602" s="18"/>
       <c r="D602" s="5"/>
     </row>
     <row r="603" spans="1:4" ht="15.75">
       <c r="A603" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B603" s="20"/>
-      <c r="C603" s="20"/>
+        <v>599</v>
+      </c>
+      <c r="B603" s="18"/>
+      <c r="C603" s="18"/>
       <c r="D603" s="5"/>
     </row>
     <row r="604" spans="1:4" ht="15.75">
       <c r="A604" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B604" s="10"/>
       <c r="C604" s="5"/>
@@ -7398,65 +7352,63 @@
     </row>
     <row r="605" spans="1:4" ht="15.75">
       <c r="A605" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="B605" s="20"/>
-      <c r="C605" s="20"/>
+        <v>601</v>
+      </c>
+      <c r="B605" s="18"/>
+      <c r="C605" s="18"/>
       <c r="D605" s="5"/>
     </row>
     <row r="606" spans="1:4" ht="15.75">
       <c r="A606" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="B606" s="20"/>
-      <c r="C606" s="20"/>
+        <v>602</v>
+      </c>
+      <c r="B606" s="18"/>
+      <c r="C606" s="18"/>
       <c r="D606" s="5"/>
     </row>
     <row r="607" spans="1:4" ht="15.75">
       <c r="A607" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B607" s="10"/>
-      <c r="C607" s="10" t="s">
-        <v>612</v>
-      </c>
+      <c r="C607" s="10"/>
       <c r="D607" s="5"/>
     </row>
     <row r="608" spans="1:4" ht="15.75">
       <c r="A608" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B608" s="20"/>
-      <c r="C608" s="20"/>
+        <v>604</v>
+      </c>
+      <c r="B608" s="18"/>
+      <c r="C608" s="18"/>
       <c r="D608" s="5"/>
     </row>
     <row r="609" spans="1:4" ht="15.75">
       <c r="A609" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B609" s="20"/>
-      <c r="C609" s="20"/>
+        <v>605</v>
+      </c>
+      <c r="B609" s="18"/>
+      <c r="C609" s="18"/>
       <c r="D609" s="5"/>
     </row>
     <row r="610" spans="1:4" ht="15.75">
       <c r="A610" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B610" s="20"/>
-      <c r="C610" s="20"/>
+        <v>606</v>
+      </c>
+      <c r="B610" s="18"/>
+      <c r="C610" s="18"/>
       <c r="D610" s="5"/>
     </row>
     <row r="611" spans="1:4" ht="15.75">
       <c r="A611" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B611" s="20"/>
-      <c r="C611" s="20"/>
+        <v>607</v>
+      </c>
+      <c r="B611" s="18"/>
+      <c r="C611" s="18"/>
       <c r="D611" s="5"/>
     </row>
     <row r="612" spans="1:4" ht="15.75">
       <c r="A612" s="13" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B612" s="10"/>
       <c r="C612" s="10"/>
@@ -7464,39 +7416,39 @@
     </row>
     <row r="613" spans="1:4" ht="15.75">
       <c r="A613" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B613" s="20"/>
-      <c r="C613" s="20"/>
+        <v>609</v>
+      </c>
+      <c r="B613" s="18"/>
+      <c r="C613" s="18"/>
       <c r="D613" s="10"/>
     </row>
     <row r="614" spans="1:4" ht="15.75">
       <c r="A614" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B614" s="20"/>
-      <c r="C614" s="20"/>
+        <v>610</v>
+      </c>
+      <c r="B614" s="18"/>
+      <c r="C614" s="18"/>
       <c r="D614" s="5"/>
     </row>
     <row r="615" spans="1:4" ht="15.75">
       <c r="A615" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B615" s="20"/>
-      <c r="C615" s="20"/>
+        <v>611</v>
+      </c>
+      <c r="B615" s="18"/>
+      <c r="C615" s="18"/>
       <c r="D615" s="5"/>
     </row>
     <row r="616" spans="1:4" ht="15.75">
       <c r="A616" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="B616" s="20"/>
-      <c r="C616" s="20"/>
+        <v>612</v>
+      </c>
+      <c r="B616" s="18"/>
+      <c r="C616" s="18"/>
       <c r="D616" s="5"/>
     </row>
     <row r="617" spans="1:4" ht="15.75">
       <c r="A617" s="5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B617" s="10"/>
       <c r="C617" s="5"/>
@@ -7504,257 +7456,255 @@
     </row>
     <row r="618" spans="1:4" ht="15.75">
       <c r="A618" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B618" s="20"/>
-      <c r="C618" s="20"/>
+        <v>614</v>
+      </c>
+      <c r="B618" s="18"/>
+      <c r="C618" s="18"/>
       <c r="D618" s="5"/>
     </row>
     <row r="619" spans="1:4" ht="15.75">
       <c r="A619" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B619" s="20"/>
-      <c r="C619" s="20"/>
+        <v>615</v>
+      </c>
+      <c r="B619" s="18"/>
+      <c r="C619" s="18"/>
       <c r="D619" s="10"/>
     </row>
     <row r="620" spans="1:4" ht="15.75">
       <c r="A620" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="B620" s="20"/>
-      <c r="C620" s="20"/>
+        <v>616</v>
+      </c>
+      <c r="B620" s="18"/>
+      <c r="C620" s="18"/>
       <c r="D620" s="10"/>
     </row>
     <row r="621" spans="1:4" ht="15.75">
       <c r="A621" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B621" s="20"/>
-      <c r="C621" s="20"/>
+        <v>617</v>
+      </c>
+      <c r="B621" s="18"/>
+      <c r="C621" s="18"/>
       <c r="D621" s="10"/>
     </row>
     <row r="622" spans="1:4" ht="15.75">
       <c r="A622" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="B622" s="20"/>
-      <c r="C622" s="20"/>
+        <v>618</v>
+      </c>
+      <c r="B622" s="18"/>
+      <c r="C622" s="18"/>
       <c r="D622" s="6"/>
     </row>
     <row r="623" spans="1:4" ht="15.75">
       <c r="A623" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="B623" s="20"/>
-      <c r="C623" s="20"/>
+        <v>619</v>
+      </c>
+      <c r="B623" s="18"/>
+      <c r="C623" s="18"/>
       <c r="D623" s="6"/>
     </row>
     <row r="624" spans="1:4" ht="15.75">
       <c r="A624" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="B624" s="20"/>
-      <c r="C624" s="20"/>
+        <v>620</v>
+      </c>
+      <c r="B624" s="18"/>
+      <c r="C624" s="18"/>
       <c r="D624" s="10"/>
     </row>
     <row r="625" spans="1:4" ht="15.75">
       <c r="A625" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="B625" s="20"/>
-      <c r="C625" s="20"/>
+        <v>621</v>
+      </c>
+      <c r="B625" s="18"/>
+      <c r="C625" s="18"/>
       <c r="D625" s="10"/>
     </row>
     <row r="626" spans="1:4" ht="15.75">
       <c r="A626" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="B626" s="20"/>
-      <c r="C626" s="20"/>
+        <v>622</v>
+      </c>
+      <c r="B626" s="18"/>
+      <c r="C626" s="18"/>
       <c r="D626" s="10"/>
     </row>
     <row r="627" spans="1:4" ht="15.75">
       <c r="A627" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B627" s="20"/>
-      <c r="C627" s="20"/>
+        <v>623</v>
+      </c>
+      <c r="B627" s="18"/>
+      <c r="C627" s="18"/>
       <c r="D627" s="5"/>
     </row>
     <row r="628" spans="1:4" ht="15.75">
       <c r="A628" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B628" s="20"/>
-      <c r="C628" s="20"/>
+        <v>624</v>
+      </c>
+      <c r="B628" s="18"/>
+      <c r="C628" s="18"/>
       <c r="D628" s="10"/>
     </row>
     <row r="629" spans="1:4" ht="15.75">
       <c r="A629" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="B629" s="20"/>
-      <c r="C629" s="20"/>
+        <v>625</v>
+      </c>
+      <c r="B629" s="18"/>
+      <c r="C629" s="18"/>
       <c r="D629" s="5"/>
     </row>
     <row r="630" spans="1:4" ht="15.75">
       <c r="A630" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B630" s="20"/>
-      <c r="C630" s="20"/>
+        <v>626</v>
+      </c>
+      <c r="B630" s="18"/>
+      <c r="C630" s="18"/>
       <c r="D630" s="5"/>
     </row>
     <row r="631" spans="1:4" ht="15.75">
       <c r="A631" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B631" s="20"/>
-      <c r="C631" s="20"/>
+        <v>627</v>
+      </c>
+      <c r="B631" s="18"/>
+      <c r="C631" s="18"/>
       <c r="D631" s="10"/>
     </row>
     <row r="632" spans="1:4" ht="15.75">
       <c r="A632" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B632" s="20"/>
-      <c r="C632" s="20"/>
+        <v>628</v>
+      </c>
+      <c r="B632" s="18"/>
+      <c r="C632" s="18"/>
       <c r="D632" s="10"/>
     </row>
     <row r="633" spans="1:4" ht="15.75">
       <c r="A633" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="B633" s="20"/>
-      <c r="C633" s="20"/>
+        <v>629</v>
+      </c>
+      <c r="B633" s="18"/>
+      <c r="C633" s="18"/>
       <c r="D633" s="10"/>
     </row>
     <row r="634" spans="1:4" ht="15.75">
       <c r="A634" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B634" s="20"/>
-      <c r="C634" s="20"/>
+        <v>630</v>
+      </c>
+      <c r="B634" s="18"/>
+      <c r="C634" s="18"/>
       <c r="D634" s="10"/>
     </row>
     <row r="635" spans="1:4" ht="15.75">
       <c r="A635" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="B635" s="20"/>
-      <c r="C635" s="20"/>
+        <v>631</v>
+      </c>
+      <c r="B635" s="18"/>
+      <c r="C635" s="18"/>
       <c r="D635" s="10"/>
     </row>
     <row r="636" spans="1:4" ht="15.75">
       <c r="A636" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="B636" s="20"/>
-      <c r="C636" s="20"/>
+        <v>632</v>
+      </c>
+      <c r="B636" s="18"/>
+      <c r="C636" s="18"/>
       <c r="D636" s="10"/>
     </row>
     <row r="637" spans="1:4" ht="15.75">
       <c r="A637" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="B637" s="20"/>
-      <c r="C637" s="20"/>
+        <v>633</v>
+      </c>
+      <c r="B637" s="18"/>
+      <c r="C637" s="18"/>
       <c r="D637" s="10"/>
     </row>
     <row r="638" spans="1:4" ht="15.75">
       <c r="A638" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B638" s="20"/>
-      <c r="C638" s="20"/>
+        <v>634</v>
+      </c>
+      <c r="B638" s="18"/>
+      <c r="C638" s="18"/>
       <c r="D638" s="10"/>
     </row>
     <row r="639" spans="1:4" ht="15.75">
       <c r="A639" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="B639" s="20"/>
-      <c r="C639" s="20"/>
+        <v>635</v>
+      </c>
+      <c r="B639" s="18"/>
+      <c r="C639" s="18"/>
       <c r="D639" s="10"/>
     </row>
     <row r="640" spans="1:4" ht="15.75">
       <c r="A640" s="13" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B640" s="10"/>
-      <c r="C640" s="16" t="s">
-        <v>646</v>
-      </c>
+      <c r="C640" s="16"/>
       <c r="D640" s="10"/>
     </row>
     <row r="641" spans="1:4" ht="15.75">
       <c r="A641" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B641" s="20"/>
-      <c r="C641" s="20"/>
+        <v>637</v>
+      </c>
+      <c r="B641" s="18"/>
+      <c r="C641" s="18"/>
       <c r="D641" s="10"/>
     </row>
     <row r="642" spans="1:4" ht="15.75">
       <c r="A642" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="B642" s="20"/>
-      <c r="C642" s="20"/>
+        <v>638</v>
+      </c>
+      <c r="B642" s="18"/>
+      <c r="C642" s="18"/>
       <c r="D642" s="10"/>
     </row>
     <row r="643" spans="1:4" ht="15.75">
       <c r="A643" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="B643" s="20"/>
-      <c r="C643" s="20"/>
+        <v>639</v>
+      </c>
+      <c r="B643" s="18"/>
+      <c r="C643" s="18"/>
       <c r="D643" s="10"/>
     </row>
     <row r="644" spans="1:4" ht="15.75">
       <c r="A644" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="B644" s="20"/>
-      <c r="C644" s="20"/>
+        <v>640</v>
+      </c>
+      <c r="B644" s="18"/>
+      <c r="C644" s="18"/>
       <c r="D644" s="5"/>
     </row>
     <row r="645" spans="1:4" ht="15.75">
       <c r="A645" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="B645" s="20"/>
-      <c r="C645" s="20"/>
+        <v>641</v>
+      </c>
+      <c r="B645" s="18"/>
+      <c r="C645" s="18"/>
       <c r="D645" s="10"/>
     </row>
     <row r="646" spans="1:4" ht="15.75">
       <c r="A646" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B646" s="20"/>
-      <c r="C646" s="20"/>
+        <v>642</v>
+      </c>
+      <c r="B646" s="18"/>
+      <c r="C646" s="18"/>
       <c r="D646" s="5"/>
     </row>
     <row r="647" spans="1:4" ht="15.75">
       <c r="A647" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="B647" s="20"/>
-      <c r="C647" s="20"/>
+        <v>643</v>
+      </c>
+      <c r="B647" s="18"/>
+      <c r="C647" s="18"/>
       <c r="D647" s="10"/>
     </row>
     <row r="648" spans="1:4" ht="15.75">
       <c r="A648" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="B648" s="20"/>
-      <c r="C648" s="20"/>
+        <v>644</v>
+      </c>
+      <c r="B648" s="18"/>
+      <c r="C648" s="18"/>
       <c r="D648" s="10"/>
     </row>
     <row r="649" spans="1:4" ht="15.75">
       <c r="A649" s="5" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B649" s="10"/>
       <c r="C649" s="5"/>
@@ -7762,119 +7712,119 @@
     </row>
     <row r="650" spans="1:4" ht="15.75">
       <c r="A650" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B650" s="20"/>
-      <c r="C650" s="20"/>
+        <v>646</v>
+      </c>
+      <c r="B650" s="18"/>
+      <c r="C650" s="18"/>
       <c r="D650" s="10"/>
     </row>
     <row r="651" spans="1:4" ht="15.75">
       <c r="A651" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="B651" s="20"/>
-      <c r="C651" s="20"/>
+        <v>647</v>
+      </c>
+      <c r="B651" s="18"/>
+      <c r="C651" s="18"/>
       <c r="D651" s="10"/>
     </row>
     <row r="652" spans="1:4" ht="15.75">
       <c r="A652" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="B652" s="20"/>
-      <c r="C652" s="20"/>
+        <v>648</v>
+      </c>
+      <c r="B652" s="18"/>
+      <c r="C652" s="18"/>
       <c r="D652" s="5"/>
     </row>
     <row r="653" spans="1:4" ht="15.75">
       <c r="A653" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="B653" s="20"/>
-      <c r="C653" s="20"/>
+        <v>649</v>
+      </c>
+      <c r="B653" s="18"/>
+      <c r="C653" s="18"/>
       <c r="D653" s="10"/>
     </row>
     <row r="654" spans="1:4" ht="15.75">
       <c r="A654" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B654" s="20"/>
-      <c r="C654" s="20"/>
+        <v>650</v>
+      </c>
+      <c r="B654" s="18"/>
+      <c r="C654" s="18"/>
       <c r="D654" s="10"/>
     </row>
     <row r="655" spans="1:4" ht="15.75">
       <c r="A655" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="B655" s="20"/>
-      <c r="C655" s="20"/>
+        <v>651</v>
+      </c>
+      <c r="B655" s="18"/>
+      <c r="C655" s="18"/>
       <c r="D655" s="10"/>
     </row>
     <row r="656" spans="1:4" ht="15.75">
       <c r="A656" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="B656" s="20"/>
-      <c r="C656" s="20"/>
+        <v>652</v>
+      </c>
+      <c r="B656" s="18"/>
+      <c r="C656" s="18"/>
       <c r="D656" s="5"/>
     </row>
     <row r="657" spans="1:4" ht="15.75">
       <c r="A657" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="B657" s="20"/>
-      <c r="C657" s="20"/>
+        <v>653</v>
+      </c>
+      <c r="B657" s="18"/>
+      <c r="C657" s="18"/>
       <c r="D657" s="10"/>
     </row>
     <row r="658" spans="1:4" ht="15.75">
       <c r="A658" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B658" s="20"/>
-      <c r="C658" s="20"/>
+        <v>654</v>
+      </c>
+      <c r="B658" s="18"/>
+      <c r="C658" s="18"/>
       <c r="D658" s="5"/>
     </row>
     <row r="659" spans="1:4" ht="15.75">
       <c r="A659" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="B659" s="20"/>
-      <c r="C659" s="20"/>
+        <v>655</v>
+      </c>
+      <c r="B659" s="18"/>
+      <c r="C659" s="18"/>
       <c r="D659" s="10"/>
     </row>
     <row r="660" spans="1:4" ht="15.75">
       <c r="A660" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="B660" s="20"/>
-      <c r="C660" s="20"/>
+        <v>656</v>
+      </c>
+      <c r="B660" s="18"/>
+      <c r="C660" s="18"/>
       <c r="D660" s="10"/>
     </row>
     <row r="661" spans="1:4" ht="15.75">
       <c r="A661" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B661" s="20"/>
-      <c r="C661" s="20"/>
+        <v>657</v>
+      </c>
+      <c r="B661" s="18"/>
+      <c r="C661" s="18"/>
       <c r="D661" s="10"/>
     </row>
     <row r="662" spans="1:4" ht="15.75">
       <c r="A662" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="B662" s="20"/>
-      <c r="C662" s="20"/>
+        <v>658</v>
+      </c>
+      <c r="B662" s="18"/>
+      <c r="C662" s="18"/>
       <c r="D662" s="10"/>
     </row>
     <row r="663" spans="1:4" ht="15.75">
       <c r="A663" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="B663" s="20"/>
-      <c r="C663" s="20"/>
+        <v>659</v>
+      </c>
+      <c r="B663" s="18"/>
+      <c r="C663" s="18"/>
       <c r="D663" s="10"/>
     </row>
     <row r="664" spans="1:4" ht="15.75">
       <c r="A664" s="8" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B664" s="10"/>
       <c r="C664" s="5"/>
@@ -7882,122 +7832,740 @@
     </row>
     <row r="665" spans="1:4" ht="15.75">
       <c r="A665" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="B665" s="20"/>
-      <c r="C665" s="20"/>
+        <v>661</v>
+      </c>
+      <c r="B665" s="18"/>
+      <c r="C665" s="18"/>
       <c r="D665" s="5"/>
     </row>
     <row r="666" spans="1:4" ht="15.75">
       <c r="A666" s="13" t="s">
-        <v>672</v>
-      </c>
-      <c r="B666" s="20"/>
-      <c r="C666" s="20"/>
+        <v>662</v>
+      </c>
+      <c r="B666" s="18"/>
+      <c r="C666" s="18"/>
       <c r="D666" s="10"/>
     </row>
     <row r="667" spans="1:4" ht="15.75">
       <c r="A667" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B667" s="20"/>
-      <c r="C667" s="20"/>
+        <v>663</v>
+      </c>
+      <c r="B667" s="18"/>
+      <c r="C667" s="18"/>
       <c r="D667" s="10"/>
     </row>
     <row r="668" spans="1:4" ht="15.75">
       <c r="A668" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="B668" s="20"/>
-      <c r="C668" s="20"/>
+        <v>664</v>
+      </c>
+      <c r="B668" s="18"/>
+      <c r="C668" s="18"/>
       <c r="D668" s="5"/>
     </row>
     <row r="669" spans="1:4" ht="15.75">
       <c r="A669" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B669" s="20"/>
-      <c r="C669" s="20"/>
+        <v>665</v>
+      </c>
+      <c r="B669" s="18"/>
+      <c r="C669" s="18"/>
       <c r="D669" s="10"/>
     </row>
     <row r="670" spans="1:4" ht="15.75">
       <c r="A670" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B670" s="20"/>
-      <c r="C670" s="20"/>
+        <v>666</v>
+      </c>
+      <c r="B670" s="18"/>
+      <c r="C670" s="18"/>
       <c r="D670" s="10"/>
     </row>
     <row r="671" spans="1:4" ht="15.75">
       <c r="A671" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="B671" s="20"/>
-      <c r="C671" s="20"/>
+        <v>667</v>
+      </c>
+      <c r="B671" s="18"/>
+      <c r="C671" s="18"/>
       <c r="D671" s="10"/>
     </row>
     <row r="672" spans="1:4" ht="15.75">
       <c r="A672" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="B672" s="20"/>
-      <c r="C672" s="20"/>
+        <v>668</v>
+      </c>
+      <c r="B672" s="18"/>
+      <c r="C672" s="18"/>
       <c r="D672" s="10"/>
     </row>
     <row r="673" spans="1:4" ht="15.75">
       <c r="A673" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="B673" s="20"/>
-      <c r="C673" s="20"/>
+        <v>669</v>
+      </c>
+      <c r="B673" s="18"/>
+      <c r="C673" s="18"/>
       <c r="D673" s="10"/>
     </row>
     <row r="674" spans="1:4" ht="15.75">
       <c r="A674" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="B674" s="20"/>
-      <c r="C674" s="20"/>
+        <v>670</v>
+      </c>
+      <c r="B674" s="18"/>
+      <c r="C674" s="18"/>
       <c r="D674" s="10"/>
     </row>
     <row r="675" spans="1:4" ht="15.75">
       <c r="A675" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B675" s="20"/>
-      <c r="C675" s="20"/>
+        <v>671</v>
+      </c>
+      <c r="B675" s="18"/>
+      <c r="C675" s="18"/>
       <c r="D675" s="10"/>
     </row>
     <row r="676" spans="1:4" ht="15.75">
       <c r="A676" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="B676" s="20"/>
-      <c r="C676" s="20"/>
+        <v>672</v>
+      </c>
+      <c r="B676" s="18"/>
+      <c r="C676" s="18"/>
       <c r="D676" s="10"/>
     </row>
     <row r="677" spans="1:4" ht="15.75">
       <c r="A677" s="17" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="678" spans="1:4" ht="15.75">
       <c r="A678" s="17" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="15.75">
       <c r="A679" s="17" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="680" spans="1:4" ht="15.75">
       <c r="A680" s="17" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="632">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="B347:C347"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B365:C365"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="B376:C376"/>
+    <mergeCell ref="B377:C377"/>
+    <mergeCell ref="B378:C378"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="B380:C380"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="B372:C372"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B375:C375"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="B383:C383"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="B385:C385"/>
+    <mergeCell ref="B386:C386"/>
+    <mergeCell ref="B387:C387"/>
+    <mergeCell ref="B400:C400"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B404:C404"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B394:C394"/>
+    <mergeCell ref="B395:C395"/>
+    <mergeCell ref="B396:C396"/>
+    <mergeCell ref="B397:C397"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="B399:C399"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="B416:C416"/>
+    <mergeCell ref="B417:C417"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="B407:C407"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="B410:C410"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B425:C425"/>
+    <mergeCell ref="B426:C426"/>
+    <mergeCell ref="B427:C427"/>
+    <mergeCell ref="B428:C428"/>
+    <mergeCell ref="B429:C429"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="B420:C420"/>
+    <mergeCell ref="B421:C421"/>
+    <mergeCell ref="B422:C422"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="B436:C436"/>
+    <mergeCell ref="B437:C437"/>
+    <mergeCell ref="B438:C438"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B441:C441"/>
+    <mergeCell ref="B430:C430"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="B432:C432"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="B435:C435"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="B452:C452"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B443:C443"/>
+    <mergeCell ref="B444:C444"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="B446:C446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B460:C460"/>
+    <mergeCell ref="B461:C461"/>
+    <mergeCell ref="B462:C462"/>
+    <mergeCell ref="B463:C463"/>
+    <mergeCell ref="B464:C464"/>
+    <mergeCell ref="B465:C465"/>
+    <mergeCell ref="B454:C454"/>
+    <mergeCell ref="B455:C455"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="B457:C457"/>
+    <mergeCell ref="B458:C458"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B474:C474"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="B476:C476"/>
+    <mergeCell ref="B477:C477"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="B466:C466"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B468:C468"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="B470:C470"/>
+    <mergeCell ref="B472:C472"/>
+    <mergeCell ref="B485:C485"/>
+    <mergeCell ref="B486:C486"/>
+    <mergeCell ref="B487:C487"/>
+    <mergeCell ref="B488:C488"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="B490:C490"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="B480:C480"/>
+    <mergeCell ref="B481:C481"/>
+    <mergeCell ref="B482:C482"/>
+    <mergeCell ref="B483:C483"/>
+    <mergeCell ref="B484:C484"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="B503:C503"/>
+    <mergeCell ref="B504:C504"/>
+    <mergeCell ref="B491:C491"/>
+    <mergeCell ref="B492:C492"/>
+    <mergeCell ref="B494:C494"/>
+    <mergeCell ref="B495:C495"/>
+    <mergeCell ref="B496:C496"/>
+    <mergeCell ref="B497:C497"/>
+    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="B512:C512"/>
+    <mergeCell ref="B513:C513"/>
+    <mergeCell ref="B514:C514"/>
+    <mergeCell ref="B515:C515"/>
+    <mergeCell ref="B516:C516"/>
+    <mergeCell ref="B505:C505"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B507:C507"/>
+    <mergeCell ref="B508:C508"/>
+    <mergeCell ref="B509:C509"/>
+    <mergeCell ref="B510:C510"/>
+    <mergeCell ref="B523:C523"/>
+    <mergeCell ref="B524:C524"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B526:C526"/>
+    <mergeCell ref="B527:C527"/>
+    <mergeCell ref="B528:C528"/>
+    <mergeCell ref="B517:C517"/>
+    <mergeCell ref="B518:C518"/>
+    <mergeCell ref="B519:C519"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B521:C521"/>
+    <mergeCell ref="B522:C522"/>
+    <mergeCell ref="B535:C535"/>
+    <mergeCell ref="B536:C536"/>
+    <mergeCell ref="B538:C538"/>
+    <mergeCell ref="B539:C539"/>
+    <mergeCell ref="B540:C540"/>
+    <mergeCell ref="B541:C541"/>
+    <mergeCell ref="B529:C529"/>
+    <mergeCell ref="B530:C530"/>
+    <mergeCell ref="B531:C531"/>
+    <mergeCell ref="B532:C532"/>
+    <mergeCell ref="B533:C533"/>
+    <mergeCell ref="B534:C534"/>
+    <mergeCell ref="B551:C551"/>
+    <mergeCell ref="B552:C552"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="B554:C554"/>
+    <mergeCell ref="B555:C555"/>
+    <mergeCell ref="B556:C556"/>
+    <mergeCell ref="B545:C545"/>
+    <mergeCell ref="B546:C546"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B548:C548"/>
+    <mergeCell ref="B549:C549"/>
+    <mergeCell ref="B550:C550"/>
+    <mergeCell ref="B563:C563"/>
+    <mergeCell ref="B564:C564"/>
+    <mergeCell ref="B565:C565"/>
+    <mergeCell ref="B566:C566"/>
+    <mergeCell ref="B567:C567"/>
+    <mergeCell ref="B568:C568"/>
+    <mergeCell ref="B557:C557"/>
+    <mergeCell ref="B558:C558"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B560:C560"/>
+    <mergeCell ref="B561:C561"/>
+    <mergeCell ref="B562:C562"/>
+    <mergeCell ref="B576:C576"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B578:C578"/>
+    <mergeCell ref="B579:C579"/>
+    <mergeCell ref="B581:C581"/>
+    <mergeCell ref="B582:C582"/>
+    <mergeCell ref="B570:C570"/>
+    <mergeCell ref="B571:C571"/>
+    <mergeCell ref="B572:C572"/>
+    <mergeCell ref="B573:C573"/>
+    <mergeCell ref="B574:C574"/>
+    <mergeCell ref="B575:C575"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B591:C591"/>
+    <mergeCell ref="B592:C592"/>
+    <mergeCell ref="B593:C593"/>
+    <mergeCell ref="B594:C594"/>
+    <mergeCell ref="B595:C595"/>
+    <mergeCell ref="B583:C583"/>
+    <mergeCell ref="B584:C584"/>
+    <mergeCell ref="B585:C585"/>
+    <mergeCell ref="B587:C587"/>
+    <mergeCell ref="B588:C588"/>
+    <mergeCell ref="B589:C589"/>
+    <mergeCell ref="B602:C602"/>
+    <mergeCell ref="B603:C603"/>
+    <mergeCell ref="B605:C605"/>
+    <mergeCell ref="B606:C606"/>
+    <mergeCell ref="B608:C608"/>
+    <mergeCell ref="B609:C609"/>
+    <mergeCell ref="B596:C596"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B598:C598"/>
+    <mergeCell ref="B599:C599"/>
+    <mergeCell ref="B600:C600"/>
+    <mergeCell ref="B601:C601"/>
+    <mergeCell ref="B618:C618"/>
+    <mergeCell ref="B619:C619"/>
+    <mergeCell ref="B620:C620"/>
+    <mergeCell ref="B621:C621"/>
+    <mergeCell ref="B622:C622"/>
+    <mergeCell ref="B623:C623"/>
+    <mergeCell ref="B610:C610"/>
+    <mergeCell ref="B611:C611"/>
+    <mergeCell ref="B613:C613"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B615:C615"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B630:C630"/>
+    <mergeCell ref="B631:C631"/>
+    <mergeCell ref="B632:C632"/>
+    <mergeCell ref="B633:C633"/>
+    <mergeCell ref="B634:C634"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B624:C624"/>
+    <mergeCell ref="B625:C625"/>
+    <mergeCell ref="B626:C626"/>
+    <mergeCell ref="B627:C627"/>
+    <mergeCell ref="B628:C628"/>
+    <mergeCell ref="B629:C629"/>
+    <mergeCell ref="B643:C643"/>
+    <mergeCell ref="B644:C644"/>
+    <mergeCell ref="B645:C645"/>
+    <mergeCell ref="B646:C646"/>
+    <mergeCell ref="B647:C647"/>
+    <mergeCell ref="B648:C648"/>
+    <mergeCell ref="B636:C636"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B638:C638"/>
+    <mergeCell ref="B639:C639"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B642:C642"/>
+    <mergeCell ref="B656:C656"/>
+    <mergeCell ref="B657:C657"/>
+    <mergeCell ref="B658:C658"/>
+    <mergeCell ref="B659:C659"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B661:C661"/>
+    <mergeCell ref="B650:C650"/>
+    <mergeCell ref="B651:C651"/>
+    <mergeCell ref="B652:C652"/>
+    <mergeCell ref="B653:C653"/>
+    <mergeCell ref="B654:C654"/>
+    <mergeCell ref="B655:C655"/>
     <mergeCell ref="B675:C675"/>
     <mergeCell ref="B676:C676"/>
     <mergeCell ref="B669:C669"/>
@@ -8012,624 +8580,6 @@
     <mergeCell ref="B666:C666"/>
     <mergeCell ref="B667:C667"/>
     <mergeCell ref="B668:C668"/>
-    <mergeCell ref="B656:C656"/>
-    <mergeCell ref="B657:C657"/>
-    <mergeCell ref="B658:C658"/>
-    <mergeCell ref="B659:C659"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B661:C661"/>
-    <mergeCell ref="B650:C650"/>
-    <mergeCell ref="B651:C651"/>
-    <mergeCell ref="B652:C652"/>
-    <mergeCell ref="B653:C653"/>
-    <mergeCell ref="B654:C654"/>
-    <mergeCell ref="B655:C655"/>
-    <mergeCell ref="B643:C643"/>
-    <mergeCell ref="B644:C644"/>
-    <mergeCell ref="B645:C645"/>
-    <mergeCell ref="B646:C646"/>
-    <mergeCell ref="B647:C647"/>
-    <mergeCell ref="B648:C648"/>
-    <mergeCell ref="B636:C636"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B638:C638"/>
-    <mergeCell ref="B639:C639"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B642:C642"/>
-    <mergeCell ref="B630:C630"/>
-    <mergeCell ref="B631:C631"/>
-    <mergeCell ref="B632:C632"/>
-    <mergeCell ref="B633:C633"/>
-    <mergeCell ref="B634:C634"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B624:C624"/>
-    <mergeCell ref="B625:C625"/>
-    <mergeCell ref="B626:C626"/>
-    <mergeCell ref="B627:C627"/>
-    <mergeCell ref="B628:C628"/>
-    <mergeCell ref="B629:C629"/>
-    <mergeCell ref="B618:C618"/>
-    <mergeCell ref="B619:C619"/>
-    <mergeCell ref="B620:C620"/>
-    <mergeCell ref="B621:C621"/>
-    <mergeCell ref="B622:C622"/>
-    <mergeCell ref="B623:C623"/>
-    <mergeCell ref="B610:C610"/>
-    <mergeCell ref="B611:C611"/>
-    <mergeCell ref="B613:C613"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B615:C615"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B602:C602"/>
-    <mergeCell ref="B603:C603"/>
-    <mergeCell ref="B605:C605"/>
-    <mergeCell ref="B606:C606"/>
-    <mergeCell ref="B608:C608"/>
-    <mergeCell ref="B609:C609"/>
-    <mergeCell ref="B596:C596"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B598:C598"/>
-    <mergeCell ref="B599:C599"/>
-    <mergeCell ref="B600:C600"/>
-    <mergeCell ref="B601:C601"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B591:C591"/>
-    <mergeCell ref="B592:C592"/>
-    <mergeCell ref="B593:C593"/>
-    <mergeCell ref="B594:C594"/>
-    <mergeCell ref="B595:C595"/>
-    <mergeCell ref="B583:C583"/>
-    <mergeCell ref="B584:C584"/>
-    <mergeCell ref="B585:C585"/>
-    <mergeCell ref="B587:C587"/>
-    <mergeCell ref="B588:C588"/>
-    <mergeCell ref="B589:C589"/>
-    <mergeCell ref="B576:C576"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B578:C578"/>
-    <mergeCell ref="B579:C579"/>
-    <mergeCell ref="B581:C581"/>
-    <mergeCell ref="B582:C582"/>
-    <mergeCell ref="B570:C570"/>
-    <mergeCell ref="B571:C571"/>
-    <mergeCell ref="B572:C572"/>
-    <mergeCell ref="B573:C573"/>
-    <mergeCell ref="B574:C574"/>
-    <mergeCell ref="B575:C575"/>
-    <mergeCell ref="B563:C563"/>
-    <mergeCell ref="B564:C564"/>
-    <mergeCell ref="B565:C565"/>
-    <mergeCell ref="B566:C566"/>
-    <mergeCell ref="B567:C567"/>
-    <mergeCell ref="B568:C568"/>
-    <mergeCell ref="B557:C557"/>
-    <mergeCell ref="B558:C558"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B560:C560"/>
-    <mergeCell ref="B561:C561"/>
-    <mergeCell ref="B562:C562"/>
-    <mergeCell ref="B551:C551"/>
-    <mergeCell ref="B552:C552"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B554:C554"/>
-    <mergeCell ref="B555:C555"/>
-    <mergeCell ref="B556:C556"/>
-    <mergeCell ref="B545:C545"/>
-    <mergeCell ref="B546:C546"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B548:C548"/>
-    <mergeCell ref="B549:C549"/>
-    <mergeCell ref="B550:C550"/>
-    <mergeCell ref="B535:C535"/>
-    <mergeCell ref="B536:C536"/>
-    <mergeCell ref="B538:C538"/>
-    <mergeCell ref="B539:C539"/>
-    <mergeCell ref="B540:C540"/>
-    <mergeCell ref="B541:C541"/>
-    <mergeCell ref="B529:C529"/>
-    <mergeCell ref="B530:C530"/>
-    <mergeCell ref="B531:C531"/>
-    <mergeCell ref="B532:C532"/>
-    <mergeCell ref="B533:C533"/>
-    <mergeCell ref="B534:C534"/>
-    <mergeCell ref="B523:C523"/>
-    <mergeCell ref="B524:C524"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B526:C526"/>
-    <mergeCell ref="B527:C527"/>
-    <mergeCell ref="B528:C528"/>
-    <mergeCell ref="B517:C517"/>
-    <mergeCell ref="B518:C518"/>
-    <mergeCell ref="B519:C519"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B521:C521"/>
-    <mergeCell ref="B522:C522"/>
-    <mergeCell ref="B511:C511"/>
-    <mergeCell ref="B512:C512"/>
-    <mergeCell ref="B513:C513"/>
-    <mergeCell ref="B514:C514"/>
-    <mergeCell ref="B515:C515"/>
-    <mergeCell ref="B516:C516"/>
-    <mergeCell ref="B505:C505"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B507:C507"/>
-    <mergeCell ref="B508:C508"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="B510:C510"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="B502:C502"/>
-    <mergeCell ref="B503:C503"/>
-    <mergeCell ref="B504:C504"/>
-    <mergeCell ref="B491:C491"/>
-    <mergeCell ref="B492:C492"/>
-    <mergeCell ref="B494:C494"/>
-    <mergeCell ref="B495:C495"/>
-    <mergeCell ref="B496:C496"/>
-    <mergeCell ref="B497:C497"/>
-    <mergeCell ref="B485:C485"/>
-    <mergeCell ref="B486:C486"/>
-    <mergeCell ref="B487:C487"/>
-    <mergeCell ref="B488:C488"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="B490:C490"/>
-    <mergeCell ref="B479:C479"/>
-    <mergeCell ref="B480:C480"/>
-    <mergeCell ref="B481:C481"/>
-    <mergeCell ref="B482:C482"/>
-    <mergeCell ref="B483:C483"/>
-    <mergeCell ref="B484:C484"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B474:C474"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="B476:C476"/>
-    <mergeCell ref="B477:C477"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="B466:C466"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B468:C468"/>
-    <mergeCell ref="B469:C469"/>
-    <mergeCell ref="B470:C470"/>
-    <mergeCell ref="B472:C472"/>
-    <mergeCell ref="B460:C460"/>
-    <mergeCell ref="B461:C461"/>
-    <mergeCell ref="B462:C462"/>
-    <mergeCell ref="B463:C463"/>
-    <mergeCell ref="B464:C464"/>
-    <mergeCell ref="B465:C465"/>
-    <mergeCell ref="B454:C454"/>
-    <mergeCell ref="B455:C455"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="B457:C457"/>
-    <mergeCell ref="B458:C458"/>
-    <mergeCell ref="B459:C459"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="B452:C452"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B443:C443"/>
-    <mergeCell ref="B444:C444"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="B446:C446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B436:C436"/>
-    <mergeCell ref="B437:C437"/>
-    <mergeCell ref="B438:C438"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B441:C441"/>
-    <mergeCell ref="B430:C430"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="B432:C432"/>
-    <mergeCell ref="B433:C433"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="B435:C435"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B425:C425"/>
-    <mergeCell ref="B426:C426"/>
-    <mergeCell ref="B427:C427"/>
-    <mergeCell ref="B428:C428"/>
-    <mergeCell ref="B429:C429"/>
-    <mergeCell ref="B418:C418"/>
-    <mergeCell ref="B419:C419"/>
-    <mergeCell ref="B420:C420"/>
-    <mergeCell ref="B421:C421"/>
-    <mergeCell ref="B422:C422"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="B415:C415"/>
-    <mergeCell ref="B416:C416"/>
-    <mergeCell ref="B417:C417"/>
-    <mergeCell ref="B406:C406"/>
-    <mergeCell ref="B407:C407"/>
-    <mergeCell ref="B408:C408"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="B410:C410"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="B400:C400"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B404:C404"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B394:C394"/>
-    <mergeCell ref="B395:C395"/>
-    <mergeCell ref="B396:C396"/>
-    <mergeCell ref="B397:C397"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="B399:C399"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="B391:C391"/>
-    <mergeCell ref="B392:C392"/>
-    <mergeCell ref="B393:C393"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="B383:C383"/>
-    <mergeCell ref="B384:C384"/>
-    <mergeCell ref="B385:C385"/>
-    <mergeCell ref="B386:C386"/>
-    <mergeCell ref="B387:C387"/>
-    <mergeCell ref="B376:C376"/>
-    <mergeCell ref="B377:C377"/>
-    <mergeCell ref="B378:C378"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="B380:C380"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B371:C371"/>
-    <mergeCell ref="B372:C372"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B375:C375"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B365:C365"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="B360:C360"/>
-    <mergeCell ref="B361:C361"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B353:C353"/>
-    <mergeCell ref="B354:C354"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="B347:C347"/>
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CVPeople.xlsx
+++ b/CVPeople.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE22BE9-C594-4DC9-8C49-F89A9103BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDD6406-E4A9-4A63-9641-B3E3F95C9707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="45" windowWidth="26850" windowHeight="14865" xr2:uid="{51A6B197-C127-4301-9E29-8709F9E73BF5}"/>
+    <workbookView xWindow="60" yWindow="210" windowWidth="28335" windowHeight="15390" xr2:uid="{51A6B197-C127-4301-9E29-8709F9E73BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
   <si>
     <t>PEOPLE</t>
   </si>
@@ -2065,6 +2065,12 @@
   </si>
   <si>
     <t xml:space="preserve">Unknown recipient </t>
+  </si>
+  <si>
+    <t>Alfonso XIII, King of Spain, 1886-1941</t>
+  </si>
+  <si>
+    <t>Pius X, Pope (1835-1914)</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2151,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2164,6 +2170,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2177,7 +2189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2198,10 +2210,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2516,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C36D07-8F0C-45B7-8A9B-9AA46E3E154A}">
-  <dimension ref="A1:D680"/>
+  <dimension ref="A1:D682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="C640" sqref="C640"/>
+    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
+      <selection activeCell="A666" sqref="A666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2534,68 +2547,68 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="3"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="5"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
@@ -2618,24 +2631,24 @@
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
@@ -2650,72 +2663,72 @@
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="15.75">
@@ -2730,8 +2743,8 @@
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="15.75">
@@ -2778,8 +2791,8 @@
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="15.75">
@@ -2794,40 +2807,40 @@
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.75">
@@ -2842,8 +2855,8 @@
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="15.75">
@@ -2858,432 +2871,432 @@
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" ht="15.75">
       <c r="A58" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" ht="15.75">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" ht="15.75">
       <c r="A61" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.75">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.75">
       <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75">
       <c r="A72" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" ht="15.75">
       <c r="A78" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
@@ -3298,312 +3311,312 @@
       <c r="A98" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" ht="15.75">
       <c r="A111" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" ht="15.75">
       <c r="A113" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" ht="15.75">
       <c r="A117" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" ht="15.75">
       <c r="A119" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" ht="15.75">
       <c r="A122" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" ht="15.75">
       <c r="A123" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" ht="15.75">
       <c r="A124" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4" ht="15.75">
       <c r="A125" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" ht="15.75">
       <c r="A126" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" ht="15.75">
       <c r="A127" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" ht="15.75">
       <c r="A129" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" ht="15.75">
       <c r="A132" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" ht="15.75">
       <c r="A133" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" ht="15.75">
       <c r="A134" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" ht="15.75">
       <c r="A135" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" ht="15.75">
       <c r="A136" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" ht="15.75">
@@ -3618,16 +3631,16 @@
       <c r="A138" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" ht="15.75">
       <c r="A139" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" ht="15.75">
@@ -3642,32 +3655,32 @@
       <c r="A141" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
       <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" ht="15.75">
       <c r="A142" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" ht="15.75">
       <c r="A143" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" ht="15.75">
@@ -3682,264 +3695,264 @@
       <c r="A146" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" ht="15.75">
       <c r="A147" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" ht="15.75">
       <c r="A148" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" ht="15.75">
       <c r="A149" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" ht="15.75">
       <c r="A150" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" ht="15.75">
       <c r="A151" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B151" s="20"/>
-      <c r="C151" s="20"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" ht="15.75">
       <c r="A152" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" ht="15.75">
       <c r="A153" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" ht="15.75">
       <c r="A154" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" ht="15.75">
       <c r="A155" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" ht="15.75">
       <c r="A156" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" ht="15.75">
       <c r="A157" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" ht="15.75">
       <c r="A158" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
       <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" ht="15.75">
       <c r="A159" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B159" s="20"/>
-      <c r="C159" s="20"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" ht="15.75">
       <c r="A160" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B160" s="20"/>
-      <c r="C160" s="20"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" ht="15.75">
       <c r="A161" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" ht="15.75">
       <c r="A162" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="20"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" ht="15.75">
       <c r="A163" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="20"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" ht="15.75">
       <c r="A164" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" ht="15.75">
       <c r="A165" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" ht="15.75">
       <c r="A166" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" ht="15.75">
       <c r="A167" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" ht="15.75">
       <c r="A168" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" ht="15.75">
       <c r="A169" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" ht="15.75">
       <c r="A176" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" ht="15.75">
       <c r="A177" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" ht="15.75">
       <c r="A178" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" ht="15.75">
@@ -3954,144 +3967,144 @@
       <c r="A180" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" ht="15.75">
       <c r="A181" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B181" s="20"/>
-      <c r="C181" s="20"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" ht="15.75">
       <c r="A182" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B182" s="20"/>
-      <c r="C182" s="20"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" ht="15.75">
       <c r="A183" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" ht="15.75">
       <c r="A184" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" ht="15.75">
       <c r="A185" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B185" s="20"/>
-      <c r="C185" s="20"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" ht="15.75">
       <c r="A186" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" ht="15.75">
       <c r="A187" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B188" s="20"/>
-      <c r="C188" s="20"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" ht="15.75">
       <c r="A189" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B189" s="20"/>
-      <c r="C189" s="20"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" ht="15.75">
       <c r="A190" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" ht="15.75">
       <c r="A191" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B191" s="20"/>
-      <c r="C191" s="20"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" ht="15.75">
       <c r="A192" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B192" s="20"/>
-      <c r="C192" s="20"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="20"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" ht="15.75">
       <c r="A194" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B194" s="20"/>
-      <c r="C194" s="20"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" ht="15.75">
       <c r="A195" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="20"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" ht="15.75">
       <c r="A196" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B196" s="20"/>
-      <c r="C196" s="20"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" ht="15.75">
       <c r="A197" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
       <c r="D197" s="10"/>
     </row>
     <row r="198" spans="1:4" ht="15.75">
@@ -4106,104 +4119,104 @@
       <c r="A199" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
       <c r="D199" s="10"/>
     </row>
     <row r="200" spans="1:4" ht="15.75">
       <c r="A200" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
       <c r="D200" s="10"/>
     </row>
     <row r="201" spans="1:4" ht="15.75">
       <c r="A201" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
       <c r="D201" s="10"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
       <c r="D202" s="10"/>
     </row>
     <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
       <c r="D203" s="10"/>
     </row>
     <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
       <c r="D204" s="10"/>
     </row>
     <row r="205" spans="1:4" ht="15.75">
       <c r="A205" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" ht="15.75">
       <c r="A206" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
       <c r="D206" s="10"/>
     </row>
     <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
       <c r="D207" s="10"/>
     </row>
     <row r="208" spans="1:4" ht="15.75">
       <c r="A208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
       <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:4" ht="15.75">
       <c r="A209" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
       <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:4" ht="15.75">
       <c r="A210" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
       <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4" ht="15.75">
       <c r="A211" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
       <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:4" ht="15.75">
@@ -4218,72 +4231,72 @@
       <c r="A213" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
       <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:4" ht="15.75">
       <c r="A214" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
       <c r="D214" s="10"/>
     </row>
     <row r="215" spans="1:4" ht="15.75">
       <c r="A215" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="18"/>
-      <c r="C215" s="18"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
       <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:4" ht="15.75">
       <c r="A216" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B216" s="18"/>
-      <c r="C216" s="18"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
       <c r="D216" s="10"/>
     </row>
     <row r="217" spans="1:4" ht="15.75">
       <c r="A217" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
       <c r="D217" s="10"/>
     </row>
     <row r="218" spans="1:4" ht="15.75">
       <c r="A218" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
       <c r="D218" s="10"/>
     </row>
     <row r="219" spans="1:4" ht="15.75">
       <c r="A219" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
       <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" ht="15.75">
       <c r="A220" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
       <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" ht="15.75">
       <c r="A221" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" ht="15.75">
@@ -4298,104 +4311,104 @@
       <c r="A223" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" ht="15.75">
       <c r="A224" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" ht="15.75">
       <c r="A225" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B225" s="18"/>
-      <c r="C225" s="18"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
       <c r="D225" s="10"/>
     </row>
     <row r="226" spans="1:4" ht="15.75">
       <c r="A226" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B226" s="18"/>
-      <c r="C226" s="18"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
       <c r="D226" s="10"/>
     </row>
     <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
       <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" ht="15.75">
       <c r="A228" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" ht="15.75">
       <c r="A229" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B230" s="18"/>
-      <c r="C230" s="18"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
       <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" ht="15.75">
       <c r="A231" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" ht="15.75">
       <c r="A233" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" ht="15.75">
       <c r="A234" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="18"/>
-      <c r="C235" s="18"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" ht="15.75">
@@ -4410,280 +4423,280 @@
       <c r="A237" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" ht="15.75">
       <c r="A238" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" ht="15.75">
       <c r="A240" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B240" s="18"/>
-      <c r="C240" s="18"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" ht="15.75">
       <c r="A241" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" ht="15.75">
       <c r="A242" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" ht="15.75">
       <c r="A243" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" ht="15.75">
       <c r="A244" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" ht="15.75">
       <c r="A245" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B246" s="18"/>
-      <c r="C246" s="18"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" ht="15.75">
       <c r="A247" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B247" s="18"/>
-      <c r="C247" s="18"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" ht="15.75">
       <c r="A248" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" ht="15.75">
       <c r="A249" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" ht="15.75">
       <c r="A250" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" ht="15.75">
       <c r="A251" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B251" s="18"/>
-      <c r="C251" s="18"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" ht="15.75">
       <c r="A252" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B252" s="18"/>
-      <c r="C252" s="18"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" ht="15.75">
       <c r="A253" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" ht="15.75">
       <c r="A254" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B254" s="18"/>
-      <c r="C254" s="18"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" ht="15.75">
       <c r="A255" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" ht="15.75">
       <c r="A256" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B256" s="18"/>
-      <c r="C256" s="18"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" ht="15.75">
       <c r="A257" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
       <c r="D257" s="10"/>
     </row>
     <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
       <c r="D258" s="10"/>
     </row>
     <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
       <c r="D259" s="10"/>
     </row>
     <row r="260" spans="1:4" ht="15.75">
       <c r="A260" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
       <c r="D260" s="10"/>
     </row>
     <row r="261" spans="1:4" ht="15.75">
       <c r="A261" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
       <c r="D261" s="10"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
       <c r="D262" s="10"/>
     </row>
     <row r="263" spans="1:4" ht="15.75">
       <c r="A263" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
       <c r="D263" s="10"/>
     </row>
     <row r="264" spans="1:4" ht="15.75">
       <c r="A264" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
       <c r="D264" s="10"/>
     </row>
     <row r="265" spans="1:4" ht="15.75">
       <c r="A265" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
       <c r="D265" s="10"/>
     </row>
     <row r="266" spans="1:4" ht="15.75">
       <c r="A266" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B266" s="18"/>
-      <c r="C266" s="18"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
       <c r="D266" s="10"/>
     </row>
     <row r="267" spans="1:4" ht="15.75">
       <c r="A267" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B267" s="18"/>
-      <c r="C267" s="18"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
       <c r="D267" s="10"/>
     </row>
     <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
       <c r="D268" s="10"/>
     </row>
     <row r="269" spans="1:4" ht="15.75">
       <c r="A269" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
       <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" ht="15.75">
       <c r="A270" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
       <c r="D270" s="10"/>
     </row>
     <row r="271" spans="1:4" ht="15.75">
       <c r="A271" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
       <c r="D271" s="10"/>
     </row>
     <row r="272" spans="1:4" ht="15.75">
@@ -4698,152 +4711,152 @@
       <c r="A273" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
       <c r="D273" s="5"/>
     </row>
     <row r="274" spans="1:4" ht="15.75">
       <c r="A274" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
       <c r="D274" s="5"/>
     </row>
     <row r="275" spans="1:4" ht="15.75">
       <c r="A275" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
       <c r="D275" s="5"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
       <c r="D276" s="5"/>
     </row>
     <row r="277" spans="1:4" ht="15.75">
       <c r="A277" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B277" s="18"/>
-      <c r="C277" s="18"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
       <c r="D277" s="5"/>
     </row>
     <row r="278" spans="1:4" ht="15.75">
       <c r="A278" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
       <c r="D278" s="5"/>
     </row>
     <row r="279" spans="1:4" ht="15.75">
       <c r="A279" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
       <c r="D279" s="5"/>
     </row>
     <row r="280" spans="1:4" ht="15.75">
       <c r="A280" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
       <c r="D280" s="5"/>
     </row>
     <row r="281" spans="1:4" ht="15.75">
       <c r="A281" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" ht="15.75">
       <c r="A282" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B282" s="18"/>
-      <c r="C282" s="18"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
       <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" ht="15.75">
       <c r="A283" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="18"/>
-      <c r="C283" s="18"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" ht="15.75">
       <c r="A284" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B284" s="18"/>
-      <c r="C284" s="18"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
       <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" ht="15.75">
       <c r="A285" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B285" s="18"/>
-      <c r="C285" s="18"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
       <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" ht="15.75">
       <c r="A286" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
       <c r="D286" s="10"/>
     </row>
     <row r="287" spans="1:4" ht="15.75">
       <c r="A287" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="18"/>
-      <c r="C287" s="18"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
       <c r="D287" s="10"/>
     </row>
     <row r="288" spans="1:4" ht="15.75">
       <c r="A288" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
       <c r="D288" s="10"/>
     </row>
     <row r="289" spans="1:4" ht="15.75">
       <c r="A289" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B289" s="18"/>
-      <c r="C289" s="18"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
       <c r="D289" s="10"/>
     </row>
     <row r="290" spans="1:4" ht="15.75">
       <c r="A290" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
       <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
       <c r="D291" s="10"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
@@ -4858,88 +4871,88 @@
       <c r="A293" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B293" s="18"/>
-      <c r="C293" s="18"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
       <c r="D293" s="10"/>
     </row>
     <row r="294" spans="1:4" ht="15.75">
       <c r="A294" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B294" s="18"/>
-      <c r="C294" s="18"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
       <c r="D294" s="10"/>
     </row>
     <row r="295" spans="1:4" ht="15.75">
       <c r="A295" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B295" s="18"/>
-      <c r="C295" s="18"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
       <c r="D295" s="10"/>
     </row>
     <row r="296" spans="1:4" ht="15.75">
       <c r="A296" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
       <c r="D296" s="10"/>
     </row>
     <row r="297" spans="1:4" ht="15.75">
       <c r="A297" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
       <c r="D297" s="10"/>
     </row>
     <row r="298" spans="1:4" ht="15.75">
       <c r="A298" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B298" s="18"/>
-      <c r="C298" s="18"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
       <c r="D298" s="10"/>
     </row>
     <row r="299" spans="1:4" ht="15.75">
       <c r="A299" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B299" s="18"/>
-      <c r="C299" s="18"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
       <c r="D299" s="10"/>
     </row>
     <row r="300" spans="1:4" ht="15.75">
       <c r="A300" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B300" s="18"/>
-      <c r="C300" s="18"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
       <c r="D300" s="10"/>
     </row>
     <row r="301" spans="1:4" ht="15.75">
       <c r="A301" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B301" s="18"/>
-      <c r="C301" s="18"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
       <c r="D301" s="10"/>
     </row>
     <row r="302" spans="1:4" ht="15.75">
       <c r="A302" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B302" s="18"/>
-      <c r="C302" s="18"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
       <c r="D302" s="10"/>
     </row>
     <row r="303" spans="1:4" ht="15.75">
       <c r="A303" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B303" s="18"/>
-      <c r="C303" s="18"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
       <c r="D303" s="10"/>
     </row>
     <row r="304" spans="1:4" ht="15.75">
@@ -4954,264 +4967,264 @@
       <c r="A305" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B305" s="18"/>
-      <c r="C305" s="18"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
       <c r="D305" s="10"/>
     </row>
     <row r="306" spans="1:4" ht="15.75">
       <c r="A306" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B306" s="18"/>
-      <c r="C306" s="18"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
       <c r="D306" s="10"/>
     </row>
     <row r="307" spans="1:4" ht="15.75">
       <c r="A307" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B307" s="18"/>
-      <c r="C307" s="18"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
       <c r="D307" s="10"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B308" s="18"/>
-      <c r="C308" s="18"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
       <c r="D308" s="10"/>
     </row>
     <row r="309" spans="1:4" ht="15.75">
       <c r="A309" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B309" s="18"/>
-      <c r="C309" s="18"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
       <c r="D309" s="10"/>
     </row>
     <row r="310" spans="1:4" ht="15.75">
       <c r="A310" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B310" s="18"/>
-      <c r="C310" s="18"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
       <c r="D310" s="10"/>
     </row>
     <row r="311" spans="1:4" ht="15.75">
       <c r="A311" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
       <c r="D311" s="10"/>
     </row>
     <row r="312" spans="1:4" ht="15.75">
       <c r="A312" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B312" s="18"/>
-      <c r="C312" s="18"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
       <c r="D312" s="10"/>
     </row>
     <row r="313" spans="1:4" ht="15.75">
       <c r="A313" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B313" s="18"/>
-      <c r="C313" s="18"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
       <c r="D313" s="10"/>
     </row>
     <row r="314" spans="1:4" ht="15.75">
       <c r="A314" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="18"/>
-      <c r="C314" s="18"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
       <c r="D314" s="10"/>
     </row>
     <row r="315" spans="1:4" ht="15.75">
       <c r="A315" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B315" s="18"/>
-      <c r="C315" s="18"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
       <c r="D315" s="10"/>
     </row>
     <row r="316" spans="1:4" ht="15.75">
       <c r="A316" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B316" s="18"/>
-      <c r="C316" s="18"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
       <c r="D316" s="5"/>
     </row>
     <row r="317" spans="1:4" ht="15.75">
       <c r="A317" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B317" s="18"/>
-      <c r="C317" s="18"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
       <c r="D317" s="10"/>
     </row>
     <row r="318" spans="1:4" ht="15.75">
       <c r="A318" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B318" s="18"/>
-      <c r="C318" s="18"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
       <c r="D318" s="10"/>
     </row>
     <row r="319" spans="1:4" ht="15.75">
       <c r="A319" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B319" s="18"/>
-      <c r="C319" s="18"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
       <c r="D319" s="10"/>
     </row>
     <row r="320" spans="1:4" ht="15.75">
       <c r="A320" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B320" s="18"/>
-      <c r="C320" s="18"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
       <c r="D320" s="10"/>
     </row>
     <row r="321" spans="1:4" ht="15.75">
       <c r="A321" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
       <c r="D321" s="10"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B322" s="18"/>
-      <c r="C322" s="18"/>
+      <c r="B322" s="20"/>
+      <c r="C322" s="20"/>
       <c r="D322" s="10"/>
     </row>
     <row r="323" spans="1:4" ht="15.75">
       <c r="A323" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B323" s="18"/>
-      <c r="C323" s="18"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="20"/>
       <c r="D323" s="10"/>
     </row>
     <row r="324" spans="1:4" ht="15.75">
       <c r="A324" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B324" s="18"/>
-      <c r="C324" s="18"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="20"/>
       <c r="D324" s="10"/>
     </row>
     <row r="325" spans="1:4" ht="15.75">
       <c r="A325" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B325" s="18"/>
-      <c r="C325" s="18"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
       <c r="D325" s="10"/>
     </row>
     <row r="326" spans="1:4" ht="15.75">
       <c r="A326" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B326" s="18"/>
-      <c r="C326" s="18"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="20"/>
       <c r="D326" s="10"/>
     </row>
     <row r="327" spans="1:4" ht="15.75">
       <c r="A327" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B327" s="18"/>
-      <c r="C327" s="18"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
       <c r="D327" s="10"/>
     </row>
     <row r="328" spans="1:4" ht="15.75">
       <c r="A328" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B328" s="18"/>
-      <c r="C328" s="18"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
       <c r="D328" s="10"/>
     </row>
     <row r="329" spans="1:4" ht="15.75">
       <c r="A329" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B329" s="18"/>
-      <c r="C329" s="18"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
       <c r="D329" s="10"/>
     </row>
     <row r="330" spans="1:4" ht="15.75">
       <c r="A330" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B330" s="18"/>
-      <c r="C330" s="18"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
       <c r="D330" s="10"/>
     </row>
     <row r="331" spans="1:4" ht="15.75">
       <c r="A331" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B331" s="18"/>
-      <c r="C331" s="18"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
       <c r="D331" s="5"/>
     </row>
     <row r="332" spans="1:4" ht="15.75">
       <c r="A332" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B332" s="18"/>
-      <c r="C332" s="18"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
       <c r="D332" s="10"/>
     </row>
     <row r="333" spans="1:4" ht="15.75">
       <c r="A333" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B333" s="18"/>
-      <c r="C333" s="18"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
       <c r="D333" s="10"/>
     </row>
     <row r="334" spans="1:4" ht="15.75">
       <c r="A334" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
       <c r="D334" s="10"/>
     </row>
     <row r="335" spans="1:4" ht="15.75">
       <c r="A335" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B335" s="18"/>
-      <c r="C335" s="18"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
       <c r="D335" s="10"/>
     </row>
     <row r="336" spans="1:4" ht="15.75">
       <c r="A336" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B336" s="18"/>
-      <c r="C336" s="18"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
       <c r="D336" s="10"/>
     </row>
     <row r="337" spans="1:4" ht="15.75">
       <c r="A337" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B337" s="18"/>
-      <c r="C337" s="18"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
       <c r="D337" s="10"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
@@ -5226,200 +5239,200 @@
       <c r="A339" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B339" s="18"/>
-      <c r="C339" s="18"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
       <c r="D339" s="5"/>
     </row>
     <row r="340" spans="1:4" ht="15.75">
       <c r="A340" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B340" s="18"/>
-      <c r="C340" s="18"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="20"/>
       <c r="D340" s="5"/>
     </row>
     <row r="341" spans="1:4" ht="15.75">
       <c r="A341" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B341" s="18"/>
-      <c r="C341" s="18"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
       <c r="D341" s="10"/>
     </row>
     <row r="342" spans="1:4" ht="15.75">
       <c r="A342" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B342" s="18"/>
-      <c r="C342" s="18"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
       <c r="D342" s="10"/>
     </row>
     <row r="343" spans="1:4" ht="15.75">
       <c r="A343" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B343" s="18"/>
-      <c r="C343" s="18"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
       <c r="D343" s="10"/>
     </row>
     <row r="344" spans="1:4" ht="15.75">
       <c r="A344" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B344" s="18"/>
-      <c r="C344" s="18"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
       <c r="D344" s="10"/>
     </row>
     <row r="345" spans="1:4" ht="15.75">
       <c r="A345" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B345" s="18"/>
-      <c r="C345" s="18"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="20"/>
       <c r="D345" s="10"/>
     </row>
     <row r="346" spans="1:4" ht="15.75">
       <c r="A346" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B346" s="18"/>
-      <c r="C346" s="18"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="20"/>
       <c r="D346" s="10"/>
     </row>
     <row r="347" spans="1:4" ht="15.75">
       <c r="A347" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B347" s="18"/>
-      <c r="C347" s="18"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
       <c r="D347" s="10"/>
     </row>
     <row r="348" spans="1:4" ht="15.75">
       <c r="A348" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
       <c r="D348" s="10"/>
     </row>
     <row r="349" spans="1:4" ht="15.75">
       <c r="A349" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B349" s="18"/>
-      <c r="C349" s="18"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
       <c r="D349" s="10"/>
     </row>
     <row r="350" spans="1:4" ht="15.75">
       <c r="A350" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B350" s="18"/>
-      <c r="C350" s="18"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
       <c r="D350" s="10"/>
     </row>
     <row r="351" spans="1:4" ht="15.75">
       <c r="A351" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B351" s="18"/>
-      <c r="C351" s="18"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="20"/>
       <c r="D351" s="10"/>
     </row>
     <row r="352" spans="1:4" ht="15.75">
       <c r="A352" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B352" s="18"/>
-      <c r="C352" s="18"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
       <c r="D352" s="10"/>
     </row>
     <row r="353" spans="1:4" ht="15.75">
       <c r="A353" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B353" s="18"/>
-      <c r="C353" s="18"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
       <c r="D353" s="10"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B354" s="18"/>
-      <c r="C354" s="18"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
       <c r="D354" s="5"/>
     </row>
     <row r="355" spans="1:4" ht="15.75">
       <c r="A355" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B355" s="18"/>
-      <c r="C355" s="18"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="20"/>
       <c r="D355" s="10"/>
     </row>
     <row r="356" spans="1:4" ht="15.75">
       <c r="A356" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B356" s="18"/>
-      <c r="C356" s="18"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
       <c r="D356" s="10"/>
     </row>
     <row r="357" spans="1:4" ht="15.75">
       <c r="A357" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B357" s="18"/>
-      <c r="C357" s="18"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="20"/>
       <c r="D357" s="10"/>
     </row>
     <row r="358" spans="1:4" ht="15.75">
       <c r="A358" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B358" s="18"/>
-      <c r="C358" s="18"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
       <c r="D358" s="10"/>
     </row>
     <row r="359" spans="1:4" ht="15.75">
       <c r="A359" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B359" s="18"/>
-      <c r="C359" s="18"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="20"/>
       <c r="D359" s="10"/>
     </row>
     <row r="360" spans="1:4" ht="15.75">
       <c r="A360" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B360" s="18"/>
-      <c r="C360" s="18"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="20"/>
       <c r="D360" s="10"/>
     </row>
     <row r="361" spans="1:4" ht="15.75">
       <c r="A361" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B361" s="18"/>
-      <c r="C361" s="18"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="20"/>
       <c r="D361" s="5"/>
     </row>
     <row r="362" spans="1:4" ht="15.75">
       <c r="A362" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B362" s="18"/>
-      <c r="C362" s="18"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="20"/>
       <c r="D362" s="5"/>
     </row>
     <row r="363" spans="1:4" ht="15.75">
       <c r="A363" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="20"/>
       <c r="D363" s="5"/>
     </row>
     <row r="364" spans="1:4" ht="15.75">
@@ -5434,848 +5447,848 @@
       <c r="A365" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="20"/>
       <c r="D365" s="10"/>
     </row>
     <row r="366" spans="1:4" ht="15.75">
       <c r="A366" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B366" s="18"/>
-      <c r="C366" s="18"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="20"/>
       <c r="D366" s="5"/>
     </row>
     <row r="367" spans="1:4" ht="15.75">
       <c r="A367" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B367" s="18"/>
-      <c r="C367" s="18"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="20"/>
       <c r="D367" s="10"/>
     </row>
     <row r="368" spans="1:4" ht="15.75">
       <c r="A368" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B368" s="18"/>
-      <c r="C368" s="18"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="20"/>
       <c r="D368" s="10"/>
     </row>
     <row r="369" spans="1:4" ht="15.75">
       <c r="A369" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B369" s="18"/>
-      <c r="C369" s="18"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="20"/>
       <c r="D369" s="10"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B370" s="18"/>
-      <c r="C370" s="18"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="20"/>
       <c r="D370" s="10"/>
     </row>
     <row r="371" spans="1:4" ht="15.75">
       <c r="A371" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B371" s="18"/>
-      <c r="C371" s="18"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="20"/>
       <c r="D371" s="10"/>
     </row>
     <row r="372" spans="1:4" ht="15.75">
       <c r="A372" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B372" s="18"/>
-      <c r="C372" s="18"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="20"/>
       <c r="D372" s="10"/>
     </row>
     <row r="373" spans="1:4" ht="15.75">
       <c r="A373" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B373" s="18"/>
-      <c r="C373" s="18"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="20"/>
       <c r="D373" s="10"/>
     </row>
     <row r="374" spans="1:4" ht="15.75">
       <c r="A374" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B374" s="18"/>
-      <c r="C374" s="18"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="20"/>
       <c r="D374" s="10"/>
     </row>
     <row r="375" spans="1:4" ht="15.75">
       <c r="A375" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B375" s="18"/>
-      <c r="C375" s="18"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="20"/>
       <c r="D375" s="10"/>
     </row>
     <row r="376" spans="1:4" ht="15.75">
       <c r="A376" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="B376" s="18"/>
-      <c r="C376" s="18"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="20"/>
       <c r="D376" s="5"/>
     </row>
     <row r="377" spans="1:4" ht="15.75">
       <c r="A377" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B377" s="18"/>
-      <c r="C377" s="18"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="20"/>
       <c r="D377" s="5"/>
     </row>
     <row r="378" spans="1:4" ht="15.75">
       <c r="A378" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B378" s="18"/>
-      <c r="C378" s="18"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="20"/>
       <c r="D378" s="10"/>
     </row>
     <row r="379" spans="1:4" ht="15.75">
       <c r="A379" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B379" s="18"/>
-      <c r="C379" s="18"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="20"/>
       <c r="D379" s="10"/>
     </row>
     <row r="380" spans="1:4" ht="15.75">
       <c r="A380" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B380" s="18"/>
-      <c r="C380" s="18"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="20"/>
       <c r="D380" s="10"/>
     </row>
     <row r="381" spans="1:4" ht="15.75">
       <c r="A381" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B381" s="18"/>
-      <c r="C381" s="18"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="20"/>
       <c r="D381" s="10"/>
     </row>
     <row r="382" spans="1:4" ht="15.75">
       <c r="A382" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B382" s="18"/>
-      <c r="C382" s="18"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="20"/>
       <c r="D382" s="10"/>
     </row>
     <row r="383" spans="1:4" ht="15.75">
       <c r="A383" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B383" s="18"/>
-      <c r="C383" s="18"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="20"/>
       <c r="D383" s="10"/>
     </row>
     <row r="384" spans="1:4" ht="15.75">
       <c r="A384" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B384" s="18"/>
-      <c r="C384" s="18"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="20"/>
       <c r="D384" s="10"/>
     </row>
     <row r="385" spans="1:4" ht="15.75">
       <c r="A385" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B385" s="18"/>
-      <c r="C385" s="18"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="20"/>
       <c r="D385" s="10"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B386" s="18"/>
-      <c r="C386" s="18"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="20"/>
       <c r="D386" s="10"/>
     </row>
     <row r="387" spans="1:4" ht="15.75">
       <c r="A387" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B387" s="18"/>
-      <c r="C387" s="18"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="20"/>
       <c r="D387" s="10"/>
     </row>
     <row r="388" spans="1:4" ht="15.75">
       <c r="A388" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B388" s="18"/>
-      <c r="C388" s="18"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="20"/>
       <c r="D388" s="10"/>
     </row>
     <row r="389" spans="1:4" ht="15.75">
       <c r="A389" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="20"/>
       <c r="D389" s="10"/>
     </row>
     <row r="390" spans="1:4" ht="15.75">
       <c r="A390" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B390" s="18"/>
-      <c r="C390" s="18"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
       <c r="D390" s="10"/>
     </row>
     <row r="391" spans="1:4" ht="15.75">
       <c r="A391" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B391" s="18"/>
-      <c r="C391" s="18"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="20"/>
       <c r="D391" s="10"/>
     </row>
     <row r="392" spans="1:4" ht="15.75">
       <c r="A392" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B392" s="18"/>
-      <c r="C392" s="18"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="20"/>
       <c r="D392" s="10"/>
     </row>
     <row r="393" spans="1:4" ht="15.75">
       <c r="A393" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B393" s="18"/>
-      <c r="C393" s="18"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="20"/>
       <c r="D393" s="10"/>
     </row>
     <row r="394" spans="1:4" ht="15.75">
       <c r="A394" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
+      <c r="B394" s="20"/>
+      <c r="C394" s="20"/>
       <c r="D394" s="5"/>
     </row>
     <row r="395" spans="1:4" ht="15.75">
       <c r="A395" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B395" s="18"/>
-      <c r="C395" s="18"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="20"/>
       <c r="D395" s="10"/>
     </row>
     <row r="396" spans="1:4" ht="15.75">
       <c r="A396" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B396" s="18"/>
-      <c r="C396" s="18"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="20"/>
       <c r="D396" s="10"/>
     </row>
     <row r="397" spans="1:4" ht="15.75">
       <c r="A397" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B397" s="18"/>
-      <c r="C397" s="18"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="20"/>
       <c r="D397" s="10"/>
     </row>
     <row r="398" spans="1:4" ht="15.75">
       <c r="A398" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B398" s="18"/>
-      <c r="C398" s="18"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="20"/>
       <c r="D398" s="10"/>
     </row>
     <row r="399" spans="1:4" ht="15.75">
       <c r="A399" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B399" s="18"/>
-      <c r="C399" s="18"/>
+      <c r="B399" s="20"/>
+      <c r="C399" s="20"/>
       <c r="D399" s="5"/>
     </row>
     <row r="400" spans="1:4" ht="15.75">
       <c r="A400" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
+      <c r="B400" s="20"/>
+      <c r="C400" s="20"/>
       <c r="D400" s="5"/>
     </row>
     <row r="401" spans="1:4" ht="15.75">
       <c r="A401" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B401" s="18"/>
-      <c r="C401" s="18"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
       <c r="D401" s="5"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B402" s="18"/>
-      <c r="C402" s="18"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
       <c r="D402" s="10"/>
     </row>
     <row r="403" spans="1:4" ht="15.75">
       <c r="A403" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B403" s="18"/>
-      <c r="C403" s="18"/>
+      <c r="B403" s="20"/>
+      <c r="C403" s="20"/>
       <c r="D403" s="10"/>
     </row>
     <row r="404" spans="1:4" ht="15.75">
       <c r="A404" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B404" s="18"/>
-      <c r="C404" s="18"/>
+      <c r="B404" s="20"/>
+      <c r="C404" s="20"/>
       <c r="D404" s="10"/>
     </row>
     <row r="405" spans="1:4" ht="15.75">
       <c r="A405" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B405" s="18"/>
-      <c r="C405" s="18"/>
+      <c r="B405" s="20"/>
+      <c r="C405" s="20"/>
       <c r="D405" s="10"/>
     </row>
     <row r="406" spans="1:4" ht="15.75">
       <c r="A406" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
       <c r="D406" s="10"/>
     </row>
     <row r="407" spans="1:4" ht="15.75">
       <c r="A407" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B407" s="18"/>
-      <c r="C407" s="18"/>
+      <c r="B407" s="20"/>
+      <c r="C407" s="20"/>
       <c r="D407" s="10"/>
     </row>
     <row r="408" spans="1:4" ht="15.75">
       <c r="A408" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B408" s="18"/>
-      <c r="C408" s="18"/>
+      <c r="B408" s="20"/>
+      <c r="C408" s="20"/>
       <c r="D408" s="10"/>
     </row>
     <row r="409" spans="1:4" ht="15.75">
       <c r="A409" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B409" s="18"/>
-      <c r="C409" s="18"/>
+      <c r="B409" s="20"/>
+      <c r="C409" s="20"/>
       <c r="D409" s="10"/>
     </row>
     <row r="410" spans="1:4" ht="15.75">
       <c r="A410" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="20"/>
+      <c r="C410" s="20"/>
       <c r="D410" s="10"/>
     </row>
     <row r="411" spans="1:4" ht="15.75">
       <c r="A411" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B411" s="18"/>
-      <c r="C411" s="18"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="20"/>
       <c r="D411" s="10"/>
     </row>
     <row r="412" spans="1:4" ht="15.75">
       <c r="A412" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B412" s="18"/>
-      <c r="C412" s="18"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="20"/>
       <c r="D412" s="5"/>
     </row>
     <row r="413" spans="1:4" ht="15.75">
       <c r="A413" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B413" s="18"/>
-      <c r="C413" s="18"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="20"/>
       <c r="D413" s="5"/>
     </row>
     <row r="414" spans="1:4" ht="15.75">
       <c r="A414" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B414" s="19"/>
-      <c r="C414" s="19"/>
+      <c r="B414" s="21"/>
+      <c r="C414" s="21"/>
       <c r="D414" s="10"/>
     </row>
     <row r="415" spans="1:4" ht="15.75">
       <c r="A415" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B415" s="18"/>
-      <c r="C415" s="18"/>
+      <c r="B415" s="20"/>
+      <c r="C415" s="20"/>
       <c r="D415" s="10"/>
     </row>
     <row r="416" spans="1:4" ht="15.75">
       <c r="A416" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B416" s="18"/>
-      <c r="C416" s="18"/>
+      <c r="B416" s="20"/>
+      <c r="C416" s="20"/>
       <c r="D416" s="10"/>
     </row>
     <row r="417" spans="1:4" ht="15.75">
       <c r="A417" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B417" s="18"/>
-      <c r="C417" s="18"/>
+      <c r="B417" s="20"/>
+      <c r="C417" s="20"/>
       <c r="D417" s="10"/>
     </row>
     <row r="418" spans="1:4" ht="15.75">
       <c r="A418" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B418" s="18"/>
-      <c r="C418" s="18"/>
+      <c r="B418" s="20"/>
+      <c r="C418" s="20"/>
       <c r="D418" s="10"/>
     </row>
     <row r="419" spans="1:4" ht="15.75">
       <c r="A419" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B419" s="18"/>
-      <c r="C419" s="18"/>
+      <c r="B419" s="20"/>
+      <c r="C419" s="20"/>
       <c r="D419" s="7"/>
     </row>
     <row r="420" spans="1:4" ht="15.75">
       <c r="A420" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B420" s="18"/>
-      <c r="C420" s="18"/>
+      <c r="B420" s="20"/>
+      <c r="C420" s="20"/>
       <c r="D420" s="7"/>
     </row>
     <row r="421" spans="1:4" ht="15.75">
       <c r="A421" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B421" s="18"/>
-      <c r="C421" s="18"/>
+      <c r="B421" s="20"/>
+      <c r="C421" s="20"/>
       <c r="D421" s="10"/>
     </row>
     <row r="422" spans="1:4" ht="15.75">
       <c r="A422" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B422" s="18"/>
-      <c r="C422" s="18"/>
+      <c r="B422" s="20"/>
+      <c r="C422" s="20"/>
       <c r="D422" s="10"/>
     </row>
     <row r="423" spans="1:4" ht="15.75">
       <c r="A423" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B423" s="18"/>
-      <c r="C423" s="18"/>
+      <c r="B423" s="20"/>
+      <c r="C423" s="20"/>
       <c r="D423" s="10"/>
     </row>
     <row r="424" spans="1:4" ht="15.75">
       <c r="A424" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B424" s="18"/>
-      <c r="C424" s="18"/>
+      <c r="B424" s="20"/>
+      <c r="C424" s="20"/>
       <c r="D424" s="10"/>
     </row>
     <row r="425" spans="1:4" ht="15.75">
       <c r="A425" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B425" s="18"/>
-      <c r="C425" s="18"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="20"/>
       <c r="D425" s="10"/>
     </row>
     <row r="426" spans="1:4" ht="15.75">
       <c r="A426" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B426" s="18"/>
-      <c r="C426" s="18"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="20"/>
       <c r="D426" s="10"/>
     </row>
     <row r="427" spans="1:4" ht="15.75">
       <c r="A427" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B427" s="18"/>
-      <c r="C427" s="18"/>
+      <c r="B427" s="20"/>
+      <c r="C427" s="20"/>
       <c r="D427" s="10"/>
     </row>
     <row r="428" spans="1:4" ht="15.75">
       <c r="A428" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B428" s="18"/>
-      <c r="C428" s="18"/>
+      <c r="B428" s="20"/>
+      <c r="C428" s="20"/>
       <c r="D428" s="10"/>
     </row>
     <row r="429" spans="1:4" ht="15.75">
       <c r="A429" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B429" s="18"/>
-      <c r="C429" s="18"/>
+      <c r="B429" s="20"/>
+      <c r="C429" s="20"/>
       <c r="D429" s="10"/>
     </row>
     <row r="430" spans="1:4" ht="15.75">
       <c r="A430" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B430" s="18"/>
-      <c r="C430" s="18"/>
+      <c r="B430" s="20"/>
+      <c r="C430" s="20"/>
       <c r="D430" s="10"/>
     </row>
     <row r="431" spans="1:4" ht="15.75">
       <c r="A431" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B431" s="18"/>
-      <c r="C431" s="18"/>
+      <c r="B431" s="20"/>
+      <c r="C431" s="20"/>
       <c r="D431" s="10"/>
     </row>
     <row r="432" spans="1:4" ht="15.75">
       <c r="A432" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B432" s="18"/>
-      <c r="C432" s="18"/>
+      <c r="B432" s="20"/>
+      <c r="C432" s="20"/>
       <c r="D432" s="10"/>
     </row>
     <row r="433" spans="1:4" ht="15.75">
       <c r="A433" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B433" s="18"/>
-      <c r="C433" s="18"/>
+      <c r="B433" s="20"/>
+      <c r="C433" s="20"/>
       <c r="D433" s="10"/>
     </row>
     <row r="434" spans="1:4" ht="15.75">
       <c r="A434" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B434" s="18"/>
-      <c r="C434" s="18"/>
+      <c r="B434" s="20"/>
+      <c r="C434" s="20"/>
       <c r="D434" s="10"/>
     </row>
     <row r="435" spans="1:4" ht="15.75">
       <c r="A435" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B435" s="18"/>
-      <c r="C435" s="18"/>
+      <c r="B435" s="20"/>
+      <c r="C435" s="20"/>
       <c r="D435" s="10"/>
     </row>
     <row r="436" spans="1:4" ht="15.75">
       <c r="A436" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B436" s="18"/>
-      <c r="C436" s="18"/>
+      <c r="B436" s="20"/>
+      <c r="C436" s="20"/>
       <c r="D436" s="10"/>
     </row>
     <row r="437" spans="1:4" ht="15.75">
       <c r="A437" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B437" s="18"/>
-      <c r="C437" s="18"/>
+      <c r="B437" s="20"/>
+      <c r="C437" s="20"/>
       <c r="D437" s="10"/>
     </row>
     <row r="438" spans="1:4" ht="15.75">
       <c r="A438" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B438" s="18"/>
-      <c r="C438" s="18"/>
+      <c r="B438" s="20"/>
+      <c r="C438" s="20"/>
       <c r="D438" s="10"/>
     </row>
     <row r="439" spans="1:4" ht="15.75">
       <c r="A439" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B439" s="18"/>
-      <c r="C439" s="18"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="20"/>
       <c r="D439" s="10"/>
     </row>
     <row r="440" spans="1:4" ht="15.75">
       <c r="A440" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B440" s="18"/>
-      <c r="C440" s="18"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="20"/>
       <c r="D440" s="10"/>
     </row>
     <row r="441" spans="1:4" ht="15.75">
       <c r="A441" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B441" s="18"/>
-      <c r="C441" s="18"/>
+      <c r="B441" s="20"/>
+      <c r="C441" s="20"/>
       <c r="D441" s="10"/>
     </row>
     <row r="442" spans="1:4" ht="15.75">
       <c r="A442" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B442" s="18"/>
-      <c r="C442" s="18"/>
+      <c r="B442" s="20"/>
+      <c r="C442" s="20"/>
       <c r="D442" s="10"/>
     </row>
     <row r="443" spans="1:4" ht="15.75">
       <c r="A443" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B443" s="18"/>
-      <c r="C443" s="18"/>
+      <c r="B443" s="20"/>
+      <c r="C443" s="20"/>
       <c r="D443" s="10"/>
     </row>
     <row r="444" spans="1:4" ht="15.75">
       <c r="A444" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B444" s="18"/>
-      <c r="C444" s="18"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="20"/>
       <c r="D444" s="10"/>
     </row>
     <row r="445" spans="1:4" ht="15.75">
       <c r="A445" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B445" s="18"/>
-      <c r="C445" s="18"/>
+      <c r="B445" s="20"/>
+      <c r="C445" s="20"/>
       <c r="D445" s="10"/>
     </row>
     <row r="446" spans="1:4" ht="15.75">
       <c r="A446" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B446" s="18"/>
-      <c r="C446" s="18"/>
+      <c r="B446" s="20"/>
+      <c r="C446" s="20"/>
       <c r="D446" s="10"/>
     </row>
     <row r="447" spans="1:4" ht="15.75">
       <c r="A447" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B447" s="18"/>
-      <c r="C447" s="18"/>
+      <c r="B447" s="20"/>
+      <c r="C447" s="20"/>
       <c r="D447" s="10"/>
     </row>
     <row r="448" spans="1:4" ht="15.75">
       <c r="A448" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B448" s="18"/>
-      <c r="C448" s="18"/>
+      <c r="B448" s="20"/>
+      <c r="C448" s="20"/>
       <c r="D448" s="10"/>
     </row>
     <row r="449" spans="1:4" ht="15.75">
       <c r="A449" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B449" s="18"/>
-      <c r="C449" s="18"/>
+      <c r="B449" s="20"/>
+      <c r="C449" s="20"/>
       <c r="D449" s="10"/>
     </row>
     <row r="450" spans="1:4" ht="15.75">
       <c r="A450" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B450" s="18"/>
-      <c r="C450" s="18"/>
+      <c r="B450" s="20"/>
+      <c r="C450" s="20"/>
       <c r="D450" s="10"/>
     </row>
     <row r="451" spans="1:4" ht="15.75">
       <c r="A451" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B451" s="18"/>
-      <c r="C451" s="18"/>
+      <c r="B451" s="20"/>
+      <c r="C451" s="20"/>
       <c r="D451" s="10"/>
     </row>
     <row r="452" spans="1:4" ht="15.75">
       <c r="A452" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B452" s="18"/>
-      <c r="C452" s="18"/>
+      <c r="B452" s="20"/>
+      <c r="C452" s="20"/>
       <c r="D452" s="5"/>
     </row>
     <row r="453" spans="1:4" ht="15.75">
       <c r="A453" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="B453" s="18"/>
-      <c r="C453" s="18"/>
+      <c r="B453" s="20"/>
+      <c r="C453" s="20"/>
       <c r="D453" s="5"/>
     </row>
     <row r="454" spans="1:4" ht="15.75">
       <c r="A454" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B454" s="18"/>
-      <c r="C454" s="18"/>
+      <c r="B454" s="20"/>
+      <c r="C454" s="20"/>
       <c r="D454" s="10"/>
     </row>
     <row r="455" spans="1:4" ht="15.75">
       <c r="A455" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B455" s="18"/>
-      <c r="C455" s="18"/>
+      <c r="B455" s="20"/>
+      <c r="C455" s="20"/>
       <c r="D455" s="10"/>
     </row>
     <row r="456" spans="1:4" ht="15.75">
       <c r="A456" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B456" s="18"/>
-      <c r="C456" s="18"/>
+      <c r="B456" s="20"/>
+      <c r="C456" s="20"/>
       <c r="D456" s="10"/>
     </row>
     <row r="457" spans="1:4" ht="15.75">
       <c r="A457" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B457" s="18"/>
-      <c r="C457" s="18"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="20"/>
       <c r="D457" s="10"/>
     </row>
     <row r="458" spans="1:4" ht="15.75">
       <c r="A458" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B458" s="18"/>
-      <c r="C458" s="18"/>
+      <c r="B458" s="20"/>
+      <c r="C458" s="20"/>
       <c r="D458" s="10"/>
     </row>
     <row r="459" spans="1:4" ht="15.75">
       <c r="A459" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B459" s="18"/>
-      <c r="C459" s="18"/>
+      <c r="B459" s="20"/>
+      <c r="C459" s="20"/>
       <c r="D459" s="5"/>
     </row>
     <row r="460" spans="1:4" ht="15.75">
       <c r="A460" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B460" s="18"/>
-      <c r="C460" s="18"/>
+      <c r="B460" s="20"/>
+      <c r="C460" s="20"/>
       <c r="D460" s="10"/>
     </row>
     <row r="461" spans="1:4" ht="15.75">
       <c r="A461" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B461" s="18"/>
-      <c r="C461" s="18"/>
+      <c r="B461" s="20"/>
+      <c r="C461" s="20"/>
       <c r="D461" s="10"/>
     </row>
     <row r="462" spans="1:4" ht="15.75">
       <c r="A462" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B462" s="18"/>
-      <c r="C462" s="18"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="20"/>
       <c r="D462" s="10"/>
     </row>
     <row r="463" spans="1:4" ht="15.75">
       <c r="A463" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B463" s="18"/>
-      <c r="C463" s="18"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="20"/>
       <c r="D463" s="10"/>
     </row>
     <row r="464" spans="1:4" ht="15.75">
       <c r="A464" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="B464" s="18"/>
-      <c r="C464" s="18"/>
+      <c r="B464" s="20"/>
+      <c r="C464" s="20"/>
       <c r="D464" s="10"/>
     </row>
     <row r="465" spans="1:4" ht="15.75">
       <c r="A465" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B465" s="18"/>
-      <c r="C465" s="18"/>
+      <c r="B465" s="20"/>
+      <c r="C465" s="20"/>
       <c r="D465" s="10"/>
     </row>
     <row r="466" spans="1:4" ht="15.75">
       <c r="A466" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B466" s="18"/>
-      <c r="C466" s="18"/>
+      <c r="B466" s="20"/>
+      <c r="C466" s="20"/>
       <c r="D466" s="10"/>
     </row>
     <row r="467" spans="1:4" ht="15.75">
       <c r="A467" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B467" s="18"/>
-      <c r="C467" s="18"/>
+      <c r="B467" s="20"/>
+      <c r="C467" s="20"/>
       <c r="D467" s="10"/>
     </row>
     <row r="468" spans="1:4" ht="15.75">
       <c r="A468" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B468" s="18"/>
-      <c r="C468" s="18"/>
+      <c r="B468" s="20"/>
+      <c r="C468" s="20"/>
       <c r="D468" s="10"/>
     </row>
     <row r="469" spans="1:4" ht="15.75">
       <c r="A469" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B469" s="18"/>
-      <c r="C469" s="18"/>
+      <c r="B469" s="20"/>
+      <c r="C469" s="20"/>
       <c r="D469" s="10"/>
     </row>
     <row r="470" spans="1:4" ht="15.75">
       <c r="A470" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B470" s="18"/>
-      <c r="C470" s="18"/>
+      <c r="B470" s="20"/>
+      <c r="C470" s="20"/>
       <c r="D470" s="10"/>
     </row>
     <row r="471" spans="1:4" ht="15.75">
@@ -6290,168 +6303,168 @@
       <c r="A472" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B472" s="18"/>
-      <c r="C472" s="18"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
       <c r="D472" s="10"/>
     </row>
     <row r="473" spans="1:4" ht="15.75">
       <c r="A473" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B473" s="18"/>
-      <c r="C473" s="18"/>
+      <c r="B473" s="20"/>
+      <c r="C473" s="20"/>
       <c r="D473" s="10"/>
     </row>
     <row r="474" spans="1:4" ht="15.75">
       <c r="A474" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B474" s="18"/>
-      <c r="C474" s="18"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="20"/>
       <c r="D474" s="10"/>
     </row>
     <row r="475" spans="1:4" ht="15.75">
       <c r="A475" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B475" s="18"/>
-      <c r="C475" s="18"/>
+      <c r="B475" s="20"/>
+      <c r="C475" s="20"/>
       <c r="D475" s="10"/>
     </row>
     <row r="476" spans="1:4" ht="15.75">
       <c r="A476" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="B476" s="18"/>
-      <c r="C476" s="18"/>
+      <c r="B476" s="20"/>
+      <c r="C476" s="20"/>
       <c r="D476" s="5"/>
     </row>
     <row r="477" spans="1:4" ht="15.75">
       <c r="A477" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B477" s="18"/>
-      <c r="C477" s="18"/>
+      <c r="B477" s="20"/>
+      <c r="C477" s="20"/>
       <c r="D477" s="5"/>
     </row>
     <row r="478" spans="1:4" ht="15.75">
       <c r="A478" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B478" s="18"/>
-      <c r="C478" s="18"/>
+      <c r="B478" s="20"/>
+      <c r="C478" s="20"/>
       <c r="D478" s="5"/>
     </row>
     <row r="479" spans="1:4" ht="15.75">
       <c r="A479" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B479" s="18"/>
-      <c r="C479" s="18"/>
+      <c r="B479" s="20"/>
+      <c r="C479" s="20"/>
       <c r="D479" s="5"/>
     </row>
     <row r="480" spans="1:4" ht="15.75">
       <c r="A480" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B480" s="18"/>
-      <c r="C480" s="18"/>
+      <c r="B480" s="20"/>
+      <c r="C480" s="20"/>
       <c r="D480" s="5"/>
     </row>
     <row r="481" spans="1:4" ht="15.75">
       <c r="A481" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B481" s="18"/>
-      <c r="C481" s="18"/>
+      <c r="B481" s="20"/>
+      <c r="C481" s="20"/>
       <c r="D481" s="5"/>
     </row>
     <row r="482" spans="1:4" ht="15.75">
       <c r="A482" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B482" s="18"/>
-      <c r="C482" s="18"/>
+      <c r="B482" s="20"/>
+      <c r="C482" s="20"/>
       <c r="D482" s="5"/>
     </row>
     <row r="483" spans="1:4" ht="15.75">
       <c r="A483" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B483" s="18"/>
-      <c r="C483" s="18"/>
+      <c r="B483" s="20"/>
+      <c r="C483" s="20"/>
       <c r="D483" s="10"/>
     </row>
     <row r="484" spans="1:4" ht="15.75">
       <c r="A484" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B484" s="18"/>
-      <c r="C484" s="18"/>
+      <c r="B484" s="20"/>
+      <c r="C484" s="20"/>
       <c r="D484" s="5"/>
     </row>
     <row r="485" spans="1:4" ht="15.75">
       <c r="A485" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B485" s="18"/>
-      <c r="C485" s="18"/>
+      <c r="B485" s="20"/>
+      <c r="C485" s="20"/>
       <c r="D485" s="10"/>
     </row>
     <row r="486" spans="1:4" ht="15.75">
       <c r="A486" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B486" s="18"/>
-      <c r="C486" s="18"/>
+      <c r="B486" s="20"/>
+      <c r="C486" s="20"/>
       <c r="D486" s="10"/>
     </row>
     <row r="487" spans="1:4" ht="15.75">
       <c r="A487" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B487" s="18"/>
-      <c r="C487" s="18"/>
+      <c r="B487" s="20"/>
+      <c r="C487" s="20"/>
       <c r="D487" s="10"/>
     </row>
     <row r="488" spans="1:4" ht="15.75">
       <c r="A488" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B488" s="18"/>
-      <c r="C488" s="18"/>
+      <c r="B488" s="20"/>
+      <c r="C488" s="20"/>
       <c r="D488" s="10"/>
     </row>
     <row r="489" spans="1:4" ht="15.75">
       <c r="A489" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B489" s="18"/>
-      <c r="C489" s="18"/>
+      <c r="B489" s="20"/>
+      <c r="C489" s="20"/>
       <c r="D489" s="10"/>
     </row>
     <row r="490" spans="1:4" ht="15.75">
       <c r="A490" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="B490" s="18"/>
-      <c r="C490" s="18"/>
+      <c r="B490" s="20"/>
+      <c r="C490" s="20"/>
       <c r="D490" s="10"/>
     </row>
     <row r="491" spans="1:4" ht="15.75">
       <c r="A491" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="B491" s="18"/>
-      <c r="C491" s="18"/>
+      <c r="B491" s="20"/>
+      <c r="C491" s="20"/>
       <c r="D491" s="10"/>
     </row>
     <row r="492" spans="1:4" ht="15.75">
       <c r="A492" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B492" s="18"/>
-      <c r="C492" s="18"/>
+      <c r="B492" s="20"/>
+      <c r="C492" s="20"/>
       <c r="D492" s="5"/>
     </row>
     <row r="493" spans="1:4" ht="15.75">
@@ -6466,32 +6479,32 @@
       <c r="A494" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B494" s="18"/>
-      <c r="C494" s="18"/>
+      <c r="B494" s="20"/>
+      <c r="C494" s="20"/>
       <c r="D494" s="10"/>
     </row>
     <row r="495" spans="1:4" ht="15.75">
       <c r="A495" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B495" s="18"/>
-      <c r="C495" s="18"/>
+      <c r="B495" s="20"/>
+      <c r="C495" s="20"/>
       <c r="D495" s="5"/>
     </row>
     <row r="496" spans="1:4" ht="15.75">
       <c r="A496" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B496" s="18"/>
-      <c r="C496" s="18"/>
+      <c r="B496" s="20"/>
+      <c r="C496" s="20"/>
       <c r="D496" s="10"/>
     </row>
     <row r="497" spans="1:4" ht="15.75">
       <c r="A497" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B497" s="18"/>
-      <c r="C497" s="18"/>
+      <c r="B497" s="20"/>
+      <c r="C497" s="20"/>
       <c r="D497" s="10"/>
     </row>
     <row r="498" spans="1:4" ht="15.75">
@@ -6506,304 +6519,304 @@
       <c r="A499" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B499" s="18"/>
-      <c r="C499" s="18"/>
+      <c r="B499" s="20"/>
+      <c r="C499" s="20"/>
       <c r="D499" s="6"/>
     </row>
     <row r="500" spans="1:4" ht="15.75">
       <c r="A500" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B500" s="18"/>
-      <c r="C500" s="18"/>
+      <c r="B500" s="20"/>
+      <c r="C500" s="20"/>
       <c r="D500" s="10"/>
     </row>
     <row r="501" spans="1:4" ht="15.75">
       <c r="A501" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B501" s="18"/>
-      <c r="C501" s="18"/>
+      <c r="B501" s="20"/>
+      <c r="C501" s="20"/>
       <c r="D501" s="10"/>
     </row>
     <row r="502" spans="1:4" ht="15.75">
       <c r="A502" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B502" s="18"/>
-      <c r="C502" s="18"/>
+      <c r="B502" s="20"/>
+      <c r="C502" s="20"/>
       <c r="D502" s="10"/>
     </row>
     <row r="503" spans="1:4" ht="15.75">
       <c r="A503" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B503" s="18"/>
-      <c r="C503" s="18"/>
+      <c r="B503" s="20"/>
+      <c r="C503" s="20"/>
       <c r="D503" s="10"/>
     </row>
     <row r="504" spans="1:4" ht="15.75">
       <c r="A504" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="B504" s="18"/>
-      <c r="C504" s="18"/>
+      <c r="B504" s="20"/>
+      <c r="C504" s="20"/>
       <c r="D504" s="10"/>
     </row>
     <row r="505" spans="1:4" ht="15.75">
       <c r="A505" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B505" s="18"/>
-      <c r="C505" s="18"/>
+      <c r="B505" s="20"/>
+      <c r="C505" s="20"/>
       <c r="D505" s="10"/>
     </row>
     <row r="506" spans="1:4" ht="15.75">
       <c r="A506" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B506" s="18"/>
-      <c r="C506" s="18"/>
+      <c r="B506" s="20"/>
+      <c r="C506" s="20"/>
       <c r="D506" s="10"/>
     </row>
     <row r="507" spans="1:4" ht="15.75">
       <c r="A507" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B507" s="18"/>
-      <c r="C507" s="18"/>
+      <c r="B507" s="20"/>
+      <c r="C507" s="20"/>
       <c r="D507" s="10"/>
     </row>
     <row r="508" spans="1:4" ht="15.75">
       <c r="A508" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B508" s="18"/>
-      <c r="C508" s="18"/>
+      <c r="B508" s="20"/>
+      <c r="C508" s="20"/>
       <c r="D508" s="5"/>
     </row>
     <row r="509" spans="1:4" ht="15.75">
       <c r="A509" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B509" s="18"/>
-      <c r="C509" s="18"/>
+      <c r="B509" s="20"/>
+      <c r="C509" s="20"/>
       <c r="D509" s="10"/>
     </row>
     <row r="510" spans="1:4" ht="15.75">
       <c r="A510" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B510" s="18"/>
-      <c r="C510" s="18"/>
+      <c r="B510" s="20"/>
+      <c r="C510" s="20"/>
       <c r="D510" s="10"/>
     </row>
     <row r="511" spans="1:4" ht="15.75">
       <c r="A511" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B511" s="18"/>
-      <c r="C511" s="18"/>
+      <c r="B511" s="20"/>
+      <c r="C511" s="20"/>
       <c r="D511" s="10"/>
     </row>
     <row r="512" spans="1:4" ht="15.75">
       <c r="A512" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B512" s="18"/>
-      <c r="C512" s="18"/>
+      <c r="B512" s="20"/>
+      <c r="C512" s="20"/>
       <c r="D512" s="10"/>
     </row>
     <row r="513" spans="1:4" ht="15.75">
       <c r="A513" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B513" s="18"/>
-      <c r="C513" s="18"/>
+      <c r="B513" s="20"/>
+      <c r="C513" s="20"/>
       <c r="D513" s="10"/>
     </row>
     <row r="514" spans="1:4" ht="15.75">
       <c r="A514" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B514" s="18"/>
-      <c r="C514" s="18"/>
+      <c r="B514" s="20"/>
+      <c r="C514" s="20"/>
       <c r="D514" s="10"/>
     </row>
     <row r="515" spans="1:4" ht="15.75">
       <c r="A515" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B515" s="18"/>
-      <c r="C515" s="18"/>
+      <c r="B515" s="20"/>
+      <c r="C515" s="20"/>
       <c r="D515" s="10"/>
     </row>
     <row r="516" spans="1:4" ht="15.75">
       <c r="A516" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B516" s="18"/>
-      <c r="C516" s="18"/>
+      <c r="B516" s="20"/>
+      <c r="C516" s="20"/>
       <c r="D516" s="10"/>
     </row>
     <row r="517" spans="1:4" ht="15.75">
       <c r="A517" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B517" s="18"/>
-      <c r="C517" s="18"/>
+      <c r="B517" s="20"/>
+      <c r="C517" s="20"/>
       <c r="D517" s="10"/>
     </row>
     <row r="518" spans="1:4" ht="15.75">
       <c r="A518" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B518" s="18"/>
-      <c r="C518" s="18"/>
+      <c r="B518" s="20"/>
+      <c r="C518" s="20"/>
       <c r="D518" s="10"/>
     </row>
     <row r="519" spans="1:4" ht="15.75">
       <c r="A519" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B519" s="18"/>
-      <c r="C519" s="18"/>
+      <c r="B519" s="20"/>
+      <c r="C519" s="20"/>
       <c r="D519" s="10"/>
     </row>
     <row r="520" spans="1:4" ht="15.75">
       <c r="A520" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B520" s="18"/>
-      <c r="C520" s="18"/>
+      <c r="B520" s="20"/>
+      <c r="C520" s="20"/>
       <c r="D520" s="10"/>
     </row>
     <row r="521" spans="1:4" ht="15.75">
       <c r="A521" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B521" s="18"/>
-      <c r="C521" s="18"/>
+      <c r="B521" s="20"/>
+      <c r="C521" s="20"/>
       <c r="D521" s="10"/>
     </row>
     <row r="522" spans="1:4" ht="15.75">
       <c r="A522" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B522" s="18"/>
-      <c r="C522" s="18"/>
+      <c r="B522" s="20"/>
+      <c r="C522" s="20"/>
       <c r="D522" s="10"/>
     </row>
     <row r="523" spans="1:4" ht="15.75">
       <c r="A523" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B523" s="18"/>
-      <c r="C523" s="18"/>
+      <c r="B523" s="20"/>
+      <c r="C523" s="20"/>
       <c r="D523" s="10"/>
     </row>
     <row r="524" spans="1:4" ht="15.75">
       <c r="A524" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B524" s="18"/>
-      <c r="C524" s="18"/>
+      <c r="B524" s="20"/>
+      <c r="C524" s="20"/>
       <c r="D524" s="10"/>
     </row>
     <row r="525" spans="1:4" ht="15.75">
       <c r="A525" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B525" s="18"/>
-      <c r="C525" s="18"/>
+      <c r="B525" s="20"/>
+      <c r="C525" s="20"/>
       <c r="D525" s="10"/>
     </row>
     <row r="526" spans="1:4" ht="15.75">
       <c r="A526" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B526" s="18"/>
-      <c r="C526" s="18"/>
+      <c r="B526" s="20"/>
+      <c r="C526" s="20"/>
       <c r="D526" s="10"/>
     </row>
     <row r="527" spans="1:4" ht="15.75">
       <c r="A527" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B527" s="18"/>
-      <c r="C527" s="18"/>
+      <c r="B527" s="20"/>
+      <c r="C527" s="20"/>
       <c r="D527" s="10"/>
     </row>
     <row r="528" spans="1:4" ht="15.75">
       <c r="A528" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="B528" s="18"/>
-      <c r="C528" s="18"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="20"/>
       <c r="D528" s="10"/>
     </row>
     <row r="529" spans="1:4" ht="15.75">
       <c r="A529" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B529" s="18"/>
-      <c r="C529" s="18"/>
+      <c r="B529" s="20"/>
+      <c r="C529" s="20"/>
       <c r="D529" s="10"/>
     </row>
     <row r="530" spans="1:4" ht="15.75">
       <c r="A530" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B530" s="18"/>
-      <c r="C530" s="18"/>
+      <c r="B530" s="20"/>
+      <c r="C530" s="20"/>
       <c r="D530" s="10"/>
     </row>
     <row r="531" spans="1:4" ht="15.75">
       <c r="A531" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B531" s="18"/>
-      <c r="C531" s="18"/>
+      <c r="B531" s="20"/>
+      <c r="C531" s="20"/>
       <c r="D531" s="5"/>
     </row>
     <row r="532" spans="1:4" ht="15.75">
       <c r="A532" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B532" s="18"/>
-      <c r="C532" s="18"/>
+      <c r="B532" s="20"/>
+      <c r="C532" s="20"/>
       <c r="D532" s="5"/>
     </row>
     <row r="533" spans="1:4" ht="15.75">
       <c r="A533" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B533" s="18"/>
-      <c r="C533" s="18"/>
+      <c r="B533" s="20"/>
+      <c r="C533" s="20"/>
       <c r="D533" s="10"/>
     </row>
     <row r="534" spans="1:4" ht="15.75">
       <c r="A534" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B534" s="18"/>
-      <c r="C534" s="18"/>
+      <c r="B534" s="20"/>
+      <c r="C534" s="20"/>
       <c r="D534" s="10"/>
     </row>
     <row r="535" spans="1:4" ht="15.75">
       <c r="A535" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B535" s="18"/>
-      <c r="C535" s="18"/>
+      <c r="B535" s="20"/>
+      <c r="C535" s="20"/>
       <c r="D535" s="10"/>
     </row>
     <row r="536" spans="1:4" ht="15.75">
       <c r="A536" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B536" s="18"/>
-      <c r="C536" s="18"/>
+      <c r="B536" s="20"/>
+      <c r="C536" s="20"/>
       <c r="D536" s="10"/>
     </row>
     <row r="537" spans="1:4" ht="15.75">
@@ -6818,32 +6831,32 @@
       <c r="A538" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B538" s="18"/>
-      <c r="C538" s="18"/>
+      <c r="B538" s="20"/>
+      <c r="C538" s="20"/>
       <c r="D538" s="5"/>
     </row>
     <row r="539" spans="1:4" ht="15.75">
       <c r="A539" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="B539" s="18"/>
-      <c r="C539" s="18"/>
+      <c r="B539" s="20"/>
+      <c r="C539" s="20"/>
       <c r="D539" s="10"/>
     </row>
     <row r="540" spans="1:4" ht="15.75">
       <c r="A540" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B540" s="18"/>
-      <c r="C540" s="18"/>
+      <c r="B540" s="20"/>
+      <c r="C540" s="20"/>
       <c r="D540" s="10"/>
     </row>
     <row r="541" spans="1:4" ht="15.75">
       <c r="A541" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B541" s="18"/>
-      <c r="C541" s="18"/>
+      <c r="B541" s="20"/>
+      <c r="C541" s="20"/>
       <c r="D541" s="10"/>
     </row>
     <row r="542" spans="1:4" ht="15.75">
@@ -6874,192 +6887,192 @@
       <c r="A545" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B545" s="18"/>
-      <c r="C545" s="18"/>
+      <c r="B545" s="20"/>
+      <c r="C545" s="20"/>
       <c r="D545" s="10"/>
     </row>
     <row r="546" spans="1:4" ht="15.75">
       <c r="A546" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B546" s="18"/>
-      <c r="C546" s="18"/>
+      <c r="B546" s="20"/>
+      <c r="C546" s="20"/>
       <c r="D546" s="5"/>
     </row>
     <row r="547" spans="1:4" ht="15.75">
       <c r="A547" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B547" s="18"/>
-      <c r="C547" s="18"/>
+      <c r="B547" s="20"/>
+      <c r="C547" s="20"/>
       <c r="D547" s="5"/>
     </row>
     <row r="548" spans="1:4" ht="15.75">
       <c r="A548" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B548" s="18"/>
-      <c r="C548" s="18"/>
+      <c r="B548" s="20"/>
+      <c r="C548" s="20"/>
       <c r="D548" s="10"/>
     </row>
     <row r="549" spans="1:4" ht="15.75">
       <c r="A549" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B549" s="18"/>
-      <c r="C549" s="18"/>
+      <c r="B549" s="20"/>
+      <c r="C549" s="20"/>
       <c r="D549" s="10"/>
     </row>
     <row r="550" spans="1:4" ht="15.75">
       <c r="A550" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B550" s="18"/>
-      <c r="C550" s="18"/>
+      <c r="B550" s="20"/>
+      <c r="C550" s="20"/>
       <c r="D550" s="10"/>
     </row>
     <row r="551" spans="1:4" ht="15.75">
       <c r="A551" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B551" s="18"/>
-      <c r="C551" s="18"/>
+      <c r="B551" s="20"/>
+      <c r="C551" s="20"/>
       <c r="D551" s="10"/>
     </row>
     <row r="552" spans="1:4" ht="15.75">
       <c r="A552" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B552" s="18"/>
-      <c r="C552" s="18"/>
+      <c r="B552" s="20"/>
+      <c r="C552" s="20"/>
       <c r="D552" s="10"/>
     </row>
     <row r="553" spans="1:4" ht="15.75">
       <c r="A553" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B553" s="18"/>
-      <c r="C553" s="18"/>
+      <c r="B553" s="20"/>
+      <c r="C553" s="20"/>
       <c r="D553" s="10"/>
     </row>
     <row r="554" spans="1:4" ht="15.75">
       <c r="A554" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B554" s="18"/>
-      <c r="C554" s="18"/>
+      <c r="B554" s="20"/>
+      <c r="C554" s="20"/>
       <c r="D554" s="10"/>
     </row>
     <row r="555" spans="1:4" ht="15.75">
       <c r="A555" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B555" s="18"/>
-      <c r="C555" s="18"/>
+      <c r="B555" s="20"/>
+      <c r="C555" s="20"/>
       <c r="D555" s="5"/>
     </row>
     <row r="556" spans="1:4" ht="15.75">
       <c r="A556" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B556" s="18"/>
-      <c r="C556" s="18"/>
+      <c r="B556" s="20"/>
+      <c r="C556" s="20"/>
       <c r="D556" s="10"/>
     </row>
     <row r="557" spans="1:4" ht="15.75">
       <c r="A557" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B557" s="18"/>
-      <c r="C557" s="18"/>
+      <c r="B557" s="20"/>
+      <c r="C557" s="20"/>
       <c r="D557" s="10"/>
     </row>
     <row r="558" spans="1:4" ht="15.75">
       <c r="A558" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B558" s="18"/>
-      <c r="C558" s="18"/>
+      <c r="B558" s="20"/>
+      <c r="C558" s="20"/>
       <c r="D558" s="5"/>
     </row>
     <row r="559" spans="1:4" ht="15.75">
       <c r="A559" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B559" s="18"/>
-      <c r="C559" s="18"/>
+      <c r="B559" s="20"/>
+      <c r="C559" s="20"/>
       <c r="D559" s="10"/>
     </row>
     <row r="560" spans="1:4" ht="15.75">
       <c r="A560" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B560" s="18"/>
-      <c r="C560" s="18"/>
+      <c r="B560" s="20"/>
+      <c r="C560" s="20"/>
       <c r="D560" s="10"/>
     </row>
     <row r="561" spans="1:4" ht="15.75">
       <c r="A561" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B561" s="18"/>
-      <c r="C561" s="18"/>
+      <c r="B561" s="20"/>
+      <c r="C561" s="20"/>
       <c r="D561" s="10"/>
     </row>
     <row r="562" spans="1:4" ht="15.75">
       <c r="A562" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B562" s="18"/>
-      <c r="C562" s="18"/>
+      <c r="B562" s="20"/>
+      <c r="C562" s="20"/>
       <c r="D562" s="10"/>
     </row>
     <row r="563" spans="1:4" ht="15.75">
       <c r="A563" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B563" s="18"/>
-      <c r="C563" s="18"/>
+      <c r="B563" s="20"/>
+      <c r="C563" s="20"/>
       <c r="D563" s="10"/>
     </row>
     <row r="564" spans="1:4" ht="15.75">
       <c r="A564" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B564" s="18"/>
-      <c r="C564" s="18"/>
+      <c r="B564" s="20"/>
+      <c r="C564" s="20"/>
       <c r="D564" s="10"/>
     </row>
     <row r="565" spans="1:4" ht="15.75">
       <c r="A565" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B565" s="18"/>
-      <c r="C565" s="18"/>
+      <c r="B565" s="20"/>
+      <c r="C565" s="20"/>
       <c r="D565" s="5"/>
     </row>
     <row r="566" spans="1:4" ht="15.75">
       <c r="A566" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B566" s="18"/>
-      <c r="C566" s="18"/>
+      <c r="B566" s="20"/>
+      <c r="C566" s="20"/>
       <c r="D566" s="10"/>
     </row>
     <row r="567" spans="1:4" ht="15.75">
       <c r="A567" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B567" s="18"/>
-      <c r="C567" s="18"/>
+      <c r="B567" s="20"/>
+      <c r="C567" s="20"/>
       <c r="D567" s="5"/>
     </row>
     <row r="568" spans="1:4" ht="15.75">
       <c r="A568" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B568" s="18"/>
-      <c r="C568" s="18"/>
+      <c r="B568" s="20"/>
+      <c r="C568" s="20"/>
       <c r="D568" s="5"/>
     </row>
     <row r="569" spans="1:4" ht="15.75">
@@ -7074,80 +7087,80 @@
       <c r="A570" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B570" s="18"/>
-      <c r="C570" s="18"/>
+      <c r="B570" s="20"/>
+      <c r="C570" s="20"/>
       <c r="D570" s="5"/>
     </row>
     <row r="571" spans="1:4" ht="15.75">
       <c r="A571" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B571" s="18"/>
-      <c r="C571" s="18"/>
+      <c r="B571" s="20"/>
+      <c r="C571" s="20"/>
       <c r="D571" s="5"/>
     </row>
     <row r="572" spans="1:4" ht="15.75">
       <c r="A572" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B572" s="18"/>
-      <c r="C572" s="18"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="20"/>
       <c r="D572" s="10"/>
     </row>
     <row r="573" spans="1:4" ht="15.75">
       <c r="A573" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B573" s="18"/>
-      <c r="C573" s="18"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="20"/>
       <c r="D573" s="10"/>
     </row>
     <row r="574" spans="1:4" ht="15.75">
       <c r="A574" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B574" s="18"/>
-      <c r="C574" s="18"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="20"/>
       <c r="D574" s="10"/>
     </row>
     <row r="575" spans="1:4" ht="15.75">
       <c r="A575" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B575" s="18"/>
-      <c r="C575" s="18"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="20"/>
       <c r="D575" s="10"/>
     </row>
     <row r="576" spans="1:4" ht="15.75">
       <c r="A576" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B576" s="18"/>
-      <c r="C576" s="18"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="20"/>
       <c r="D576" s="10"/>
     </row>
     <row r="577" spans="1:4" ht="15.75">
       <c r="A577" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B577" s="18"/>
-      <c r="C577" s="18"/>
+      <c r="B577" s="20"/>
+      <c r="C577" s="20"/>
       <c r="D577" s="5"/>
     </row>
     <row r="578" spans="1:4" ht="15.75">
       <c r="A578" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B578" s="18"/>
-      <c r="C578" s="18"/>
+      <c r="B578" s="20"/>
+      <c r="C578" s="20"/>
       <c r="D578" s="5"/>
     </row>
     <row r="579" spans="1:4" ht="15.75">
       <c r="A579" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B579" s="18"/>
-      <c r="C579" s="18"/>
+      <c r="B579" s="20"/>
+      <c r="C579" s="20"/>
       <c r="D579" s="7"/>
     </row>
     <row r="580" spans="1:4" ht="15.75">
@@ -7162,40 +7175,40 @@
       <c r="A581" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B581" s="18"/>
-      <c r="C581" s="18"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="20"/>
       <c r="D581" s="10"/>
     </row>
     <row r="582" spans="1:4" ht="15.75">
       <c r="A582" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B582" s="18"/>
-      <c r="C582" s="18"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="20"/>
       <c r="D582" s="10"/>
     </row>
     <row r="583" spans="1:4" ht="15.75">
       <c r="A583" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B583" s="18"/>
-      <c r="C583" s="18"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="20"/>
       <c r="D583" s="10"/>
     </row>
     <row r="584" spans="1:4" ht="15.75">
       <c r="A584" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B584" s="18"/>
-      <c r="C584" s="18"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="20"/>
       <c r="D584" s="5"/>
     </row>
     <row r="585" spans="1:4" ht="15.75">
       <c r="A585" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B585" s="18"/>
-      <c r="C585" s="18"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="20"/>
       <c r="D585" s="5"/>
     </row>
     <row r="586" spans="1:4" ht="15.75">
@@ -7210,136 +7223,136 @@
       <c r="A587" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B587" s="18"/>
-      <c r="C587" s="18"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="20"/>
       <c r="D587" s="5"/>
     </row>
     <row r="588" spans="1:4" ht="15.75">
       <c r="A588" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B588" s="18"/>
-      <c r="C588" s="18"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="20"/>
       <c r="D588" s="5"/>
     </row>
     <row r="589" spans="1:4" ht="15.75">
       <c r="A589" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B589" s="18"/>
-      <c r="C589" s="18"/>
+      <c r="B589" s="20"/>
+      <c r="C589" s="20"/>
       <c r="D589" s="10"/>
     </row>
     <row r="590" spans="1:4" ht="15.75">
       <c r="A590" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B590" s="18"/>
-      <c r="C590" s="18"/>
+      <c r="B590" s="20"/>
+      <c r="C590" s="20"/>
       <c r="D590" s="10"/>
     </row>
     <row r="591" spans="1:4" ht="15.75">
       <c r="A591" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B591" s="18"/>
-      <c r="C591" s="18"/>
+      <c r="B591" s="20"/>
+      <c r="C591" s="20"/>
       <c r="D591" s="10"/>
     </row>
     <row r="592" spans="1:4" ht="15.75">
       <c r="A592" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B592" s="18"/>
-      <c r="C592" s="18"/>
+      <c r="B592" s="20"/>
+      <c r="C592" s="20"/>
       <c r="D592" s="10"/>
     </row>
     <row r="593" spans="1:4" ht="15.75">
       <c r="A593" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B593" s="18"/>
-      <c r="C593" s="18"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="20"/>
       <c r="D593" s="5"/>
     </row>
     <row r="594" spans="1:4" ht="15.75">
       <c r="A594" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B594" s="18"/>
-      <c r="C594" s="18"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="20"/>
       <c r="D594" s="5"/>
     </row>
     <row r="595" spans="1:4" ht="15.75">
       <c r="A595" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B595" s="18"/>
-      <c r="C595" s="18"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="20"/>
       <c r="D595" s="5"/>
     </row>
     <row r="596" spans="1:4" ht="15.75">
       <c r="A596" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B596" s="18"/>
-      <c r="C596" s="18"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="20"/>
       <c r="D596" s="5"/>
     </row>
     <row r="597" spans="1:4" ht="15.75">
       <c r="A597" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B597" s="18"/>
-      <c r="C597" s="18"/>
+      <c r="B597" s="20"/>
+      <c r="C597" s="20"/>
       <c r="D597" s="5"/>
     </row>
     <row r="598" spans="1:4" ht="15.75">
       <c r="A598" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B598" s="18"/>
-      <c r="C598" s="18"/>
+      <c r="B598" s="20"/>
+      <c r="C598" s="20"/>
       <c r="D598" s="10"/>
     </row>
     <row r="599" spans="1:4" ht="15.75">
       <c r="A599" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B599" s="18"/>
-      <c r="C599" s="18"/>
+      <c r="B599" s="20"/>
+      <c r="C599" s="20"/>
       <c r="D599" s="5"/>
     </row>
     <row r="600" spans="1:4" ht="15.75">
       <c r="A600" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B600" s="18"/>
-      <c r="C600" s="18"/>
+      <c r="B600" s="20"/>
+      <c r="C600" s="20"/>
       <c r="D600" s="5"/>
     </row>
     <row r="601" spans="1:4" ht="15.75">
       <c r="A601" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B601" s="18"/>
-      <c r="C601" s="18"/>
+      <c r="B601" s="20"/>
+      <c r="C601" s="20"/>
       <c r="D601" s="5"/>
     </row>
     <row r="602" spans="1:4" ht="15.75">
       <c r="A602" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B602" s="18"/>
-      <c r="C602" s="18"/>
+      <c r="B602" s="20"/>
+      <c r="C602" s="20"/>
       <c r="D602" s="5"/>
     </row>
     <row r="603" spans="1:4" ht="15.75">
       <c r="A603" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B603" s="18"/>
-      <c r="C603" s="18"/>
+      <c r="B603" s="20"/>
+      <c r="C603" s="20"/>
       <c r="D603" s="5"/>
     </row>
     <row r="604" spans="1:4" ht="15.75">
@@ -7354,16 +7367,16 @@
       <c r="A605" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B605" s="18"/>
-      <c r="C605" s="18"/>
+      <c r="B605" s="20"/>
+      <c r="C605" s="20"/>
       <c r="D605" s="5"/>
     </row>
     <row r="606" spans="1:4" ht="15.75">
       <c r="A606" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B606" s="18"/>
-      <c r="C606" s="18"/>
+      <c r="B606" s="20"/>
+      <c r="C606" s="20"/>
       <c r="D606" s="5"/>
     </row>
     <row r="607" spans="1:4" ht="15.75">
@@ -7378,32 +7391,32 @@
       <c r="A608" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B608" s="18"/>
-      <c r="C608" s="18"/>
+      <c r="B608" s="20"/>
+      <c r="C608" s="20"/>
       <c r="D608" s="5"/>
     </row>
     <row r="609" spans="1:4" ht="15.75">
       <c r="A609" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B609" s="18"/>
-      <c r="C609" s="18"/>
+      <c r="B609" s="20"/>
+      <c r="C609" s="20"/>
       <c r="D609" s="5"/>
     </row>
     <row r="610" spans="1:4" ht="15.75">
       <c r="A610" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B610" s="18"/>
-      <c r="C610" s="18"/>
+      <c r="B610" s="20"/>
+      <c r="C610" s="20"/>
       <c r="D610" s="5"/>
     </row>
     <row r="611" spans="1:4" ht="15.75">
       <c r="A611" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B611" s="18"/>
-      <c r="C611" s="18"/>
+      <c r="B611" s="20"/>
+      <c r="C611" s="20"/>
       <c r="D611" s="5"/>
     </row>
     <row r="612" spans="1:4" ht="15.75">
@@ -7418,32 +7431,32 @@
       <c r="A613" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B613" s="18"/>
-      <c r="C613" s="18"/>
+      <c r="B613" s="20"/>
+      <c r="C613" s="20"/>
       <c r="D613" s="10"/>
     </row>
     <row r="614" spans="1:4" ht="15.75">
       <c r="A614" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B614" s="18"/>
-      <c r="C614" s="18"/>
+      <c r="B614" s="20"/>
+      <c r="C614" s="20"/>
       <c r="D614" s="5"/>
     </row>
     <row r="615" spans="1:4" ht="15.75">
       <c r="A615" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B615" s="18"/>
-      <c r="C615" s="18"/>
+      <c r="B615" s="20"/>
+      <c r="C615" s="20"/>
       <c r="D615" s="5"/>
     </row>
     <row r="616" spans="1:4" ht="15.75">
       <c r="A616" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B616" s="18"/>
-      <c r="C616" s="18"/>
+      <c r="B616" s="20"/>
+      <c r="C616" s="20"/>
       <c r="D616" s="5"/>
     </row>
     <row r="617" spans="1:4" ht="15.75">
@@ -7458,176 +7471,176 @@
       <c r="A618" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="B618" s="18"/>
-      <c r="C618" s="18"/>
+      <c r="B618" s="20"/>
+      <c r="C618" s="20"/>
       <c r="D618" s="5"/>
     </row>
     <row r="619" spans="1:4" ht="15.75">
       <c r="A619" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B619" s="18"/>
-      <c r="C619" s="18"/>
+      <c r="B619" s="20"/>
+      <c r="C619" s="20"/>
       <c r="D619" s="10"/>
     </row>
     <row r="620" spans="1:4" ht="15.75">
       <c r="A620" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B620" s="18"/>
-      <c r="C620" s="18"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="20"/>
       <c r="D620" s="10"/>
     </row>
     <row r="621" spans="1:4" ht="15.75">
       <c r="A621" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B621" s="18"/>
-      <c r="C621" s="18"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="20"/>
       <c r="D621" s="10"/>
     </row>
     <row r="622" spans="1:4" ht="15.75">
       <c r="A622" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B622" s="18"/>
-      <c r="C622" s="18"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="20"/>
       <c r="D622" s="6"/>
     </row>
     <row r="623" spans="1:4" ht="15.75">
       <c r="A623" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B623" s="18"/>
-      <c r="C623" s="18"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="20"/>
       <c r="D623" s="6"/>
     </row>
     <row r="624" spans="1:4" ht="15.75">
       <c r="A624" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B624" s="18"/>
-      <c r="C624" s="18"/>
+      <c r="B624" s="20"/>
+      <c r="C624" s="20"/>
       <c r="D624" s="10"/>
     </row>
     <row r="625" spans="1:4" ht="15.75">
       <c r="A625" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B625" s="18"/>
-      <c r="C625" s="18"/>
+      <c r="B625" s="20"/>
+      <c r="C625" s="20"/>
       <c r="D625" s="10"/>
     </row>
     <row r="626" spans="1:4" ht="15.75">
       <c r="A626" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B626" s="18"/>
-      <c r="C626" s="18"/>
+      <c r="B626" s="20"/>
+      <c r="C626" s="20"/>
       <c r="D626" s="10"/>
     </row>
     <row r="627" spans="1:4" ht="15.75">
       <c r="A627" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B627" s="18"/>
-      <c r="C627" s="18"/>
+      <c r="B627" s="20"/>
+      <c r="C627" s="20"/>
       <c r="D627" s="5"/>
     </row>
     <row r="628" spans="1:4" ht="15.75">
       <c r="A628" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B628" s="18"/>
-      <c r="C628" s="18"/>
+      <c r="B628" s="20"/>
+      <c r="C628" s="20"/>
       <c r="D628" s="10"/>
     </row>
     <row r="629" spans="1:4" ht="15.75">
       <c r="A629" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B629" s="18"/>
-      <c r="C629" s="18"/>
+      <c r="B629" s="20"/>
+      <c r="C629" s="20"/>
       <c r="D629" s="5"/>
     </row>
     <row r="630" spans="1:4" ht="15.75">
       <c r="A630" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B630" s="18"/>
-      <c r="C630" s="18"/>
+      <c r="B630" s="20"/>
+      <c r="C630" s="20"/>
       <c r="D630" s="5"/>
     </row>
     <row r="631" spans="1:4" ht="15.75">
       <c r="A631" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B631" s="18"/>
-      <c r="C631" s="18"/>
+      <c r="B631" s="20"/>
+      <c r="C631" s="20"/>
       <c r="D631" s="10"/>
     </row>
     <row r="632" spans="1:4" ht="15.75">
       <c r="A632" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="B632" s="18"/>
-      <c r="C632" s="18"/>
+      <c r="B632" s="20"/>
+      <c r="C632" s="20"/>
       <c r="D632" s="10"/>
     </row>
     <row r="633" spans="1:4" ht="15.75">
       <c r="A633" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B633" s="18"/>
-      <c r="C633" s="18"/>
+      <c r="B633" s="20"/>
+      <c r="C633" s="20"/>
       <c r="D633" s="10"/>
     </row>
     <row r="634" spans="1:4" ht="15.75">
       <c r="A634" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B634" s="18"/>
-      <c r="C634" s="18"/>
+      <c r="B634" s="20"/>
+      <c r="C634" s="20"/>
       <c r="D634" s="10"/>
     </row>
     <row r="635" spans="1:4" ht="15.75">
       <c r="A635" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B635" s="18"/>
-      <c r="C635" s="18"/>
+      <c r="B635" s="20"/>
+      <c r="C635" s="20"/>
       <c r="D635" s="10"/>
     </row>
     <row r="636" spans="1:4" ht="15.75">
       <c r="A636" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B636" s="18"/>
-      <c r="C636" s="18"/>
+      <c r="B636" s="20"/>
+      <c r="C636" s="20"/>
       <c r="D636" s="10"/>
     </row>
     <row r="637" spans="1:4" ht="15.75">
       <c r="A637" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B637" s="18"/>
-      <c r="C637" s="18"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="20"/>
       <c r="D637" s="10"/>
     </row>
     <row r="638" spans="1:4" ht="15.75">
       <c r="A638" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="B638" s="18"/>
-      <c r="C638" s="18"/>
+      <c r="B638" s="20"/>
+      <c r="C638" s="20"/>
       <c r="D638" s="10"/>
     </row>
     <row r="639" spans="1:4" ht="15.75">
       <c r="A639" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B639" s="18"/>
-      <c r="C639" s="18"/>
+      <c r="B639" s="20"/>
+      <c r="C639" s="20"/>
       <c r="D639" s="10"/>
     </row>
     <row r="640" spans="1:4" ht="15.75">
@@ -7642,64 +7655,64 @@
       <c r="A641" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B641" s="18"/>
-      <c r="C641" s="18"/>
+      <c r="B641" s="20"/>
+      <c r="C641" s="20"/>
       <c r="D641" s="10"/>
     </row>
     <row r="642" spans="1:4" ht="15.75">
       <c r="A642" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B642" s="18"/>
-      <c r="C642" s="18"/>
+      <c r="B642" s="20"/>
+      <c r="C642" s="20"/>
       <c r="D642" s="10"/>
     </row>
     <row r="643" spans="1:4" ht="15.75">
       <c r="A643" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B643" s="18"/>
-      <c r="C643" s="18"/>
+      <c r="B643" s="20"/>
+      <c r="C643" s="20"/>
       <c r="D643" s="10"/>
     </row>
     <row r="644" spans="1:4" ht="15.75">
       <c r="A644" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B644" s="18"/>
-      <c r="C644" s="18"/>
+      <c r="B644" s="20"/>
+      <c r="C644" s="20"/>
       <c r="D644" s="5"/>
     </row>
     <row r="645" spans="1:4" ht="15.75">
       <c r="A645" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B645" s="18"/>
-      <c r="C645" s="18"/>
+      <c r="B645" s="20"/>
+      <c r="C645" s="20"/>
       <c r="D645" s="10"/>
     </row>
     <row r="646" spans="1:4" ht="15.75">
       <c r="A646" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B646" s="18"/>
-      <c r="C646" s="18"/>
+      <c r="B646" s="20"/>
+      <c r="C646" s="20"/>
       <c r="D646" s="5"/>
     </row>
     <row r="647" spans="1:4" ht="15.75">
       <c r="A647" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B647" s="18"/>
-      <c r="C647" s="18"/>
+      <c r="B647" s="20"/>
+      <c r="C647" s="20"/>
       <c r="D647" s="10"/>
     </row>
     <row r="648" spans="1:4" ht="15.75">
       <c r="A648" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="B648" s="18"/>
-      <c r="C648" s="18"/>
+      <c r="B648" s="20"/>
+      <c r="C648" s="20"/>
       <c r="D648" s="10"/>
     </row>
     <row r="649" spans="1:4" ht="15.75">
@@ -7714,112 +7727,112 @@
       <c r="A650" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B650" s="18"/>
-      <c r="C650" s="18"/>
+      <c r="B650" s="20"/>
+      <c r="C650" s="20"/>
       <c r="D650" s="10"/>
     </row>
     <row r="651" spans="1:4" ht="15.75">
       <c r="A651" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B651" s="18"/>
-      <c r="C651" s="18"/>
+      <c r="B651" s="20"/>
+      <c r="C651" s="20"/>
       <c r="D651" s="10"/>
     </row>
     <row r="652" spans="1:4" ht="15.75">
       <c r="A652" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B652" s="18"/>
-      <c r="C652" s="18"/>
+      <c r="B652" s="20"/>
+      <c r="C652" s="20"/>
       <c r="D652" s="5"/>
     </row>
     <row r="653" spans="1:4" ht="15.75">
       <c r="A653" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B653" s="18"/>
-      <c r="C653" s="18"/>
+      <c r="B653" s="20"/>
+      <c r="C653" s="20"/>
       <c r="D653" s="10"/>
     </row>
     <row r="654" spans="1:4" ht="15.75">
       <c r="A654" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B654" s="18"/>
-      <c r="C654" s="18"/>
+      <c r="B654" s="20"/>
+      <c r="C654" s="20"/>
       <c r="D654" s="10"/>
     </row>
     <row r="655" spans="1:4" ht="15.75">
       <c r="A655" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B655" s="18"/>
-      <c r="C655" s="18"/>
+      <c r="B655" s="20"/>
+      <c r="C655" s="20"/>
       <c r="D655" s="10"/>
     </row>
     <row r="656" spans="1:4" ht="15.75">
       <c r="A656" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B656" s="18"/>
-      <c r="C656" s="18"/>
+      <c r="B656" s="20"/>
+      <c r="C656" s="20"/>
       <c r="D656" s="5"/>
     </row>
     <row r="657" spans="1:4" ht="15.75">
       <c r="A657" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="B657" s="18"/>
-      <c r="C657" s="18"/>
+      <c r="B657" s="20"/>
+      <c r="C657" s="20"/>
       <c r="D657" s="10"/>
     </row>
     <row r="658" spans="1:4" ht="15.75">
       <c r="A658" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B658" s="18"/>
-      <c r="C658" s="18"/>
+      <c r="B658" s="20"/>
+      <c r="C658" s="20"/>
       <c r="D658" s="5"/>
     </row>
     <row r="659" spans="1:4" ht="15.75">
       <c r="A659" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B659" s="18"/>
-      <c r="C659" s="18"/>
+      <c r="B659" s="20"/>
+      <c r="C659" s="20"/>
       <c r="D659" s="10"/>
     </row>
     <row r="660" spans="1:4" ht="15.75">
       <c r="A660" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B660" s="18"/>
-      <c r="C660" s="18"/>
+      <c r="B660" s="20"/>
+      <c r="C660" s="20"/>
       <c r="D660" s="10"/>
     </row>
     <row r="661" spans="1:4" ht="15.75">
       <c r="A661" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B661" s="18"/>
-      <c r="C661" s="18"/>
+      <c r="B661" s="20"/>
+      <c r="C661" s="20"/>
       <c r="D661" s="10"/>
     </row>
     <row r="662" spans="1:4" ht="15.75">
       <c r="A662" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B662" s="18"/>
-      <c r="C662" s="18"/>
+      <c r="B662" s="20"/>
+      <c r="C662" s="20"/>
       <c r="D662" s="10"/>
     </row>
     <row r="663" spans="1:4" ht="15.75">
       <c r="A663" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="B663" s="18"/>
-      <c r="C663" s="18"/>
+      <c r="B663" s="20"/>
+      <c r="C663" s="20"/>
       <c r="D663" s="10"/>
     </row>
     <row r="664" spans="1:4" ht="15.75">
@@ -7834,96 +7847,96 @@
       <c r="A665" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B665" s="18"/>
-      <c r="C665" s="18"/>
+      <c r="B665" s="20"/>
+      <c r="C665" s="20"/>
       <c r="D665" s="5"/>
     </row>
     <row r="666" spans="1:4" ht="15.75">
       <c r="A666" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="B666" s="18"/>
-      <c r="C666" s="18"/>
+      <c r="B666" s="20"/>
+      <c r="C666" s="20"/>
       <c r="D666" s="10"/>
     </row>
     <row r="667" spans="1:4" ht="15.75">
       <c r="A667" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B667" s="18"/>
-      <c r="C667" s="18"/>
+      <c r="B667" s="20"/>
+      <c r="C667" s="20"/>
       <c r="D667" s="10"/>
     </row>
     <row r="668" spans="1:4" ht="15.75">
       <c r="A668" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B668" s="18"/>
-      <c r="C668" s="18"/>
+      <c r="B668" s="20"/>
+      <c r="C668" s="20"/>
       <c r="D668" s="5"/>
     </row>
     <row r="669" spans="1:4" ht="15.75">
       <c r="A669" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B669" s="18"/>
-      <c r="C669" s="18"/>
+      <c r="B669" s="20"/>
+      <c r="C669" s="20"/>
       <c r="D669" s="10"/>
     </row>
     <row r="670" spans="1:4" ht="15.75">
       <c r="A670" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="B670" s="18"/>
-      <c r="C670" s="18"/>
+      <c r="B670" s="20"/>
+      <c r="C670" s="20"/>
       <c r="D670" s="10"/>
     </row>
     <row r="671" spans="1:4" ht="15.75">
       <c r="A671" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B671" s="18"/>
-      <c r="C671" s="18"/>
+      <c r="B671" s="20"/>
+      <c r="C671" s="20"/>
       <c r="D671" s="10"/>
     </row>
     <row r="672" spans="1:4" ht="15.75">
       <c r="A672" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B672" s="18"/>
-      <c r="C672" s="18"/>
+      <c r="B672" s="20"/>
+      <c r="C672" s="20"/>
       <c r="D672" s="10"/>
     </row>
     <row r="673" spans="1:4" ht="15.75">
       <c r="A673" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B673" s="18"/>
-      <c r="C673" s="18"/>
+      <c r="B673" s="20"/>
+      <c r="C673" s="20"/>
       <c r="D673" s="10"/>
     </row>
     <row r="674" spans="1:4" ht="15.75">
       <c r="A674" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B674" s="18"/>
-      <c r="C674" s="18"/>
+      <c r="B674" s="20"/>
+      <c r="C674" s="20"/>
       <c r="D674" s="10"/>
     </row>
     <row r="675" spans="1:4" ht="15.75">
       <c r="A675" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B675" s="18"/>
-      <c r="C675" s="18"/>
+      <c r="B675" s="20"/>
+      <c r="C675" s="20"/>
       <c r="D675" s="10"/>
     </row>
     <row r="676" spans="1:4" ht="15.75">
       <c r="A676" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="B676" s="18"/>
-      <c r="C676" s="18"/>
+      <c r="B676" s="20"/>
+      <c r="C676" s="20"/>
       <c r="D676" s="10"/>
     </row>
     <row r="677" spans="1:4" ht="15.75">
@@ -7946,626 +7959,18 @@
         <v>676</v>
       </c>
     </row>
+    <row r="681" spans="1:4" ht="15.75">
+      <c r="A681" s="22" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="15.75">
+      <c r="A682" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="632">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B353:C353"/>
-    <mergeCell ref="B354:C354"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="B347:C347"/>
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B365:C365"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="B360:C360"/>
-    <mergeCell ref="B361:C361"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="B376:C376"/>
-    <mergeCell ref="B377:C377"/>
-    <mergeCell ref="B378:C378"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="B380:C380"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B371:C371"/>
-    <mergeCell ref="B372:C372"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B375:C375"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="B391:C391"/>
-    <mergeCell ref="B392:C392"/>
-    <mergeCell ref="B393:C393"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="B383:C383"/>
-    <mergeCell ref="B384:C384"/>
-    <mergeCell ref="B385:C385"/>
-    <mergeCell ref="B386:C386"/>
-    <mergeCell ref="B387:C387"/>
-    <mergeCell ref="B400:C400"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B404:C404"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B394:C394"/>
-    <mergeCell ref="B395:C395"/>
-    <mergeCell ref="B396:C396"/>
-    <mergeCell ref="B397:C397"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="B399:C399"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="B415:C415"/>
-    <mergeCell ref="B416:C416"/>
-    <mergeCell ref="B417:C417"/>
-    <mergeCell ref="B406:C406"/>
-    <mergeCell ref="B407:C407"/>
-    <mergeCell ref="B408:C408"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="B410:C410"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B425:C425"/>
-    <mergeCell ref="B426:C426"/>
-    <mergeCell ref="B427:C427"/>
-    <mergeCell ref="B428:C428"/>
-    <mergeCell ref="B429:C429"/>
-    <mergeCell ref="B418:C418"/>
-    <mergeCell ref="B419:C419"/>
-    <mergeCell ref="B420:C420"/>
-    <mergeCell ref="B421:C421"/>
-    <mergeCell ref="B422:C422"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="B436:C436"/>
-    <mergeCell ref="B437:C437"/>
-    <mergeCell ref="B438:C438"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="B441:C441"/>
-    <mergeCell ref="B430:C430"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="B432:C432"/>
-    <mergeCell ref="B433:C433"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="B435:C435"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="B452:C452"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B443:C443"/>
-    <mergeCell ref="B444:C444"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="B446:C446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B460:C460"/>
-    <mergeCell ref="B461:C461"/>
-    <mergeCell ref="B462:C462"/>
-    <mergeCell ref="B463:C463"/>
-    <mergeCell ref="B464:C464"/>
-    <mergeCell ref="B465:C465"/>
-    <mergeCell ref="B454:C454"/>
-    <mergeCell ref="B455:C455"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="B457:C457"/>
-    <mergeCell ref="B458:C458"/>
-    <mergeCell ref="B459:C459"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="B474:C474"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="B476:C476"/>
-    <mergeCell ref="B477:C477"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="B466:C466"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B468:C468"/>
-    <mergeCell ref="B469:C469"/>
-    <mergeCell ref="B470:C470"/>
-    <mergeCell ref="B472:C472"/>
-    <mergeCell ref="B485:C485"/>
-    <mergeCell ref="B486:C486"/>
-    <mergeCell ref="B487:C487"/>
-    <mergeCell ref="B488:C488"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="B490:C490"/>
-    <mergeCell ref="B479:C479"/>
-    <mergeCell ref="B480:C480"/>
-    <mergeCell ref="B481:C481"/>
-    <mergeCell ref="B482:C482"/>
-    <mergeCell ref="B483:C483"/>
-    <mergeCell ref="B484:C484"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="B502:C502"/>
-    <mergeCell ref="B503:C503"/>
-    <mergeCell ref="B504:C504"/>
-    <mergeCell ref="B491:C491"/>
-    <mergeCell ref="B492:C492"/>
-    <mergeCell ref="B494:C494"/>
-    <mergeCell ref="B495:C495"/>
-    <mergeCell ref="B496:C496"/>
-    <mergeCell ref="B497:C497"/>
-    <mergeCell ref="B511:C511"/>
-    <mergeCell ref="B512:C512"/>
-    <mergeCell ref="B513:C513"/>
-    <mergeCell ref="B514:C514"/>
-    <mergeCell ref="B515:C515"/>
-    <mergeCell ref="B516:C516"/>
-    <mergeCell ref="B505:C505"/>
-    <mergeCell ref="B506:C506"/>
-    <mergeCell ref="B507:C507"/>
-    <mergeCell ref="B508:C508"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="B510:C510"/>
-    <mergeCell ref="B523:C523"/>
-    <mergeCell ref="B524:C524"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="B526:C526"/>
-    <mergeCell ref="B527:C527"/>
-    <mergeCell ref="B528:C528"/>
-    <mergeCell ref="B517:C517"/>
-    <mergeCell ref="B518:C518"/>
-    <mergeCell ref="B519:C519"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B521:C521"/>
-    <mergeCell ref="B522:C522"/>
-    <mergeCell ref="B535:C535"/>
-    <mergeCell ref="B536:C536"/>
-    <mergeCell ref="B538:C538"/>
-    <mergeCell ref="B539:C539"/>
-    <mergeCell ref="B540:C540"/>
-    <mergeCell ref="B541:C541"/>
-    <mergeCell ref="B529:C529"/>
-    <mergeCell ref="B530:C530"/>
-    <mergeCell ref="B531:C531"/>
-    <mergeCell ref="B532:C532"/>
-    <mergeCell ref="B533:C533"/>
-    <mergeCell ref="B534:C534"/>
-    <mergeCell ref="B551:C551"/>
-    <mergeCell ref="B552:C552"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B554:C554"/>
-    <mergeCell ref="B555:C555"/>
-    <mergeCell ref="B556:C556"/>
-    <mergeCell ref="B545:C545"/>
-    <mergeCell ref="B546:C546"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B548:C548"/>
-    <mergeCell ref="B549:C549"/>
-    <mergeCell ref="B550:C550"/>
-    <mergeCell ref="B563:C563"/>
-    <mergeCell ref="B564:C564"/>
-    <mergeCell ref="B565:C565"/>
-    <mergeCell ref="B566:C566"/>
-    <mergeCell ref="B567:C567"/>
-    <mergeCell ref="B568:C568"/>
-    <mergeCell ref="B557:C557"/>
-    <mergeCell ref="B558:C558"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="B560:C560"/>
-    <mergeCell ref="B561:C561"/>
-    <mergeCell ref="B562:C562"/>
-    <mergeCell ref="B576:C576"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B578:C578"/>
-    <mergeCell ref="B579:C579"/>
-    <mergeCell ref="B581:C581"/>
-    <mergeCell ref="B582:C582"/>
-    <mergeCell ref="B570:C570"/>
-    <mergeCell ref="B571:C571"/>
-    <mergeCell ref="B572:C572"/>
-    <mergeCell ref="B573:C573"/>
-    <mergeCell ref="B574:C574"/>
-    <mergeCell ref="B575:C575"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="B591:C591"/>
-    <mergeCell ref="B592:C592"/>
-    <mergeCell ref="B593:C593"/>
-    <mergeCell ref="B594:C594"/>
-    <mergeCell ref="B595:C595"/>
-    <mergeCell ref="B583:C583"/>
-    <mergeCell ref="B584:C584"/>
-    <mergeCell ref="B585:C585"/>
-    <mergeCell ref="B587:C587"/>
-    <mergeCell ref="B588:C588"/>
-    <mergeCell ref="B589:C589"/>
-    <mergeCell ref="B602:C602"/>
-    <mergeCell ref="B603:C603"/>
-    <mergeCell ref="B605:C605"/>
-    <mergeCell ref="B606:C606"/>
-    <mergeCell ref="B608:C608"/>
-    <mergeCell ref="B609:C609"/>
-    <mergeCell ref="B596:C596"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="B598:C598"/>
-    <mergeCell ref="B599:C599"/>
-    <mergeCell ref="B600:C600"/>
-    <mergeCell ref="B601:C601"/>
-    <mergeCell ref="B618:C618"/>
-    <mergeCell ref="B619:C619"/>
-    <mergeCell ref="B620:C620"/>
-    <mergeCell ref="B621:C621"/>
-    <mergeCell ref="B622:C622"/>
-    <mergeCell ref="B623:C623"/>
-    <mergeCell ref="B610:C610"/>
-    <mergeCell ref="B611:C611"/>
-    <mergeCell ref="B613:C613"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B615:C615"/>
-    <mergeCell ref="B616:C616"/>
-    <mergeCell ref="B630:C630"/>
-    <mergeCell ref="B631:C631"/>
-    <mergeCell ref="B632:C632"/>
-    <mergeCell ref="B633:C633"/>
-    <mergeCell ref="B634:C634"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="B624:C624"/>
-    <mergeCell ref="B625:C625"/>
-    <mergeCell ref="B626:C626"/>
-    <mergeCell ref="B627:C627"/>
-    <mergeCell ref="B628:C628"/>
-    <mergeCell ref="B629:C629"/>
-    <mergeCell ref="B643:C643"/>
-    <mergeCell ref="B644:C644"/>
-    <mergeCell ref="B645:C645"/>
-    <mergeCell ref="B646:C646"/>
-    <mergeCell ref="B647:C647"/>
-    <mergeCell ref="B648:C648"/>
-    <mergeCell ref="B636:C636"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B638:C638"/>
-    <mergeCell ref="B639:C639"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B642:C642"/>
-    <mergeCell ref="B656:C656"/>
-    <mergeCell ref="B657:C657"/>
-    <mergeCell ref="B658:C658"/>
-    <mergeCell ref="B659:C659"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B661:C661"/>
-    <mergeCell ref="B650:C650"/>
-    <mergeCell ref="B651:C651"/>
-    <mergeCell ref="B652:C652"/>
-    <mergeCell ref="B653:C653"/>
-    <mergeCell ref="B654:C654"/>
-    <mergeCell ref="B655:C655"/>
     <mergeCell ref="B675:C675"/>
     <mergeCell ref="B676:C676"/>
     <mergeCell ref="B669:C669"/>
@@ -8580,6 +7985,624 @@
     <mergeCell ref="B666:C666"/>
     <mergeCell ref="B667:C667"/>
     <mergeCell ref="B668:C668"/>
+    <mergeCell ref="B656:C656"/>
+    <mergeCell ref="B657:C657"/>
+    <mergeCell ref="B658:C658"/>
+    <mergeCell ref="B659:C659"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B661:C661"/>
+    <mergeCell ref="B650:C650"/>
+    <mergeCell ref="B651:C651"/>
+    <mergeCell ref="B652:C652"/>
+    <mergeCell ref="B653:C653"/>
+    <mergeCell ref="B654:C654"/>
+    <mergeCell ref="B655:C655"/>
+    <mergeCell ref="B643:C643"/>
+    <mergeCell ref="B644:C644"/>
+    <mergeCell ref="B645:C645"/>
+    <mergeCell ref="B646:C646"/>
+    <mergeCell ref="B647:C647"/>
+    <mergeCell ref="B648:C648"/>
+    <mergeCell ref="B636:C636"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B638:C638"/>
+    <mergeCell ref="B639:C639"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B642:C642"/>
+    <mergeCell ref="B630:C630"/>
+    <mergeCell ref="B631:C631"/>
+    <mergeCell ref="B632:C632"/>
+    <mergeCell ref="B633:C633"/>
+    <mergeCell ref="B634:C634"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="B624:C624"/>
+    <mergeCell ref="B625:C625"/>
+    <mergeCell ref="B626:C626"/>
+    <mergeCell ref="B627:C627"/>
+    <mergeCell ref="B628:C628"/>
+    <mergeCell ref="B629:C629"/>
+    <mergeCell ref="B618:C618"/>
+    <mergeCell ref="B619:C619"/>
+    <mergeCell ref="B620:C620"/>
+    <mergeCell ref="B621:C621"/>
+    <mergeCell ref="B622:C622"/>
+    <mergeCell ref="B623:C623"/>
+    <mergeCell ref="B610:C610"/>
+    <mergeCell ref="B611:C611"/>
+    <mergeCell ref="B613:C613"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B615:C615"/>
+    <mergeCell ref="B616:C616"/>
+    <mergeCell ref="B602:C602"/>
+    <mergeCell ref="B603:C603"/>
+    <mergeCell ref="B605:C605"/>
+    <mergeCell ref="B606:C606"/>
+    <mergeCell ref="B608:C608"/>
+    <mergeCell ref="B609:C609"/>
+    <mergeCell ref="B596:C596"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="B598:C598"/>
+    <mergeCell ref="B599:C599"/>
+    <mergeCell ref="B600:C600"/>
+    <mergeCell ref="B601:C601"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="B591:C591"/>
+    <mergeCell ref="B592:C592"/>
+    <mergeCell ref="B593:C593"/>
+    <mergeCell ref="B594:C594"/>
+    <mergeCell ref="B595:C595"/>
+    <mergeCell ref="B583:C583"/>
+    <mergeCell ref="B584:C584"/>
+    <mergeCell ref="B585:C585"/>
+    <mergeCell ref="B587:C587"/>
+    <mergeCell ref="B588:C588"/>
+    <mergeCell ref="B589:C589"/>
+    <mergeCell ref="B576:C576"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B578:C578"/>
+    <mergeCell ref="B579:C579"/>
+    <mergeCell ref="B581:C581"/>
+    <mergeCell ref="B582:C582"/>
+    <mergeCell ref="B570:C570"/>
+    <mergeCell ref="B571:C571"/>
+    <mergeCell ref="B572:C572"/>
+    <mergeCell ref="B573:C573"/>
+    <mergeCell ref="B574:C574"/>
+    <mergeCell ref="B575:C575"/>
+    <mergeCell ref="B563:C563"/>
+    <mergeCell ref="B564:C564"/>
+    <mergeCell ref="B565:C565"/>
+    <mergeCell ref="B566:C566"/>
+    <mergeCell ref="B567:C567"/>
+    <mergeCell ref="B568:C568"/>
+    <mergeCell ref="B557:C557"/>
+    <mergeCell ref="B558:C558"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="B560:C560"/>
+    <mergeCell ref="B561:C561"/>
+    <mergeCell ref="B562:C562"/>
+    <mergeCell ref="B551:C551"/>
+    <mergeCell ref="B552:C552"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="B554:C554"/>
+    <mergeCell ref="B555:C555"/>
+    <mergeCell ref="B556:C556"/>
+    <mergeCell ref="B545:C545"/>
+    <mergeCell ref="B546:C546"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B548:C548"/>
+    <mergeCell ref="B549:C549"/>
+    <mergeCell ref="B550:C550"/>
+    <mergeCell ref="B535:C535"/>
+    <mergeCell ref="B536:C536"/>
+    <mergeCell ref="B538:C538"/>
+    <mergeCell ref="B539:C539"/>
+    <mergeCell ref="B540:C540"/>
+    <mergeCell ref="B541:C541"/>
+    <mergeCell ref="B529:C529"/>
+    <mergeCell ref="B530:C530"/>
+    <mergeCell ref="B531:C531"/>
+    <mergeCell ref="B532:C532"/>
+    <mergeCell ref="B533:C533"/>
+    <mergeCell ref="B534:C534"/>
+    <mergeCell ref="B523:C523"/>
+    <mergeCell ref="B524:C524"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="B526:C526"/>
+    <mergeCell ref="B527:C527"/>
+    <mergeCell ref="B528:C528"/>
+    <mergeCell ref="B517:C517"/>
+    <mergeCell ref="B518:C518"/>
+    <mergeCell ref="B519:C519"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B521:C521"/>
+    <mergeCell ref="B522:C522"/>
+    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="B512:C512"/>
+    <mergeCell ref="B513:C513"/>
+    <mergeCell ref="B514:C514"/>
+    <mergeCell ref="B515:C515"/>
+    <mergeCell ref="B516:C516"/>
+    <mergeCell ref="B505:C505"/>
+    <mergeCell ref="B506:C506"/>
+    <mergeCell ref="B507:C507"/>
+    <mergeCell ref="B508:C508"/>
+    <mergeCell ref="B509:C509"/>
+    <mergeCell ref="B510:C510"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="B502:C502"/>
+    <mergeCell ref="B503:C503"/>
+    <mergeCell ref="B504:C504"/>
+    <mergeCell ref="B491:C491"/>
+    <mergeCell ref="B492:C492"/>
+    <mergeCell ref="B494:C494"/>
+    <mergeCell ref="B495:C495"/>
+    <mergeCell ref="B496:C496"/>
+    <mergeCell ref="B497:C497"/>
+    <mergeCell ref="B485:C485"/>
+    <mergeCell ref="B486:C486"/>
+    <mergeCell ref="B487:C487"/>
+    <mergeCell ref="B488:C488"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="B490:C490"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="B480:C480"/>
+    <mergeCell ref="B481:C481"/>
+    <mergeCell ref="B482:C482"/>
+    <mergeCell ref="B483:C483"/>
+    <mergeCell ref="B484:C484"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="B474:C474"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="B476:C476"/>
+    <mergeCell ref="B477:C477"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="B466:C466"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B468:C468"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="B470:C470"/>
+    <mergeCell ref="B472:C472"/>
+    <mergeCell ref="B460:C460"/>
+    <mergeCell ref="B461:C461"/>
+    <mergeCell ref="B462:C462"/>
+    <mergeCell ref="B463:C463"/>
+    <mergeCell ref="B464:C464"/>
+    <mergeCell ref="B465:C465"/>
+    <mergeCell ref="B454:C454"/>
+    <mergeCell ref="B455:C455"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="B457:C457"/>
+    <mergeCell ref="B458:C458"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="B452:C452"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B443:C443"/>
+    <mergeCell ref="B444:C444"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="B446:C446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B436:C436"/>
+    <mergeCell ref="B437:C437"/>
+    <mergeCell ref="B438:C438"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B441:C441"/>
+    <mergeCell ref="B430:C430"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="B432:C432"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="B435:C435"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B425:C425"/>
+    <mergeCell ref="B426:C426"/>
+    <mergeCell ref="B427:C427"/>
+    <mergeCell ref="B428:C428"/>
+    <mergeCell ref="B429:C429"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="B420:C420"/>
+    <mergeCell ref="B421:C421"/>
+    <mergeCell ref="B422:C422"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="B416:C416"/>
+    <mergeCell ref="B417:C417"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="B407:C407"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="B410:C410"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="B400:C400"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B404:C404"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B394:C394"/>
+    <mergeCell ref="B395:C395"/>
+    <mergeCell ref="B396:C396"/>
+    <mergeCell ref="B397:C397"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="B399:C399"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="B383:C383"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="B385:C385"/>
+    <mergeCell ref="B386:C386"/>
+    <mergeCell ref="B387:C387"/>
+    <mergeCell ref="B376:C376"/>
+    <mergeCell ref="B377:C377"/>
+    <mergeCell ref="B378:C378"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="B380:C380"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="B372:C372"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B375:C375"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B365:C365"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="B347:C347"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
